--- a/tests/regression_data_linux/performance_analysis_evaluate_cascade_throat_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_evaluate_cascade_throat_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015418723110334</v>
+        <v>2.015415654259294</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999954888</v>
+        <v>2.300000000050641</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740741523211343</v>
+        <v>2.740325648204902</v>
       </c>
       <c r="E2" t="n">
-        <v>92.55740650228668</v>
+        <v>92.55823833936496</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08633223962353</v>
+        <v>79.08691049320809</v>
       </c>
       <c r="G2" t="n">
-        <v>0.145542909765199</v>
+        <v>0.1455443414638491</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23187514938873</v>
+        <v>-78.23245483467194</v>
       </c>
       <c r="I2" t="n">
-        <v>136206.7714322998</v>
+        <v>136187.0994194433</v>
       </c>
       <c r="J2" t="n">
-        <v>83.71651593872144</v>
+        <v>83.70442496585326</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.33236352406317</v>
+        <v>-24.35244699830626</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2462140252223</v>
+        <v>135.2468792288594</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372087.3800245748</v>
+        <v>372087.0166558724</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7160580180433898</v>
+        <v>0.7160036893283779</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069490739709508</v>
+        <v>2.069501792636507</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400000000011423</v>
+        <v>2.399999999780276</v>
       </c>
       <c r="D3" t="n">
-        <v>2.743090699365102</v>
+        <v>2.742713110060793</v>
       </c>
       <c r="E3" t="n">
-        <v>92.52973871194889</v>
+        <v>92.53028345151149</v>
       </c>
       <c r="F3" t="n">
-        <v>78.20283649813462</v>
+        <v>78.2038410857552</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548356497408348</v>
+        <v>0.1548297684969675</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35767214787545</v>
+        <v>-77.35867085425217</v>
       </c>
       <c r="I3" t="n">
-        <v>140861.8583155462</v>
+        <v>140844.2777849079</v>
       </c>
       <c r="J3" t="n">
-        <v>86.5776633777174</v>
+        <v>86.56685788869569</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.83045649881298</v>
+        <v>-26.84402697983919</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5987926232729</v>
+        <v>142.5960843766902</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370432.9178673354</v>
+        <v>370432.2582097477</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7037210755867356</v>
+        <v>0.7036726399487662</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.64649732330223</v>
+        <v>80.63354388716405</v>
       </c>
       <c r="D2" t="n">
-        <v>80.64649732330223</v>
+        <v>80.63354388716405</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.64649732330223</v>
+        <v>80.63354388716405</v>
       </c>
       <c r="H2" t="n">
-        <v>80.64649732330223</v>
+        <v>80.63354388716405</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3575835822312</v>
+        <v>292.3586251721163</v>
       </c>
       <c r="L2" t="n">
-        <v>132780.606986532</v>
+        <v>132782.2605454488</v>
       </c>
       <c r="M2" t="n">
-        <v>1.58300441564112</v>
+        <v>1.583018477913073</v>
       </c>
       <c r="N2" t="n">
-        <v>334653.6415478507</v>
+        <v>334654.3866653036</v>
       </c>
       <c r="O2" t="n">
-        <v>418532.502323331</v>
+        <v>418533.5468886882</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687432.0723468761</v>
+        <v>-687434.9680299649</v>
       </c>
       <c r="R2" t="n">
-        <v>717.713141030345</v>
+        <v>717.7131881773008</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.647931650357</v>
+        <v>1006.647986356441</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576982504764</v>
+        <v>1.402576966591511</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980004170159</v>
+        <v>0.9994980076920326</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9112262377722</v>
+        <v>342.9118376533769</v>
       </c>
       <c r="W2" t="n">
-        <v>186142.4959003596</v>
+        <v>186144.8132522638</v>
       </c>
       <c r="X2" t="n">
-        <v>5.372228384298074e-06</v>
+        <v>5.372161504413224e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132714.6375722927</v>
+        <v>132716.2912881892</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534963876575234e-06</v>
+        <v>7.534869986899587e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433399881335087</v>
+        <v>0.003433387668876372</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817166078005921e-05</v>
+        <v>1.817171174420984e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582469259685206</v>
+        <v>0.02582477109755651</v>
       </c>
       <c r="AD2" t="n">
-        <v>132780.606986532</v>
+        <v>132782.2605454488</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.58300441564112</v>
+        <v>1.583018477913073</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.58300441564112</v>
+        <v>1.583018477913073</v>
       </c>
       <c r="AG2" t="n">
-        <v>334653.6415478507</v>
+        <v>334654.3866653036</v>
       </c>
       <c r="AH2" t="n">
-        <v>418532.502323331</v>
+        <v>418533.5468886882</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.713141030345</v>
+        <v>717.7131881773008</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.647931650357</v>
+        <v>1006.647986356441</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9112262377722</v>
+        <v>342.9118376533769</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980004170159</v>
+        <v>0.9994980076920326</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817166078005921e-05</v>
+        <v>1.817171174420984e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582469259685206</v>
+        <v>0.02582477109755651</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2351818521898799</v>
+        <v>0.2351436580287155</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2351818521898799</v>
+        <v>0.2351436580287155</v>
       </c>
       <c r="DH2" t="n">
-        <v>183785.2928155051</v>
+        <v>183756.8902218549</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.740741523202754</v>
+        <v>2.740325648308761</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>268.7506812391846</v>
+        <v>268.6999508444675</v>
       </c>
       <c r="DU2" t="n">
-        <v>110.6475275631576</v>
+        <v>110.6156553301601</v>
       </c>
       <c r="DV2" t="n">
-        <v>244.9164210719365</v>
+        <v>244.8751526384383</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.68765713593422</v>
+        <v>65.69022765842448</v>
       </c>
       <c r="DX2" t="n">
-        <v>268.7506812391846</v>
+        <v>268.6999508444675</v>
       </c>
       <c r="DY2" t="n">
-        <v>110.6475275631576</v>
+        <v>110.6156553301601</v>
       </c>
       <c r="DZ2" t="n">
-        <v>244.9164210719365</v>
+        <v>244.8751526384383</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.68765713593422</v>
+        <v>65.69022765842448</v>
       </c>
       <c r="EB2" t="n">
-        <v>259.5633104274523</v>
+        <v>259.5769212248007</v>
       </c>
       <c r="EC2" t="n">
-        <v>85907.64607870046</v>
+        <v>85923.87002773517</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.153787745526667</v>
+        <v>1.153945068008428</v>
       </c>
       <c r="EE2" t="n">
-        <v>311213.9044299528</v>
+        <v>311223.6284843919</v>
       </c>
       <c r="EF2" t="n">
-        <v>385670.9667551263</v>
+        <v>385684.5992964858</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.61134875184</v>
+        <v>3788.609699996221</v>
       </c>
       <c r="EH2" t="n">
-        <v>-597713.5368499161</v>
+        <v>-597751.0423509495</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5370912536978</v>
+        <v>716.5374584805788</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.204413623106</v>
+        <v>1005.20488445805</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402864451670377</v>
+        <v>1.402864389797</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993241038539417</v>
+        <v>0.9993241596861342</v>
       </c>
       <c r="EM2" t="n">
-        <v>323.0833304618925</v>
+        <v>323.0918122176863</v>
       </c>
       <c r="EN2" t="n">
-        <v>120435.6398149958</v>
+        <v>120458.3860086472</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.303189998709064e-06</v>
+        <v>8.301622104817297e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>85849.8051408988</v>
+        <v>85866.02303454147</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.164825008465395e-05</v>
+        <v>1.16460500283998e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003866076681629291</v>
+        <v>0.003865874441852033</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.652841742875521e-05</v>
+        <v>1.652911597553203e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02330669263508778</v>
+        <v>0.02330775734918516</v>
       </c>
       <c r="EU2" t="n">
-        <v>85907.64607870046</v>
+        <v>85923.87002773517</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.153787745526667</v>
+        <v>1.153945068008428</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.153787745526667</v>
+        <v>1.153945068008428</v>
       </c>
       <c r="EX2" t="n">
-        <v>311213.9044299528</v>
+        <v>311223.6284843919</v>
       </c>
       <c r="EY2" t="n">
-        <v>385670.9667551263</v>
+        <v>385684.5992964858</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.61134875184</v>
+        <v>3788.609699996221</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5370912536978</v>
+        <v>716.5374584805788</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.204413623106</v>
+        <v>1005.20488445805</v>
       </c>
       <c r="FC2" t="n">
-        <v>323.0833304618925</v>
+        <v>323.0918122176863</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993241038539417</v>
+        <v>0.9993241596861342</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.652841742875521e-05</v>
+        <v>1.652911597553203e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02330669263508778</v>
+        <v>0.02330775734918516</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5937127363322</v>
+        <v>295.5937145388082</v>
       </c>
       <c r="FJ2" t="n">
-        <v>135288.2845503698</v>
+        <v>135289.0619944506</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.595191426373763</v>
+        <v>1.595200587754765</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3686010353</v>
+        <v>336974.3683082162</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310883892</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.611348764261</v>
+        <v>3788.609699994201</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698105.2636076413</v>
+        <v>-698104.7830706566</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8561732208119</v>
+        <v>717.8561752458138</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.777060645982</v>
+        <v>1006.777073410772</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402477401745904</v>
+        <v>1.402477415571474</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995302925606394</v>
+        <v>0.9995302899143501</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8027731289463</v>
+        <v>344.8027749772379</v>
       </c>
       <c r="FU2" t="n">
-        <v>189650.6374911018</v>
+        <v>189651.7287113214</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.272853354088614e-06</v>
+        <v>5.272823015086518e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>135225.4498040476</v>
+        <v>135226.2265371618</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.395057671829373e-06</v>
+        <v>7.395015194964327e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395619820265745</v>
+        <v>0.003395619871558887</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832925555050917e-05</v>
+        <v>1.83292557500855e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606729576326936</v>
+        <v>0.02606729614694808</v>
       </c>
       <c r="GB2" t="n">
-        <v>135288.2845503698</v>
+        <v>135289.0619944506</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.595191426373763</v>
+        <v>1.595200587754765</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595191426373763</v>
+        <v>1.595200587754765</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3686010353</v>
+        <v>336974.3683082162</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310883892</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.611348764261</v>
+        <v>3788.609699994201</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8561732208119</v>
+        <v>717.8561752458138</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.777060645982</v>
+        <v>1006.777073410772</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8027731289463</v>
+        <v>344.8027749772379</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995302925606394</v>
+        <v>0.9995302899143501</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832925555050917e-05</v>
+        <v>1.83292557500855e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606729576326936</v>
+        <v>0.02606729614694808</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5937127363322</v>
+        <v>295.5937145388082</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135288.2845503698</v>
+        <v>135289.0619944506</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595191426373763</v>
+        <v>1.595200587754765</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3686010353</v>
+        <v>336974.3683082162</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310883892</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.611348764261</v>
+        <v>3788.609699994201</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698105.2636076413</v>
+        <v>-698104.7830706566</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561732208119</v>
+        <v>717.8561752458138</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.777060645982</v>
+        <v>1006.777073410772</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402477401745904</v>
+        <v>1.402477415571474</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302925606394</v>
+        <v>0.9995302899143501</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8027731289463</v>
+        <v>344.8027749772379</v>
       </c>
       <c r="HB2" t="n">
-        <v>189650.6374911018</v>
+        <v>189651.7287113214</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.272853354088614e-06</v>
+        <v>5.272823015086518e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>135225.4498040476</v>
+        <v>135226.2265371618</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.395057671829373e-06</v>
+        <v>7.395015194964327e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395619820265745</v>
+        <v>0.003395619871558887</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832925555050917e-05</v>
+        <v>1.83292557500855e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606729576326936</v>
+        <v>0.02606729614694808</v>
       </c>
       <c r="HI2" t="n">
-        <v>135288.2845503698</v>
+        <v>135289.0619944506</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.595191426373763</v>
+        <v>1.595200587754765</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595191426373763</v>
+        <v>1.595200587754765</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3686010353</v>
+        <v>336974.3683082162</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310883892</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.611348764261</v>
+        <v>3788.609699994201</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8561732208119</v>
+        <v>717.8561752458138</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.777060645982</v>
+        <v>1006.777073410772</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8027731289463</v>
+        <v>344.8027749772379</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995302925606394</v>
+        <v>0.9995302899143501</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832925555050917e-05</v>
+        <v>1.83292557500855e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606729576326936</v>
+        <v>0.02606729614694808</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,40 +3952,40 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8318308495055073</v>
+        <v>0.8316519969977705</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8318308495055073</v>
+        <v>0.8316519969977705</v>
       </c>
       <c r="HY2" t="n">
-        <v>490774.4701991113</v>
+        <v>490727.9958966576</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.740741523340542</v>
+        <v>2.740325648303675</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01593129418766148</v>
+        <v>0.01593369941082155</v>
       </c>
       <c r="IC2" t="n">
-        <v>-1.788191703910312e-07</v>
+        <v>-1.788002727948691e-07</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01379057938680232</v>
+        <v>0.01379066038778327</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02519285335551078</v>
+        <v>0.02519180119319753</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.05491454811080419</v>
+        <v>0.05491598219152956</v>
       </c>
       <c r="IH2" t="n">
-        <v>4.799612096650918e-12</v>
+        <v>6.589867540540695e-12</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>268.7506812391846</v>
+        <v>268.6999508444675</v>
       </c>
       <c r="IL2" t="n">
-        <v>110.6475275631576</v>
+        <v>110.6156553301601</v>
       </c>
       <c r="IM2" t="n">
-        <v>244.9164210719365</v>
+        <v>244.8751526384383</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.68765713593422</v>
+        <v>65.69022765842449</v>
       </c>
       <c r="IO2" t="n">
-        <v>136.3126565117441</v>
+        <v>136.2626832658694</v>
       </c>
       <c r="IP2" t="n">
-        <v>110.6475275631576</v>
+        <v>110.6156553301601</v>
       </c>
       <c r="IQ2" t="n">
-        <v>79.61322107193647</v>
+        <v>79.57195263843832</v>
       </c>
       <c r="IR2" t="n">
-        <v>35.73580888820623</v>
+        <v>35.72955070118803</v>
       </c>
       <c r="IS2" t="n">
-        <v>259.5633104275585</v>
+        <v>259.5769212249011</v>
       </c>
       <c r="IT2" t="n">
-        <v>85907.64607865867</v>
+        <v>85923.8700300114</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.153787745525632</v>
+        <v>1.153945068038571</v>
       </c>
       <c r="IV2" t="n">
-        <v>311213.9044300291</v>
+        <v>311223.6284844585</v>
       </c>
       <c r="IW2" t="n">
-        <v>385670.9667552332</v>
+        <v>385684.5992965798</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.611348752391</v>
+        <v>3788.609699988984</v>
       </c>
       <c r="IY2" t="n">
-        <v>-597713.5368503545</v>
+        <v>-597751.0423493568</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5370912536997</v>
+        <v>716.5374584805892</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.204413623106</v>
+        <v>1005.204884458102</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402864451670373</v>
+        <v>1.402864389797052</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993241038539434</v>
+        <v>0.9993241596861177</v>
       </c>
       <c r="JD2" t="n">
-        <v>323.0833304619586</v>
+        <v>323.0918122177495</v>
       </c>
       <c r="JE2" t="n">
-        <v>120435.639814937</v>
+        <v>120458.3860118408</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.303189998713114e-06</v>
+        <v>8.301622104597202e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>85849.80514085721</v>
+        <v>85866.02303681477</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.16482500846596e-05</v>
+        <v>1.164605002809148e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003866076681627687</v>
+        <v>0.003865874441850879</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.652841742876064e-05</v>
+        <v>1.652911597553751e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02330669263509604</v>
+        <v>0.0233077573491938</v>
       </c>
       <c r="JL2" t="n">
-        <v>85907.64607865867</v>
+        <v>85923.8700300114</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.153787745525632</v>
+        <v>1.153945068038571</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.153787745525632</v>
+        <v>1.153945068038571</v>
       </c>
       <c r="JO2" t="n">
-        <v>311213.9044300291</v>
+        <v>311223.6284844585</v>
       </c>
       <c r="JP2" t="n">
-        <v>385670.9667552332</v>
+        <v>385684.5992965798</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.611348752391</v>
+        <v>3788.609699988984</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5370912536997</v>
+        <v>716.5374584805892</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.204413623106</v>
+        <v>1005.204884458102</v>
       </c>
       <c r="JT2" t="n">
-        <v>323.0833304619586</v>
+        <v>323.0918122177495</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993241038539434</v>
+        <v>0.9993241596861177</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.652841742876064e-05</v>
+        <v>1.652911597553751e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02330669263509604</v>
+        <v>0.0233077573491938</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5937127364395</v>
+        <v>295.5937145388004</v>
       </c>
       <c r="KA2" t="n">
-        <v>135288.2845536752</v>
+        <v>135289.0619910537</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.595191426412173</v>
+        <v>1.595200587714735</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3686011056</v>
+        <v>336974.3683082174</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310883892</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.61134875759</v>
+        <v>3788.609700001406</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698105.2636059757</v>
+        <v>-698104.7830727567</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.856173220825</v>
+        <v>717.8561752458049</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.777060646039</v>
+        <v>1006.777073410716</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402477401745958</v>
+        <v>1.402477415571413</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995302925606294</v>
+        <v>0.9995302899143617</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8027731290122</v>
+        <v>344.8027749772298</v>
       </c>
       <c r="KL2" t="n">
-        <v>189650.6374957408</v>
+        <v>189651.7287065533</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.272853353959635e-06</v>
+        <v>5.272823015219082e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>135225.4498073501</v>
+        <v>135226.226533768</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.39505767164877e-06</v>
+        <v>7.395015195149924e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395619820264807</v>
+        <v>0.003395619871558661</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832925555051485e-05</v>
+        <v>1.832925575008463e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606729576327842</v>
+        <v>0.02606729614694641</v>
       </c>
       <c r="KS2" t="n">
-        <v>135288.2845536752</v>
+        <v>135289.0619910537</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595191426412173</v>
+        <v>1.595200587714735</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.595191426412173</v>
+        <v>1.595200587714735</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3686011056</v>
+        <v>336974.3683082174</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310883892</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.61134875759</v>
+        <v>3788.609700001406</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.856173220825</v>
+        <v>717.8561752458049</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.777060646039</v>
+        <v>1006.777073410716</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8027731290122</v>
+        <v>344.8027749772298</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995302925606294</v>
+        <v>0.9995302899143617</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832925555051485e-05</v>
+        <v>1.832925575008463e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606729576327842</v>
+        <v>0.02606729614694641</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>268.8368568735634</v>
+        <v>268.8436668135341</v>
       </c>
       <c r="LH2" t="n">
-        <v>97112.5293855325</v>
+        <v>97121.67807430675</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.259229342781222</v>
+        <v>1.259316032325936</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317840.9314126096</v>
+        <v>317845.7972828761</v>
       </c>
       <c r="LK2" t="n">
-        <v>394961.5369180714</v>
+        <v>394968.3587219809</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.61134875239</v>
+        <v>3788.609699989588</v>
       </c>
       <c r="LM2" t="n">
-        <v>-623556.8299960329</v>
+        <v>-623575.3651485431</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8076607247622</v>
+        <v>716.8078775150021</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.539531737333</v>
+        <v>1005.53980578168</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402802434785134</v>
+        <v>1.402802392835917</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993678904088962</v>
+        <v>0.9993679212747693</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.8113932535318</v>
+        <v>328.8155631271936</v>
       </c>
       <c r="LS2" t="n">
-        <v>136144.0136456193</v>
+        <v>136156.8395765377</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.345163207858584e-06</v>
+        <v>7.344471295824044e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>97051.45234259048</v>
+        <v>97060.59832224966</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.030381283187821e-05</v>
+        <v>1.030284190789668e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003732968765651054</v>
+        <v>0.00373287446165843</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.700101343082692e-05</v>
+        <v>1.700135816395188e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02402806485394656</v>
+        <v>0.02402859192847641</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97112.5293855325</v>
+        <v>97121.67807430675</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.259229342781222</v>
+        <v>1.259316032325936</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.259229342781222</v>
+        <v>1.259316032325936</v>
       </c>
       <c r="MC2" t="n">
-        <v>317840.9314126096</v>
+        <v>317845.7972828761</v>
       </c>
       <c r="MD2" t="n">
-        <v>394961.5369180714</v>
+        <v>394968.3587219809</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.61134875239</v>
+        <v>3788.609699989588</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8076607247622</v>
+        <v>716.8078775150021</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.539531737333</v>
+        <v>1005.53980578168</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.8113932535318</v>
+        <v>328.8155631271936</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993678904088962</v>
+        <v>0.9993679212747693</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.700101343082692e-05</v>
+        <v>1.700135816395188e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02402806485394656</v>
+        <v>0.02402859192847641</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8318308495053371</v>
+        <v>0.8316519969976079</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4219117597829587</v>
+        <v>0.4217460118550897</v>
       </c>
       <c r="MP2" t="n">
-        <v>247973.483169199</v>
+        <v>247905.896435374</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.740741523338083</v>
+        <v>2.740325648375254</v>
       </c>
       <c r="MR2" t="n">
-        <v>381298.9629528511</v>
+        <v>381305.7847567669</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>135.2462140252223</v>
+        <v>135.2468792288594</v>
       </c>
       <c r="MU2" t="n">
-        <v>123.2323857943893</v>
+        <v>123.2134512302005</v>
       </c>
       <c r="MV2" t="n">
-        <v>-55.72537572398258</v>
+        <v>-55.7688423502648</v>
       </c>
       <c r="MW2" t="n">
-        <v>-24.33236352406317</v>
+        <v>-24.35244699830626</v>
       </c>
       <c r="MX2" t="n">
-        <v>253.0609653722784</v>
+        <v>253.0897123017336</v>
       </c>
       <c r="MY2" t="n">
-        <v>123.2323857943893</v>
+        <v>123.2134512302005</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-221.0285757239826</v>
+        <v>-221.0720423502648</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.85856243519078</v>
+        <v>-60.86709821270867</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.8583537854661</v>
+        <v>236.8579024757068</v>
       </c>
       <c r="NC2" t="n">
-        <v>60000.00000017748</v>
+        <v>59999.99999767959</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8831259353141453</v>
+        <v>0.88312762333283</v>
       </c>
       <c r="NE2" t="n">
-        <v>295001.1307588075</v>
+        <v>295000.8072885299</v>
       </c>
       <c r="NF2" t="n">
-        <v>362941.6108205037</v>
+        <v>362941.1574853066</v>
       </c>
       <c r="NG2" t="n">
-        <v>3799.932194887564</v>
+        <v>3799.930280947045</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537104.0733569574</v>
+        <v>-537102.3584137335</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0325652380035</v>
+        <v>716.0325594044064</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487930097626</v>
+        <v>1004.48793070557</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402852298713178</v>
+        <v>1.402852310991416</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992718991516045</v>
+        <v>0.9992718931040664</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6117180250865</v>
+        <v>308.6114234935691</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.96720911261</v>
+        <v>84109.96743278101</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.1889197358903e-05</v>
+        <v>1.18891973272868e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.39547104556</v>
+        <v>59956.39510572523</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667878784479172e-05</v>
+        <v>1.667878794641725e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004235342330582574</v>
+        <v>0.004235350473537803</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534219067935678e-05</v>
+        <v>1.534216675138503e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150526509073313</v>
+        <v>0.02150522896515986</v>
       </c>
       <c r="NU2" t="n">
-        <v>60000.00000017748</v>
+        <v>59999.99999767959</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8831259353141453</v>
+        <v>0.88312762333283</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8831259353141453</v>
+        <v>0.88312762333283</v>
       </c>
       <c r="NX2" t="n">
-        <v>295001.1307588075</v>
+        <v>295000.8072885299</v>
       </c>
       <c r="NY2" t="n">
-        <v>362941.6108205037</v>
+        <v>362941.1574853066</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3799.932194887564</v>
+        <v>3799.930280947045</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0325652380035</v>
+        <v>716.0325594044064</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487930097626</v>
+        <v>1004.48793070557</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6117180250865</v>
+        <v>308.6114234935691</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992718991516045</v>
+        <v>0.9992718931040664</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534219067935678e-05</v>
+        <v>1.534216675138503e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150526509073313</v>
+        <v>0.02150522896515986</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>245.9915038249495</v>
+        <v>245.9911425108243</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68472.12364125025</v>
+        <v>68472.22790299269</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9703801925561348</v>
+        <v>0.9703831011183248</v>
       </c>
       <c r="OL2" t="n">
-        <v>301525.218753657</v>
+        <v>301524.9594394171</v>
       </c>
       <c r="OM2" t="n">
-        <v>372087.3800245748</v>
+        <v>372087.0166558724</v>
       </c>
       <c r="ON2" t="n">
-        <v>3799.932194886704</v>
+        <v>3799.930280946186</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562663.6550284467</v>
+        <v>-562662.1746155574</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2042443855911</v>
+        <v>716.2042388036697</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.719253170693</v>
+        <v>1004.719254983159</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402839010026545</v>
+        <v>1.402839023490586</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992991935220807</v>
+        <v>0.9992991876839089</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.5125652828395</v>
+        <v>314.5123339765054</v>
       </c>
       <c r="OU2" t="n">
-        <v>95988.21705487985</v>
+        <v>95988.36357622125</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.041794535498315e-05</v>
+        <v>1.04179294525209e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68424.25707356364</v>
+        <v>68424.36086314463</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.461470014829521e-05</v>
+        <v>1.461467797996824e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.00407840234355126</v>
+        <v>0.004078408410023265</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.582421116898387e-05</v>
+        <v>1.582419230940757e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02223543600612053</v>
+        <v>0.02223540746094838</v>
       </c>
       <c r="PB2" t="n">
-        <v>68472.12364125025</v>
+        <v>68472.22790299269</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9703801925561348</v>
+        <v>0.9703831011183248</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9703801925561348</v>
+        <v>0.9703831011183248</v>
       </c>
       <c r="PE2" t="n">
-        <v>301525.218753657</v>
+        <v>301524.9594394171</v>
       </c>
       <c r="PF2" t="n">
-        <v>372087.3800245748</v>
+        <v>372087.0166558724</v>
       </c>
       <c r="PG2" t="n">
-        <v>3799.932194886704</v>
+        <v>3799.930280946186</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2042443855911</v>
+        <v>716.2042388036697</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.719253170693</v>
+        <v>1004.719254983159</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.5125652828395</v>
+        <v>314.5123339765054</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992991935220807</v>
+        <v>0.9992991876839089</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.582421116898387e-05</v>
+        <v>1.582419230940757e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02223543600612053</v>
+        <v>0.02223540746094838</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>268.826291957779</v>
+        <v>268.8331016729558</v>
       </c>
       <c r="PQ2" t="n">
-        <v>93354.79481407908</v>
+        <v>93363.67591150365</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.210522165937219</v>
+        <v>1.21060662476661</v>
       </c>
       <c r="PS2" t="n">
-        <v>317842.094217236</v>
+        <v>317846.9602416916</v>
       </c>
       <c r="PT2" t="n">
-        <v>394961.5369180653</v>
+        <v>394968.3587219808</v>
       </c>
       <c r="PU2" t="n">
-        <v>3799.932194878133</v>
+        <v>3799.930280937614</v>
       </c>
       <c r="PV2" t="n">
-        <v>-626560.1447220078</v>
+        <v>-626578.6848434643</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.7953002662736</v>
+        <v>716.7955169861788</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.462111580971</v>
+        <v>1005.462384847356</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402718616050445</v>
+        <v>1.402718573178162</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993920969211091</v>
+        <v>0.9993921260126734</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.8030333841683</v>
+        <v>328.807202480398</v>
       </c>
       <c r="QB2" t="n">
-        <v>130871.2881714397</v>
+        <v>130883.7381846401</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.641095414985237e-06</v>
+        <v>7.640368573437915e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>93298.31847525238</v>
+        <v>93307.19695832836</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.07183067856175e-05</v>
+        <v>1.07172869038881e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003732604897033571</v>
+        <v>0.003732510603834635</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.69999095457405e-05</v>
+        <v>1.700025423981744e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.02402592032256046</v>
+        <v>0.02402644732738028</v>
       </c>
       <c r="QI2" t="n">
-        <v>93354.79481407908</v>
+        <v>93363.67591150365</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.210522165937219</v>
+        <v>1.21060662476661</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.210522165937219</v>
+        <v>1.21060662476661</v>
       </c>
       <c r="QL2" t="n">
-        <v>317842.094217236</v>
+        <v>317846.9602416916</v>
       </c>
       <c r="QM2" t="n">
-        <v>394961.5369180653</v>
+        <v>394968.3587219808</v>
       </c>
       <c r="QN2" t="n">
-        <v>3799.932194878133</v>
+        <v>3799.930280937614</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.7953002662736</v>
+        <v>716.7955169861788</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.462111580971</v>
+        <v>1005.462384847356</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.8030333841683</v>
+        <v>328.807202480398</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993920969211091</v>
+        <v>0.9993921260126734</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.69999095457405e-05</v>
+        <v>1.700025423981744e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02402592032256046</v>
+        <v>0.02402644732738028</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4382406957542304</v>
+        <v>0.4382432694740404</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8199979151527472</v>
+        <v>0.8200918470116434</v>
       </c>
       <c r="QY2" t="n">
-        <v>379607.5442520551</v>
+        <v>379651.9842564992</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.740741523211343</v>
+        <v>2.740325648204902</v>
       </c>
       <c r="RA2" t="n">
-        <v>381298.9629528511</v>
+        <v>381305.7847567669</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02448664324581036</v>
+        <v>0.02447338350327146</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.001921552659065684</v>
+        <v>0.001918126998470978</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01188917040645583</v>
+        <v>0.01189012253321323</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03198686093101345</v>
+        <v>0.03198066011997568</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04237527463714711</v>
+        <v>0.04237524032859367</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1126595018794924</v>
+        <v>0.112637533483525</v>
       </c>
       <c r="RH2" t="n">
-        <v>7.275069435763726e-11</v>
+        <v>-2.210190364060338e-12</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.71967492256213</v>
+        <v>80.70791210466408</v>
       </c>
       <c r="D3" t="n">
-        <v>80.71967492256213</v>
+        <v>80.70791210466408</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.71967492256213</v>
+        <v>80.70791210466408</v>
       </c>
       <c r="H3" t="n">
-        <v>80.71967492256213</v>
+        <v>80.70791210466408</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3516962049907</v>
+        <v>292.352642922255</v>
       </c>
       <c r="L3" t="n">
-        <v>132771.2608551408</v>
+        <v>132772.7637240999</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582924932897018</v>
+        <v>1.582937713924181</v>
       </c>
       <c r="N3" t="n">
-        <v>334649.429922114</v>
+        <v>334650.1071707656</v>
       </c>
       <c r="O3" t="n">
-        <v>418526.5981287876</v>
+        <v>418527.5475502419</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687415.7050799241</v>
+        <v>-687418.3370116324</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7128745545026</v>
+        <v>717.7129174035684</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.647622448163</v>
+        <v>1006.647672167811</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577072444196</v>
+        <v>1.402577057982329</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994979592980696</v>
+        <v>0.9994979659099988</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9077703133743</v>
+        <v>342.9083260442447</v>
       </c>
       <c r="W3" t="n">
-        <v>186129.3979232875</v>
+        <v>186131.5040935578</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372606429491306e-06</v>
+        <v>5.372545635785312e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132705.2905541439</v>
+        <v>132706.7935656359</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535494597270779e-06</v>
+        <v>7.535409251715561e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433468911431614</v>
+        <v>0.003433457810888454</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817137271405785e-05</v>
+        <v>1.817141903655209e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582424888575116</v>
+        <v>0.02582432023672225</v>
       </c>
       <c r="AD3" t="n">
-        <v>132771.2608551408</v>
+        <v>132772.7637240999</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582924932897018</v>
+        <v>1.582937713924181</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582924932897018</v>
+        <v>1.582937713924181</v>
       </c>
       <c r="AG3" t="n">
-        <v>334649.429922114</v>
+        <v>334650.1071707656</v>
       </c>
       <c r="AH3" t="n">
-        <v>418526.5981287876</v>
+        <v>418527.5475502419</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7128745545026</v>
+        <v>717.7129174035684</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.647622448163</v>
+        <v>1006.647672167811</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9077703133743</v>
+        <v>342.9083260442447</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994979592980696</v>
+        <v>0.9994979659099988</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817137271405785e-05</v>
+        <v>1.817141903655209e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582424888575116</v>
+        <v>0.02582432023672225</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2353976255737646</v>
+        <v>0.2353629409810554</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353976255737646</v>
+        <v>0.2353629409810554</v>
       </c>
       <c r="DH3" t="n">
-        <v>183945.7369911669</v>
+        <v>183919.9477974102</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.743090699314862</v>
+        <v>2.742713109688587</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>270.2219880117058</v>
+        <v>270.1888882872859</v>
       </c>
       <c r="DU3" t="n">
-        <v>111.1847218125582</v>
+        <v>111.1594838724343</v>
       </c>
       <c r="DV3" t="n">
-        <v>246.2882060523047</v>
+        <v>246.2632828887276</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.70360738415391</v>
+        <v>65.70631065712105</v>
       </c>
       <c r="DX3" t="n">
-        <v>270.2219880117058</v>
+        <v>270.1888882872859</v>
       </c>
       <c r="DY3" t="n">
-        <v>111.1847218125582</v>
+        <v>111.1594838724343</v>
       </c>
       <c r="DZ3" t="n">
-        <v>246.2882060523047</v>
+        <v>246.2632828887276</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.70360738415391</v>
+        <v>65.70631065712107</v>
       </c>
       <c r="EB3" t="n">
-        <v>259.1674391405811</v>
+        <v>259.1763686296799</v>
       </c>
       <c r="EC3" t="n">
-        <v>85435.22012293921</v>
+        <v>85445.80164333289</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.149197335107569</v>
+        <v>1.149300027582647</v>
       </c>
       <c r="EE3" t="n">
-        <v>310931.0845137477</v>
+        <v>310937.464057423</v>
       </c>
       <c r="EF3" t="n">
-        <v>385274.4696860968</v>
+        <v>385283.4134115296</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.664462898587</v>
+        <v>3788.663445766748</v>
       </c>
       <c r="EH3" t="n">
-        <v>-596623.9969262552</v>
+        <v>-596648.6204223061</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5264444957755</v>
+        <v>716.5266836177193</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.190725460197</v>
+        <v>1005.191032145144</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402866193120837</v>
+        <v>1.402866152967211</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993224981992513</v>
+        <v>0.9993225347102238</v>
       </c>
       <c r="EM3" t="n">
-        <v>322.8365400268729</v>
+        <v>322.842108829129</v>
       </c>
       <c r="EN3" t="n">
-        <v>119773.2898235059</v>
+        <v>119788.125274019</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.349106895815988e-06</v>
+        <v>8.348072880450122e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>85377.55803855853</v>
+        <v>85388.13558275279</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.17126798068923e-05</v>
+        <v>1.171122888648697e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003871967879670016</v>
+        <v>0.003871834788091515</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.650809359910218e-05</v>
+        <v>1.650855216042643e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02327571726259726</v>
+        <v>0.02327641610013313</v>
       </c>
       <c r="EU3" t="n">
-        <v>85435.22012293921</v>
+        <v>85445.80164333289</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.149197335107569</v>
+        <v>1.149300027582647</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.149197335107569</v>
+        <v>1.149300027582647</v>
       </c>
       <c r="EX3" t="n">
-        <v>310931.0845137477</v>
+        <v>310937.464057423</v>
       </c>
       <c r="EY3" t="n">
-        <v>385274.4696860968</v>
+        <v>385283.4134115296</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.664462898587</v>
+        <v>3788.663445766748</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5264444957755</v>
+        <v>716.5266836177193</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.190725460197</v>
+        <v>1005.191032145144</v>
       </c>
       <c r="FC3" t="n">
-        <v>322.8365400268729</v>
+        <v>322.842108829129</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993224981992513</v>
+        <v>0.9993225347102238</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.650809359910218e-05</v>
+        <v>1.650855216042643e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02327571726259726</v>
+        <v>0.02327641610013313</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.593654669516</v>
+        <v>295.5936557815795</v>
       </c>
       <c r="FJ3" t="n">
-        <v>135263.2420390394</v>
+        <v>135263.7215546809</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.594896326067709</v>
+        <v>1.594901976667193</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.3780283653</v>
+        <v>336974.3778479909</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.664462896538</v>
+        <v>3788.663445771949</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698120.7438157175</v>
+        <v>-698120.4473731767</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8561079924774</v>
+        <v>717.8561092414831</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.776649474737</v>
+        <v>1006.776657347879</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402476956405987</v>
+        <v>1.402476964933378</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995303778013895</v>
+        <v>0.9995303761691907</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8027135892489</v>
+        <v>344.802714729431</v>
       </c>
       <c r="FU3" t="n">
-        <v>189615.4878401827</v>
+        <v>189616.1608878364</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.273830800376652e-06</v>
+        <v>5.273812080772641e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>135200.430191805</v>
+        <v>135200.9092690116</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.396426169512394e-06</v>
+        <v>7.396399960670996e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395618168119834</v>
+        <v>0.003395618199753002</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832924912157197e-05</v>
+        <v>1.83292492446831e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.0260672834039822</v>
+        <v>0.02606728364065304</v>
       </c>
       <c r="GB3" t="n">
-        <v>135263.2420390394</v>
+        <v>135263.7215546809</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.594896326067709</v>
+        <v>1.594901976667193</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594896326067709</v>
+        <v>1.594901976667193</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.3780283653</v>
+        <v>336974.3778479909</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.664462896538</v>
+        <v>3788.663445771949</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8561079924774</v>
+        <v>717.8561092414831</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.776649474737</v>
+        <v>1006.776657347879</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8027135892489</v>
+        <v>344.802714729431</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995303778013895</v>
+        <v>0.9995303761691907</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832924912157197e-05</v>
+        <v>1.83292492446831e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.0260672834039822</v>
+        <v>0.02606728364065304</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.593654669516</v>
+        <v>295.5936557815795</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135263.2420390394</v>
+        <v>135263.7215546809</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594896326067709</v>
+        <v>1.594901976667193</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.3780283653</v>
+        <v>336974.3778479909</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.664462896538</v>
+        <v>3788.663445771949</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698120.7438157175</v>
+        <v>-698120.4473731767</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8561079924774</v>
+        <v>717.8561092414831</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.776649474737</v>
+        <v>1006.776657347879</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402476956405987</v>
+        <v>1.402476964933378</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995303778013895</v>
+        <v>0.9995303761691907</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8027135892489</v>
+        <v>344.802714729431</v>
       </c>
       <c r="HB3" t="n">
-        <v>189615.4878401827</v>
+        <v>189616.1608878364</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.273830800376652e-06</v>
+        <v>5.273812080772641e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>135200.430191805</v>
+        <v>135200.9092690116</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.396426169512394e-06</v>
+        <v>7.396399960670996e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395618168119834</v>
+        <v>0.003395618199753002</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832924912157197e-05</v>
+        <v>1.83292492446831e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.0260672834039822</v>
+        <v>0.02606728364065304</v>
       </c>
       <c r="HI3" t="n">
-        <v>135263.2420390394</v>
+        <v>135263.7215546809</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.594896326067709</v>
+        <v>1.594901976667193</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594896326067709</v>
+        <v>1.594901976667193</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.3780283653</v>
+        <v>336974.3778479909</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310883891</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.664462896538</v>
+        <v>3788.663445771949</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8561079924774</v>
+        <v>717.8561092414831</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.776649474737</v>
+        <v>1006.776657347879</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8027135892489</v>
+        <v>344.802714729431</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995303778013895</v>
+        <v>0.9995303761691907</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832924912157197e-05</v>
+        <v>1.83292492446831e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.0260672834039822</v>
+        <v>0.02606728364065304</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,40 +5425,40 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8370241732525462</v>
+        <v>0.8369072091221194</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8370241732525462</v>
+        <v>0.8369072091221194</v>
       </c>
       <c r="HY3" t="n">
-        <v>492103.1126136252</v>
+        <v>492073.1347200469</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.74309069934497</v>
+        <v>2.74271310964803</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01594768449549269</v>
+        <v>0.01595022849370333</v>
       </c>
       <c r="IC3" t="n">
-        <v>-1.794076015655355e-07</v>
+        <v>-1.793955750467426e-07</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01379111872477631</v>
+        <v>0.01379120448695119</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02518545009318991</v>
+        <v>0.0251843323886836</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.05492407390585734</v>
+        <v>0.05492558597376307</v>
       </c>
       <c r="IH3" t="n">
-        <v>7.216414965593998e-12</v>
+        <v>-2.091507522727909e-12</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>270.2219880117057</v>
+        <v>270.1888882872859</v>
       </c>
       <c r="IL3" t="n">
-        <v>111.1847218125581</v>
+        <v>111.1594838724344</v>
       </c>
       <c r="IM3" t="n">
-        <v>246.2882060523047</v>
+        <v>246.2632828887276</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.7036073841539</v>
+        <v>65.70631065712105</v>
       </c>
       <c r="IO3" t="n">
-        <v>137.5522212464334</v>
+        <v>137.5171475712598</v>
       </c>
       <c r="IP3" t="n">
-        <v>111.1847218125581</v>
+        <v>111.1594838724344</v>
       </c>
       <c r="IQ3" t="n">
-        <v>80.98500605230467</v>
+        <v>80.96008288872761</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.06893979458646</v>
+        <v>36.06673717113288</v>
       </c>
       <c r="IS3" t="n">
-        <v>259.1674391402811</v>
+        <v>259.1763686298799</v>
       </c>
       <c r="IT3" t="n">
-        <v>85435.22012061096</v>
+        <v>85445.80164348101</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.149197335077565</v>
+        <v>1.14930002758375</v>
       </c>
       <c r="IV3" t="n">
-        <v>310931.084513538</v>
+        <v>310937.4640575659</v>
       </c>
       <c r="IW3" t="n">
-        <v>385274.4696858022</v>
+        <v>385283.4134117301</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.664462905268</v>
+        <v>3788.663445767024</v>
       </c>
       <c r="IY3" t="n">
-        <v>-596623.9969271446</v>
+        <v>-596648.6204229352</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5264444957605</v>
+        <v>716.5266836177245</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.190725460142</v>
+        <v>1005.191032145149</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.40286619312079</v>
+        <v>1.402866152967208</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993224981992657</v>
+        <v>0.9993225347102254</v>
       </c>
       <c r="JD3" t="n">
-        <v>322.8365400266852</v>
+        <v>322.8421088292537</v>
       </c>
       <c r="JE3" t="n">
-        <v>119773.2898202396</v>
+        <v>119788.1252742266</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.349106896043672e-06</v>
+        <v>8.348072880435653e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>85377.55803623312</v>
+        <v>85388.13558290097</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.171267980721132e-05</v>
+        <v>1.171122888646664e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003871967879674175</v>
+        <v>0.00387183478808852</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.650809359908647e-05</v>
+        <v>1.650855216043669e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02327571726257306</v>
+        <v>0.02327641610014876</v>
       </c>
       <c r="JL3" t="n">
-        <v>85435.22012061096</v>
+        <v>85445.80164348101</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.149197335077565</v>
+        <v>1.14930002758375</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.149197335077565</v>
+        <v>1.14930002758375</v>
       </c>
       <c r="JO3" t="n">
-        <v>310931.084513538</v>
+        <v>310937.4640575659</v>
       </c>
       <c r="JP3" t="n">
-        <v>385274.4696858022</v>
+        <v>385283.4134117301</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.664462905268</v>
+        <v>3788.663445767024</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5264444957605</v>
+        <v>716.5266836177245</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.190725460142</v>
+        <v>1005.191032145149</v>
       </c>
       <c r="JT3" t="n">
-        <v>322.8365400266852</v>
+        <v>322.8421088292537</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993224981992657</v>
+        <v>0.9993225347102254</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.650809359908647e-05</v>
+        <v>1.650855216043669e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02327571726257306</v>
+        <v>0.02327641610014876</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.593654669609</v>
+        <v>295.5936557816793</v>
       </c>
       <c r="KA3" t="n">
-        <v>135263.2420360502</v>
+        <v>135263.7215547108</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.594896326031943</v>
+        <v>1.594901976667006</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.3780284382</v>
+        <v>336974.3778480625</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310884896</v>
+        <v>421784.43108869</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.664462903219</v>
+        <v>3788.663445772225</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698120.7438179442</v>
+        <v>-698120.4473735361</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8561079924741</v>
+        <v>717.8561092414874</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.776649474691</v>
+        <v>1006.776657347882</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402476956405929</v>
+        <v>1.402476964933374</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.999530377801401</v>
+        <v>0.9995303761691918</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8027135892999</v>
+        <v>344.8027147294891</v>
       </c>
       <c r="KL3" t="n">
-        <v>189615.4878359867</v>
+        <v>189616.160887878</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.273830800493357e-06</v>
+        <v>5.273812080771481e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>135200.4301888187</v>
+        <v>135200.9092690417</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.396426169675763e-06</v>
+        <v>7.396399960669349e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395618168118475</v>
+        <v>0.003395618199751846</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832924912157605e-05</v>
+        <v>1.832924924468794e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606728340398817</v>
+        <v>0.02606728364066049</v>
       </c>
       <c r="KS3" t="n">
-        <v>135263.2420360502</v>
+        <v>135263.7215547108</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594896326031943</v>
+        <v>1.594901976667006</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.594896326031943</v>
+        <v>1.594901976667006</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.3780284382</v>
+        <v>336974.3778480625</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310884896</v>
+        <v>421784.43108869</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.664462903219</v>
+        <v>3788.663445772225</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8561079924741</v>
+        <v>717.8561092414874</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.776649474691</v>
+        <v>1006.776657347882</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8027135892999</v>
+        <v>344.8027147294891</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.999530377801401</v>
+        <v>0.9995303761691918</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832924912157605e-05</v>
+        <v>1.832924924468794e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606728340398817</v>
+        <v>0.02606728364066049</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>268.6104916459272</v>
+        <v>268.6146044066862</v>
       </c>
       <c r="LH3" t="n">
-        <v>96809.35916084764</v>
+        <v>96814.8785705312</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.256357389536568</v>
+        <v>1.256409757992971</v>
       </c>
       <c r="LJ3" t="n">
-        <v>317679.1870605072</v>
+        <v>317682.1256944679</v>
       </c>
       <c r="LK3" t="n">
-        <v>394734.7764709039</v>
+        <v>394738.8963495974</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.664462904647</v>
+        <v>3788.663445773654</v>
       </c>
       <c r="LM3" t="n">
-        <v>-622940.2475913663</v>
+        <v>-622951.4363669649</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.8004703942155</v>
+        <v>716.8006008466697</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.530448649209</v>
+        <v>1005.53061378687</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402803834791293</v>
+        <v>1.402803809872869</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993668628759738</v>
+        <v>0.9993668813935354</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.6727551317313</v>
+        <v>328.6752745353998</v>
       </c>
       <c r="LS3" t="n">
-        <v>135718.9869205885</v>
+        <v>135726.7248355944</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.36816581592314e-06</v>
+        <v>7.367745749492581e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>96748.37176416797</v>
+        <v>96753.88951780423</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.03360912619551e-05</v>
+        <v>1.033550180756283e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003736106263469678</v>
+        <v>0.003736049214545551</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.698955247409404e-05</v>
+        <v>1.698976074153866e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02401054253426494</v>
+        <v>0.02401086093880553</v>
       </c>
       <c r="LZ3" t="n">
-        <v>96809.35916084764</v>
+        <v>96814.8785705312</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.256357389536568</v>
+        <v>1.256409757992971</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.256357389536568</v>
+        <v>1.256409757992971</v>
       </c>
       <c r="MC3" t="n">
-        <v>317679.1870605072</v>
+        <v>317682.1256944679</v>
       </c>
       <c r="MD3" t="n">
-        <v>394734.7764709039</v>
+        <v>394738.8963495974</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.664462904647</v>
+        <v>3788.663445773654</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.8004703942155</v>
+        <v>716.8006008466697</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.530448649209</v>
+        <v>1005.53061378687</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.6727551317313</v>
+        <v>328.6752745353998</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993668628759738</v>
+        <v>0.9993668813935354</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.698955247409404e-05</v>
+        <v>1.698976074153866e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02401054253426494</v>
+        <v>0.02401086093880553</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8370241732530325</v>
+        <v>0.8369072091217962</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.4260738924877076</v>
+        <v>0.42595790267245</v>
       </c>
       <c r="MP3" t="n">
-        <v>249539.7334882938</v>
+        <v>249491.4676091098</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.743090699273353</v>
+        <v>2.742713109650665</v>
       </c>
       <c r="MR3" t="n">
-        <v>381072.2025056837</v>
+        <v>381076.3223845778</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>142.5987926232729</v>
+        <v>142.5960843766902</v>
       </c>
       <c r="MU3" t="n">
-        <v>127.2474652116777</v>
+        <v>127.2298010694252</v>
       </c>
       <c r="MV3" t="n">
-        <v>-64.36224246262762</v>
+        <v>-64.3911562203896</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.83045649881298</v>
+        <v>-26.84402697983919</v>
       </c>
       <c r="MX3" t="n">
-        <v>262.5607222422113</v>
+        <v>262.5774544009153</v>
       </c>
       <c r="MY3" t="n">
-        <v>127.2474652116777</v>
+        <v>127.2298010694252</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-229.6654424626276</v>
+        <v>-229.6943562203896</v>
       </c>
       <c r="NA3" t="n">
-        <v>-61.01110194035454</v>
+        <v>-61.01753110359393</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.1852745796124</v>
+        <v>234.1850023144937</v>
       </c>
       <c r="NC3" t="n">
-        <v>57499.99999876862</v>
+        <v>57500.00000430652</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559934547420437</v>
+        <v>0.8559944531372372</v>
       </c>
       <c r="NE3" t="n">
-        <v>293092.2992138867</v>
+        <v>293092.1040866238</v>
       </c>
       <c r="NF3" t="n">
-        <v>360265.7100387351</v>
+        <v>360265.4365697583</v>
       </c>
       <c r="NG3" t="n">
-        <v>3800.778264910601</v>
+        <v>3800.777097136043</v>
       </c>
       <c r="NH3" t="n">
-        <v>-529820.5915455768</v>
+        <v>-529819.5567199205</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9876103782124</v>
+        <v>715.9876071317098</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421565091746</v>
+        <v>1004.421565720397</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402847689726323</v>
+        <v>1.402847696965275</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992670963017394</v>
+        <v>0.9992670926492723</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.8633530227055</v>
+        <v>306.863174312231</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.72418367291</v>
+        <v>80604.72431275068</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622072871701e-05</v>
+        <v>1.240622070885009e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.92987647707</v>
+        <v>57457.9296719948</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740403808751547e-05</v>
+        <v>1.740403814945326e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004283547972767955</v>
+        <v>0.004283552997282803</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.519975231589025e-05</v>
+        <v>1.519973781736898e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02128990263497428</v>
+        <v>0.02128988076535071</v>
       </c>
       <c r="NU3" t="n">
-        <v>57499.99999876862</v>
+        <v>57500.00000430652</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8559934547420437</v>
+        <v>0.8559944531372372</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8559934547420437</v>
+        <v>0.8559944531372372</v>
       </c>
       <c r="NX3" t="n">
-        <v>293092.2992138867</v>
+        <v>293092.1040866238</v>
       </c>
       <c r="NY3" t="n">
-        <v>360265.7100387351</v>
+        <v>360265.4365697583</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3800.778264910601</v>
+        <v>3800.777097136043</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9876103782124</v>
+        <v>715.9876071317098</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421565091746</v>
+        <v>1004.421565720397</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.8633530227055</v>
+        <v>306.863174312231</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992670963017394</v>
+        <v>0.9992670926492723</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.519975231589025e-05</v>
+        <v>1.519973781736898e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02128990263497428</v>
+        <v>0.02128988076535071</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>244.338766165251</v>
+        <v>244.3381083705415</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66683.07199918778</v>
+        <v>66682.71585398921</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.9514213232361795</v>
+        <v>0.9514188078790294</v>
       </c>
       <c r="OL3" t="n">
-        <v>300345.0710106233</v>
+        <v>300344.6003856996</v>
       </c>
       <c r="OM3" t="n">
-        <v>370432.9178673354</v>
+        <v>370432.2582097477</v>
       </c>
       <c r="ON3" t="n">
-        <v>3800.778264909547</v>
+        <v>3800.777097154447</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558244.5538483667</v>
+        <v>-558242.4280470478</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1698564742455</v>
+        <v>716.1698444835703</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.669742711949</v>
+        <v>1004.669732320594</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402837237045983</v>
+        <v>1.402837246023756</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992959144273663</v>
+        <v>0.9992959094911433</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.4529907303763</v>
+        <v>313.4525682523574</v>
       </c>
       <c r="OU3" t="n">
-        <v>93479.7874834612</v>
+        <v>93479.28835573072</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.069749971540023e-05</v>
+        <v>1.069755683413582e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66636.2319268811</v>
+        <v>66635.8757016833</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.500685094405225e-05</v>
+        <v>1.50069311683817e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004105895195309061</v>
+        <v>0.004105906280686232</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573746868400099e-05</v>
+        <v>1.573743417110911e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210384051854219</v>
+        <v>0.02210378822711368</v>
       </c>
       <c r="PB3" t="n">
-        <v>66683.07199918778</v>
+        <v>66682.71585398921</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9514213232361795</v>
+        <v>0.9514188078790294</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9514213232361795</v>
+        <v>0.9514188078790294</v>
       </c>
       <c r="PE3" t="n">
-        <v>300345.0710106233</v>
+        <v>300344.6003856996</v>
       </c>
       <c r="PF3" t="n">
-        <v>370432.9178673354</v>
+        <v>370432.2582097477</v>
       </c>
       <c r="PG3" t="n">
-        <v>3800.778264909547</v>
+        <v>3800.777097154447</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1698564742455</v>
+        <v>716.1698444835703</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.669742711949</v>
+        <v>1004.669732320594</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.4529907303763</v>
+        <v>313.4525682523574</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992959144273663</v>
+        <v>0.9992959094911433</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573746868400099e-05</v>
+        <v>1.573743417110911e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210384051854219</v>
+        <v>0.02210378822711368</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>268.59921869716</v>
+        <v>268.6033312927203</v>
       </c>
       <c r="PQ3" t="n">
-        <v>92806.46883789123</v>
+        <v>92811.80883212388</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.204428625509458</v>
+        <v>1.204479464056397</v>
       </c>
       <c r="PS3" t="n">
-        <v>317680.4231682036</v>
+        <v>317683.3619035817</v>
       </c>
       <c r="PT3" t="n">
-        <v>394734.7764709037</v>
+        <v>394738.8963496038</v>
       </c>
       <c r="PU3" t="n">
-        <v>3800.77826490779</v>
+        <v>3800.77709715269</v>
       </c>
       <c r="PV3" t="n">
-        <v>-626151.2959244765</v>
+        <v>-626162.4934466837</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.787274713834</v>
+        <v>716.7874050978986</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.447809412017</v>
+        <v>1005.447973901268</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402714368518088</v>
+        <v>1.402714342844716</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993927734245494</v>
+        <v>0.9993927908455336</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.6638565097351</v>
+        <v>328.6663753969415</v>
       </c>
       <c r="QB3" t="n">
-        <v>130102.2965111002</v>
+        <v>130109.782393096</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.686259403689166e-06</v>
+        <v>7.685817173828916e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>92750.38413454629</v>
+        <v>92755.72254378774</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.078162650571206e-05</v>
+        <v>1.078100598621205e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.00373571734855692</v>
+        <v>0.003735660305908217</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.698837517574941e-05</v>
+        <v>1.698858341592621e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02400825517001685</v>
+        <v>0.02400857352554512</v>
       </c>
       <c r="QI3" t="n">
-        <v>92806.46883789123</v>
+        <v>92811.80883212388</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.204428625509458</v>
+        <v>1.204479464056397</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.204428625509458</v>
+        <v>1.204479464056397</v>
       </c>
       <c r="QL3" t="n">
-        <v>317680.4231682036</v>
+        <v>317683.3619035817</v>
       </c>
       <c r="QM3" t="n">
-        <v>394734.7764709037</v>
+        <v>394738.8963496038</v>
       </c>
       <c r="QN3" t="n">
-        <v>3800.77826490779</v>
+        <v>3800.77709715269</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.787274713834</v>
+        <v>716.7874050978986</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.447809412017</v>
+        <v>1005.447973901268</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.6638565097351</v>
+        <v>328.6663753969415</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993927734245494</v>
+        <v>0.9993927908455336</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.698837517574941e-05</v>
+        <v>1.698858341592621e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02400825517001685</v>
+        <v>0.02400857352554512</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.4646980202055008</v>
+        <v>0.464689465252027</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8556274956129541</v>
+        <v>0.8556825203592032</v>
       </c>
       <c r="QY3" t="n">
-        <v>385334.6848266224</v>
+        <v>385360.0580277059</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.743090699365102</v>
+        <v>2.742713110060793</v>
       </c>
       <c r="RA3" t="n">
-        <v>381072.2025056837</v>
+        <v>381076.3223845778</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.0246045303492634</v>
+        <v>0.02459522109341724</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.0021676104912659</v>
+        <v>0.002166345437345728</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01188621339003089</v>
+        <v>0.01188682146171543</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03204893959080215</v>
+        <v>0.03204523418555951</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04266825628621222</v>
+        <v>0.04266986376627293</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1133755501075746</v>
+        <v>0.1133634859443108</v>
       </c>
       <c r="RH3" t="n">
-        <v>-1.142863442771258e-10</v>
+        <v>-1.504634472571098e-10</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -6189,7 +6189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO3"/>
+  <dimension ref="A1:JM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6245,1330 +6245,1320 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>critical_mass_flow_rate_1</t>
+          <t>blade_speed_throat_1</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>blade_speed_throat_1</t>
+          <t>v_throat_1</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>v_throat_1</t>
+          <t>v_m_throat_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>v_m_throat_1</t>
+          <t>v_t_throat_1</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>v_t_throat_1</t>
+          <t>alpha_throat_1</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>alpha_throat_1</t>
+          <t>w_throat_1</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>w_throat_1</t>
+          <t>w_m_throat_1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>w_m_throat_1</t>
+          <t>w_t_throat_1</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>w_t_throat_1</t>
+          <t>beta_throat_1</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>beta_throat_1</t>
+          <t>T_throat_1</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>T_throat_1</t>
+          <t>p_throat_1</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>p_throat_1</t>
+          <t>rhomass_throat_1</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>rhomass_throat_1</t>
+          <t>umass_throat_1</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>umass_throat_1</t>
+          <t>hmass_throat_1</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>hmass_throat_1</t>
+          <t>smass_throat_1</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>smass_throat_1</t>
+          <t>gibbsmass_throat_1</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass_throat_1</t>
+          <t>cvmass_throat_1</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>cvmass_throat_1</t>
+          <t>cpmass_throat_1</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>cpmass_throat_1</t>
+          <t>gamma_throat_1</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>gamma_throat_1</t>
+          <t>compressibility_factor_throat_1</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor_throat_1</t>
+          <t>speed_sound_throat_1</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound_throat_1</t>
+          <t>isentropic_bulk_modulus_throat_1</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus_throat_1</t>
+          <t>isentropic_compressibility_throat_1</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility_throat_1</t>
+          <t>isothermal_bulk_modulus_throat_1</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus_throat_1</t>
+          <t>isothermal_compressibility_throat_1</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility_throat_1</t>
+          <t>isobaric_expansion_coefficient_throat_1</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient_throat_1</t>
+          <t>viscosity_throat_1</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>viscosity_throat_1</t>
+          <t>conductivity_throat_1</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>conductivity_throat_1</t>
+          <t>P_throat_1</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>P_throat_1</t>
+          <t>rho_throat_1</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>rho_throat_1</t>
+          <t>d_throat_1</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>d_throat_1</t>
+          <t>u_throat_1</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>u_throat_1</t>
+          <t>h_throat_1</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>h_throat_1</t>
+          <t>s_throat_1</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>s_throat_1</t>
+          <t>cv_throat_1</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>cv_throat_1</t>
+          <t>cp_throat_1</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>cp_throat_1</t>
+          <t>a_throat_1</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>a_throat_1</t>
+          <t>Z_throat_1</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Z_throat_1</t>
+          <t>mu_throat_1</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>mu_throat_1</t>
+          <t>k_throat_1</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>k_throat_1</t>
+          <t>fluid_name_throat_1</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name_throat_1</t>
+          <t>converged_throat_1</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>converged_throat_1</t>
+          <t>T0_throat_1</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>T0_throat_1</t>
+          <t>p0_throat_1</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>p0_throat_1</t>
+          <t>rhomass0_throat_1</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_throat_1</t>
+          <t>umass0_throat_1</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>umass0_throat_1</t>
+          <t>hmass0_throat_1</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_throat_1</t>
+          <t>smass0_throat_1</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>smass0_throat_1</t>
+          <t>gibbsmass0_throat_1</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_throat_1</t>
+          <t>cvmass0_throat_1</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_throat_1</t>
+          <t>cpmass0_throat_1</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_throat_1</t>
+          <t>gamma0_throat_1</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_throat_1</t>
+          <t>compressibility_factor0_throat_1</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_throat_1</t>
+          <t>speed_sound0_throat_1</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_throat_1</t>
+          <t>isentropic_bulk_modulus0_throat_1</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_throat_1</t>
+          <t>isentropic_compressibility0_throat_1</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_throat_1</t>
+          <t>isothermal_bulk_modulus0_throat_1</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_throat_1</t>
+          <t>isothermal_compressibility0_throat_1</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_throat_1</t>
+          <t>isobaric_expansion_coefficient0_throat_1</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_throat_1</t>
+          <t>viscosity0_throat_1</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_throat_1</t>
+          <t>conductivity0_throat_1</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_throat_1</t>
+          <t>P0_throat_1</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>P0_throat_1</t>
+          <t>rho0_throat_1</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>rho0_throat_1</t>
+          <t>d0_throat_1</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>d0_throat_1</t>
+          <t>u0_throat_1</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>u0_throat_1</t>
+          <t>h0_throat_1</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>h0_throat_1</t>
+          <t>s0_throat_1</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>s0_throat_1</t>
+          <t>cv0_throat_1</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>cv0_throat_1</t>
+          <t>cp0_throat_1</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>cp0_throat_1</t>
+          <t>a0_throat_1</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>a0_throat_1</t>
+          <t>Z0_throat_1</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>Z0_throat_1</t>
+          <t>mu0_throat_1</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>mu0_throat_1</t>
+          <t>k0_throat_1</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>k0_throat_1</t>
+          <t>fluid_name0_throat_1</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_throat_1</t>
+          <t>converged0_throat_1</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>converged0_throat_1</t>
+          <t>T0_rel_throat_1</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>T0_rel_throat_1</t>
+          <t>p0_rel_throat_1</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>p0_rel_throat_1</t>
+          <t>rhomass0_rel_throat_1</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_rel_throat_1</t>
+          <t>umass0_rel_throat_1</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>umass0_rel_throat_1</t>
+          <t>hmass0_rel_throat_1</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_rel_throat_1</t>
+          <t>smass0_rel_throat_1</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>smass0_rel_throat_1</t>
+          <t>gibbsmass0_rel_throat_1</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_rel_throat_1</t>
+          <t>cvmass0_rel_throat_1</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_rel_throat_1</t>
+          <t>cpmass0_rel_throat_1</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_rel_throat_1</t>
+          <t>gamma0_rel_throat_1</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_rel_throat_1</t>
+          <t>compressibility_factor0_rel_throat_1</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_rel_throat_1</t>
+          <t>speed_sound0_rel_throat_1</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_rel_throat_1</t>
+          <t>isentropic_bulk_modulus0_rel_throat_1</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_rel_throat_1</t>
+          <t>isentropic_compressibility0_rel_throat_1</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_rel_throat_1</t>
+          <t>isothermal_bulk_modulus0_rel_throat_1</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_rel_throat_1</t>
+          <t>isothermal_compressibility0_rel_throat_1</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_rel_throat_1</t>
+          <t>isobaric_expansion_coefficient0_rel_throat_1</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_rel_throat_1</t>
+          <t>viscosity0_rel_throat_1</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_rel_throat_1</t>
+          <t>conductivity0_rel_throat_1</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_rel_throat_1</t>
+          <t>P0_rel_throat_1</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>P0_rel_throat_1</t>
+          <t>rho0_rel_throat_1</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>rho0_rel_throat_1</t>
+          <t>d0_rel_throat_1</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>d0_rel_throat_1</t>
+          <t>u0_rel_throat_1</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>u0_rel_throat_1</t>
+          <t>h0_rel_throat_1</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>h0_rel_throat_1</t>
+          <t>s0_rel_throat_1</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>s0_rel_throat_1</t>
+          <t>cv0_rel_throat_1</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>cv0_rel_throat_1</t>
+          <t>cp0_rel_throat_1</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>cp0_rel_throat_1</t>
+          <t>a0_rel_throat_1</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>a0_rel_throat_1</t>
+          <t>Z0_rel_throat_1</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>Z0_rel_throat_1</t>
+          <t>mu0_rel_throat_1</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>mu0_rel_throat_1</t>
+          <t>k0_rel_throat_1</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>k0_rel_throat_1</t>
+          <t>fluid_name0_rel_throat_1</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_rel_throat_1</t>
+          <t>converged0_rel_throat_1</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>converged0_rel_throat_1</t>
+          <t>loss_profile_throat_1</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>loss_profile_throat_1</t>
+          <t>loss_incidence_throat_1</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>loss_incidence_throat_1</t>
+          <t>loss_trailing_throat_1</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>loss_trailing_throat_1</t>
+          <t>loss_secondary_throat_1</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>loss_secondary_throat_1</t>
+          <t>loss_clearance_throat_1</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>loss_clearance_throat_1</t>
+          <t>loss_total_throat_1</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>loss_total_throat_1</t>
+          <t>loss_error_throat_1</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>loss_error_throat_1</t>
+          <t>Ma_throat_1</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>Ma_throat_1</t>
+          <t>Ma_rel_throat_1</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>Ma_rel_throat_1</t>
+          <t>Re_throat_1</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>Re_throat_1</t>
+          <t>mass_flow_throat_1</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>mass_flow_throat_1</t>
+          <t>rothalpy_throat_1</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>rothalpy_throat_1</t>
+          <t>blockage_throat_1</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>blockage_throat_1</t>
+          <t>dh_s_1</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>dh_s_1</t>
+          <t>incidence_1</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>incidence_1</t>
+          <t>efficiency_drop_profile_1</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_profile_1</t>
+          <t>efficiency_drop_incidence_1</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_incidence_1</t>
+          <t>efficiency_drop_secondary_1</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_secondary_1</t>
+          <t>efficiency_drop_clearance_1</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_clearance_1</t>
+          <t>efficiency_drop_trailing_1</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_trailing_1</t>
+          <t>loss_profile_2</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>loss_profile_2</t>
+          <t>loss_incidence_2</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>loss_incidence_2</t>
+          <t>loss_trailing_2</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>loss_trailing_2</t>
+          <t>loss_secondary_2</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>loss_secondary_2</t>
+          <t>loss_clearance_2</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>loss_clearance_2</t>
+          <t>loss_total_2</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>loss_total_2</t>
+          <t>loss_error_2</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>loss_error_2</t>
+          <t>critical_mach_2</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>critical_mach_2</t>
+          <t>blade_speed_throat_2</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>critical_mass_flow_rate_2</t>
+          <t>v_throat_2</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>blade_speed_throat_2</t>
+          <t>v_m_throat_2</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>v_throat_2</t>
+          <t>v_t_throat_2</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>v_m_throat_2</t>
+          <t>alpha_throat_2</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>v_t_throat_2</t>
+          <t>w_throat_2</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>alpha_throat_2</t>
+          <t>w_m_throat_2</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>w_throat_2</t>
+          <t>w_t_throat_2</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>w_m_throat_2</t>
+          <t>beta_throat_2</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>w_t_throat_2</t>
+          <t>T_throat_2</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>beta_throat_2</t>
+          <t>p_throat_2</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>T_throat_2</t>
+          <t>rhomass_throat_2</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>p_throat_2</t>
+          <t>umass_throat_2</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>rhomass_throat_2</t>
+          <t>hmass_throat_2</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>umass_throat_2</t>
+          <t>smass_throat_2</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>hmass_throat_2</t>
+          <t>gibbsmass_throat_2</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>smass_throat_2</t>
+          <t>cvmass_throat_2</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass_throat_2</t>
+          <t>cpmass_throat_2</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>cvmass_throat_2</t>
+          <t>gamma_throat_2</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>cpmass_throat_2</t>
+          <t>compressibility_factor_throat_2</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>gamma_throat_2</t>
+          <t>speed_sound_throat_2</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor_throat_2</t>
+          <t>isentropic_bulk_modulus_throat_2</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound_throat_2</t>
+          <t>isentropic_compressibility_throat_2</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus_throat_2</t>
+          <t>isothermal_bulk_modulus_throat_2</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility_throat_2</t>
+          <t>isothermal_compressibility_throat_2</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus_throat_2</t>
+          <t>isobaric_expansion_coefficient_throat_2</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility_throat_2</t>
+          <t>viscosity_throat_2</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient_throat_2</t>
+          <t>conductivity_throat_2</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>viscosity_throat_2</t>
+          <t>P_throat_2</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>conductivity_throat_2</t>
+          <t>rho_throat_2</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>P_throat_2</t>
+          <t>d_throat_2</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>rho_throat_2</t>
+          <t>u_throat_2</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>d_throat_2</t>
+          <t>h_throat_2</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>u_throat_2</t>
+          <t>s_throat_2</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>h_throat_2</t>
+          <t>cv_throat_2</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>s_throat_2</t>
+          <t>cp_throat_2</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>cv_throat_2</t>
+          <t>a_throat_2</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>cp_throat_2</t>
+          <t>Z_throat_2</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>a_throat_2</t>
+          <t>mu_throat_2</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>Z_throat_2</t>
+          <t>k_throat_2</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>mu_throat_2</t>
+          <t>fluid_name_throat_2</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>k_throat_2</t>
+          <t>converged_throat_2</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name_throat_2</t>
+          <t>T0_throat_2</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>converged_throat_2</t>
+          <t>p0_throat_2</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>T0_throat_2</t>
+          <t>rhomass0_throat_2</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>p0_throat_2</t>
+          <t>umass0_throat_2</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_throat_2</t>
+          <t>hmass0_throat_2</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>umass0_throat_2</t>
+          <t>smass0_throat_2</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_throat_2</t>
+          <t>gibbsmass0_throat_2</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>smass0_throat_2</t>
+          <t>cvmass0_throat_2</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_throat_2</t>
+          <t>cpmass0_throat_2</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_throat_2</t>
+          <t>gamma0_throat_2</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_throat_2</t>
+          <t>compressibility_factor0_throat_2</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_throat_2</t>
+          <t>speed_sound0_throat_2</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_throat_2</t>
+          <t>isentropic_bulk_modulus0_throat_2</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_throat_2</t>
+          <t>isentropic_compressibility0_throat_2</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_throat_2</t>
+          <t>isothermal_bulk_modulus0_throat_2</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_throat_2</t>
+          <t>isothermal_compressibility0_throat_2</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_throat_2</t>
+          <t>isobaric_expansion_coefficient0_throat_2</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_throat_2</t>
+          <t>viscosity0_throat_2</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_throat_2</t>
+          <t>conductivity0_throat_2</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_throat_2</t>
+          <t>P0_throat_2</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_throat_2</t>
+          <t>rho0_throat_2</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>P0_throat_2</t>
+          <t>d0_throat_2</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>rho0_throat_2</t>
+          <t>u0_throat_2</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>d0_throat_2</t>
+          <t>h0_throat_2</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>u0_throat_2</t>
+          <t>s0_throat_2</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>h0_throat_2</t>
+          <t>cv0_throat_2</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>s0_throat_2</t>
+          <t>cp0_throat_2</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>cv0_throat_2</t>
+          <t>a0_throat_2</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>cp0_throat_2</t>
+          <t>Z0_throat_2</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>a0_throat_2</t>
+          <t>mu0_throat_2</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>Z0_throat_2</t>
+          <t>k0_throat_2</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>mu0_throat_2</t>
+          <t>fluid_name0_throat_2</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>k0_throat_2</t>
+          <t>converged0_throat_2</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_throat_2</t>
+          <t>T0_rel_throat_2</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>converged0_throat_2</t>
+          <t>p0_rel_throat_2</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>T0_rel_throat_2</t>
+          <t>rhomass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>p0_rel_throat_2</t>
+          <t>umass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_rel_throat_2</t>
+          <t>hmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>umass0_rel_throat_2</t>
+          <t>smass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_rel_throat_2</t>
+          <t>gibbsmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>smass0_rel_throat_2</t>
+          <t>cvmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_rel_throat_2</t>
+          <t>cpmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_rel_throat_2</t>
+          <t>gamma0_rel_throat_2</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_rel_throat_2</t>
+          <t>compressibility_factor0_rel_throat_2</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_rel_throat_2</t>
+          <t>speed_sound0_rel_throat_2</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_rel_throat_2</t>
+          <t>isentropic_bulk_modulus0_rel_throat_2</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_rel_throat_2</t>
+          <t>isentropic_compressibility0_rel_throat_2</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_rel_throat_2</t>
+          <t>isothermal_bulk_modulus0_rel_throat_2</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_rel_throat_2</t>
+          <t>isothermal_compressibility0_rel_throat_2</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_rel_throat_2</t>
+          <t>isobaric_expansion_coefficient0_rel_throat_2</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_rel_throat_2</t>
+          <t>viscosity0_rel_throat_2</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_rel_throat_2</t>
+          <t>conductivity0_rel_throat_2</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_rel_throat_2</t>
+          <t>P0_rel_throat_2</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_rel_throat_2</t>
+          <t>rho0_rel_throat_2</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>P0_rel_throat_2</t>
+          <t>d0_rel_throat_2</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>rho0_rel_throat_2</t>
+          <t>u0_rel_throat_2</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>d0_rel_throat_2</t>
+          <t>h0_rel_throat_2</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>u0_rel_throat_2</t>
+          <t>s0_rel_throat_2</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>h0_rel_throat_2</t>
+          <t>cv0_rel_throat_2</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>s0_rel_throat_2</t>
+          <t>cp0_rel_throat_2</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>cv0_rel_throat_2</t>
+          <t>a0_rel_throat_2</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>cp0_rel_throat_2</t>
+          <t>Z0_rel_throat_2</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>a0_rel_throat_2</t>
+          <t>mu0_rel_throat_2</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>Z0_rel_throat_2</t>
+          <t>k0_rel_throat_2</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>mu0_rel_throat_2</t>
+          <t>fluid_name0_rel_throat_2</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>k0_rel_throat_2</t>
+          <t>converged0_rel_throat_2</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_rel_throat_2</t>
+          <t>loss_profile_throat_2</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>converged0_rel_throat_2</t>
+          <t>loss_incidence_throat_2</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>loss_profile_throat_2</t>
+          <t>loss_trailing_throat_2</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>loss_incidence_throat_2</t>
+          <t>loss_secondary_throat_2</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>loss_trailing_throat_2</t>
+          <t>loss_clearance_throat_2</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>loss_secondary_throat_2</t>
+          <t>loss_total_throat_2</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>loss_clearance_throat_2</t>
+          <t>loss_error_throat_2</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>loss_total_throat_2</t>
+          <t>Ma_throat_2</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>loss_error_throat_2</t>
+          <t>Ma_rel_throat_2</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>Ma_throat_2</t>
+          <t>Re_throat_2</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>Ma_rel_throat_2</t>
+          <t>mass_flow_throat_2</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>Re_throat_2</t>
+          <t>rothalpy_throat_2</t>
         </is>
       </c>
       <c r="JF1" s="1" t="inlineStr">
         <is>
-          <t>mass_flow_throat_2</t>
+          <t>blockage_throat_2</t>
         </is>
       </c>
       <c r="JG1" s="1" t="inlineStr">
         <is>
-          <t>rothalpy_throat_2</t>
+          <t>dh_s_2</t>
         </is>
       </c>
       <c r="JH1" s="1" t="inlineStr">
         <is>
-          <t>blockage_throat_2</t>
+          <t>incidence_2</t>
         </is>
       </c>
       <c r="JI1" s="1" t="inlineStr">
         <is>
-          <t>dh_s_2</t>
+          <t>efficiency_drop_profile_2</t>
         </is>
       </c>
       <c r="JJ1" s="1" t="inlineStr">
         <is>
-          <t>incidence_2</t>
+          <t>efficiency_drop_incidence_2</t>
         </is>
       </c>
       <c r="JK1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_profile_2</t>
+          <t>efficiency_drop_secondary_2</t>
         </is>
       </c>
       <c r="JL1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_incidence_2</t>
+          <t>efficiency_drop_clearance_2</t>
         </is>
       </c>
       <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_secondary_2</t>
-        </is>
-      </c>
-      <c r="JN1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_clearance_2</t>
-        </is>
-      </c>
-      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>efficiency_drop_trailing_2</t>
         </is>
@@ -7579,838 +7569,832 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593129418766148</v>
+        <v>0.01593369941082155</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788191703910312e-07</v>
+        <v>-1.788002727948691e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379057938680232</v>
+        <v>0.01379066038778327</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02519285335551078</v>
+        <v>0.02519180119319753</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491454811080419</v>
+        <v>0.05491598219152956</v>
       </c>
       <c r="H2" t="n">
-        <v>4.799612096650918e-12</v>
+        <v>6.589867540540695e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9817983309472726</v>
+        <v>0.9803465294422856</v>
       </c>
       <c r="J2" t="n">
-        <v>2.783722642467372</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>276.864252126237</v>
+      </c>
+      <c r="L2" t="n">
+        <v>113.6237537430188</v>
+      </c>
+      <c r="M2" t="n">
+        <v>252.474665443419</v>
+      </c>
+      <c r="N2" t="n">
+        <v>65.77033838461803</v>
+      </c>
+      <c r="O2" t="n">
+        <v>276.864252126237</v>
+      </c>
+      <c r="P2" t="n">
+        <v>113.6237537430188</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>252.474665443419</v>
+      </c>
+      <c r="R2" t="n">
+        <v>65.77033838461804</v>
+      </c>
+      <c r="S2" t="n">
+        <v>257.3533141437442</v>
+      </c>
+      <c r="T2" t="n">
+        <v>83295.00696826387</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.128315207197457</v>
+      </c>
+      <c r="V2" t="n">
+        <v>309635.0616271869</v>
+      </c>
+      <c r="W2" t="n">
+        <v>383457.5240356787</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3788.906534378018</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-591630.1295673925</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>716.4786262618444</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1005.129004450562</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.402873676350574</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.9993152889126165</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>321.7031770320763</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>116772.6513966536</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>8.563649005478153e-06</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>83238.17986265541</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1.201371776329107e-05</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.003899196445543281</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1.641480126916143e-05</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.02313358326690723</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>83295.00696826387</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.128315207197457</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.128315207197457</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>309635.0616271869</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>383457.5240356787</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>3788.906534378018</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>716.4786262618444</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1005.129004450562</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>321.7031770320763</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.9993152889126165</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1.641480126916143e-05</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.02313358326690723</v>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="AY2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>295.5933901621267</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>135149.1677127062</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1.593552076312655</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>336974.4209724284</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>421784.4310885898</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>3788.906534378655</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>-698191.2964158312</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>717.855810861793</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1006.77477649303</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1.40247492777747</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.9995307661003174</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>344.8024423753002</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>189455.3734073899</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>5.278287873364662e-06</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>135086.4601249048</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>7.402666403985799e-06</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.003395610642150372</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1.832921983643474e-05</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.02606722710495384</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>135149.1677127062</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1.593552076312655</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1.593552076312655</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>336974.4209724284</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>421784.4310885898</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>3788.906534378655</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>717.855810861793</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1006.77477649303</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>344.8024423753002</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.9995307661003174</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1.832921983643474e-05</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.02606722710495384</v>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="CF2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>295.5933901621267</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>135149.1677127062</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1.593552076312655</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>336974.4209724284</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>421784.4310885898</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>3788.906534378655</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>-698191.2964158312</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>717.855810861793</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>1006.77477649303</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1.40247492777747</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.9995307661003174</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>344.8024423753002</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>189455.3734073899</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>5.278287873364662e-06</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>135086.4601249048</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>7.402666403985799e-06</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.003395610642150372</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1.832921983643474e-05</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.02606722710495384</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>135149.1677127062</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1.593552076312655</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1.593552076312655</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>336974.4209724284</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>421784.4310885898</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>3788.906534378655</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>717.855810861793</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1006.77477649303</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>344.8024423753002</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.9995307661003174</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>1.832921983643474e-05</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.02606722710495384</v>
+      </c>
+      <c r="DL2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="DM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.01602810878995408</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-1.821315475040654e-07</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.0137932907360901</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.02515667143986677</v>
+      </c>
+      <c r="DR2" t="n">
         <v>0</v>
       </c>
-      <c r="L2" t="n">
-        <v>277.051495698248</v>
-      </c>
-      <c r="M2" t="n">
-        <v>113.7050375116951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>252.6434161285434</v>
-      </c>
-      <c r="O2" t="n">
-        <v>65.76933148290927</v>
-      </c>
-      <c r="P2" t="n">
-        <v>277.051495698248</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>113.7050375116951</v>
-      </c>
-      <c r="R2" t="n">
-        <v>252.6434161285434</v>
-      </c>
-      <c r="S2" t="n">
-        <v>65.76933148290928</v>
-      </c>
-      <c r="T2" t="n">
-        <v>257.3015351538042</v>
-      </c>
-      <c r="U2" t="n">
-        <v>83234.57804880131</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.12772376086798</v>
-      </c>
-      <c r="W2" t="n">
-        <v>309598.0709554752</v>
-      </c>
-      <c r="X2" t="n">
-        <v>383405.6654542713</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>3788.913188278727</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-591487.51445434</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>716.477284904773</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1005.127268361947</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1.402873879659059</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.9993150861891534</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>321.6707699400712</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>116687.9279770325</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>8.56986680058993e-06</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>83177.77504374897</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1.202244228670496e-05</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.00389997924467115</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1.641213474478691e-05</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.02312952199237141</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>83234.57804880131</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1.12772376086798</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.12772376086798</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>309598.0709554752</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>383405.6654542713</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>3788.913188278727</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>716.477284904773</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>1005.127268361947</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>321.6707699400712</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0.9993150861891534</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>1.641213474478691e-05</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.02312952199237141</v>
-      </c>
-      <c r="AY2" t="inlineStr">
+      <c r="DS2" t="n">
+        <v>0.05497788883436344</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>-2.282479760751244e-13</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.8606201986579433</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.8606201986579433</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>497851.0604817092</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>2.740325648303469</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>421784.4310884894</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1473.427406277391</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.006566568123367638</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-7.368685334849602e-08</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.01038200071561011</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.005683382657583173</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.02447338350327146</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.001918126998470978</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.01189012253321323</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.03198066011997568</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.04237524032859367</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.112637533483525</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>-2.210190364060338e-12</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.9610021001474992</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>165.3032</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>143.1710351283728</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>127.5487452649688</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-65.03278312560408</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-27.01549357900983</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>263.2932728747669</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>127.5487452649688</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>-230.3359831256041</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>-61.02447140283702</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>234.2262690928627</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>57554.70642258519</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.8566580263295236</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>293121.5251165973</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>360306.6849512477</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>3800.680444294259</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>-529912.5155300002</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>715.9883610120991</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>1004.423052047662</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1.402848295784921</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.9992669504683094</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>306.8902321798781</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>80681.43608611979</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1.239442489512203e-05</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>57512.58801720749</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1.738749784135614e-05</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.004282804348535167</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>1.52019441283315e-05</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.0212932179012026</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>57554.70642258519</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.8566580263295236</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.8566580263295236</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>293121.5251165973</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>360306.6849512477</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>3800.680444294259</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>715.9883610120991</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>1004.423052047662</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>306.8902321798781</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.9992669504683094</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1.52019441283315e-05</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.0212932179012026</v>
+      </c>
+      <c r="GD2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="AZ2" t="b">
+      <c r="GE2" t="b">
         <v>1</v>
       </c>
-      <c r="BA2" t="n">
-        <v>295.5933828944471</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>135146.033472414</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1.593515142464665</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>336974.4221521791</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>421784.4310883889</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>3788.913188279185</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>-698193.2357284407</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>717.8558026979733</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1006.774725031984</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1.402474872039961</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.9995307767691757</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>344.8024349235152</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>189450.9742005847</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>5.278410439532666e-06</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>135083.328748001</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>7.402838005757973e-06</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.003395610435372252</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>1.832921903180509e-05</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.02606722555810472</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>135146.033472414</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1.593515142464665</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>1.593515142464665</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>336974.4221521791</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>421784.4310883889</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>3788.913188279185</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>717.8558026979733</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1006.774725031984</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>344.8024349235152</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>0.9995307767691757</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1.832921903180509e-05</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.02606722555810472</v>
-      </c>
-      <c r="CF2" t="inlineStr">
+      <c r="GF2" t="n">
+        <v>244.4614066948898</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>66822.70615642406</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.9529351478342097</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>300432.6210983515</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>370555.6576011985</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>3800.680444293208</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>-558564.0302084781</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>716.1724030950858</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1004.673585265763</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>1.402837614132939</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0.9992960651378434</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>313.5317367535067</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>93675.5737966155</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1.067514144264713e-05</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>66775.77850271302</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1.497548995193476e-05</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0.004103843949382138</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1.574391435365812e-05</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>0.02211361781068676</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>66822.70615642406</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0.9529351478342097</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>0.9529351478342097</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>300432.6210983515</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>370555.6576011985</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>3800.680444293208</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>716.1724030950858</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>1004.673585265763</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>313.5317367535067</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>0.9992960651378434</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>1.574391435365812e-05</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>0.02211361781068676</v>
+      </c>
+      <c r="HK2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="CG2" t="b">
+      <c r="HL2" t="b">
         <v>1</v>
       </c>
-      <c r="CH2" t="n">
-        <v>295.5933828944471</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>135146.033472414</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1.593515142464665</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>336974.4221521791</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>421784.4310883889</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>3788.913188279185</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>-698193.2357284407</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>717.8558026979733</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>1006.774725031984</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1.402474872039961</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.9995307767691757</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>344.8024349235152</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>189450.9742005847</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>5.278410439532666e-06</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>135083.328748001</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>7.402838005757973e-06</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.003395610435372252</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1.832921903180509e-05</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.02606722555810472</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>135146.033472414</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1.593515142464665</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1.593515142464665</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>336974.4221521791</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>421784.4310883889</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>3788.913188279185</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>717.8558026979733</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>1006.774725031984</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>344.8024349235152</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.9995307767691757</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1.832921903180509e-05</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.02606722555810472</v>
-      </c>
-      <c r="DM2" t="inlineStr">
+      <c r="HM2" t="n">
+        <v>268.8324161237027</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>93119.85352002685</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>1.207446265600233</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>317847.035667724</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>394968.3587219935</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>3800.680444291438</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>-626777.7480309814</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>716.7947149388538</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1005.457361475718</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1.402713134626682</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>0.9993936971367167</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>328.8066602140959</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>130541.6279786725</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>7.660391673400738e-06</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>93063.66694385801</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>1.074533201666408e-05</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>0.003732486991492123</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>1.700018262268562e-05</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>0.02402630820219555</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>93119.85352002685</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>1.207446265600233</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>1.207446265600233</v>
+      </c>
+      <c r="II2" t="n">
+        <v>317847.035667724</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>394968.3587219935</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>3800.680444291438</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>716.7947149388538</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>1005.457361475718</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>328.8066602140959</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>0.9993936971367167</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1.700018262268562e-05</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0.02402630820219555</v>
+      </c>
+      <c r="IR2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="DN2" t="b">
+      <c r="IS2" t="b">
         <v>1</v>
       </c>
-      <c r="DO2" t="n">
-        <v>0.0160274680708837</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>-1.822088379267041e-07</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.01379326062349593</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.02515703990322468</v>
-      </c>
-      <c r="DS2" t="n">
+      <c r="IT2" t="n">
+        <v>0.02429238887165199</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>0.001965144688502249</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>0.01190257554953914</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>0.03190958695927112</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>0.04245126562566418</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>0.1125209616946287</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>1.822847428556429e-12</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>0.4665219681689175</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>0.8579395668756326</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>386654.0207465911</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>2.740325648207817</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>381305.7847567669</v>
+      </c>
+      <c r="JF2" t="n">
         <v>0</v>
       </c>
-      <c r="DT2" t="n">
-        <v>0.05497758638876639</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>3.259212344453033e-12</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.8612889997740982</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.8612889997740982</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>498007.5144156087</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>2.740741523202748</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>421784.4310884894</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>1473.775685332599</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.006567386305825776</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>-7.371495102731316e-08</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.01038529564407879</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.005684915559743554</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.02448664324581036</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.001921552659065684</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.01188917040645583</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.03198686093101345</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0.04237527463714711</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.1126595018794924</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>7.275069435763726e-11</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.9633419868533756</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>2.778686157229772</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>165.3032</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>143.4433306090411</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>127.7128146843459</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>-65.31022937960481</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-27.08445418631626</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>263.6154715581391</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>127.7128146843459</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>-230.6134293796048</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>-61.02248760977916</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>234.1346587797139</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>57470.58947155828</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.8557408418851221</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>293056.1067221047</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>360214.9784956612</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>3800.708363477216</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-529662.5773082816</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>715.9868666459123</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1004.420831930841</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1.402848122949681</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.9992667915968865</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>306.8301427872705</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>80563.49609112246</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1.241256956958442e-05</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>57428.52328285306</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>1.741294992167383e-05</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.004284475388287618</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1.519705207027713e-05</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.02128582471226659</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>57470.58947155828</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.8557408418851221</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.8557408418851221</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>293056.1067221047</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>360214.9784956612</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>3800.708363477216</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>715.9868666459123</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1004.420831930841</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>306.8301427872705</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.9992667915968865</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1.519705207027713e-05</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.02128582471226659</v>
-      </c>
-      <c r="GF2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="GG2" t="b">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>244.4087757919845</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>66766.01590270607</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0.952331833154242</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>300395.0405159232</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>370502.9730435681</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>3800.708363485889</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>-558423.5052183748</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>716.1713231712048</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1004.672020146054</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>1.402837544091223</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.9992959659994335</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>313.4979449590389</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>93596.08822330499</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1.068420720334127e-05</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>66719.12126784275</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1.498820699369702e-05</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.004104724630693246</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1.574114887925312e-05</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.02210942336692919</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>66766.01590270607</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0.952331833154242</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0.952331833154242</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>300395.0405159232</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>370502.9730435681</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>3800.708363485889</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>716.1713231712048</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>1004.672020146054</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>313.4979449590389</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0.9992959659994335</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>1.574114887925312e-05</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0.02210942336692919</v>
-      </c>
-      <c r="HM2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="HN2" t="b">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>268.8255827072211</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>93102.55547133692</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1.207252625363546</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>317842.1722421815</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>394961.5369180715</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>3800.708363484118</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-626766.1035957552</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>716.7944704770582</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>1005.456914480044</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>1.402712989416434</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>0.9993937225179962</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>328.8024724109947</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>130517.3680946617</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>7.661815546837563e-06</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>93046.38160437964</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1.074732819006183e-05</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>0.003732580467098968</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1.699983545368422e-05</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>0.02402577638912676</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>93102.55547133692</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1.207252625363546</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>1.207252625363546</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>317842.1722421815</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>394961.5369180715</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>3800.708363484118</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>716.7944704770582</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>1005.456914480044</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>328.8024724109947</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>0.9993937225179962</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1.699983545368422e-05</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>0.02402577638912676</v>
-      </c>
-      <c r="IT2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="IU2" t="b">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>0.02429895907014249</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>0.001970334090442379</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>0.01190214067851487</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>0.03191283379858983</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>0.04245439804610598</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>0.1125386656837956</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>1.372397057108898e-10</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>0.4675007784632566</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>0.8591576732436856</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>386837.1858595233</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>2.74074152321138</v>
-      </c>
       <c r="JG2" t="n">
-        <v>381298.9629528511</v>
+        <v>2666.316168643301</v>
       </c>
       <c r="JH2" t="n">
-        <v>0</v>
+        <v>6.12955070118803</v>
       </c>
       <c r="JI2" t="n">
-        <v>2666.383354556921</v>
+        <v>0.008898450240983884</v>
       </c>
       <c r="JJ2" t="n">
-        <v>6.135808888206228</v>
+        <v>0.0006974253335056907</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.008901876183209468</v>
+        <v>0.01162807393237557</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.0006985614025902207</v>
+        <v>0.01540751271532681</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.01162850590172834</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>0.0154051106255212</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>0.004322189930931281</v>
+        <v>0.004323213572281737</v>
       </c>
     </row>
     <row r="3">
@@ -8418,838 +8402,832 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01594768449549269</v>
+        <v>0.01595022849370333</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.794076015655355e-07</v>
+        <v>-1.793955750467426e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379111872477631</v>
+        <v>0.01379120448695119</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02518545009318991</v>
+        <v>0.0251843323886836</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05492407390585734</v>
+        <v>0.05492558597376307</v>
       </c>
       <c r="H3" t="n">
-        <v>7.216414965593998e-12</v>
+        <v>-2.091507522727909e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9817966431019763</v>
+        <v>0.98034472729654</v>
       </c>
       <c r="J3" t="n">
-        <v>2.783717087217443</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>277.9577307570761</v>
+      </c>
+      <c r="L3" t="n">
+        <v>114.0320323164203</v>
+      </c>
+      <c r="M3" t="n">
+        <v>253.4900307574444</v>
+      </c>
+      <c r="N3" t="n">
+        <v>65.77948826725543</v>
+      </c>
+      <c r="O3" t="n">
+        <v>277.9577307570761</v>
+      </c>
+      <c r="P3" t="n">
+        <v>114.0320323164203</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>253.4900307574444</v>
+      </c>
+      <c r="R3" t="n">
+        <v>65.77948826725543</v>
+      </c>
+      <c r="S3" t="n">
+        <v>257.0504352054104</v>
+      </c>
+      <c r="T3" t="n">
+        <v>82941.78307800343</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.124855601864927</v>
+      </c>
+      <c r="V3" t="n">
+        <v>309418.6874038897</v>
+      </c>
+      <c r="W3" t="n">
+        <v>383154.1810445776</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3788.946161245299</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-590796.0786733957</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>716.4707974533599</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1005.118863265241</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.402874851058631</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.9993141076252422</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>321.5135668731562</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>116277.4188181163</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>8.600122105945795e-06</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>82885.09750557691</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.206489501846475e-05</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.003903779826911319</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.639920054024157e-05</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.0231098233948714</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>82941.78307800343</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.124855601864927</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.124855601864927</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>309418.6874038897</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>383154.1810445776</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>3788.946161245299</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>716.4707974533599</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>1005.118863265241</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>321.5135668731562</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.9993141076252422</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>1.639920054024157e-05</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.0231098233948714</v>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="AY3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>295.5933468836033</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>135130.5030259935</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>1.593332131858612</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>336974.427998798</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>421784.4310885898</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>3788.946161245009</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>-698202.845875603</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>717.8557622455379</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>1006.774470037779</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.402474595855397</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.9995308296345008</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>344.8023979999738</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>189429.1757335815</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>5.279017849955848e-06</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>135067.812488999</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>7.403688425630257e-06</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.003395609410752963</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>1.832921504485087e-05</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.02606721789341952</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>135130.5030259935</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>1.593332131858612</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>1.593332131858612</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>336974.427998798</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>421784.4310885898</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>3788.946161245009</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>717.8557622455379</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>1006.774470037779</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>344.8023979999738</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.9995308296345008</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>1.832921504485087e-05</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0.02606721789341952</v>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="CF3" t="b">
+        <v>1</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>295.5933468836033</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>135130.5030259935</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>1.593332131858612</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>336974.427998798</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>421784.4310885898</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>3788.946161245009</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>-698202.845875603</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>717.8557622455379</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>1006.774470037779</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1.402474595855397</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>0.9995308296345008</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>344.8023979999738</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>189429.1757335815</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>5.279017849955848e-06</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>135067.812488999</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>7.403688425630257e-06</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0.003395609410752963</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>1.832921504485087e-05</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0.02606721789341952</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>135130.5030259935</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>1.593332131858612</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>1.593332131858612</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>336974.427998798</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>421784.4310885898</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>3788.946161245009</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>717.8557622455379</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>1006.774470037779</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>344.8023979999738</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0.9995308296345008</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>1.832921504485087e-05</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>0.02606721789341952</v>
+      </c>
+      <c r="DL3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="DM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0.01603742871347945</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>-1.825908094046871e-07</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0.01379361004717251</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0.02515223164239709</v>
+      </c>
+      <c r="DR3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" t="n">
-        <v>278.133624030915</v>
-      </c>
-      <c r="M3" t="n">
-        <v>114.1089762168988</v>
-      </c>
-      <c r="N3" t="n">
-        <v>253.6482887056438</v>
-      </c>
-      <c r="O3" t="n">
-        <v>65.778407682845</v>
-      </c>
-      <c r="P3" t="n">
-        <v>278.133624030915</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>114.1089762168988</v>
-      </c>
-      <c r="R3" t="n">
-        <v>253.6482887056438</v>
-      </c>
-      <c r="S3" t="n">
-        <v>65.778407682845</v>
-      </c>
-      <c r="T3" t="n">
-        <v>257.0016035805809</v>
-      </c>
-      <c r="U3" t="n">
-        <v>82884.97726543594</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.124298997900791</v>
-      </c>
-      <c r="W3" t="n">
-        <v>309383.8025271624</v>
-      </c>
-      <c r="X3" t="n">
-        <v>383105.2746802042</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3788.9524122518</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>-590661.5711590188</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>716.4695394914841</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1005.117233374198</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.402875039303949</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.99931391749121</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>321.4829865543582</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>116197.7749886809</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>8.606016768371099e-06</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>82828.31452068157</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1.207316611217904e-05</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.00390451979806176</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1.639668464743923e-05</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0.02310599192515723</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>82884.97726543594</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1.124298997900791</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.124298997900791</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>309383.8025271624</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>383105.2746802042</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>3788.9524122518</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>716.4695394914841</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>1005.117233374198</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>321.4829865543582</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0.99931391749121</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>1.639668464743923e-05</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0.02310599192515723</v>
-      </c>
-      <c r="AY3" t="inlineStr">
+      <c r="DS3" t="n">
+        <v>0.05498308781223964</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>-1.390554338343009e-14</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0.8645287769978811</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0.8645287769978811</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>498758.8281044999</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>2.74271310970482</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>421784.4310884894</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>1485.004309601209</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>0.006324338056350071</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>-7.113116046311243e-08</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0.009985702199338276</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0.005468275229672302</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.02459522109341724</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0.002166345437345728</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0.01188682146171543</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0.03204523418555951</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>0.04266986376627293</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>0.1133634859443108</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>-1.504634472571098e-10</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0.960750810513731</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>165.3032</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>147.8703209435865</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>130.1084645531526</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>-70.26677214430956</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>-28.37184243728924</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>269.1122894340757</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>130.1084645531526</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>-235.5699721443096</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>-61.08753904193376</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>232.4495873987259</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>55931.59611994542</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0.8388647153662594</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>291852.8370242357</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>358528.1841873655</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>3801.263841043409</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>-525074.0272568708</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>715.9598802282831</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>1004.380331903859</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>1.402844432545038</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0.9992640790444183</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>305.7227757792113</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>78405.67814388685</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>1.275417831556589e-05</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>55890.50098851191</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>1.789212804167825e-05</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0.004315445128738605</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>1.510693775183092e-05</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0.02114967868913906</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>55931.59611994542</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>0.8388647153662594</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0.8388647153662594</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>291852.8370242357</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>358528.1841873655</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>3801.263841043409</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>715.9598802282831</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>1004.380331903859</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>305.7227757792113</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0.9992640790444183</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>1.510693775183092e-05</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>0.02114967868913906</v>
+      </c>
+      <c r="GD3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="AZ3" t="b">
+      <c r="GE3" t="b">
         <v>1</v>
       </c>
-      <c r="BA3" t="n">
-        <v>295.5933400569021</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>135127.5589689188</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>1.593297439121552</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>336974.4291069512</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>421784.4310883891</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>3788.952412251385</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>-698204.6677656543</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>717.8557545770859</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>1006.774421699324</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>1.402474543499969</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0.9995308396560357</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>344.8023910003657</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>189425.0434686045</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>5.279133010550112e-06</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>135064.8711212123</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>7.403849659046889e-06</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0.003395609216521723</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>1.832921428904547e-05</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0.02606721644043281</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>135127.5589689188</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>1.593297439121552</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>1.593297439121552</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>336974.4291069512</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>421784.4310883891</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>3788.952412251385</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>717.8557545770859</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>1006.774421699324</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>344.8023910003657</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>0.9995308396560357</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>1.832921428904547e-05</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0.02606721644043281</v>
-      </c>
-      <c r="CF3" t="inlineStr">
+      <c r="GF3" t="n">
+        <v>243.3678546859828</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>65651.70334147129</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0.9404446718324492</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>299651.7861057029</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>369461.0000954525</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>3801.263841052059</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>-555644.4259967855</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>716.1501976961308</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>1004.641302974723</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>1.402836033846914</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>0.9992940563464553</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>312.8288747531153</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>92033.7070191119</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>1.08655842776423e-05</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>65605.46264750084</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>1.52426331534771e-05</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0.004122220614579797</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>1.568640705489722e-05</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0.02202641086289495</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>65651.70334147129</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>0.9404446718324492</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>0.9404446718324492</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>299651.7861057029</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>369461.0000954525</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>3801.263841052059</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>716.1501976961308</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>1004.641302974723</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>312.8288747531153</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>0.9992940563464553</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>1.568640705489722e-05</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>0.02202641086289495</v>
+      </c>
+      <c r="HK3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="CG3" t="b">
+      <c r="HL3" t="b">
         <v>1</v>
       </c>
-      <c r="CH3" t="n">
-        <v>295.5933400569021</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>135127.5589689188</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>1.593297439121552</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>336974.4291069512</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>421784.4310883891</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>3788.952412251385</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>-698204.6677656543</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>717.8557545770859</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>1006.774421699324</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>1.402474543499969</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>0.9995308396560357</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>344.8023910003657</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>189425.0434686045</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>5.279133010550112e-06</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>135064.8711212123</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>7.403849659046889e-06</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0.003395609216521723</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>1.832921428904547e-05</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>0.02606721644043281</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>135127.5589689188</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>1.593297439121552</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>1.593297439121552</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>336974.4291069512</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>421784.4310883891</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>3788.952412251385</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>717.8557545770859</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>1006.774421699324</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>344.8023910003657</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0.9995308396560357</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>1.832921428904547e-05</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>0.02606721644043281</v>
-      </c>
-      <c r="DM3" t="inlineStr">
+      <c r="HM3" t="n">
+        <v>268.6028881515023</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>92654.46754733536</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>1.202438301373034</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>317683.4104743198</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>394738.8963495914</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>3801.263841036479</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>-626291.5499786801</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>716.7868863791914</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>1005.444725569587</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>1.402710826154388</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>0.9993938096917557</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>328.6660257356729</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>129889.0163892632</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>7.698880381102504e-06</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>92598.56983164616</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>1.07993028598401e-05</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0.003735645016471875</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>1.698853714526815e-05</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>0.02400848363074847</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>92654.46754733536</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>1.202438301373034</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>1.202438301373034</v>
+      </c>
+      <c r="II3" t="n">
+        <v>317683.4104743198</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>394738.8963495914</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>3801.263841036479</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>716.7868863791914</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>1005.444725569587</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>328.6660257356729</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>0.9993938096917557</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>1.698853714526815e-05</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>0.02400848363074847</v>
+      </c>
+      <c r="IR3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="DN3" t="b">
+      <c r="IS3" t="b">
         <v>1</v>
       </c>
-      <c r="DO3" t="n">
-        <v>0.01603672025664245</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>-1.826638728287869e-07</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>0.01379357719009344</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0.02515263942096924</v>
-      </c>
-      <c r="DS3" t="n">
+      <c r="IT3" t="n">
+        <v>0.02448171759272998</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>0.002201228143570568</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>0.01189238600756463</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>0.03201339421248479</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>0.04270336871454269</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>0.1132920946708927</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>-8.558787012447056e-11</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>0.483674533461571</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>0.8802493983255759</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>389424.6425653863</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>2.742713110196105</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>381076.3223845778</v>
+      </c>
+      <c r="JF3" t="n">
         <v>0</v>
       </c>
-      <c r="DT3" t="n">
-        <v>0.05498275420383229</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>1.231792445821611e-13</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0.865158144174098</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>0.865158144174098</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>498904.0319400639</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>2.74309069933814</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>421784.4310884894</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>1485.215249692032</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0.006324452941372269</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>-7.114856916979916e-08</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0.009987919811598859</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0.005469212875911682</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0.0246045303492634</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>0.0021676104912659</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>0.01188621339003089</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0.03204893959080215</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>0.04266825628621222</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>0.1133755501075746</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>-1.142863442771258e-10</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>0.9631018588327922</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>2.770297730328047</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>165.3032</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>148.1544009190901</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>130.2757508413721</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>-70.55462603126173</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>-28.43905013902522</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>269.44514350323</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>130.2757508413721</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>-235.8578260312617</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>-61.08599395068759</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>232.3559345393326</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>55847.67419927942</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>0.8379437833117096</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>291785.960097853</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>358434.4337920656</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>3801.2911505922</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>-524818.1239598799</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>715.9584136015446</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>1004.378133345741</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>1.402844235454032</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>0.999263924898628</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>305.6611132590448</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>78288.01188802604</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>1.277334774358918e-05</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>55806.63191925085</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>1.791901724954384e-05</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0.004317179698139077</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>1.510192230143027e-05</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0.02114210372250029</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>55847.67419927942</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0.8379437833117096</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>0.8379437833117096</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>291785.960097853</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>358434.4337920656</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>3801.2911505922</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>715.9584136015446</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>1004.378133345741</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>305.6611132590448</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0.999263924898628</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>1.510192230143027e-05</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0.02114210372250029</v>
-      </c>
-      <c r="GF3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="GG3" t="b">
-        <v>1</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>243.3162037001845</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>65596.84681030989</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>0.9398584231766394</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>299614.9054749797</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>369409.2970479128</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>3801.291150590907</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>-555506.4348729729</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>716.1491613433755</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>1004.639792993842</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>1.402835955444403</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>0.9992939630949944</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>312.7956381744699</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>91956.79255158905</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>1.087467246575598e-05</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>65550.63847252059</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>1.525538153864373e-05</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0.004123092681942214</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>1.568368842433093e-05</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0.02202228901003255</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>65596.84681030989</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0.9398584231766394</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0.9398584231766394</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>299614.9054749797</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>369409.2970479128</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>3801.291150590907</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>716.1491613433755</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>1004.639792993842</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>312.7956381744699</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>0.9992939630949944</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>1.568368842433093e-05</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>0.02202228901003255</v>
-      </c>
-      <c r="HM3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="HN3" t="b">
-        <v>1</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>268.5987517898972</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>92640.69423768096</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>1.202278025705955</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>317680.4743403429</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>394734.7764709037</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>3801.291150589192</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>-626287.2817673353</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>716.7867281706031</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>1005.444386846551</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>1.402710663201961</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>0.9993938469742993</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>328.6634881121533</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>129869.6977286226</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>7.70002562175522e-06</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>92584.80821138812</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>1.080090804656436e-05</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0.003735701238634952</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>1.698832642399014e-05</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>0.02400816045477172</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>92640.69423768096</v>
-      </c>
-      <c r="II3" t="n">
-        <v>1.202278025705955</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>1.202278025705955</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>317680.4743403429</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>394734.7764709037</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>3801.291150589192</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>716.7867281706031</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>1005.444386846551</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>328.6634881121533</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>0.9993938469742993</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>1.698832642399014e-05</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>0.02400816045477172</v>
-      </c>
-      <c r="IT3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="IU3" t="b">
-        <v>1</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>0.02448487147524587</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>0.002204429598467692</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>0.01189216561948413</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0.03201488114952462</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0.04270408033222155</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>0.1133004281749439</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>-2.808962784595082e-11</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0.4847015027179157</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>0.8815159397619476</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>389607.6030607653</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>2.743090699832277</v>
-      </c>
       <c r="JG3" t="n">
-        <v>381072.2025056837</v>
+        <v>2819.797500960703</v>
       </c>
       <c r="JH3" t="n">
-        <v>0</v>
+        <v>6.466737171132877</v>
       </c>
       <c r="JI3" t="n">
-        <v>2819.835633174167</v>
+        <v>0.008972027838924521</v>
       </c>
       <c r="JJ3" t="n">
-        <v>6.468939794586454</v>
+        <v>0.0007902556150550339</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.008974662799229443</v>
+        <v>0.011689699073071</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.0007906500535892537</v>
+        <v>0.01556543054197553</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.01169005958729607</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0.01556352456088724</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0.004335573799660299</v>
+        <v>0.004336163219097073</v>
       </c>
     </row>
   </sheetData>
@@ -9288,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4088683473166929</v>
+        <v>0.4091107084128275</v>
       </c>
     </row>
     <row r="3">
@@ -9296,7 +9274,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4292546932807855</v>
+        <v>0.4294038856599576</v>
       </c>
     </row>
   </sheetData>
@@ -10086,7 +10064,7 @@
         <v>115</v>
       </c>
       <c r="H2" t="n">
-        <v>1.579787630147062e-10</v>
+        <v>3.496260412132681e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10117,7 +10095,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>1.592952932989859e-10</v>
+        <v>2.075237849053035e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_linux/performance_analysis_evaluate_cascade_throat_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_evaluate_cascade_throat_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015415654259294</v>
+        <v>2.015415654261262</v>
       </c>
       <c r="C2" t="n">
-        <v>2.300000000050641</v>
+        <v>2.299999999961456</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740325648204902</v>
+        <v>2.740325648247112</v>
       </c>
       <c r="E2" t="n">
-        <v>92.55823833936496</v>
+        <v>92.55823833472598</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08691049320809</v>
+        <v>79.08691048982635</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1455443414638491</v>
+        <v>0.1455443414575604</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23245483467194</v>
+        <v>-78.23245483128392</v>
       </c>
       <c r="I2" t="n">
-        <v>136187.0994194433</v>
+        <v>136187.0994157176</v>
       </c>
       <c r="J2" t="n">
-        <v>83.70442496585326</v>
+        <v>83.7044249635634</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.35244699830626</v>
+        <v>-24.35244699718792</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2468792288594</v>
+        <v>135.2468792259375</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372087.0166558724</v>
+        <v>372087.0166579974</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7160036893283779</v>
+        <v>0.7160036893338922</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069501792636507</v>
+        <v>2.069501792735193</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999780276</v>
+        <v>2.400000000016593</v>
       </c>
       <c r="D3" t="n">
-        <v>2.742713110060793</v>
+        <v>2.74271310969595</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53028345151149</v>
+        <v>92.53028345287407</v>
       </c>
       <c r="F3" t="n">
-        <v>78.2038410857552</v>
+        <v>78.20384108861148</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548297684969675</v>
+        <v>0.1548297684785446</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35867085425217</v>
+        <v>-77.35867085709003</v>
       </c>
       <c r="I3" t="n">
-        <v>140844.2777849079</v>
+        <v>140844.2777713166</v>
       </c>
       <c r="J3" t="n">
-        <v>86.56685788869569</v>
+        <v>86.56685788034207</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.84402697983919</v>
+        <v>-26.84402697733249</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5960843766902</v>
+        <v>142.5960843682065</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370432.2582097477</v>
+        <v>370432.2582078721</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7036726399487662</v>
+        <v>0.703672639901964</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.63354388716405</v>
+        <v>80.63354388538704</v>
       </c>
       <c r="D2" t="n">
-        <v>80.63354388716405</v>
+        <v>80.63354388538704</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.63354388716405</v>
+        <v>80.63354388538704</v>
       </c>
       <c r="H2" t="n">
-        <v>80.63354388716405</v>
+        <v>80.63354388538704</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3586251721163</v>
+        <v>292.3586251722592</v>
       </c>
       <c r="L2" t="n">
-        <v>132782.2605454488</v>
+        <v>132782.2605456761</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583018477913073</v>
+        <v>1.583018477915006</v>
       </c>
       <c r="N2" t="n">
-        <v>334654.3866653036</v>
+        <v>334654.3866654057</v>
       </c>
       <c r="O2" t="n">
-        <v>418533.5468886882</v>
+        <v>418533.5468888314</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687434.9680299649</v>
+        <v>-687434.968030362</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7131881773008</v>
+        <v>717.7131881773072</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.647986356441</v>
+        <v>1006.647986356448</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576966591511</v>
+        <v>1.402576966591509</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980076920326</v>
+        <v>0.9994980076920336</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9118376533769</v>
+        <v>342.9118376534608</v>
       </c>
       <c r="W2" t="n">
-        <v>186144.8132522638</v>
+        <v>186144.8132525822</v>
       </c>
       <c r="X2" t="n">
-        <v>5.372161504413224e-06</v>
+        <v>5.372161504404035e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132716.2912881892</v>
+        <v>132716.2912884164</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534869986899587e-06</v>
+        <v>7.534869986886688e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433387668876372</v>
+        <v>0.003433387668874696</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817171174420984e-05</v>
+        <v>1.817171174421683e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582477109755651</v>
+        <v>0.02582477109756728</v>
       </c>
       <c r="AD2" t="n">
-        <v>132782.2605454488</v>
+        <v>132782.2605456761</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583018477913073</v>
+        <v>1.583018477915006</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583018477913073</v>
+        <v>1.583018477915006</v>
       </c>
       <c r="AG2" t="n">
-        <v>334654.3866653036</v>
+        <v>334654.3866654057</v>
       </c>
       <c r="AH2" t="n">
-        <v>418533.5468886882</v>
+        <v>418533.5468888314</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7131881773008</v>
+        <v>717.7131881773072</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.647986356441</v>
+        <v>1006.647986356448</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9118376533769</v>
+        <v>342.9118376534608</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980076920326</v>
+        <v>0.9994980076920336</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817171174420984e-05</v>
+        <v>1.817171174421683e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582477109755651</v>
+        <v>0.02582477109756728</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2351436580287155</v>
+        <v>0.2351436580234758</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2351436580287155</v>
+        <v>0.2351436580234758</v>
       </c>
       <c r="DH2" t="n">
-        <v>183756.8902218549</v>
+        <v>183756.890217959</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.740325648308761</v>
+        <v>2.740325648251716</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>268.6999508444675</v>
+        <v>268.699950836503</v>
       </c>
       <c r="DU2" t="n">
-        <v>110.6156553301601</v>
+        <v>110.6156553272559</v>
       </c>
       <c r="DV2" t="n">
-        <v>244.8751526384383</v>
+        <v>244.8751526310108</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.69022765842448</v>
+        <v>65.69022765833687</v>
       </c>
       <c r="DX2" t="n">
-        <v>268.6999508444675</v>
+        <v>268.699950836503</v>
       </c>
       <c r="DY2" t="n">
-        <v>110.6156553301601</v>
+        <v>110.6156553272559</v>
       </c>
       <c r="DZ2" t="n">
-        <v>244.8751526384383</v>
+        <v>244.8751526310108</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.69022765842448</v>
+        <v>65.69022765833685</v>
       </c>
       <c r="EB2" t="n">
-        <v>259.5769212248007</v>
+        <v>259.5769212269396</v>
       </c>
       <c r="EC2" t="n">
-        <v>85923.87002773517</v>
+        <v>85923.87002883847</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.153945068008428</v>
+        <v>1.153945068013714</v>
       </c>
       <c r="EE2" t="n">
-        <v>311223.6284843919</v>
+        <v>311223.6284859237</v>
       </c>
       <c r="EF2" t="n">
-        <v>385684.5992964858</v>
+        <v>385684.5992986326</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.609699996221</v>
+        <v>3788.609700000809</v>
       </c>
       <c r="EH2" t="n">
-        <v>-597751.0423509495</v>
+        <v>-597751.0423580967</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5374584805788</v>
+        <v>716.5374584806316</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.20488445805</v>
+        <v>1005.204884458092</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402864389797</v>
+        <v>1.402864389796955</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993241596861342</v>
+        <v>0.9993241596861543</v>
       </c>
       <c r="EM2" t="n">
-        <v>323.0918122176863</v>
+        <v>323.0918122190187</v>
       </c>
       <c r="EN2" t="n">
-        <v>120458.3860086472</v>
+        <v>120458.3860101925</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.301622104817297e-06</v>
+        <v>8.301622104710801e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>85866.02303454147</v>
+        <v>85866.02303564576</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.16460500283998e-05</v>
+        <v>1.164605002825003e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003865874441852033</v>
+        <v>0.003865874441820028</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.652911597553203e-05</v>
+        <v>1.652911597564158e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02330775734918516</v>
+        <v>0.02330775734935194</v>
       </c>
       <c r="EU2" t="n">
-        <v>85923.87002773517</v>
+        <v>85923.87002883847</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.153945068008428</v>
+        <v>1.153945068013714</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.153945068008428</v>
+        <v>1.153945068013714</v>
       </c>
       <c r="EX2" t="n">
-        <v>311223.6284843919</v>
+        <v>311223.6284859237</v>
       </c>
       <c r="EY2" t="n">
-        <v>385684.5992964858</v>
+        <v>385684.5992986326</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.609699996221</v>
+        <v>3788.609700000809</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5374584805788</v>
+        <v>716.5374584806316</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.20488445805</v>
+        <v>1005.204884458092</v>
       </c>
       <c r="FC2" t="n">
-        <v>323.0918122176863</v>
+        <v>323.0918122190187</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993241596861342</v>
+        <v>0.9993241596861543</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.652911597553203e-05</v>
+        <v>1.652911597564158e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02330775734918516</v>
+        <v>0.02330775734935194</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5937145388082</v>
+        <v>295.5937145389032</v>
       </c>
       <c r="FJ2" t="n">
-        <v>135289.0619944506</v>
+        <v>135289.0619924474</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.595200587754765</v>
+        <v>1.59520058773062</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3683082162</v>
+        <v>336974.3683082883</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310883892</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.609699994201</v>
+        <v>3788.609699998789</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698104.7830706566</v>
+        <v>-698104.7830722722</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8561752458138</v>
+        <v>717.8561752458129</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.777073410772</v>
+        <v>1006.777073410742</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402477415571474</v>
+        <v>1.402477415571434</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995302899143501</v>
+        <v>0.9995302899143582</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8027749772379</v>
+        <v>344.8027749772911</v>
       </c>
       <c r="FU2" t="n">
-        <v>189651.7287113214</v>
+        <v>189651.7287085094</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.272823015086518e-06</v>
+        <v>5.2728230151647e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>135226.2265371618</v>
+        <v>135226.2265351606</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.395015194964327e-06</v>
+        <v>7.395015195073764e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395619871558887</v>
+        <v>0.003395619871557598</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.83292557500855e-05</v>
+        <v>1.832925575008981e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606729614694808</v>
+        <v>0.02606729614695452</v>
       </c>
       <c r="GB2" t="n">
-        <v>135289.0619944506</v>
+        <v>135289.0619924474</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.595200587754765</v>
+        <v>1.59520058773062</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595200587754765</v>
+        <v>1.59520058773062</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3683082162</v>
+        <v>336974.3683082883</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310883892</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.609699994201</v>
+        <v>3788.609699998789</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8561752458138</v>
+        <v>717.8561752458129</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.777073410772</v>
+        <v>1006.777073410742</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8027749772379</v>
+        <v>344.8027749772911</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995302899143501</v>
+        <v>0.9995302899143582</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.83292557500855e-05</v>
+        <v>1.832925575008981e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606729614694808</v>
+        <v>0.02606729614695452</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5937145388082</v>
+        <v>295.5937145389032</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135289.0619944506</v>
+        <v>135289.0619924474</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595200587754765</v>
+        <v>1.59520058773062</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3683082162</v>
+        <v>336974.3683082883</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310883892</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.609699994201</v>
+        <v>3788.609699998789</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698104.7830706566</v>
+        <v>-698104.7830722722</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561752458138</v>
+        <v>717.8561752458129</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.777073410772</v>
+        <v>1006.777073410742</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402477415571474</v>
+        <v>1.402477415571434</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302899143501</v>
+        <v>0.9995302899143582</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8027749772379</v>
+        <v>344.8027749772911</v>
       </c>
       <c r="HB2" t="n">
-        <v>189651.7287113214</v>
+        <v>189651.7287085094</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.272823015086518e-06</v>
+        <v>5.2728230151647e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>135226.2265371618</v>
+        <v>135226.2265351606</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.395015194964327e-06</v>
+        <v>7.395015195073764e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395619871558887</v>
+        <v>0.003395619871557598</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.83292557500855e-05</v>
+        <v>1.832925575008981e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606729614694808</v>
+        <v>0.02606729614695452</v>
       </c>
       <c r="HI2" t="n">
-        <v>135289.0619944506</v>
+        <v>135289.0619924474</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.595200587754765</v>
+        <v>1.59520058773062</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595200587754765</v>
+        <v>1.59520058773062</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3683082162</v>
+        <v>336974.3683082883</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310883892</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.609699994201</v>
+        <v>3788.609699998789</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8561752458138</v>
+        <v>717.8561752458129</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.777073410772</v>
+        <v>1006.777073410742</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8027749772379</v>
+        <v>344.8027749772911</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995302899143501</v>
+        <v>0.9995302899143582</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.83292557500855e-05</v>
+        <v>1.832925575008981e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606729614694808</v>
+        <v>0.02606729614695452</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,40 +3952,40 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8316519969977705</v>
+        <v>0.8316519969696899</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8316519969977705</v>
+        <v>0.8316519969696899</v>
       </c>
       <c r="HY2" t="n">
-        <v>490727.9958966576</v>
+        <v>490727.9958811073</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.740325648303675</v>
+        <v>2.740325648244277</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01593369941082155</v>
+        <v>0.01593369941076853</v>
       </c>
       <c r="IC2" t="n">
-        <v>-1.788002727948691e-07</v>
+        <v>-1.788002728037731e-07</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01379066038778327</v>
+        <v>0.01379066038777998</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02519180119319753</v>
+        <v>0.02519180119324601</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.05491598219152956</v>
+        <v>0.05491598219152173</v>
       </c>
       <c r="IH2" t="n">
-        <v>6.589867540540695e-12</v>
+        <v>-2.561839629322549e-13</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>268.6999508444675</v>
+        <v>268.699950836503</v>
       </c>
       <c r="IL2" t="n">
-        <v>110.6156553301601</v>
+        <v>110.6156553272559</v>
       </c>
       <c r="IM2" t="n">
-        <v>244.8751526384383</v>
+        <v>244.8751526310108</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.69022765842449</v>
+        <v>65.69022765833687</v>
       </c>
       <c r="IO2" t="n">
-        <v>136.2626832658694</v>
+        <v>136.2626832591744</v>
       </c>
       <c r="IP2" t="n">
-        <v>110.6156553301601</v>
+        <v>110.6156553272559</v>
       </c>
       <c r="IQ2" t="n">
-        <v>79.57195263843832</v>
+        <v>79.57195263101082</v>
       </c>
       <c r="IR2" t="n">
-        <v>35.72955070118803</v>
+        <v>35.72955069936584</v>
       </c>
       <c r="IS2" t="n">
-        <v>259.5769212249011</v>
+        <v>259.5769212269263</v>
       </c>
       <c r="IT2" t="n">
-        <v>85923.8700300114</v>
+        <v>85923.87002659605</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.153945068038571</v>
+        <v>1.153945067983637</v>
       </c>
       <c r="IV2" t="n">
-        <v>311223.6284844585</v>
+        <v>311223.6284859196</v>
       </c>
       <c r="IW2" t="n">
-        <v>385684.5992965798</v>
+        <v>385684.5992986259</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.609699988984</v>
+        <v>3788.60970000827</v>
       </c>
       <c r="IY2" t="n">
-        <v>-597751.0423493568</v>
+        <v>-597751.0423599897</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5374584805892</v>
+        <v>716.5374584806231</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.204884458102</v>
+        <v>1005.204884458042</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402864389797052</v>
+        <v>1.402864389796901</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993241596861177</v>
+        <v>0.9993241596861717</v>
       </c>
       <c r="JD2" t="n">
-        <v>323.0918122177495</v>
+        <v>323.0918122190099</v>
       </c>
       <c r="JE2" t="n">
-        <v>120458.3860118408</v>
+        <v>120458.3860070462</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.301622104597202e-06</v>
+        <v>8.30162210492763e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>85866.02303681477</v>
+        <v>85866.02303340634</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.164605002809148e-05</v>
+        <v>1.164605002855376e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003865874441850879</v>
+        <v>0.003865874441819878</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.652911597553751e-05</v>
+        <v>1.652911597564055e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.0233077573491938</v>
+        <v>0.02330775734935009</v>
       </c>
       <c r="JL2" t="n">
-        <v>85923.8700300114</v>
+        <v>85923.87002659605</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.153945068038571</v>
+        <v>1.153945067983637</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.153945068038571</v>
+        <v>1.153945067983637</v>
       </c>
       <c r="JO2" t="n">
-        <v>311223.6284844585</v>
+        <v>311223.6284859196</v>
       </c>
       <c r="JP2" t="n">
-        <v>385684.5992965798</v>
+        <v>385684.5992986259</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.609699988984</v>
+        <v>3788.60970000827</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5374584805892</v>
+        <v>716.5374584806231</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.204884458102</v>
+        <v>1005.204884458042</v>
       </c>
       <c r="JT2" t="n">
-        <v>323.0918122177495</v>
+        <v>323.0918122190099</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993241596861177</v>
+        <v>0.9993241596861717</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.652911597553751e-05</v>
+        <v>1.652911597564055e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.0233077573491938</v>
+        <v>0.02330775734935009</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5937145388004</v>
+        <v>295.5937145388951</v>
       </c>
       <c r="KA2" t="n">
-        <v>135289.0619910537</v>
+        <v>135289.061988929</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.595200587714735</v>
+        <v>1.595200587689159</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3683082174</v>
+        <v>336974.3683082897</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310883892</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.609700001406</v>
+        <v>3788.60970000625</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698104.7830727567</v>
+        <v>-698104.7830744471</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8561752458049</v>
+        <v>717.8561752458037</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.777073410716</v>
+        <v>1006.777073410684</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402477415571413</v>
+        <v>1.402477415571371</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995302899143617</v>
+        <v>0.9995302899143702</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8027749772298</v>
+        <v>344.8027749772828</v>
       </c>
       <c r="KL2" t="n">
-        <v>189651.7287065533</v>
+        <v>189651.7287035708</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.272823015219082e-06</v>
+        <v>5.272823015302004e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>135226.226533768</v>
+        <v>135226.2265316455</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.395015195149924e-06</v>
+        <v>7.395015195265997e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395619871558661</v>
+        <v>0.003395619871557365</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832925575008463e-05</v>
+        <v>1.832925575008891e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606729614694641</v>
+        <v>0.02606729614695279</v>
       </c>
       <c r="KS2" t="n">
-        <v>135289.0619910537</v>
+        <v>135289.061988929</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595200587714735</v>
+        <v>1.595200587689159</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.595200587714735</v>
+        <v>1.595200587689159</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3683082174</v>
+        <v>336974.3683082897</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310883892</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.609700001406</v>
+        <v>3788.60970000625</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8561752458049</v>
+        <v>717.8561752458037</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.777073410716</v>
+        <v>1006.777073410684</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8027749772298</v>
+        <v>344.8027749772828</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995302899143617</v>
+        <v>0.9995302899143702</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832925575008463e-05</v>
+        <v>1.832925575008891e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606729614694641</v>
+        <v>0.02606729614695279</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>268.8436668135341</v>
+        <v>268.8436668147548</v>
       </c>
       <c r="LH2" t="n">
-        <v>97121.67807430675</v>
+        <v>97121.67807198032</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.259316032325936</v>
+        <v>1.259316032290013</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317845.7972828761</v>
+        <v>317845.7972837574</v>
       </c>
       <c r="LK2" t="n">
-        <v>394968.3587219809</v>
+        <v>394968.3587232148</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.609699989588</v>
+        <v>3788.60970000105</v>
       </c>
       <c r="LM2" t="n">
-        <v>-623575.3651485431</v>
+        <v>-623575.3651550156</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8078775150021</v>
+        <v>716.8078775150279</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.53980578168</v>
+        <v>1005.539805781647</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402802392835917</v>
+        <v>1.402802392835821</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993679212747693</v>
+        <v>0.9993679212748005</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.8155631271936</v>
+        <v>328.8155631279391</v>
       </c>
       <c r="LS2" t="n">
-        <v>136156.8395765377</v>
+        <v>136156.8395732711</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.344471295824044e-06</v>
+        <v>7.344471296000247e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>97060.59832224966</v>
+        <v>97060.59831992768</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.030284190789668e-05</v>
+        <v>1.030284190814316e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.00373287446165843</v>
+        <v>0.003732874461640986</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.700135816395188e-05</v>
+        <v>1.700135816401308e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02402859192847641</v>
+        <v>0.0240285919285695</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97121.67807430675</v>
+        <v>97121.67807198032</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.259316032325936</v>
+        <v>1.259316032290013</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.259316032325936</v>
+        <v>1.259316032290013</v>
       </c>
       <c r="MC2" t="n">
-        <v>317845.7972828761</v>
+        <v>317845.7972837574</v>
       </c>
       <c r="MD2" t="n">
-        <v>394968.3587219809</v>
+        <v>394968.3587232148</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.609699989588</v>
+        <v>3788.60970000105</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8078775150021</v>
+        <v>716.8078775150279</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.53980578168</v>
+        <v>1005.539805781647</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.8155631271936</v>
+        <v>328.8155631279391</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993679212747693</v>
+        <v>0.9993679212748005</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.700135816395188e-05</v>
+        <v>1.700135816401308e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02402859192847641</v>
+        <v>0.0240285919285695</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8316519969976079</v>
+        <v>0.8316519969697127</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4217460118550897</v>
+        <v>0.4217460118327229</v>
       </c>
       <c r="MP2" t="n">
-        <v>247905.896435374</v>
+        <v>247905.8964098468</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.740325648375254</v>
+        <v>2.740325648172854</v>
       </c>
       <c r="MR2" t="n">
-        <v>381305.7847567669</v>
+        <v>381305.7847580948</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>135.2468792288594</v>
+        <v>135.2468792259375</v>
       </c>
       <c r="MU2" t="n">
-        <v>123.2134512302005</v>
+        <v>123.2134512286271</v>
       </c>
       <c r="MV2" t="n">
-        <v>-55.7688423502648</v>
+        <v>-55.76884234665499</v>
       </c>
       <c r="MW2" t="n">
-        <v>-24.35244699830626</v>
+        <v>-24.35244699718792</v>
       </c>
       <c r="MX2" t="n">
-        <v>253.0897123017336</v>
+        <v>253.0897122978145</v>
       </c>
       <c r="MY2" t="n">
-        <v>123.2134512302005</v>
+        <v>123.2134512286271</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-221.0720423502648</v>
+        <v>-221.072042346655</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.86709821270867</v>
+        <v>-60.86709821262195</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.8579024757068</v>
+        <v>236.857902478217</v>
       </c>
       <c r="NC2" t="n">
-        <v>59999.99999767959</v>
+        <v>60000.00000000616</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.88312762333283</v>
+        <v>0.8831276233577103</v>
       </c>
       <c r="NE2" t="n">
-        <v>295000.8072885299</v>
+        <v>295000.8072903227</v>
       </c>
       <c r="NF2" t="n">
-        <v>362941.1574853066</v>
+        <v>362941.1574878198</v>
       </c>
       <c r="NG2" t="n">
-        <v>3799.930280947045</v>
+        <v>3799.930280946532</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537102.3584137335</v>
+        <v>-537102.3584206377</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0325594044064</v>
+        <v>716.0325594044496</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.48793070557</v>
+        <v>1004.487930705631</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402852310991416</v>
+        <v>1.402852310991417</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992718931040664</v>
+        <v>0.9992718931040718</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6114234935691</v>
+        <v>308.6114234952064</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.96743278101</v>
+        <v>84109.96743604308</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.18891973272868e-05</v>
+        <v>1.18891973268257e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.39510572523</v>
+        <v>59956.39510805045</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667878794641725e-05</v>
+        <v>1.667878794577041e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004235350473537803</v>
+        <v>0.004235350473493031</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534216675138503e-05</v>
+        <v>1.534216675151849e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150522896515986</v>
+        <v>0.02150522896536174</v>
       </c>
       <c r="NU2" t="n">
-        <v>59999.99999767959</v>
+        <v>60000.00000000616</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.88312762333283</v>
+        <v>0.8831276233577103</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.88312762333283</v>
+        <v>0.8831276233577103</v>
       </c>
       <c r="NX2" t="n">
-        <v>295000.8072885299</v>
+        <v>295000.8072903227</v>
       </c>
       <c r="NY2" t="n">
-        <v>362941.1574853066</v>
+        <v>362941.1574878198</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3799.930280947045</v>
+        <v>3799.930280946532</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0325594044064</v>
+        <v>716.0325594044496</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.48793070557</v>
+        <v>1004.487930705631</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6114234935691</v>
+        <v>308.6114234952064</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992718931040664</v>
+        <v>0.9992718931040718</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534216675138503e-05</v>
+        <v>1.534216675151849e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150522896515986</v>
+        <v>0.02150522896536174</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>245.9911425108243</v>
+        <v>245.991142512939</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68472.22790299269</v>
+        <v>68472.22790292582</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9703831011183248</v>
+        <v>0.9703831011090076</v>
       </c>
       <c r="OL2" t="n">
-        <v>301524.9594394171</v>
+        <v>301524.9594409334</v>
       </c>
       <c r="OM2" t="n">
-        <v>372087.0166558724</v>
+        <v>372087.0166579974</v>
       </c>
       <c r="ON2" t="n">
-        <v>3799.930280946186</v>
+        <v>3799.930280955104</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562662.1746155574</v>
+        <v>-562662.1746236619</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2042388036697</v>
+        <v>716.2042388037045</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.719254983159</v>
+        <v>1004.719254983162</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402839023490586</v>
+        <v>1.402839023490522</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992991876839089</v>
+        <v>0.9992991876839376</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.5123339765054</v>
+        <v>314.5123339778592</v>
       </c>
       <c r="OU2" t="n">
-        <v>95988.36357622125</v>
+        <v>95988.36357612592</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.04179294525209e-05</v>
+        <v>1.041792945253125e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68424.36086314463</v>
+        <v>68424.36086307975</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.461467797996824e-05</v>
+        <v>1.461467797998209e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004078408410023265</v>
+        <v>0.004078408409987864</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.582419230940757e-05</v>
+        <v>1.582419230951804e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02223540746094838</v>
+        <v>0.02223540746111565</v>
       </c>
       <c r="PB2" t="n">
-        <v>68472.22790299269</v>
+        <v>68472.22790292582</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9703831011183248</v>
+        <v>0.9703831011090076</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9703831011183248</v>
+        <v>0.9703831011090076</v>
       </c>
       <c r="PE2" t="n">
-        <v>301524.9594394171</v>
+        <v>301524.9594409334</v>
       </c>
       <c r="PF2" t="n">
-        <v>372087.0166558724</v>
+        <v>372087.0166579974</v>
       </c>
       <c r="PG2" t="n">
-        <v>3799.930280946186</v>
+        <v>3799.930280955104</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2042388036697</v>
+        <v>716.2042388037045</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.719254983159</v>
+        <v>1004.719254983162</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.5123339765054</v>
+        <v>314.5123339778592</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992991876839089</v>
+        <v>0.9992991876839376</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.582419230940757e-05</v>
+        <v>1.582419230951804e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02223540746094838</v>
+        <v>0.02223540746111565</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>268.8331016729558</v>
+        <v>268.8331016742729</v>
       </c>
       <c r="PQ2" t="n">
-        <v>93363.67591150365</v>
+        <v>93363.67591020871</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.21060662476661</v>
+        <v>1.210606624743857</v>
       </c>
       <c r="PS2" t="n">
-        <v>317846.9602416916</v>
+        <v>317846.9602426398</v>
       </c>
       <c r="PT2" t="n">
-        <v>394968.3587219808</v>
+        <v>394968.3587233088</v>
       </c>
       <c r="PU2" t="n">
-        <v>3799.930280937614</v>
+        <v>3799.930280946532</v>
       </c>
       <c r="PV2" t="n">
-        <v>-626578.6848434643</v>
+        <v>-626578.6848495388</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.7955169861788</v>
+        <v>716.7955169862109</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.462384847356</v>
+        <v>1005.462384847346</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402718573178162</v>
+        <v>1.402718573178086</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993921260126734</v>
+        <v>0.9993921260126984</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.807202480398</v>
+        <v>328.8072024812029</v>
       </c>
       <c r="QB2" t="n">
-        <v>130883.7381846401</v>
+        <v>130883.7381828209</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.640368573437915e-06</v>
+        <v>7.640368573544108e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>93307.19695832836</v>
+        <v>93307.19695703652</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.07172869038881e-05</v>
+        <v>1.071728690403648e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003732510603834635</v>
+        <v>0.003732510603815988</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.700025423981744e-05</v>
+        <v>1.700025423988366e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.02402644732738028</v>
+        <v>0.02402644732748115</v>
       </c>
       <c r="QI2" t="n">
-        <v>93363.67591150365</v>
+        <v>93363.67591020871</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.21060662476661</v>
+        <v>1.210606624743857</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.21060662476661</v>
+        <v>1.210606624743857</v>
       </c>
       <c r="QL2" t="n">
-        <v>317846.9602416916</v>
+        <v>317846.9602426398</v>
       </c>
       <c r="QM2" t="n">
-        <v>394968.3587219808</v>
+        <v>394968.3587233088</v>
       </c>
       <c r="QN2" t="n">
-        <v>3799.930280937614</v>
+        <v>3799.930280946532</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.7955169861788</v>
+        <v>716.7955169862109</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.462384847356</v>
+        <v>1005.462384847346</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.807202480398</v>
+        <v>328.8072024812029</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993921260126734</v>
+        <v>0.9993921260126984</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.700025423981744e-05</v>
+        <v>1.700025423988366e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02402644732738028</v>
+        <v>0.02402644732748115</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4382432694740404</v>
+        <v>0.4382432694622476</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8200918470116434</v>
+        <v>0.8200918469945934</v>
       </c>
       <c r="QY2" t="n">
-        <v>379651.9842564992</v>
+        <v>379651.9842580135</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.740325648204902</v>
+        <v>2.740325648247112</v>
       </c>
       <c r="RA2" t="n">
-        <v>381305.7847567669</v>
+        <v>381305.7847580948</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02447338350327146</v>
+        <v>0.02447338350316694</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.001918126998470978</v>
+        <v>0.001918126997408496</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01189012253321323</v>
+        <v>0.01189012253328696</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03198066011997568</v>
+        <v>0.03198066011934316</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04237524032859367</v>
+        <v>0.04237524032735127</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.112637533483525</v>
+        <v>0.1126375334805568</v>
       </c>
       <c r="RH2" t="n">
-        <v>-2.210190364060338e-12</v>
+        <v>-2.051354919263559e-11</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.70791210466408</v>
+        <v>80.70791210421696</v>
       </c>
       <c r="D3" t="n">
-        <v>80.70791210466408</v>
+        <v>80.70791210421696</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.70791210466408</v>
+        <v>80.70791210421696</v>
       </c>
       <c r="H3" t="n">
-        <v>80.70791210466408</v>
+        <v>80.70791210421696</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.352642922255</v>
+        <v>292.3526429223911</v>
       </c>
       <c r="L3" t="n">
-        <v>132772.7637240999</v>
+        <v>132772.7637243161</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582937713924181</v>
+        <v>1.58293771392602</v>
       </c>
       <c r="N3" t="n">
-        <v>334650.1071707656</v>
+        <v>334650.107170863</v>
       </c>
       <c r="O3" t="n">
-        <v>418527.5475502419</v>
+        <v>418527.5475503784</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687418.3370116324</v>
+        <v>-687418.3370120106</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7129174035684</v>
+        <v>717.7129174035747</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.647672167811</v>
+        <v>1006.647672167818</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577057982329</v>
+        <v>1.402577057982326</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994979659099988</v>
+        <v>0.9994979659099997</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9083260442447</v>
+        <v>342.9083260443247</v>
       </c>
       <c r="W3" t="n">
-        <v>186131.5040935578</v>
+        <v>186131.5040938608</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372545635785312e-06</v>
+        <v>5.372545635776566e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132706.7935656359</v>
+        <v>132706.7935658521</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535409251715561e-06</v>
+        <v>7.535409251703284e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433457810888454</v>
+        <v>0.003433457810886857</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817141903655209e-05</v>
+        <v>1.817141903655875e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582432023672225</v>
+        <v>0.02582432023673251</v>
       </c>
       <c r="AD3" t="n">
-        <v>132772.7637240999</v>
+        <v>132772.7637243161</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582937713924181</v>
+        <v>1.58293771392602</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582937713924181</v>
+        <v>1.58293771392602</v>
       </c>
       <c r="AG3" t="n">
-        <v>334650.1071707656</v>
+        <v>334650.107170863</v>
       </c>
       <c r="AH3" t="n">
-        <v>418527.5475502419</v>
+        <v>418527.5475503784</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7129174035684</v>
+        <v>717.7129174035747</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.647672167811</v>
+        <v>1006.647672167818</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9083260442447</v>
+        <v>342.9083260443247</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994979659099988</v>
+        <v>0.9994979659099997</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817141903655209e-05</v>
+        <v>1.817141903655875e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582432023672225</v>
+        <v>0.02582432023673251</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2353629409810554</v>
+        <v>0.2353629409796966</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353629409810554</v>
+        <v>0.2353629409796966</v>
       </c>
       <c r="DH3" t="n">
-        <v>183919.9477974102</v>
+        <v>183919.9477965376</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.742713109688587</v>
+        <v>2.742713109676579</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>270.1888882872859</v>
+        <v>270.1888883095345</v>
       </c>
       <c r="DU3" t="n">
-        <v>111.1594838724343</v>
+        <v>111.1594838805594</v>
       </c>
       <c r="DV3" t="n">
-        <v>246.2632828887276</v>
+        <v>246.2632829094703</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.70631065712105</v>
+        <v>65.70631065736032</v>
       </c>
       <c r="DX3" t="n">
-        <v>270.1888882872859</v>
+        <v>270.1888883095345</v>
       </c>
       <c r="DY3" t="n">
-        <v>111.1594838724343</v>
+        <v>111.1594838805594</v>
       </c>
       <c r="DZ3" t="n">
-        <v>246.2632828887276</v>
+        <v>246.2632829094703</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.70631065712107</v>
+        <v>65.70631065736032</v>
       </c>
       <c r="EB3" t="n">
-        <v>259.1763686296799</v>
+        <v>259.1763686235797</v>
       </c>
       <c r="EC3" t="n">
-        <v>85445.80164333289</v>
+        <v>85445.80163451955</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.149300027582647</v>
+        <v>1.149300027491167</v>
       </c>
       <c r="EE3" t="n">
-        <v>310937.464057423</v>
+        <v>310937.4640530687</v>
       </c>
       <c r="EF3" t="n">
-        <v>385283.4134115296</v>
+        <v>385283.4134054246</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.663445766748</v>
+        <v>3788.66344577278</v>
       </c>
       <c r="EH3" t="n">
-        <v>-596648.6204223061</v>
+        <v>-596648.6204068632</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5266836177193</v>
+        <v>716.5266836175505</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.191032145144</v>
+        <v>1005.191032144899</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402866152967211</v>
+        <v>1.4028661529672</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993225347102238</v>
+        <v>0.9993225347102114</v>
       </c>
       <c r="EM3" t="n">
-        <v>322.842108829129</v>
+        <v>322.8421088253243</v>
       </c>
       <c r="EN3" t="n">
-        <v>119788.125274019</v>
+        <v>119788.125261661</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.348072880450122e-06</v>
+        <v>8.34807288131136e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>85388.13558275279</v>
+        <v>85388.1355739443</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.171122888648697e-05</v>
+        <v>1.171122888769508e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003871834788091515</v>
+        <v>0.003871834788182183</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.650855216042643e-05</v>
+        <v>1.650855216011292e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02327641610013313</v>
+        <v>0.02327641609965515</v>
       </c>
       <c r="EU3" t="n">
-        <v>85445.80164333289</v>
+        <v>85445.80163451955</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.149300027582647</v>
+        <v>1.149300027491167</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.149300027582647</v>
+        <v>1.149300027491167</v>
       </c>
       <c r="EX3" t="n">
-        <v>310937.464057423</v>
+        <v>310937.4640530687</v>
       </c>
       <c r="EY3" t="n">
-        <v>385283.4134115296</v>
+        <v>385283.4134054246</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.663445766748</v>
+        <v>3788.66344577278</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5266836177193</v>
+        <v>716.5266836175505</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.191032145144</v>
+        <v>1005.191032144899</v>
       </c>
       <c r="FC3" t="n">
-        <v>322.842108829129</v>
+        <v>322.8421088253243</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993225347102238</v>
+        <v>0.9993225347102114</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.650855216042643e-05</v>
+        <v>1.650855216011292e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02327641610013313</v>
+        <v>0.02327641609965515</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5936557815795</v>
+        <v>295.5936557815729</v>
       </c>
       <c r="FJ3" t="n">
-        <v>135263.7215546809</v>
+        <v>135263.7215518371</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.594901976667193</v>
+        <v>1.594901976633682</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.3778479909</v>
+        <v>336974.377847992</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.663445771949</v>
+        <v>3788.663445777981</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698120.4473731767</v>
+        <v>-698120.4473749347</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8561092414831</v>
+        <v>717.8561092414758</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.776657347879</v>
+        <v>1006.776657347832</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402476964933378</v>
+        <v>1.402476964933328</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995303761691907</v>
+        <v>0.9995303761692004</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.802714729431</v>
+        <v>344.8027147294243</v>
       </c>
       <c r="FU3" t="n">
-        <v>189616.1608878364</v>
+        <v>189616.1608838449</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.273812080772641e-06</v>
+        <v>5.273812080883655e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>135200.9092690116</v>
+        <v>135200.9092661704</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.396399960670996e-06</v>
+        <v>7.396399960826425e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395618199753002</v>
+        <v>0.003395618199752814</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.83292492446831e-05</v>
+        <v>1.832924924468237e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606728364065304</v>
+        <v>0.02606728364065163</v>
       </c>
       <c r="GB3" t="n">
-        <v>135263.7215546809</v>
+        <v>135263.7215518371</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.594901976667193</v>
+        <v>1.594901976633682</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594901976667193</v>
+        <v>1.594901976633682</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.3778479909</v>
+        <v>336974.377847992</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.663445771949</v>
+        <v>3788.663445777981</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8561092414831</v>
+        <v>717.8561092414758</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.776657347879</v>
+        <v>1006.776657347832</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.802714729431</v>
+        <v>344.8027147294243</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995303761691907</v>
+        <v>0.9995303761692004</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.83292492446831e-05</v>
+        <v>1.832924924468237e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606728364065304</v>
+        <v>0.02606728364065163</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5936557815795</v>
+        <v>295.5936557815729</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135263.7215546809</v>
+        <v>135263.7215518371</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594901976667193</v>
+        <v>1.594901976633682</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.3778479909</v>
+        <v>336974.377847992</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.663445771949</v>
+        <v>3788.663445777981</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698120.4473731767</v>
+        <v>-698120.4473749347</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8561092414831</v>
+        <v>717.8561092414758</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.776657347879</v>
+        <v>1006.776657347832</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402476964933378</v>
+        <v>1.402476964933328</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995303761691907</v>
+        <v>0.9995303761692004</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.802714729431</v>
+        <v>344.8027147294243</v>
       </c>
       <c r="HB3" t="n">
-        <v>189616.1608878364</v>
+        <v>189616.1608838449</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.273812080772641e-06</v>
+        <v>5.273812080883655e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>135200.9092690116</v>
+        <v>135200.9092661704</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.396399960670996e-06</v>
+        <v>7.396399960826425e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395618199753002</v>
+        <v>0.003395618199752814</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.83292492446831e-05</v>
+        <v>1.832924924468237e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606728364065304</v>
+        <v>0.02606728364065163</v>
       </c>
       <c r="HI3" t="n">
-        <v>135263.7215546809</v>
+        <v>135263.7215518371</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.594901976667193</v>
+        <v>1.594901976633682</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594901976667193</v>
+        <v>1.594901976633682</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.3778479909</v>
+        <v>336974.377847992</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.663445771949</v>
+        <v>3788.663445777981</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8561092414831</v>
+        <v>717.8561092414758</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.776657347879</v>
+        <v>1006.776657347832</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.802714729431</v>
+        <v>344.8027147294243</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995303761691907</v>
+        <v>0.9995303761692004</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.83292492446831e-05</v>
+        <v>1.832924924468237e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606728364065304</v>
+        <v>0.02606728364065163</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,40 +5425,40 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8369072091221194</v>
+        <v>0.8369072092008973</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8369072091221194</v>
+        <v>0.8369072092008973</v>
       </c>
       <c r="HY3" t="n">
-        <v>492073.1347200469</v>
+        <v>492073.1347307443</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.74271310964803</v>
+        <v>2.742713109630195</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01595022849370333</v>
+        <v>0.01595022849399139</v>
       </c>
       <c r="IC3" t="n">
-        <v>-1.793955750467426e-07</v>
+        <v>-1.793955750219205e-07</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01379120448695119</v>
+        <v>0.01379120448695893</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.0251843323886836</v>
+        <v>0.02518433238858101</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.05492558597376307</v>
+        <v>0.05492558597395631</v>
       </c>
       <c r="IH3" t="n">
-        <v>-2.091507522727909e-12</v>
+        <v>-2.208774829703941e-12</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>270.1888882872859</v>
+        <v>270.1888883095345</v>
       </c>
       <c r="IL3" t="n">
-        <v>111.1594838724344</v>
+        <v>111.1594838805594</v>
       </c>
       <c r="IM3" t="n">
-        <v>246.2632828887276</v>
+        <v>246.2632829094703</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.70631065712105</v>
+        <v>65.70631065736032</v>
       </c>
       <c r="IO3" t="n">
-        <v>137.5171475712598</v>
+        <v>137.5171475900393</v>
       </c>
       <c r="IP3" t="n">
-        <v>111.1594838724344</v>
+        <v>111.1594838805594</v>
       </c>
       <c r="IQ3" t="n">
-        <v>80.96008288872761</v>
+        <v>80.96008290947029</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.06673717113288</v>
+        <v>36.06673717612576</v>
       </c>
       <c r="IS3" t="n">
-        <v>259.1763686298799</v>
+        <v>259.1763686238665</v>
       </c>
       <c r="IT3" t="n">
-        <v>85445.80164348101</v>
+        <v>85445.80163253908</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.14930002758375</v>
+        <v>1.149300027463234</v>
       </c>
       <c r="IV3" t="n">
-        <v>310937.4640575659</v>
+        <v>310937.464053279</v>
       </c>
       <c r="IW3" t="n">
-        <v>385283.4134117301</v>
+        <v>385283.4134057187</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.663445767024</v>
+        <v>3788.663445780563</v>
       </c>
       <c r="IY3" t="n">
-        <v>-596648.6204229352</v>
+        <v>-596648.6204096727</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5266836177245</v>
+        <v>716.5266836175498</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.191032145149</v>
+        <v>1005.191032144857</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402866152967208</v>
+        <v>1.402866152967142</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993225347102254</v>
+        <v>0.9993225347102309</v>
       </c>
       <c r="JD3" t="n">
-        <v>322.8421088292537</v>
+        <v>322.8421088255025</v>
       </c>
       <c r="JE3" t="n">
-        <v>119788.1252742266</v>
+        <v>119788.1252588819</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.348072880435653e-06</v>
+        <v>8.348072881505036e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>85388.13558290097</v>
+        <v>85388.13557196681</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.171122888646664e-05</v>
+        <v>1.171122888796629e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.00387183478808852</v>
+        <v>0.003871834788177544</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.650855216043669e-05</v>
+        <v>1.650855216012728e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02327641610014876</v>
+        <v>0.02327641609967673</v>
       </c>
       <c r="JL3" t="n">
-        <v>85445.80164348101</v>
+        <v>85445.80163253908</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.14930002758375</v>
+        <v>1.149300027463234</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.14930002758375</v>
+        <v>1.149300027463234</v>
       </c>
       <c r="JO3" t="n">
-        <v>310937.4640575659</v>
+        <v>310937.464053279</v>
       </c>
       <c r="JP3" t="n">
-        <v>385283.4134117301</v>
+        <v>385283.4134057187</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.663445767024</v>
+        <v>3788.663445780563</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5266836177245</v>
+        <v>716.5266836175498</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.191032145149</v>
+        <v>1005.191032144857</v>
       </c>
       <c r="JT3" t="n">
-        <v>322.8421088292537</v>
+        <v>322.8421088255025</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993225347102254</v>
+        <v>0.9993225347102309</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.650855216043669e-05</v>
+        <v>1.650855216012728e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02327641610014876</v>
+        <v>0.02327641609967673</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5936557816793</v>
+        <v>295.5936557816725</v>
       </c>
       <c r="KA3" t="n">
-        <v>135263.7215547108</v>
+        <v>135263.7215517457</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.594901976667006</v>
+        <v>1.594901976632065</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.3778480625</v>
+        <v>336974.3778480637</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.663445772225</v>
+        <v>3788.663445778515</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698120.4473735361</v>
+        <v>-698120.4473753694</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8561092414874</v>
+        <v>717.8561092414798</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.776657347882</v>
+        <v>1006.776657347833</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402476964933374</v>
+        <v>1.402476964933322</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995303761691918</v>
+        <v>0.9995303761692019</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8027147294891</v>
+        <v>344.8027147294821</v>
       </c>
       <c r="KL3" t="n">
-        <v>189616.160887878</v>
+        <v>189616.1608837163</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.273812080771481e-06</v>
+        <v>5.273812080887232e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>135200.9092690417</v>
+        <v>135200.9092660793</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.396399960669349e-06</v>
+        <v>7.396399960831413e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395618199751846</v>
+        <v>0.003395618199751649</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832924924468794e-05</v>
+        <v>1.832924924468719e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606728364066049</v>
+        <v>0.02606728364065904</v>
       </c>
       <c r="KS3" t="n">
-        <v>135263.7215547108</v>
+        <v>135263.7215517457</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594901976667006</v>
+        <v>1.594901976632065</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.594901976667006</v>
+        <v>1.594901976632065</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.3778480625</v>
+        <v>336974.3778480637</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.663445772225</v>
+        <v>3788.663445778515</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8561092414874</v>
+        <v>717.8561092414798</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.776657347882</v>
+        <v>1006.776657347833</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8027147294891</v>
+        <v>344.8027147294821</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995303761691918</v>
+        <v>0.9995303761692019</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832924924468794e-05</v>
+        <v>1.832924924468719e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606728364066049</v>
+        <v>0.02606728364065904</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>268.6146044066862</v>
+        <v>268.6146044032583</v>
       </c>
       <c r="LH3" t="n">
-        <v>96814.8785705312</v>
+        <v>96814.8785641006</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.256409757992971</v>
+        <v>1.256409757925556</v>
       </c>
       <c r="LJ3" t="n">
-        <v>317682.1256944679</v>
+        <v>317682.1256920228</v>
       </c>
       <c r="LK3" t="n">
-        <v>394738.8963495974</v>
+        <v>394738.8963461687</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.663445773654</v>
+        <v>3788.663445779943</v>
       </c>
       <c r="LM3" t="n">
-        <v>-622951.4363669649</v>
+        <v>-622951.4363590962</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.8006008466697</v>
+        <v>716.8006008465552</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.53061378687</v>
+        <v>1005.530613786694</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402803809872869</v>
+        <v>1.402803809872848</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993668813935354</v>
+        <v>0.9993668813935318</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.6752745353998</v>
+        <v>328.675274533299</v>
       </c>
       <c r="LS3" t="n">
-        <v>135726.7248355944</v>
+        <v>135726.7248265767</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.367745749492581e-06</v>
+        <v>7.367745749982096e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>96753.88951780423</v>
+        <v>96753.88951137732</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.033550180756283e-05</v>
+        <v>1.033550180824937e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003736049214545551</v>
+        <v>0.003736049214592849</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.698976074153866e-05</v>
+        <v>1.69897607413648e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02401086093880553</v>
+        <v>0.0240108609385395</v>
       </c>
       <c r="LZ3" t="n">
-        <v>96814.8785705312</v>
+        <v>96814.8785641006</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.256409757992971</v>
+        <v>1.256409757925556</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.256409757992971</v>
+        <v>1.256409757925556</v>
       </c>
       <c r="MC3" t="n">
-        <v>317682.1256944679</v>
+        <v>317682.1256920228</v>
       </c>
       <c r="MD3" t="n">
-        <v>394738.8963495974</v>
+        <v>394738.8963461687</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.663445773654</v>
+        <v>3788.663445779943</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.8006008466697</v>
+        <v>716.8006008465552</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.53061378687</v>
+        <v>1005.530613786694</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.6752745353998</v>
+        <v>328.675274533299</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993668813935354</v>
+        <v>0.9993668813935318</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.698976074153866e-05</v>
+        <v>1.69897607413648e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02401086093880553</v>
+        <v>0.0240108609385395</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8369072091217962</v>
+        <v>0.8369072092004354</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.42595790267245</v>
+        <v>0.4259579027355686</v>
       </c>
       <c r="MP3" t="n">
-        <v>249491.4676091098</v>
+        <v>249491.4676216947</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.742713109650665</v>
+        <v>2.742713109563535</v>
       </c>
       <c r="MR3" t="n">
-        <v>381076.3223845778</v>
+        <v>381076.322381149</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>142.5960843766902</v>
+        <v>142.5960843682065</v>
       </c>
       <c r="MU3" t="n">
-        <v>127.2298010694252</v>
+        <v>127.229801064673</v>
       </c>
       <c r="MV3" t="n">
-        <v>-64.3911562203896</v>
+        <v>-64.39115621099239</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.84402697983919</v>
+        <v>-26.84402697733249</v>
       </c>
       <c r="MX3" t="n">
-        <v>262.5774544009153</v>
+        <v>262.5774543903922</v>
       </c>
       <c r="MY3" t="n">
-        <v>127.2298010694252</v>
+        <v>127.229801064673</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-229.6943562203896</v>
+        <v>-229.6943562109924</v>
       </c>
       <c r="NA3" t="n">
-        <v>-61.01753110359393</v>
+        <v>-61.01753110350748</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.1850023144937</v>
+        <v>234.1850023138244</v>
       </c>
       <c r="NC3" t="n">
-        <v>57500.00000430652</v>
+        <v>57499.99999864475</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559944531372372</v>
+        <v>0.8559944530553437</v>
       </c>
       <c r="NE3" t="n">
-        <v>293092.1040866238</v>
+        <v>293092.10408616</v>
       </c>
       <c r="NF3" t="n">
-        <v>360265.4365697583</v>
+        <v>360265.4365691067</v>
       </c>
       <c r="NG3" t="n">
-        <v>3800.777097136043</v>
+        <v>3800.777097161504</v>
       </c>
       <c r="NH3" t="n">
-        <v>-529819.5567199205</v>
+        <v>-529819.5567239911</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9876071317098</v>
+        <v>715.9876071316746</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421565720397</v>
+        <v>1004.421565720235</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402847696965275</v>
+        <v>1.402847696965118</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992670926492723</v>
+        <v>0.9992670926493353</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.863174312231</v>
+        <v>306.8631743117945</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.72431275068</v>
+        <v>80604.7243048099</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622070885009e-05</v>
+        <v>1.240622071007229e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.9296719948</v>
+        <v>57457.92966634079</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740403814945326e-05</v>
+        <v>1.740403815116586e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004283552997282803</v>
+        <v>0.004283552997293831</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.519973781736898e-05</v>
+        <v>1.519973781733242e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02128988076535071</v>
+        <v>0.02128988076529463</v>
       </c>
       <c r="NU3" t="n">
-        <v>57500.00000430652</v>
+        <v>57499.99999864475</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8559944531372372</v>
+        <v>0.8559944530553437</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8559944531372372</v>
+        <v>0.8559944530553437</v>
       </c>
       <c r="NX3" t="n">
-        <v>293092.1040866238</v>
+        <v>293092.10408616</v>
       </c>
       <c r="NY3" t="n">
-        <v>360265.4365697583</v>
+        <v>360265.4365691067</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3800.777097136043</v>
+        <v>3800.777097161504</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9876071317098</v>
+        <v>715.9876071316746</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421565720397</v>
+        <v>1004.421565720235</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.863174312231</v>
+        <v>306.8631743117945</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992670926492723</v>
+        <v>0.9992670926493353</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.519973781736898e-05</v>
+        <v>1.519973781733242e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02128988076535071</v>
+        <v>0.02128988076529463</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>244.3381083705415</v>
+        <v>244.338108368664</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66682.71585398921</v>
+        <v>66682.71585080939</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.9514188078790294</v>
+        <v>0.9514188078409626</v>
       </c>
       <c r="OL3" t="n">
-        <v>300344.6003856996</v>
+        <v>300344.6003843619</v>
       </c>
       <c r="OM3" t="n">
-        <v>370432.2582097477</v>
+        <v>370432.2582078721</v>
       </c>
       <c r="ON3" t="n">
-        <v>3800.777097154447</v>
+        <v>3800.77709716045</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558242.4280470478</v>
+        <v>-558242.4280432542</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1698444835703</v>
+        <v>716.1698444835267</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.669732320594</v>
+        <v>1004.669732320507</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402837246023756</v>
+        <v>1.402837246023721</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992959094911433</v>
+        <v>0.999295909491152</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.4525682523574</v>
+        <v>313.4525682511519</v>
       </c>
       <c r="OU3" t="n">
-        <v>93479.28835573072</v>
+        <v>93479.28835127153</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.069755683413582e-05</v>
+        <v>1.069755683464612e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66635.8757016833</v>
+        <v>66635.87569850625</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.50069311683817e-05</v>
+        <v>1.50069311690972e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004105906280686232</v>
+        <v>0.004105906280717444</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573743417110911e-05</v>
+        <v>1.573743417101026e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210378822711368</v>
+        <v>0.02210378822696358</v>
       </c>
       <c r="PB3" t="n">
-        <v>66682.71585398921</v>
+        <v>66682.71585080939</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9514188078790294</v>
+        <v>0.9514188078409626</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9514188078790294</v>
+        <v>0.9514188078409626</v>
       </c>
       <c r="PE3" t="n">
-        <v>300344.6003856996</v>
+        <v>300344.6003843619</v>
       </c>
       <c r="PF3" t="n">
-        <v>370432.2582097477</v>
+        <v>370432.2582078721</v>
       </c>
       <c r="PG3" t="n">
-        <v>3800.777097154447</v>
+        <v>3800.77709716045</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1698444835703</v>
+        <v>716.1698444835267</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.669732320594</v>
+        <v>1004.669732320507</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.4525682523574</v>
+        <v>313.4525682511519</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992959094911433</v>
+        <v>0.999295909491152</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573743417110911e-05</v>
+        <v>1.573743417101026e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210378822711368</v>
+        <v>0.02210378822696358</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>268.6033312927203</v>
+        <v>268.603331289487</v>
       </c>
       <c r="PQ3" t="n">
-        <v>92811.80883212388</v>
+        <v>92811.80882628559</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.204479464056397</v>
+        <v>1.204479463995132</v>
       </c>
       <c r="PS3" t="n">
-        <v>317683.3619035817</v>
+        <v>317683.3619012752</v>
       </c>
       <c r="PT3" t="n">
-        <v>394738.8963496038</v>
+        <v>394738.8963463695</v>
       </c>
       <c r="PU3" t="n">
-        <v>3800.77709715269</v>
+        <v>3800.777097158693</v>
       </c>
       <c r="PV3" t="n">
-        <v>-626162.4934466837</v>
+        <v>-626162.4934392418</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7874050978986</v>
+        <v>716.7874050977905</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.447973901268</v>
+        <v>1005.447973901104</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402714342844716</v>
+        <v>1.402714342844699</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993927908455336</v>
+        <v>0.9993927908455306</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.6663753969415</v>
+        <v>328.6663753949605</v>
       </c>
       <c r="QB3" t="n">
-        <v>130109.782393096</v>
+        <v>130109.7823849095</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.685817173828916e-06</v>
+        <v>7.685817174312503e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>92755.72254378774</v>
+        <v>92755.72253795266</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.078100598621205e-05</v>
+        <v>1.078100598689026e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003735660305908217</v>
+        <v>0.003735660305952838</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.698858341592621e-05</v>
+        <v>1.698858341576226e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02400857352554512</v>
+        <v>0.02400857352529426</v>
       </c>
       <c r="QI3" t="n">
-        <v>92811.80883212388</v>
+        <v>92811.80882628559</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.204479464056397</v>
+        <v>1.204479463995132</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.204479464056397</v>
+        <v>1.204479463995132</v>
       </c>
       <c r="QL3" t="n">
-        <v>317683.3619035817</v>
+        <v>317683.3619012752</v>
       </c>
       <c r="QM3" t="n">
-        <v>394738.8963496038</v>
+        <v>394738.8963463695</v>
       </c>
       <c r="QN3" t="n">
-        <v>3800.77709715269</v>
+        <v>3800.777097158693</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7874050978986</v>
+        <v>716.7874050977905</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.447973901268</v>
+        <v>1005.447973901104</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.6663753969415</v>
+        <v>328.6663753949605</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993927908455336</v>
+        <v>0.9993927908455306</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.698858341592621e-05</v>
+        <v>1.698858341576226e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02400857352554512</v>
+        <v>0.02400857352529426</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.464689465252027</v>
+        <v>0.4646894652250416</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8556825203592032</v>
+        <v>0.8556825203261279</v>
       </c>
       <c r="QY3" t="n">
-        <v>385360.0580277059</v>
+        <v>385360.0579763215</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.742713110060793</v>
+        <v>2.74271310969595</v>
       </c>
       <c r="RA3" t="n">
-        <v>381076.3223845778</v>
+        <v>381076.322381149</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02459522109341724</v>
+        <v>0.02459522109745105</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.002166345437345728</v>
+        <v>0.00216634544042638</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01188682146171543</v>
+        <v>0.01188682146148106</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03204523418555951</v>
+        <v>0.03204523418760318</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04266986376627293</v>
+        <v>0.04266986376953599</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1133634859443108</v>
+        <v>0.1133634859564977</v>
       </c>
       <c r="RH3" t="n">
-        <v>-1.504634472571098e-10</v>
+        <v>-2.410027594157427e-10</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -7569,148 +7569,148 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593369941082155</v>
+        <v>0.01593369941076853</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788002727948691e-07</v>
+        <v>-1.788002728037731e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379066038778327</v>
+        <v>0.01379066038777998</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02519180119319753</v>
+        <v>0.02519180119324601</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491598219152956</v>
+        <v>0.05491598219152173</v>
       </c>
       <c r="H2" t="n">
-        <v>6.589867540540695e-12</v>
+        <v>-2.561839629322549e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9803465294422856</v>
+        <v>0.9803465294422806</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>276.864252126237</v>
+        <v>276.8642521201893</v>
       </c>
       <c r="L2" t="n">
-        <v>113.6237537430188</v>
+        <v>113.6237537407626</v>
       </c>
       <c r="M2" t="n">
-        <v>252.474665443419</v>
+        <v>252.4746654378024</v>
       </c>
       <c r="N2" t="n">
-        <v>65.77033838461803</v>
+        <v>65.7703383845668</v>
       </c>
       <c r="O2" t="n">
-        <v>276.864252126237</v>
+        <v>276.8642521201893</v>
       </c>
       <c r="P2" t="n">
-        <v>113.6237537430188</v>
+        <v>113.6237537407626</v>
       </c>
       <c r="Q2" t="n">
-        <v>252.474665443419</v>
+        <v>252.4746654378024</v>
       </c>
       <c r="R2" t="n">
-        <v>65.77033838461804</v>
+        <v>65.7703383845668</v>
       </c>
       <c r="S2" t="n">
-        <v>257.3533141437442</v>
+        <v>257.3533141454119</v>
       </c>
       <c r="T2" t="n">
-        <v>83295.00696826387</v>
+        <v>83295.00696889925</v>
       </c>
       <c r="U2" t="n">
-        <v>1.128315207197457</v>
+        <v>1.128315207198732</v>
       </c>
       <c r="V2" t="n">
-        <v>309635.0616271869</v>
+        <v>309635.0616283817</v>
       </c>
       <c r="W2" t="n">
-        <v>383457.5240356787</v>
+        <v>383457.5240373531</v>
       </c>
       <c r="X2" t="n">
-        <v>3788.906534378018</v>
+        <v>3788.906534382336</v>
       </c>
       <c r="Y2" t="n">
-        <v>-591630.1295673925</v>
+        <v>-591630.1295731483</v>
       </c>
       <c r="Z2" t="n">
-        <v>716.4786262618444</v>
+        <v>716.4786262618828</v>
       </c>
       <c r="AA2" t="n">
-        <v>1005.129004450562</v>
+        <v>1005.129004450588</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.402873676350574</v>
+        <v>1.402873676350534</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9993152889126165</v>
+        <v>0.9993152889126338</v>
       </c>
       <c r="AD2" t="n">
-        <v>321.7031770320763</v>
+        <v>321.7031770331198</v>
       </c>
       <c r="AE2" t="n">
-        <v>116772.6513966536</v>
+        <v>116772.6513975432</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.563649005478153e-06</v>
+        <v>8.563649005412916e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83238.17986265541</v>
+        <v>83238.17986329179</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.201371776329107e-05</v>
+        <v>1.201371776319922e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.003899196445543281</v>
+        <v>0.003899196445517861</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.641480126916143e-05</v>
+        <v>1.641480126924712e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.02313358326690723</v>
+        <v>0.02313358326703755</v>
       </c>
       <c r="AL2" t="n">
-        <v>83295.00696826387</v>
+        <v>83295.00696889925</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.128315207197457</v>
+        <v>1.128315207198732</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.128315207197457</v>
+        <v>1.128315207198732</v>
       </c>
       <c r="AO2" t="n">
-        <v>309635.0616271869</v>
+        <v>309635.0616283817</v>
       </c>
       <c r="AP2" t="n">
-        <v>383457.5240356787</v>
+        <v>383457.5240373531</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3788.906534378018</v>
+        <v>3788.906534382336</v>
       </c>
       <c r="AR2" t="n">
-        <v>716.4786262618444</v>
+        <v>716.4786262618828</v>
       </c>
       <c r="AS2" t="n">
-        <v>1005.129004450562</v>
+        <v>1005.129004450588</v>
       </c>
       <c r="AT2" t="n">
-        <v>321.7031770320763</v>
+        <v>321.7031770331198</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9993152889126165</v>
+        <v>0.9993152889126338</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.641480126916143e-05</v>
+        <v>1.641480126924712e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.02313358326690723</v>
+        <v>0.02313358326703755</v>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
@@ -7721,97 +7721,97 @@
         <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>295.5933901621267</v>
+        <v>295.593390162122</v>
       </c>
       <c r="BA2" t="n">
-        <v>135149.1677127062</v>
+        <v>135149.1677106726</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.593552076312655</v>
+        <v>1.593552076288692</v>
       </c>
       <c r="BC2" t="n">
-        <v>336974.4209724284</v>
+        <v>336974.4209724294</v>
       </c>
       <c r="BD2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885901</v>
       </c>
       <c r="BE2" t="n">
-        <v>3788.906534378655</v>
+        <v>3788.906534382972</v>
       </c>
       <c r="BF2" t="n">
-        <v>-698191.2964158312</v>
+        <v>-698191.2964170896</v>
       </c>
       <c r="BG2" t="n">
-        <v>717.855810861793</v>
+        <v>717.8558108617875</v>
       </c>
       <c r="BH2" t="n">
-        <v>1006.77477649303</v>
+        <v>1006.774776492997</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.40247492777747</v>
+        <v>1.402474927777434</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.9995307661003174</v>
+        <v>0.9995307661003243</v>
       </c>
       <c r="BK2" t="n">
-        <v>344.8024423753002</v>
+        <v>344.8024423752955</v>
       </c>
       <c r="BL2" t="n">
-        <v>189455.3734073899</v>
+        <v>189455.3734045357</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.278287873364662e-06</v>
+        <v>5.278287873444181e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>135086.4601249048</v>
+        <v>135086.4601228731</v>
       </c>
       <c r="BO2" t="n">
-        <v>7.402666403985799e-06</v>
+        <v>7.402666404097133e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.003395610642150372</v>
+        <v>0.003395610642150237</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.832921983643474e-05</v>
+        <v>1.832921983643422e-05</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.02606722710495384</v>
+        <v>0.02606722710495284</v>
       </c>
       <c r="BS2" t="n">
-        <v>135149.1677127062</v>
+        <v>135149.1677106726</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.593552076312655</v>
+        <v>1.593552076288692</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.593552076312655</v>
+        <v>1.593552076288692</v>
       </c>
       <c r="BV2" t="n">
-        <v>336974.4209724284</v>
+        <v>336974.4209724294</v>
       </c>
       <c r="BW2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885901</v>
       </c>
       <c r="BX2" t="n">
-        <v>3788.906534378655</v>
+        <v>3788.906534382972</v>
       </c>
       <c r="BY2" t="n">
-        <v>717.855810861793</v>
+        <v>717.8558108617875</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1006.77477649303</v>
+        <v>1006.774776492997</v>
       </c>
       <c r="CA2" t="n">
-        <v>344.8024423753002</v>
+        <v>344.8024423752955</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.9995307661003174</v>
+        <v>0.9995307661003243</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.832921983643474e-05</v>
+        <v>1.832921983643422e-05</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.02606722710495384</v>
+        <v>0.02606722710495284</v>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
@@ -7822,97 +7822,97 @@
         <v>1</v>
       </c>
       <c r="CG2" t="n">
-        <v>295.5933901621267</v>
+        <v>295.593390162122</v>
       </c>
       <c r="CH2" t="n">
-        <v>135149.1677127062</v>
+        <v>135149.1677106726</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.593552076312655</v>
+        <v>1.593552076288692</v>
       </c>
       <c r="CJ2" t="n">
-        <v>336974.4209724284</v>
+        <v>336974.4209724294</v>
       </c>
       <c r="CK2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885901</v>
       </c>
       <c r="CL2" t="n">
-        <v>3788.906534378655</v>
+        <v>3788.906534382972</v>
       </c>
       <c r="CM2" t="n">
-        <v>-698191.2964158312</v>
+        <v>-698191.2964170896</v>
       </c>
       <c r="CN2" t="n">
-        <v>717.855810861793</v>
+        <v>717.8558108617875</v>
       </c>
       <c r="CO2" t="n">
-        <v>1006.77477649303</v>
+        <v>1006.774776492997</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.40247492777747</v>
+        <v>1.402474927777434</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.9995307661003174</v>
+        <v>0.9995307661003243</v>
       </c>
       <c r="CR2" t="n">
-        <v>344.8024423753002</v>
+        <v>344.8024423752955</v>
       </c>
       <c r="CS2" t="n">
-        <v>189455.3734073899</v>
+        <v>189455.3734045357</v>
       </c>
       <c r="CT2" t="n">
-        <v>5.278287873364662e-06</v>
+        <v>5.278287873444181e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>135086.4601249048</v>
+        <v>135086.4601228731</v>
       </c>
       <c r="CV2" t="n">
-        <v>7.402666403985799e-06</v>
+        <v>7.402666404097133e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.003395610642150372</v>
+        <v>0.003395610642150237</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.832921983643474e-05</v>
+        <v>1.832921983643422e-05</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02606722710495384</v>
+        <v>0.02606722710495284</v>
       </c>
       <c r="CZ2" t="n">
-        <v>135149.1677127062</v>
+        <v>135149.1677106726</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.593552076312655</v>
+        <v>1.593552076288692</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.593552076312655</v>
+        <v>1.593552076288692</v>
       </c>
       <c r="DC2" t="n">
-        <v>336974.4209724284</v>
+        <v>336974.4209724294</v>
       </c>
       <c r="DD2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885901</v>
       </c>
       <c r="DE2" t="n">
-        <v>3788.906534378655</v>
+        <v>3788.906534382972</v>
       </c>
       <c r="DF2" t="n">
-        <v>717.855810861793</v>
+        <v>717.8558108617875</v>
       </c>
       <c r="DG2" t="n">
-        <v>1006.77477649303</v>
+        <v>1006.774776492997</v>
       </c>
       <c r="DH2" t="n">
-        <v>344.8024423753002</v>
+        <v>344.8024423752955</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.9995307661003174</v>
+        <v>0.9995307661003243</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.832921983643474e-05</v>
+        <v>1.832921983643422e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.02606722710495384</v>
+        <v>0.02606722710495284</v>
       </c>
       <c r="DL2" t="inlineStr">
         <is>
@@ -7923,37 +7923,37 @@
         <v>1</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01602810878995408</v>
+        <v>0.01602810878993768</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.821315475040654e-07</v>
+        <v>-1.821315475106727e-07</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0137932907360901</v>
+        <v>0.01379329073608799</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.02515667143986677</v>
+        <v>0.02515667143989936</v>
       </c>
       <c r="DR2" t="n">
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.05497788883436344</v>
+        <v>0.05497788883437751</v>
       </c>
       <c r="DT2" t="n">
-        <v>-2.282479760751244e-13</v>
+        <v>-6.642034144910269e-12</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.8606201986579433</v>
+        <v>0.8606201986363526</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.8606201986579433</v>
+        <v>0.8606201986363526</v>
       </c>
       <c r="DW2" t="n">
-        <v>497851.0604817092</v>
+        <v>497851.0604687986</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.740325648303469</v>
+        <v>2.740325648246709</v>
       </c>
       <c r="DY2" t="n">
         <v>421784.4310884894</v>
@@ -7962,169 +7962,169 @@
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>1473.427406277391</v>
+        <v>1473.427407473617</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.006566568123367638</v>
+        <v>0.006566568138220839</v>
       </c>
       <c r="ED2" t="n">
-        <v>-7.368685334849602e-08</v>
+        <v>-7.368685351908617e-08</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01038200071561011</v>
+        <v>0.01038200073914813</v>
       </c>
       <c r="EF2" t="n">
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.005683382657583173</v>
+        <v>0.005683382670456216</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.02447338350327146</v>
+        <v>0.02447338350316694</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.001918126998470978</v>
+        <v>0.001918126997408496</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01189012253321323</v>
+        <v>0.01189012253328696</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.03198066011997568</v>
+        <v>0.03198066011934316</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.04237524032859367</v>
+        <v>0.04237524032735127</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.112637533483525</v>
+        <v>0.1126375334805568</v>
       </c>
       <c r="EN2" t="n">
-        <v>-2.210190364060338e-12</v>
+        <v>-2.051354919263559e-11</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.9610021001474992</v>
+        <v>0.9610021001486615</v>
       </c>
       <c r="EP2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EQ2" t="n">
-        <v>143.1710351283728</v>
+        <v>143.1710351229625</v>
       </c>
       <c r="ER2" t="n">
-        <v>127.5487452649688</v>
+        <v>127.5487452620511</v>
       </c>
       <c r="ES2" t="n">
-        <v>-65.03278312560408</v>
+        <v>-65.03278311941565</v>
       </c>
       <c r="ET2" t="n">
-        <v>-27.01549357900983</v>
+        <v>-27.01549357733389</v>
       </c>
       <c r="EU2" t="n">
-        <v>263.2932728747669</v>
+        <v>263.2932728679397</v>
       </c>
       <c r="EV2" t="n">
-        <v>127.5487452649688</v>
+        <v>127.5487452620511</v>
       </c>
       <c r="EW2" t="n">
-        <v>-230.3359831256041</v>
+        <v>-230.3359831194157</v>
       </c>
       <c r="EX2" t="n">
-        <v>-61.02447140283702</v>
+        <v>-61.02447140274008</v>
       </c>
       <c r="EY2" t="n">
-        <v>234.2262690928627</v>
+        <v>234.2262690960641</v>
       </c>
       <c r="EZ2" t="n">
-        <v>57554.70642258519</v>
+        <v>57554.70642367526</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.8566580263295236</v>
+        <v>0.8566580263340146</v>
       </c>
       <c r="FB2" t="n">
-        <v>293121.5251165973</v>
+        <v>293121.5251188885</v>
       </c>
       <c r="FC2" t="n">
-        <v>360306.6849512477</v>
+        <v>360306.6849544591</v>
       </c>
       <c r="FD2" t="n">
-        <v>3800.680444294259</v>
+        <v>3800.680444302537</v>
       </c>
       <c r="FE2" t="n">
-        <v>-529912.5155300002</v>
+        <v>-529912.5155408954</v>
       </c>
       <c r="FF2" t="n">
-        <v>715.9883610120991</v>
+        <v>715.9883610121424</v>
       </c>
       <c r="FG2" t="n">
-        <v>1004.423052047662</v>
+        <v>1004.423052047686</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.402848295784921</v>
+        <v>1.40284829578487</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.9992669504683094</v>
+        <v>0.9992669504683385</v>
       </c>
       <c r="FJ2" t="n">
-        <v>306.8902321798781</v>
+        <v>306.8902321819787</v>
       </c>
       <c r="FK2" t="n">
-        <v>80681.43608611979</v>
+        <v>80681.43608764728</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.239442489512203e-05</v>
+        <v>1.239442489488737e-05</v>
       </c>
       <c r="FM2" t="n">
-        <v>57512.58801720749</v>
+        <v>57512.58801829845</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.738749784135614e-05</v>
+        <v>1.738749784102631e-05</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.004282804348535167</v>
+        <v>0.004282804348476361</v>
       </c>
       <c r="FP2" t="n">
-        <v>1.52019441283315e-05</v>
+        <v>1.520194412850214e-05</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0212932179012026</v>
+        <v>0.02129321790146019</v>
       </c>
       <c r="FR2" t="n">
-        <v>57554.70642258519</v>
+        <v>57554.70642367526</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.8566580263295236</v>
+        <v>0.8566580263340146</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.8566580263295236</v>
+        <v>0.8566580263340146</v>
       </c>
       <c r="FU2" t="n">
-        <v>293121.5251165973</v>
+        <v>293121.5251188885</v>
       </c>
       <c r="FV2" t="n">
-        <v>360306.6849512477</v>
+        <v>360306.6849544591</v>
       </c>
       <c r="FW2" t="n">
-        <v>3800.680444294259</v>
+        <v>3800.680444302537</v>
       </c>
       <c r="FX2" t="n">
-        <v>715.9883610120991</v>
+        <v>715.9883610121424</v>
       </c>
       <c r="FY2" t="n">
-        <v>1004.423052047662</v>
+        <v>1004.423052047686</v>
       </c>
       <c r="FZ2" t="n">
-        <v>306.8902321798781</v>
+        <v>306.8902321819787</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.9992669504683094</v>
+        <v>0.9992669504683385</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.52019441283315e-05</v>
+        <v>1.520194412850214e-05</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0212932179012026</v>
+        <v>0.02129321790146019</v>
       </c>
       <c r="GD2" t="inlineStr">
         <is>
@@ -8135,97 +8135,97 @@
         <v>1</v>
       </c>
       <c r="GF2" t="n">
-        <v>244.4614066948898</v>
+        <v>244.4614066971309</v>
       </c>
       <c r="GG2" t="n">
-        <v>66822.70615642406</v>
+        <v>66822.70615664065</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.9529351478342097</v>
+        <v>0.9529351478285363</v>
       </c>
       <c r="GI2" t="n">
-        <v>300432.6210983515</v>
+        <v>300432.6210999578</v>
       </c>
       <c r="GJ2" t="n">
-        <v>370555.6576011985</v>
+        <v>370555.6576034494</v>
       </c>
       <c r="GK2" t="n">
-        <v>3800.680444293208</v>
+        <v>3800.680444301487</v>
       </c>
       <c r="GL2" t="n">
-        <v>-558564.0302084781</v>
+        <v>-558564.0302167684</v>
       </c>
       <c r="GM2" t="n">
-        <v>716.1724030950858</v>
+        <v>716.1724030951226</v>
       </c>
       <c r="GN2" t="n">
-        <v>1004.673585265763</v>
+        <v>1004.673585265773</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.402837614132939</v>
+        <v>1.40283761413288</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.9992960651378434</v>
+        <v>0.9992960651378707</v>
       </c>
       <c r="GQ2" t="n">
-        <v>313.5317367535067</v>
+        <v>313.5317367549458</v>
       </c>
       <c r="GR2" t="n">
-        <v>93675.5737966155</v>
+        <v>93675.57379691776</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.067514144264713e-05</v>
+        <v>1.067514144261269e-05</v>
       </c>
       <c r="GT2" t="n">
-        <v>66775.77850271302</v>
+        <v>66775.77850293128</v>
       </c>
       <c r="GU2" t="n">
-        <v>1.497548995193476e-05</v>
+        <v>1.497548995188581e-05</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.004103843949382138</v>
+        <v>0.004103843949344211</v>
       </c>
       <c r="GW2" t="n">
-        <v>1.574391435365812e-05</v>
+        <v>1.574391435377552e-05</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.02211361781068676</v>
+        <v>0.0221136178108645</v>
       </c>
       <c r="GY2" t="n">
-        <v>66822.70615642406</v>
+        <v>66822.70615664065</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9529351478342097</v>
+        <v>0.9529351478285363</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9529351478342097</v>
+        <v>0.9529351478285363</v>
       </c>
       <c r="HB2" t="n">
-        <v>300432.6210983515</v>
+        <v>300432.6210999578</v>
       </c>
       <c r="HC2" t="n">
-        <v>370555.6576011985</v>
+        <v>370555.6576034494</v>
       </c>
       <c r="HD2" t="n">
-        <v>3800.680444293208</v>
+        <v>3800.680444301487</v>
       </c>
       <c r="HE2" t="n">
-        <v>716.1724030950858</v>
+        <v>716.1724030951226</v>
       </c>
       <c r="HF2" t="n">
-        <v>1004.673585265763</v>
+        <v>1004.673585265773</v>
       </c>
       <c r="HG2" t="n">
-        <v>313.5317367535067</v>
+        <v>313.5317367549458</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.9992960651378434</v>
+        <v>0.9992960651378707</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.574391435365812e-05</v>
+        <v>1.574391435377552e-05</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.02211361781068676</v>
+        <v>0.0221136178108645</v>
       </c>
       <c r="HK2" t="inlineStr">
         <is>
@@ -8236,97 +8236,97 @@
         <v>1</v>
       </c>
       <c r="HM2" t="n">
-        <v>268.8324161237027</v>
+        <v>268.832416125014</v>
       </c>
       <c r="HN2" t="n">
-        <v>93119.85352002685</v>
+        <v>93119.85352116771</v>
       </c>
       <c r="HO2" t="n">
-        <v>1.207446265600233</v>
+        <v>1.207446265609125</v>
       </c>
       <c r="HP2" t="n">
-        <v>317847.035667724</v>
+        <v>317847.0356686625</v>
       </c>
       <c r="HQ2" t="n">
-        <v>394968.3587219935</v>
+        <v>394968.3587233088</v>
       </c>
       <c r="HR2" t="n">
-        <v>3800.680444291438</v>
+        <v>3800.680444292816</v>
       </c>
       <c r="HS2" t="n">
-        <v>-626777.7480309814</v>
+        <v>-626777.7480350205</v>
       </c>
       <c r="HT2" t="n">
-        <v>716.7947149388538</v>
+        <v>716.7947149388935</v>
       </c>
       <c r="HU2" t="n">
-        <v>1005.457361475718</v>
+        <v>1005.457361475759</v>
       </c>
       <c r="HV2" t="n">
-        <v>1.402713134626682</v>
+        <v>1.402713134626661</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.9993936971367167</v>
+        <v>0.999393697136726</v>
       </c>
       <c r="HX2" t="n">
-        <v>328.8066602140959</v>
+        <v>328.8066602148984</v>
       </c>
       <c r="HY2" t="n">
-        <v>130541.6279786725</v>
+        <v>130541.6279802711</v>
       </c>
       <c r="HZ2" t="n">
-        <v>7.660391673400738e-06</v>
+        <v>7.660391673306931e-06</v>
       </c>
       <c r="IA2" t="n">
-        <v>93063.66694385801</v>
+        <v>93063.66694499903</v>
       </c>
       <c r="IB2" t="n">
-        <v>1.074533201666408e-05</v>
+        <v>1.074533201653233e-05</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.003732486991492123</v>
+        <v>0.003732486991473889</v>
       </c>
       <c r="ID2" t="n">
-        <v>1.700018262268562e-05</v>
+        <v>1.700018262275191e-05</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02402630820219555</v>
+        <v>0.02402630820229682</v>
       </c>
       <c r="IF2" t="n">
-        <v>93119.85352002685</v>
+        <v>93119.85352116771</v>
       </c>
       <c r="IG2" t="n">
-        <v>1.207446265600233</v>
+        <v>1.207446265609125</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.207446265600233</v>
+        <v>1.207446265609125</v>
       </c>
       <c r="II2" t="n">
-        <v>317847.035667724</v>
+        <v>317847.0356686625</v>
       </c>
       <c r="IJ2" t="n">
-        <v>394968.3587219935</v>
+        <v>394968.3587233088</v>
       </c>
       <c r="IK2" t="n">
-        <v>3800.680444291438</v>
+        <v>3800.680444292816</v>
       </c>
       <c r="IL2" t="n">
-        <v>716.7947149388538</v>
+        <v>716.7947149388935</v>
       </c>
       <c r="IM2" t="n">
-        <v>1005.457361475718</v>
+        <v>1005.457361475759</v>
       </c>
       <c r="IN2" t="n">
-        <v>328.8066602140959</v>
+        <v>328.8066602148984</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.9993936971367167</v>
+        <v>0.999393697136726</v>
       </c>
       <c r="IP2" t="n">
-        <v>1.700018262268562e-05</v>
+        <v>1.700018262275191e-05</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.02402630820219555</v>
+        <v>0.02402630820229682</v>
       </c>
       <c r="IR2" t="inlineStr">
         <is>
@@ -8337,64 +8337,64 @@
         <v>1</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.02429238887165199</v>
+        <v>0.02429238887098445</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.001965144688502249</v>
+        <v>0.00196514468739829</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.01190257554953914</v>
+        <v>0.01190257554961198</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.03190958695927112</v>
+        <v>0.03190958695864489</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.04245126562566418</v>
+        <v>0.04245126562442407</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.1125209616946287</v>
+        <v>0.1125209616910637</v>
       </c>
       <c r="IZ2" t="n">
-        <v>1.822847428556429e-12</v>
+        <v>-9.468575923321509e-11</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.4665219681689175</v>
+        <v>0.4665219681480947</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.8579395668756326</v>
+        <v>0.8579395668475135</v>
       </c>
       <c r="JC2" t="n">
-        <v>386654.0207465911</v>
+        <v>386654.0207342518</v>
       </c>
       <c r="JD2" t="n">
-        <v>2.740325648207817</v>
+        <v>2.740325648151126</v>
       </c>
       <c r="JE2" t="n">
-        <v>381305.7847567669</v>
+        <v>381305.7847580948</v>
       </c>
       <c r="JF2" t="n">
         <v>0</v>
       </c>
       <c r="JG2" t="n">
-        <v>2666.316168643301</v>
+        <v>2666.316164034768</v>
       </c>
       <c r="JH2" t="n">
-        <v>6.12955070118803</v>
+        <v>6.129550699365844</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.008898450240983884</v>
+        <v>0.008898450238731825</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.0006974253335056907</v>
+        <v>0.0006974253329458463</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.01162807393237557</v>
+        <v>0.01162807392925237</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.01540751271532681</v>
+        <v>0.01540751271104147</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.004323213572281737</v>
+        <v>0.004323213571232874</v>
       </c>
     </row>
     <row r="3">
@@ -8402,148 +8402,148 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01595022849370333</v>
+        <v>0.01595022849399139</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.793955750467426e-07</v>
+        <v>-1.793955750219205e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379120448695119</v>
+        <v>0.01379120448695893</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0251843323886836</v>
+        <v>0.02518433238858101</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05492558597376307</v>
+        <v>0.05492558597395631</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.091507522727909e-12</v>
+        <v>-2.208774829703941e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>0.98034472729654</v>
+        <v>0.9803447272964962</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>277.9577307570761</v>
+        <v>277.9577307733494</v>
       </c>
       <c r="L3" t="n">
-        <v>114.0320323164203</v>
+        <v>114.0320323224932</v>
       </c>
       <c r="M3" t="n">
-        <v>253.4900307574444</v>
+        <v>253.4900307725565</v>
       </c>
       <c r="N3" t="n">
-        <v>65.77948826725543</v>
+        <v>65.77948826739177</v>
       </c>
       <c r="O3" t="n">
-        <v>277.9577307570761</v>
+        <v>277.9577307733494</v>
       </c>
       <c r="P3" t="n">
-        <v>114.0320323164203</v>
+        <v>114.0320323224932</v>
       </c>
       <c r="Q3" t="n">
-        <v>253.4900307574444</v>
+        <v>253.4900307725565</v>
       </c>
       <c r="R3" t="n">
-        <v>65.77948826725543</v>
+        <v>65.77948826739177</v>
       </c>
       <c r="S3" t="n">
-        <v>257.0504352054104</v>
+        <v>257.0504352010894</v>
       </c>
       <c r="T3" t="n">
-        <v>82941.78307800343</v>
+        <v>82941.78307145847</v>
       </c>
       <c r="U3" t="n">
-        <v>1.124855601864927</v>
+        <v>1.124855601795078</v>
       </c>
       <c r="V3" t="n">
-        <v>309418.6874038897</v>
+        <v>309418.6874008066</v>
       </c>
       <c r="W3" t="n">
-        <v>383154.1810445776</v>
+        <v>383154.1810402546</v>
       </c>
       <c r="X3" t="n">
-        <v>3788.946161245299</v>
+        <v>3788.946161251118</v>
       </c>
       <c r="Y3" t="n">
-        <v>-590796.0786733957</v>
+        <v>-590796.0786628422</v>
       </c>
       <c r="Z3" t="n">
-        <v>716.4707974533599</v>
+        <v>716.4707974532431</v>
       </c>
       <c r="AA3" t="n">
-        <v>1005.118863265241</v>
+        <v>1005.118863265062</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.402874851058631</v>
+        <v>1.40287485105861</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9993141076252422</v>
+        <v>0.9993141076252379</v>
       </c>
       <c r="AD3" t="n">
-        <v>321.5135668731562</v>
+        <v>321.5135668704499</v>
       </c>
       <c r="AE3" t="n">
-        <v>116277.4188181163</v>
+        <v>116277.4188089386</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.600122105945795e-06</v>
+        <v>8.600122106624603e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>82885.09750557691</v>
+        <v>82885.09749903606</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.206489501846475e-05</v>
+        <v>1.206489501941685e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.003903779826911319</v>
+        <v>0.003903779826976538</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.639920054024157e-05</v>
+        <v>1.639920054001872e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0231098233948714</v>
+        <v>0.02310982339453182</v>
       </c>
       <c r="AL3" t="n">
-        <v>82941.78307800343</v>
+        <v>82941.78307145847</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.124855601864927</v>
+        <v>1.124855601795078</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.124855601864927</v>
+        <v>1.124855601795078</v>
       </c>
       <c r="AO3" t="n">
-        <v>309418.6874038897</v>
+        <v>309418.6874008066</v>
       </c>
       <c r="AP3" t="n">
-        <v>383154.1810445776</v>
+        <v>383154.1810402546</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3788.946161245299</v>
+        <v>3788.946161251118</v>
       </c>
       <c r="AR3" t="n">
-        <v>716.4707974533599</v>
+        <v>716.4707974532431</v>
       </c>
       <c r="AS3" t="n">
-        <v>1005.118863265241</v>
+        <v>1005.118863265062</v>
       </c>
       <c r="AT3" t="n">
-        <v>321.5135668731562</v>
+        <v>321.5135668704499</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9993141076252422</v>
+        <v>0.9993141076252379</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.639920054024157e-05</v>
+        <v>1.639920054001872e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0231098233948714</v>
+        <v>0.02310982339453182</v>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
@@ -8554,97 +8554,97 @@
         <v>1</v>
       </c>
       <c r="AZ3" t="n">
-        <v>295.5933468836033</v>
+        <v>295.5933468835968</v>
       </c>
       <c r="BA3" t="n">
-        <v>135130.5030259935</v>
+        <v>135130.5030232533</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.593332131858612</v>
+        <v>1.593332131826323</v>
       </c>
       <c r="BC3" t="n">
-        <v>336974.427998798</v>
+        <v>336974.4279987989</v>
       </c>
       <c r="BD3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="BE3" t="n">
-        <v>3788.946161245009</v>
+        <v>3788.946161250827</v>
       </c>
       <c r="BF3" t="n">
-        <v>-698202.845875603</v>
+        <v>-698202.8458772985</v>
       </c>
       <c r="BG3" t="n">
-        <v>717.8557622455379</v>
+        <v>717.8557622455307</v>
       </c>
       <c r="BH3" t="n">
-        <v>1006.774470037779</v>
+        <v>1006.774470037734</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.402474595855397</v>
+        <v>1.402474595855349</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9995308296345008</v>
+        <v>0.9995308296345101</v>
       </c>
       <c r="BK3" t="n">
-        <v>344.8023979999738</v>
+        <v>344.8023979999673</v>
       </c>
       <c r="BL3" t="n">
-        <v>189429.1757335815</v>
+        <v>189429.1757297355</v>
       </c>
       <c r="BM3" t="n">
-        <v>5.279017849955848e-06</v>
+        <v>5.27901785006303e-06</v>
       </c>
       <c r="BN3" t="n">
-        <v>135067.812488999</v>
+        <v>135067.8124862614</v>
       </c>
       <c r="BO3" t="n">
-        <v>7.403688425630257e-06</v>
+        <v>7.403688425780318e-06</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.003395609410752963</v>
+        <v>0.003395609410752783</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.832921504485087e-05</v>
+        <v>1.832921504485017e-05</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.02606721789341952</v>
+        <v>0.02606721789341816</v>
       </c>
       <c r="BS3" t="n">
-        <v>135130.5030259935</v>
+        <v>135130.5030232533</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.593332131858612</v>
+        <v>1.593332131826323</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.593332131858612</v>
+        <v>1.593332131826323</v>
       </c>
       <c r="BV3" t="n">
-        <v>336974.427998798</v>
+        <v>336974.4279987989</v>
       </c>
       <c r="BW3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="BX3" t="n">
-        <v>3788.946161245009</v>
+        <v>3788.946161250827</v>
       </c>
       <c r="BY3" t="n">
-        <v>717.8557622455379</v>
+        <v>717.8557622455307</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1006.774470037779</v>
+        <v>1006.774470037734</v>
       </c>
       <c r="CA3" t="n">
-        <v>344.8023979999738</v>
+        <v>344.8023979999673</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.9995308296345008</v>
+        <v>0.9995308296345101</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.832921504485087e-05</v>
+        <v>1.832921504485017e-05</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.02606721789341952</v>
+        <v>0.02606721789341816</v>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
@@ -8655,97 +8655,97 @@
         <v>1</v>
       </c>
       <c r="CG3" t="n">
-        <v>295.5933468836033</v>
+        <v>295.5933468835968</v>
       </c>
       <c r="CH3" t="n">
-        <v>135130.5030259935</v>
+        <v>135130.5030232533</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.593332131858612</v>
+        <v>1.593332131826323</v>
       </c>
       <c r="CJ3" t="n">
-        <v>336974.427998798</v>
+        <v>336974.4279987989</v>
       </c>
       <c r="CK3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="CL3" t="n">
-        <v>3788.946161245009</v>
+        <v>3788.946161250827</v>
       </c>
       <c r="CM3" t="n">
-        <v>-698202.845875603</v>
+        <v>-698202.8458772985</v>
       </c>
       <c r="CN3" t="n">
-        <v>717.8557622455379</v>
+        <v>717.8557622455307</v>
       </c>
       <c r="CO3" t="n">
-        <v>1006.774470037779</v>
+        <v>1006.774470037734</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.402474595855397</v>
+        <v>1.402474595855349</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.9995308296345008</v>
+        <v>0.9995308296345101</v>
       </c>
       <c r="CR3" t="n">
-        <v>344.8023979999738</v>
+        <v>344.8023979999673</v>
       </c>
       <c r="CS3" t="n">
-        <v>189429.1757335815</v>
+        <v>189429.1757297355</v>
       </c>
       <c r="CT3" t="n">
-        <v>5.279017849955848e-06</v>
+        <v>5.27901785006303e-06</v>
       </c>
       <c r="CU3" t="n">
-        <v>135067.812488999</v>
+        <v>135067.8124862614</v>
       </c>
       <c r="CV3" t="n">
-        <v>7.403688425630257e-06</v>
+        <v>7.403688425780318e-06</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.003395609410752963</v>
+        <v>0.003395609410752783</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.832921504485087e-05</v>
+        <v>1.832921504485017e-05</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02606721789341952</v>
+        <v>0.02606721789341816</v>
       </c>
       <c r="CZ3" t="n">
-        <v>135130.5030259935</v>
+        <v>135130.5030232533</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.593332131858612</v>
+        <v>1.593332131826323</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.593332131858612</v>
+        <v>1.593332131826323</v>
       </c>
       <c r="DC3" t="n">
-        <v>336974.427998798</v>
+        <v>336974.4279987989</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="DE3" t="n">
-        <v>3788.946161245009</v>
+        <v>3788.946161250827</v>
       </c>
       <c r="DF3" t="n">
-        <v>717.8557622455379</v>
+        <v>717.8557622455307</v>
       </c>
       <c r="DG3" t="n">
-        <v>1006.774470037779</v>
+        <v>1006.774470037734</v>
       </c>
       <c r="DH3" t="n">
-        <v>344.8023979999738</v>
+        <v>344.8023979999673</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.9995308296345008</v>
+        <v>0.9995308296345101</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.832921504485087e-05</v>
+        <v>1.832921504485017e-05</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.02606721789341952</v>
+        <v>0.02606721789341816</v>
       </c>
       <c r="DL3" t="inlineStr">
         <is>
@@ -8756,37 +8756,37 @@
         <v>1</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.01603742871347945</v>
+        <v>0.01603742871365895</v>
       </c>
       <c r="DO3" t="n">
-        <v>-1.825908094046871e-07</v>
+        <v>-1.825908093870503e-07</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.01379361004717251</v>
+        <v>0.01379361004717691</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.02515223164239709</v>
+        <v>0.02515223164233948</v>
       </c>
       <c r="DR3" t="n">
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.05498308781223964</v>
+        <v>0.05498308781236596</v>
       </c>
       <c r="DT3" t="n">
-        <v>-1.390554338343009e-14</v>
+        <v>2.211078542480038e-13</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.8645287769978811</v>
+        <v>0.8645287770557724</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.8645287769978811</v>
+        <v>0.8645287770557724</v>
       </c>
       <c r="DW3" t="n">
-        <v>498758.8281044999</v>
+        <v>498758.828109507</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.74271310970482</v>
+        <v>2.742713109695083</v>
       </c>
       <c r="DY3" t="n">
         <v>421784.4310884894</v>
@@ -8795,169 +8795,169 @@
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>1485.004309601209</v>
+        <v>1485.004311120487</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.006324338056350071</v>
+        <v>0.006324338055646128</v>
       </c>
       <c r="ED3" t="n">
-        <v>-7.113116046311243e-08</v>
+        <v>-7.113116044406833e-08</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.009985702199338276</v>
+        <v>0.009985702198005776</v>
       </c>
       <c r="EF3" t="n">
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.005468275229672302</v>
+        <v>0.005468275228967957</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.02459522109341724</v>
+        <v>0.02459522109745105</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.002166345437345728</v>
+        <v>0.00216634544042638</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.01188682146171543</v>
+        <v>0.01188682146148106</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.03204523418555951</v>
+        <v>0.03204523418760318</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.04266986376627293</v>
+        <v>0.04266986376953599</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.1133634859443108</v>
+        <v>0.1133634859564977</v>
       </c>
       <c r="EN3" t="n">
-        <v>-1.504634472571098e-10</v>
+        <v>-2.410027594157427e-10</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.960750810513731</v>
+        <v>0.9607508105098961</v>
       </c>
       <c r="EP3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EQ3" t="n">
-        <v>147.8703209435865</v>
+        <v>147.870321004684</v>
       </c>
       <c r="ER3" t="n">
-        <v>130.1084645531526</v>
+        <v>130.1084645861009</v>
       </c>
       <c r="ES3" t="n">
-        <v>-70.26677214430956</v>
+        <v>-70.26677221187558</v>
       </c>
       <c r="ET3" t="n">
-        <v>-28.37184243728924</v>
+        <v>-28.37184245425799</v>
       </c>
       <c r="EU3" t="n">
-        <v>269.1122894340757</v>
+        <v>269.1122895091499</v>
       </c>
       <c r="EV3" t="n">
-        <v>130.1084645531526</v>
+        <v>130.1084645861009</v>
       </c>
       <c r="EW3" t="n">
-        <v>-235.5699721443096</v>
+        <v>-235.5699722118756</v>
       </c>
       <c r="EX3" t="n">
-        <v>-61.08753904193376</v>
+        <v>-61.08753904274806</v>
       </c>
       <c r="EY3" t="n">
-        <v>232.4495873987259</v>
+        <v>232.4495873753316</v>
       </c>
       <c r="EZ3" t="n">
-        <v>55931.59611994542</v>
+        <v>55931.59610251389</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.8388647153662594</v>
+        <v>0.8388647151893175</v>
       </c>
       <c r="FB3" t="n">
-        <v>291852.8370242357</v>
+        <v>291852.8370075198</v>
       </c>
       <c r="FC3" t="n">
-        <v>358528.1841873655</v>
+        <v>358528.1841639336</v>
       </c>
       <c r="FD3" t="n">
-        <v>3801.263841043409</v>
+        <v>3801.263841031999</v>
       </c>
       <c r="FE3" t="n">
-        <v>-525074.0272568708</v>
+        <v>-525074.0271887227</v>
       </c>
       <c r="FF3" t="n">
-        <v>715.9598802282831</v>
+        <v>715.9598802279337</v>
       </c>
       <c r="FG3" t="n">
-        <v>1004.380331903859</v>
+        <v>1004.380331903414</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.402844432545038</v>
+        <v>1.402844432545101</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.9992640790444183</v>
+        <v>0.9992640790443331</v>
       </c>
       <c r="FJ3" t="n">
-        <v>305.7227757792113</v>
+        <v>305.7227757638076</v>
       </c>
       <c r="FK3" t="n">
-        <v>78405.67814388685</v>
+        <v>78405.67811944787</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.275417831556589e-05</v>
+        <v>1.275417831954136e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>55890.50098851191</v>
+        <v>55890.50097108838</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.789212804167825e-05</v>
+        <v>1.789212804725602e-05</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.004315445128738605</v>
+        <v>0.004315445129172576</v>
       </c>
       <c r="FP3" t="n">
-        <v>1.510693775183092e-05</v>
+        <v>1.510693775057874e-05</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.02114967868913906</v>
+        <v>0.02114967868724842</v>
       </c>
       <c r="FR3" t="n">
-        <v>55931.59611994542</v>
+        <v>55931.59610251389</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.8388647153662594</v>
+        <v>0.8388647151893175</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.8388647153662594</v>
+        <v>0.8388647151893175</v>
       </c>
       <c r="FU3" t="n">
-        <v>291852.8370242357</v>
+        <v>291852.8370075198</v>
       </c>
       <c r="FV3" t="n">
-        <v>358528.1841873655</v>
+        <v>358528.1841639336</v>
       </c>
       <c r="FW3" t="n">
-        <v>3801.263841043409</v>
+        <v>3801.263841031999</v>
       </c>
       <c r="FX3" t="n">
-        <v>715.9598802282831</v>
+        <v>715.9598802279337</v>
       </c>
       <c r="FY3" t="n">
-        <v>1004.380331903859</v>
+        <v>1004.380331903414</v>
       </c>
       <c r="FZ3" t="n">
-        <v>305.7227757792113</v>
+        <v>305.7227757638076</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.9992640790444183</v>
+        <v>0.9992640790443331</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.510693775183092e-05</v>
+        <v>1.510693775057874e-05</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.02114967868913906</v>
+        <v>0.02114967868724842</v>
       </c>
       <c r="GD3" t="inlineStr">
         <is>
@@ -8968,97 +8968,97 @@
         <v>1</v>
       </c>
       <c r="GF3" t="n">
-        <v>243.3678546859828</v>
+        <v>243.367854671307</v>
       </c>
       <c r="GG3" t="n">
-        <v>65651.70334147129</v>
+        <v>65651.70332798778</v>
       </c>
       <c r="GH3" t="n">
-        <v>0.9404446718324492</v>
+        <v>0.9404446716960588</v>
       </c>
       <c r="GI3" t="n">
-        <v>299651.7861057029</v>
+        <v>299651.7860952182</v>
       </c>
       <c r="GJ3" t="n">
-        <v>369461.0000954525</v>
+        <v>369461.0000807547</v>
       </c>
       <c r="GK3" t="n">
-        <v>3801.263841052059</v>
+        <v>3801.263841050578</v>
       </c>
       <c r="GL3" t="n">
-        <v>-555644.4259967855</v>
+        <v>-555644.4259553364</v>
       </c>
       <c r="GM3" t="n">
-        <v>716.1501976961308</v>
+        <v>716.1501976958453</v>
       </c>
       <c r="GN3" t="n">
-        <v>1004.641302974723</v>
+        <v>1004.64130297435</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.402836033846914</v>
+        <v>1.402836033846951</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.9992940563464553</v>
+        <v>0.9992940563464061</v>
       </c>
       <c r="GQ3" t="n">
-        <v>312.8288747531153</v>
+        <v>312.8288747436717</v>
       </c>
       <c r="GR3" t="n">
-        <v>92033.7070191119</v>
+        <v>92033.70700020793</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.08655842776423e-05</v>
+        <v>1.086558427987412e-05</v>
       </c>
       <c r="GT3" t="n">
-        <v>65605.46264750084</v>
+        <v>65605.46263402354</v>
       </c>
       <c r="GU3" t="n">
-        <v>1.52426331534771e-05</v>
+        <v>1.524263315660839e-05</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.004122220614579797</v>
+        <v>0.004122220614827953</v>
       </c>
       <c r="GW3" t="n">
-        <v>1.568640705489722e-05</v>
+        <v>1.568640705412514e-05</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.02202641086289495</v>
+        <v>0.02202641086172466</v>
       </c>
       <c r="GY3" t="n">
-        <v>65651.70334147129</v>
+        <v>65651.70332798778</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9404446718324492</v>
+        <v>0.9404446716960588</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9404446718324492</v>
+        <v>0.9404446716960588</v>
       </c>
       <c r="HB3" t="n">
-        <v>299651.7861057029</v>
+        <v>299651.7860952182</v>
       </c>
       <c r="HC3" t="n">
-        <v>369461.0000954525</v>
+        <v>369461.0000807547</v>
       </c>
       <c r="HD3" t="n">
-        <v>3801.263841052059</v>
+        <v>3801.263841050578</v>
       </c>
       <c r="HE3" t="n">
-        <v>716.1501976961308</v>
+        <v>716.1501976958453</v>
       </c>
       <c r="HF3" t="n">
-        <v>1004.641302974723</v>
+        <v>1004.64130297435</v>
       </c>
       <c r="HG3" t="n">
-        <v>312.8288747531153</v>
+        <v>312.8288747436717</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.9992940563464553</v>
+        <v>0.9992940563464061</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.568640705489722e-05</v>
+        <v>1.568640705412514e-05</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.02202641086289495</v>
+        <v>0.02202641086172466</v>
       </c>
       <c r="HK3" t="inlineStr">
         <is>
@@ -9069,97 +9069,97 @@
         <v>1</v>
       </c>
       <c r="HM3" t="n">
-        <v>268.6028881515023</v>
+        <v>268.602888148088</v>
       </c>
       <c r="HN3" t="n">
-        <v>92654.46754733536</v>
+        <v>92654.46754369838</v>
       </c>
       <c r="HO3" t="n">
-        <v>1.202438301373034</v>
+        <v>1.202438301341143</v>
       </c>
       <c r="HP3" t="n">
-        <v>317683.4104743198</v>
+        <v>317683.4104718781</v>
       </c>
       <c r="HQ3" t="n">
-        <v>394738.8963495914</v>
+        <v>394738.8963461687</v>
       </c>
       <c r="HR3" t="n">
-        <v>3801.263841036479</v>
+        <v>3801.263841034998</v>
       </c>
       <c r="HS3" t="n">
-        <v>-626291.5499786801</v>
+        <v>-626291.5499687264</v>
       </c>
       <c r="HT3" t="n">
-        <v>716.7868863791914</v>
+        <v>716.7868863790856</v>
       </c>
       <c r="HU3" t="n">
-        <v>1005.444725569587</v>
+        <v>1005.444725569467</v>
       </c>
       <c r="HV3" t="n">
-        <v>1.402710826154388</v>
+        <v>1.402710826154428</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.9993938096917557</v>
+        <v>0.9993938096917362</v>
       </c>
       <c r="HX3" t="n">
-        <v>328.6660257356729</v>
+        <v>328.6660257335821</v>
       </c>
       <c r="HY3" t="n">
-        <v>129889.0163892632</v>
+        <v>129889.0163841657</v>
       </c>
       <c r="HZ3" t="n">
-        <v>7.698880381102504e-06</v>
+        <v>7.698880381404645e-06</v>
       </c>
       <c r="IA3" t="n">
-        <v>92598.56983164616</v>
+        <v>92598.56982800955</v>
       </c>
       <c r="IB3" t="n">
-        <v>1.07993028598401e-05</v>
+        <v>1.079930286026422e-05</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.003735645016471875</v>
+        <v>0.003735645016519338</v>
       </c>
       <c r="ID3" t="n">
-        <v>1.698853714526815e-05</v>
+        <v>1.698853714509539e-05</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02400848363074847</v>
+        <v>0.02400848363048446</v>
       </c>
       <c r="IF3" t="n">
-        <v>92654.46754733536</v>
+        <v>92654.46754369838</v>
       </c>
       <c r="IG3" t="n">
-        <v>1.202438301373034</v>
+        <v>1.202438301341143</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.202438301373034</v>
+        <v>1.202438301341143</v>
       </c>
       <c r="II3" t="n">
-        <v>317683.4104743198</v>
+        <v>317683.4104718781</v>
       </c>
       <c r="IJ3" t="n">
-        <v>394738.8963495914</v>
+        <v>394738.8963461687</v>
       </c>
       <c r="IK3" t="n">
-        <v>3801.263841036479</v>
+        <v>3801.263841034998</v>
       </c>
       <c r="IL3" t="n">
-        <v>716.7868863791914</v>
+        <v>716.7868863790856</v>
       </c>
       <c r="IM3" t="n">
-        <v>1005.444725569587</v>
+        <v>1005.444725569467</v>
       </c>
       <c r="IN3" t="n">
-        <v>328.6660257356729</v>
+        <v>328.6660257335821</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.9993938096917557</v>
+        <v>0.9993938096917362</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.698853714526815e-05</v>
+        <v>1.698853714509539e-05</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.02400848363074847</v>
+        <v>0.02400848363048446</v>
       </c>
       <c r="IR3" t="inlineStr">
         <is>
@@ -9170,64 +9170,64 @@
         <v>1</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.02448171759272998</v>
+        <v>0.02448171759575244</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.002201228143570568</v>
+        <v>0.002201228147166097</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.01189238600756463</v>
+        <v>0.01189238600740223</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.03201339421248479</v>
+        <v>0.03201339421411649</v>
       </c>
       <c r="IX3" t="n">
-        <v>0.04270336871454269</v>
+        <v>0.04270336871822823</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.1132920946708927</v>
+        <v>0.1132920946826655</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-8.558787012447056e-11</v>
+        <v>-2.791930159284917e-10</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.483674533461571</v>
+        <v>0.4836745336857866</v>
       </c>
       <c r="JB3" t="n">
-        <v>0.8802493983255759</v>
+        <v>0.8802493986154897</v>
       </c>
       <c r="JC3" t="n">
-        <v>389424.6425653863</v>
+        <v>389424.6426241613</v>
       </c>
       <c r="JD3" t="n">
-        <v>2.742713110196105</v>
+        <v>2.742713110382718</v>
       </c>
       <c r="JE3" t="n">
-        <v>381076.3223845778</v>
+        <v>381076.3223811489</v>
       </c>
       <c r="JF3" t="n">
         <v>0</v>
       </c>
       <c r="JG3" t="n">
-        <v>2819.797500960703</v>
+        <v>2819.797503710724</v>
       </c>
       <c r="JH3" t="n">
-        <v>6.466737171132877</v>
+        <v>6.466737176125761</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.008972027838924521</v>
+        <v>0.008972027837873285</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.0007902556150550339</v>
+        <v>0.000790255615956616</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.011689699073071</v>
+        <v>0.01168969907052963</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.01556543054197553</v>
+        <v>0.01556543053878922</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.004336163219097073</v>
+        <v>0.004336163217792351</v>
       </c>
     </row>
   </sheetData>
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4091107084128275</v>
+        <v>0.4091107084236777</v>
       </c>
     </row>
     <row r="3">
@@ -9274,7 +9274,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4294038856599576</v>
+        <v>0.4294038855605479</v>
       </c>
     </row>
   </sheetData>
@@ -9288,7 +9288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9522,6 +9522,226 @@
           <t>gauging_angle_1</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>cascade_type_2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_in_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_out_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_in_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_out_2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>chord_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>stagger_angle_2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>opening_2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_angle_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction_2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord_2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat_2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat_2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat_2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in_2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out_2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat_2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in_2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat_2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>A_in_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>A_out_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat_2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>height_2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in_2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat_2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>height_out_2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle_2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio_2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>solidity_2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio_2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio_2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gauging_angle_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -9529,223 +9749,271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-61.15576777799676</v>
       </c>
     </row>
     <row r="3">
@@ -9754,223 +10022,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>-61.15576777799676</v>
       </c>
     </row>
   </sheetData>
@@ -10064,7 +10380,7 @@
         <v>115</v>
       </c>
       <c r="H2" t="n">
-        <v>3.496260412132681e-11</v>
+        <v>9.759463831215166e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10095,7 +10411,7 @@
         <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>2.075237849053035e-10</v>
+        <v>3.892197306110837e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_linux/performance_analysis_evaluate_cascade_throat_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_evaluate_cascade_throat_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015415654261262</v>
+        <v>2.015416512426348</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999961456</v>
+        <v>2.299999999965062</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740325648247112</v>
+        <v>2.740321957267588</v>
       </c>
       <c r="E2" t="n">
-        <v>92.55823833472598</v>
+        <v>92.55823378131261</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08691048982635</v>
+        <v>79.08695058927604</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1455443414575604</v>
+        <v>0.145543866187693</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23245483128392</v>
+        <v>-78.23249445546374</v>
       </c>
       <c r="I2" t="n">
-        <v>136187.0994157176</v>
+        <v>136186.9850344538</v>
       </c>
       <c r="J2" t="n">
-        <v>83.7044249635634</v>
+        <v>83.70435466161879</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.35244699718792</v>
+        <v>-24.35240832461349</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2468792259375</v>
+        <v>135.2466584038218</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372087.0166579974</v>
+        <v>372086.991459909</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7160036893338922</v>
+        <v>0.7160032071364847</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069501792735193</v>
+        <v>2.069502772289467</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400000000016593</v>
+        <v>2.399999999928339</v>
       </c>
       <c r="D3" t="n">
-        <v>2.74271310969595</v>
+        <v>2.742709943929992</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53028345287407</v>
+        <v>92.53027716176673</v>
       </c>
       <c r="F3" t="n">
-        <v>78.20384108861148</v>
+        <v>78.2038821552769</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548297684785446</v>
+        <v>0.1548292671969802</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35867085709003</v>
+        <v>-77.35871142247387</v>
       </c>
       <c r="I3" t="n">
-        <v>140844.2777713166</v>
+        <v>140844.1891628937</v>
       </c>
       <c r="J3" t="n">
-        <v>86.56685788034207</v>
+        <v>86.56680341911105</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.84402697733249</v>
+        <v>-26.84397151435741</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5960843682065</v>
+        <v>142.5958535313113</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370432.2582078721</v>
+        <v>370432.2312416455</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.703672639901964</v>
+        <v>0.7036722337961404</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.63354388538704</v>
+        <v>80.6334289201767</v>
       </c>
       <c r="D2" t="n">
-        <v>80.63354388538704</v>
+        <v>80.6334289201767</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.63354388538704</v>
+        <v>80.6334289201767</v>
       </c>
       <c r="H2" t="n">
-        <v>80.63354388538704</v>
+        <v>80.6334289201767</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3586251722592</v>
+        <v>292.3586344158987</v>
       </c>
       <c r="L2" t="n">
-        <v>132782.2605456761</v>
+        <v>132782.2752203304</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583018477915006</v>
+        <v>1.583018602711654</v>
       </c>
       <c r="N2" t="n">
-        <v>334654.3866654057</v>
+        <v>334654.3932779868</v>
       </c>
       <c r="O2" t="n">
-        <v>418533.5468888314</v>
+        <v>418533.5561588772</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687434.968030362</v>
+        <v>-687434.9937282406</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7131881773072</v>
+        <v>717.7131885957183</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.647986356448</v>
+        <v>1006.647986841943</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576966591509</v>
+        <v>1.402576966450284</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980076920336</v>
+        <v>0.9994980077565965</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9118376534608</v>
+        <v>342.911843079493</v>
       </c>
       <c r="W2" t="n">
-        <v>186144.8132525822</v>
+        <v>186144.8338181257</v>
       </c>
       <c r="X2" t="n">
-        <v>5.372161504404035e-06</v>
+        <v>5.372160910880063e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132716.2912884164</v>
+        <v>132716.305964464</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534869986886688e-06</v>
+        <v>7.534869153664953e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433387668874696</v>
+        <v>0.003433387560495032</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817171174421683e-05</v>
+        <v>1.817171219650031e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582477109756728</v>
+        <v>0.02582477179422517</v>
       </c>
       <c r="AD2" t="n">
-        <v>132782.2605456761</v>
+        <v>132782.2752203304</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583018477915006</v>
+        <v>1.583018602711654</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583018477915006</v>
+        <v>1.583018602711654</v>
       </c>
       <c r="AG2" t="n">
-        <v>334654.3866654057</v>
+        <v>334654.3932779868</v>
       </c>
       <c r="AH2" t="n">
-        <v>418533.5468888314</v>
+        <v>418533.5561588772</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718238</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7131881773072</v>
+        <v>717.7131885957183</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.647986356448</v>
+        <v>1006.647986841943</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9118376534608</v>
+        <v>342.911843079493</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980076920336</v>
+        <v>0.9994980077565965</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817171174421683e-05</v>
+        <v>1.817171219650031e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582477109756728</v>
+        <v>0.02582477179422517</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2351436580234758</v>
+        <v>0.2351433190409946</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2351436580234758</v>
+        <v>0.2351433190409946</v>
       </c>
       <c r="DH2" t="n">
-        <v>183756.890217959</v>
+        <v>183756.638134948</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.740325648251716</v>
+        <v>2.740321957198859</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>268.699950836503</v>
+        <v>268.7002207293617</v>
       </c>
       <c r="DU2" t="n">
-        <v>110.6156553272559</v>
+        <v>110.6155878002506</v>
       </c>
       <c r="DV2" t="n">
-        <v>244.8751526310108</v>
+        <v>244.8754792861317</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.69022765833687</v>
+        <v>65.69026945493229</v>
       </c>
       <c r="DX2" t="n">
-        <v>268.699950836503</v>
+        <v>268.7002207293617</v>
       </c>
       <c r="DY2" t="n">
-        <v>110.6156553272559</v>
+        <v>110.6155878002506</v>
       </c>
       <c r="DZ2" t="n">
-        <v>244.8751526310108</v>
+        <v>244.8754792861317</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.69022765833685</v>
+        <v>65.69026945493229</v>
       </c>
       <c r="EB2" t="n">
-        <v>259.5769212269396</v>
+        <v>259.5768488196855</v>
       </c>
       <c r="EC2" t="n">
-        <v>85923.87002883847</v>
+        <v>85923.7827555449</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.153945068013714</v>
+        <v>1.153944218165486</v>
       </c>
       <c r="EE2" t="n">
-        <v>311223.6284859237</v>
+        <v>311223.5767578499</v>
       </c>
       <c r="EF2" t="n">
-        <v>385684.5992986326</v>
+        <v>385684.5267785923</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.609700000809</v>
+        <v>3788.609711983227</v>
       </c>
       <c r="EH2" t="n">
-        <v>-597751.0423580967</v>
+        <v>-597750.8436656698</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5374584806316</v>
+        <v>716.5374565234121</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.204884458092</v>
+        <v>1005.204881931603</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402864389796955</v>
+        <v>1.402864390102905</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993241596861543</v>
+        <v>0.9993241593966095</v>
       </c>
       <c r="EM2" t="n">
-        <v>323.0918122190187</v>
+        <v>323.0917670977618</v>
       </c>
       <c r="EN2" t="n">
-        <v>120458.3860101925</v>
+        <v>120458.2636508568</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.301622104710801e-06</v>
+        <v>8.301630537349081e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>85866.02303564576</v>
+        <v>85865.93579584753</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.164605002825003e-05</v>
+        <v>1.164606186063787e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003865874441820028</v>
+        <v>0.003865875517497085</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.652911597564158e-05</v>
+        <v>1.65291122593747e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02330775734935194</v>
+        <v>0.02330775168493654</v>
       </c>
       <c r="EU2" t="n">
-        <v>85923.87002883847</v>
+        <v>85923.7827555449</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.153945068013714</v>
+        <v>1.153944218165486</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.153945068013714</v>
+        <v>1.153944218165486</v>
       </c>
       <c r="EX2" t="n">
-        <v>311223.6284859237</v>
+        <v>311223.5767578499</v>
       </c>
       <c r="EY2" t="n">
-        <v>385684.5992986326</v>
+        <v>385684.5267785923</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.609700000809</v>
+        <v>3788.609711983227</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5374584806316</v>
+        <v>716.5374565234121</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.204884458092</v>
+        <v>1005.204881931603</v>
       </c>
       <c r="FC2" t="n">
-        <v>323.0918122190187</v>
+        <v>323.0917670977618</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993241596861543</v>
+        <v>0.9993241593966095</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.652911597564158e-05</v>
+        <v>1.65291122593747e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02330775734935194</v>
+        <v>0.02330775168493654</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5937145389032</v>
+        <v>295.5937145257022</v>
       </c>
       <c r="FJ2" t="n">
-        <v>135289.0619924474</v>
+        <v>135289.0563422034</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.59520058773062</v>
+        <v>1.595200521148837</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3683082883</v>
+        <v>336974.3683103441</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883893</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.609699998789</v>
+        <v>3788.609711981206</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698104.7830722722</v>
+        <v>-698104.7865642863</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8561752458129</v>
+        <v>717.8561752310914</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.777073410742</v>
+        <v>1006.777073317968</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402477415571434</v>
+        <v>1.402477415470958</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995302899143582</v>
+        <v>0.9995302899335894</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8027749772911</v>
+        <v>344.8027749637994</v>
       </c>
       <c r="FU2" t="n">
-        <v>189651.7287085094</v>
+        <v>189651.7207778292</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.2728230151647e-06</v>
+        <v>5.272823235658733e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>135226.2265351606</v>
+        <v>135226.2208900836</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.395015195073764e-06</v>
+        <v>7.395015503781873e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395619871557598</v>
+        <v>0.003395619871185987</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832925575008981e-05</v>
+        <v>1.832925574863444e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606729614695452</v>
+        <v>0.02606729614415851</v>
       </c>
       <c r="GB2" t="n">
-        <v>135289.0619924474</v>
+        <v>135289.0563422034</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.59520058773062</v>
+        <v>1.595200521148837</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.59520058773062</v>
+        <v>1.595200521148837</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3683082883</v>
+        <v>336974.3683103441</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883893</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.609699998789</v>
+        <v>3788.609711981206</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8561752458129</v>
+        <v>717.8561752310914</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.777073410742</v>
+        <v>1006.777073317968</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8027749772911</v>
+        <v>344.8027749637994</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995302899143582</v>
+        <v>0.9995302899335894</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832925575008981e-05</v>
+        <v>1.832925574863444e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606729614695452</v>
+        <v>0.02606729614415851</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5937145389032</v>
+        <v>295.5937145257022</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135289.0619924474</v>
+        <v>135289.0563422034</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.59520058773062</v>
+        <v>1.595200521148837</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3683082883</v>
+        <v>336974.3683103441</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883893</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.609699998789</v>
+        <v>3788.609711981206</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698104.7830722722</v>
+        <v>-698104.7865642863</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561752458129</v>
+        <v>717.8561752310914</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.777073410742</v>
+        <v>1006.777073317968</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402477415571434</v>
+        <v>1.402477415470958</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302899143582</v>
+        <v>0.9995302899335894</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8027749772911</v>
+        <v>344.8027749637994</v>
       </c>
       <c r="HB2" t="n">
-        <v>189651.7287085094</v>
+        <v>189651.7207778292</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.2728230151647e-06</v>
+        <v>5.272823235658733e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>135226.2265351606</v>
+        <v>135226.2208900836</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.395015195073764e-06</v>
+        <v>7.395015503781873e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395619871557598</v>
+        <v>0.003395619871185987</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832925575008981e-05</v>
+        <v>1.832925574863444e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606729614695452</v>
+        <v>0.02606729614415851</v>
       </c>
       <c r="HI2" t="n">
-        <v>135289.0619924474</v>
+        <v>135289.0563422034</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.59520058773062</v>
+        <v>1.595200521148837</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.59520058773062</v>
+        <v>1.595200521148837</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3683082883</v>
+        <v>336974.3683103441</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883893</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.609699998789</v>
+        <v>3788.609711981206</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8561752458129</v>
+        <v>717.8561752310914</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.777073410742</v>
+        <v>1006.777073317968</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8027749772911</v>
+        <v>344.8027749637994</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995302899143582</v>
+        <v>0.9995302899335894</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832925575008981e-05</v>
+        <v>1.832925574863444e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606729614695452</v>
+        <v>0.02606729614415851</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,40 +3952,40 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8316519969696899</v>
+        <v>0.8316529484580081</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8316519969696899</v>
+        <v>0.8316529484580081</v>
       </c>
       <c r="HY2" t="n">
-        <v>490727.9958811073</v>
+        <v>490728.2377111207</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.740325648244277</v>
+        <v>2.740321957199037</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01593369941076853</v>
+        <v>0.0159337393772655</v>
       </c>
       <c r="IC2" t="n">
-        <v>-1.788002728037731e-07</v>
+        <v>-1.788003961120334e-07</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01379066038777998</v>
+        <v>0.01379066172769694</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02519180119324601</v>
+        <v>0.02519178354026981</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.05491598219152173</v>
+        <v>0.05491600584483615</v>
       </c>
       <c r="IH2" t="n">
-        <v>-2.561839629322549e-13</v>
+        <v>3.424788230788067e-12</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>268.699950836503</v>
+        <v>268.7002207293617</v>
       </c>
       <c r="IL2" t="n">
-        <v>110.6156553272559</v>
+        <v>110.6155878002506</v>
       </c>
       <c r="IM2" t="n">
-        <v>244.8751526310108</v>
+        <v>244.8754792861317</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.69022765833687</v>
+        <v>65.69026945493229</v>
       </c>
       <c r="IO2" t="n">
-        <v>136.2626832591744</v>
+        <v>136.262819195792</v>
       </c>
       <c r="IP2" t="n">
-        <v>110.6156553272559</v>
+        <v>110.6155878002506</v>
       </c>
       <c r="IQ2" t="n">
-        <v>79.57195263101082</v>
+        <v>79.5722792861317</v>
       </c>
       <c r="IR2" t="n">
-        <v>35.72955069936584</v>
+        <v>35.72967878005746</v>
       </c>
       <c r="IS2" t="n">
-        <v>259.5769212269263</v>
+        <v>259.5768488193859</v>
       </c>
       <c r="IT2" t="n">
-        <v>85923.87002659605</v>
+        <v>85923.78275321273</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.153945067983637</v>
+        <v>1.15394421813548</v>
       </c>
       <c r="IV2" t="n">
-        <v>311223.6284859196</v>
+        <v>311223.5767576406</v>
       </c>
       <c r="IW2" t="n">
-        <v>385684.5992986259</v>
+        <v>385684.5267782981</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.60970000827</v>
+        <v>3788.609711989879</v>
       </c>
       <c r="IY2" t="n">
-        <v>-597751.0423599897</v>
+        <v>-597750.8436665559</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5374584806231</v>
+        <v>716.5374565233971</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.204884458042</v>
+        <v>1005.204881931549</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402864389796901</v>
+        <v>1.402864390102859</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993241596861717</v>
+        <v>0.9993241593966237</v>
       </c>
       <c r="JD2" t="n">
-        <v>323.0918122190099</v>
+        <v>323.0917670975746</v>
       </c>
       <c r="JE2" t="n">
-        <v>120458.3860070462</v>
+        <v>120458.263647585</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.30162210492763e-06</v>
+        <v>8.301630537574568e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>85866.02303340634</v>
+        <v>85865.93579351813</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.164605002855376e-05</v>
+        <v>1.164606186095381e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003865874441819878</v>
+        <v>0.003865875517501227</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.652911597564055e-05</v>
+        <v>1.652911225935902e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02330775734935009</v>
+        <v>0.02330775168491237</v>
       </c>
       <c r="JL2" t="n">
-        <v>85923.87002659605</v>
+        <v>85923.78275321273</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.153945067983637</v>
+        <v>1.15394421813548</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.153945067983637</v>
+        <v>1.15394421813548</v>
       </c>
       <c r="JO2" t="n">
-        <v>311223.6284859196</v>
+        <v>311223.5767576406</v>
       </c>
       <c r="JP2" t="n">
-        <v>385684.5992986259</v>
+        <v>385684.5267782981</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.60970000827</v>
+        <v>3788.609711989879</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5374584806231</v>
+        <v>716.5374565233971</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.204884458042</v>
+        <v>1005.204881931549</v>
       </c>
       <c r="JT2" t="n">
-        <v>323.0918122190099</v>
+        <v>323.0917670975746</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993241596861717</v>
+        <v>0.9993241593966237</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.652911597564055e-05</v>
+        <v>1.652911225935902e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02330775734935009</v>
+        <v>0.02330775168491237</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5937145388951</v>
+        <v>295.5937145256951</v>
       </c>
       <c r="KA2" t="n">
-        <v>135289.061988929</v>
+        <v>135289.0563390668</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.595200587689159</v>
+        <v>1.595200521111875</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3683082897</v>
+        <v>336974.3683103453</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883893</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.60970000625</v>
+        <v>3788.609711987858</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698104.7830744471</v>
+        <v>-698104.7865662256</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8561752458037</v>
+        <v>717.8561752310832</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.777073410684</v>
+        <v>1006.777073317916</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402477415571371</v>
+        <v>1.402477415470902</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995302899143702</v>
+        <v>0.9995302899336</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8027749772828</v>
+        <v>344.802774963792</v>
       </c>
       <c r="KL2" t="n">
-        <v>189651.7287035708</v>
+        <v>189651.7207734267</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.272823015302004e-06</v>
+        <v>5.272823235781135e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>135226.2265316455</v>
+        <v>135226.2208869498</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.395015195265997e-06</v>
+        <v>7.395015503953245e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395619871557365</v>
+        <v>0.003395619871185778</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832925575008891e-05</v>
+        <v>1.832925574863365e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606729614695279</v>
+        <v>0.02606729614415698</v>
       </c>
       <c r="KS2" t="n">
-        <v>135289.061988929</v>
+        <v>135289.0563390668</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595200587689159</v>
+        <v>1.595200521111875</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.595200587689159</v>
+        <v>1.595200521111875</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3683082897</v>
+        <v>336974.3683103453</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883893</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.60970000625</v>
+        <v>3788.609711987858</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8561752458037</v>
+        <v>717.8561752310832</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.777073410684</v>
+        <v>1006.777073317916</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8027749772828</v>
+        <v>344.802774963792</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995302899143702</v>
+        <v>0.9995302899336</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832925575008891e-05</v>
+        <v>1.832925574863365e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606729614695279</v>
+        <v>0.02606729614415698</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>268.8436668147548</v>
+        <v>268.8436129123545</v>
       </c>
       <c r="LH2" t="n">
-        <v>97121.67807198032</v>
+        <v>97121.60601581279</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.259316032290013</v>
+        <v>1.259315350782785</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317845.7972837574</v>
+        <v>317845.7587683189</v>
       </c>
       <c r="LK2" t="n">
-        <v>394968.3587232148</v>
+        <v>394968.3047258841</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.60970000105</v>
+        <v>3788.609711982658</v>
       </c>
       <c r="LM2" t="n">
-        <v>-623575.3651550156</v>
+        <v>-623575.2181583683</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8078775150279</v>
+        <v>716.8078758001394</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.539805781647</v>
+        <v>1005.539803619832</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402802392835821</v>
+        <v>1.402802393175988</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993679212748005</v>
+        <v>0.9993679210281395</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.8155631279391</v>
+        <v>328.8155301227224</v>
       </c>
       <c r="LS2" t="n">
-        <v>136156.8395732711</v>
+        <v>136156.7385551684</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.344471296000247e-06</v>
+        <v>7.344476745047891e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>97060.59831992768</v>
+        <v>97060.52628475016</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.030284190814316e-05</v>
+        <v>1.030284955457857e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003732874461640986</v>
+        <v>0.003732875208111381</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.700135816401308e-05</v>
+        <v>1.700135543543147e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.0240285919285695</v>
+        <v>0.02402858775678504</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97121.67807198032</v>
+        <v>97121.60601581279</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.259316032290013</v>
+        <v>1.259315350782785</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.259316032290013</v>
+        <v>1.259315350782785</v>
       </c>
       <c r="MC2" t="n">
-        <v>317845.7972837574</v>
+        <v>317845.7587683189</v>
       </c>
       <c r="MD2" t="n">
-        <v>394968.3587232148</v>
+        <v>394968.3047258841</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.60970000105</v>
+        <v>3788.609711982658</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8078775150279</v>
+        <v>716.8078758001394</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.539805781647</v>
+        <v>1005.539803619832</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.8155631279391</v>
+        <v>328.8155301227224</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993679212748005</v>
+        <v>0.9993679210281395</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.700135816401308e-05</v>
+        <v>1.700135543543147e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.0240285919285695</v>
+        <v>0.02402858775678504</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8316519969697127</v>
+        <v>0.83165294845849</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4217460118327229</v>
+        <v>0.4217464914685995</v>
       </c>
       <c r="MP2" t="n">
-        <v>247905.8964098468</v>
+        <v>247906.0168839224</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.740325648172854</v>
+        <v>2.740321957127781</v>
       </c>
       <c r="MR2" t="n">
-        <v>381305.7847580948</v>
+        <v>381305.730760858</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>135.2468792259375</v>
+        <v>135.2466584038218</v>
       </c>
       <c r="MU2" t="n">
-        <v>123.2134512286271</v>
+        <v>123.2132876957505</v>
       </c>
       <c r="MV2" t="n">
-        <v>-55.76884234665499</v>
+        <v>-55.76866812650516</v>
       </c>
       <c r="MW2" t="n">
-        <v>-24.35244699718792</v>
+        <v>-24.35240832461349</v>
       </c>
       <c r="MX2" t="n">
-        <v>253.0897122978145</v>
+        <v>253.0894805039093</v>
       </c>
       <c r="MY2" t="n">
-        <v>123.2134512286271</v>
+        <v>123.2132876957505</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-221.072042346655</v>
+        <v>-221.0718681265052</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.86709821262195</v>
+        <v>-60.86711134930984</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.857902478217</v>
+        <v>236.857907124553</v>
       </c>
       <c r="NC2" t="n">
-        <v>60000.00000000616</v>
+        <v>59999.99999991209</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8831276233577103</v>
+        <v>0.883127605977379</v>
       </c>
       <c r="NE2" t="n">
-        <v>295000.8072903227</v>
+        <v>295000.8106205227</v>
       </c>
       <c r="NF2" t="n">
-        <v>362941.1574878198</v>
+        <v>362941.1621550086</v>
       </c>
       <c r="NG2" t="n">
-        <v>3799.930280946532</v>
+        <v>3799.930300651577</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537102.3584206377</v>
+        <v>-537102.376076497</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0325594044496</v>
+        <v>716.0325594645068</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487930705631</v>
+        <v>1004.487930699369</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402852310991417</v>
+        <v>1.402852310865007</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992718931040718</v>
+        <v>0.9992718931663342</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6114234952064</v>
+        <v>308.6114265274765</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.96743604308</v>
+        <v>84109.96743357235</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.18891973268257e-05</v>
+        <v>1.188919732717494e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.39510805045</v>
+        <v>59956.3951116919</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667878794577041e-05</v>
+        <v>1.667878794475743e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004235350473493031</v>
+        <v>0.004235350389659278</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534216675151849e-05</v>
+        <v>1.534216699786244e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150522896536174</v>
+        <v>0.02150522933728274</v>
       </c>
       <c r="NU2" t="n">
-        <v>60000.00000000616</v>
+        <v>59999.99999991209</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8831276233577103</v>
+        <v>0.883127605977379</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8831276233577103</v>
+        <v>0.883127605977379</v>
       </c>
       <c r="NX2" t="n">
-        <v>295000.8072903227</v>
+        <v>295000.8106205227</v>
       </c>
       <c r="NY2" t="n">
-        <v>362941.1574878198</v>
+        <v>362941.1621550086</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3799.930280946532</v>
+        <v>3799.930300651577</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0325594044496</v>
+        <v>716.0325594645068</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487930705631</v>
+        <v>1004.487930699369</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6114234952064</v>
+        <v>308.6114265274765</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992718931040718</v>
+        <v>0.9992718931663342</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534216675151849e-05</v>
+        <v>1.534216699786244e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150522896536174</v>
+        <v>0.02150522933728274</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>245.991142512939</v>
+        <v>245.9911173359495</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68472.22790292582</v>
+        <v>68472.19874742621</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9703831011090076</v>
+        <v>0.9703827872713678</v>
       </c>
       <c r="OL2" t="n">
-        <v>301524.9594409334</v>
+        <v>301524.9414672827</v>
       </c>
       <c r="OM2" t="n">
-        <v>372087.0166579974</v>
+        <v>372086.991459909</v>
       </c>
       <c r="ON2" t="n">
-        <v>3799.930280955104</v>
+        <v>3799.930300660147</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562662.1746236619</v>
+        <v>-562662.1089982111</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2042388037045</v>
+        <v>716.2042382643912</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.719254983162</v>
+        <v>1004.719254177951</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402839023490522</v>
+        <v>1.402839023422607</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992991876839376</v>
+        <v>0.9992991876489609</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.5123339778592</v>
+        <v>314.5123178639846</v>
       </c>
       <c r="OU2" t="n">
-        <v>95988.36357612592</v>
+        <v>95988.32269610814</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.041792945253125e-05</v>
+        <v>1.04179338893745e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68424.36086307975</v>
+        <v>68424.33172547381</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.461467797998209e-05</v>
+        <v>1.461468420345139e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004078408409987864</v>
+        <v>0.004078408825675808</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.582419230951804e-05</v>
+        <v>1.582419098957029e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02223540746111565</v>
+        <v>0.02223540545784109</v>
       </c>
       <c r="PB2" t="n">
-        <v>68472.22790292582</v>
+        <v>68472.19874742621</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9703831011090076</v>
+        <v>0.9703827872713678</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9703831011090076</v>
+        <v>0.9703827872713678</v>
       </c>
       <c r="PE2" t="n">
-        <v>301524.9594409334</v>
+        <v>301524.9414672827</v>
       </c>
       <c r="PF2" t="n">
-        <v>372087.0166579974</v>
+        <v>372086.991459909</v>
       </c>
       <c r="PG2" t="n">
-        <v>3799.930280955104</v>
+        <v>3799.930300660147</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2042388037045</v>
+        <v>716.2042382643912</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.719254983162</v>
+        <v>1004.719254177951</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.5123339778592</v>
+        <v>314.5123178639846</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992991876839376</v>
+        <v>0.9992991876489609</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.582419230951804e-05</v>
+        <v>1.582419098957029e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02223540746111565</v>
+        <v>0.02223540545784109</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>268.8331016742729</v>
+        <v>268.8330477685598</v>
       </c>
       <c r="PQ2" t="n">
-        <v>93363.67591020871</v>
+        <v>93363.60412778847</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.210606624743857</v>
+        <v>1.210605936987022</v>
       </c>
       <c r="PS2" t="n">
-        <v>317846.9602426398</v>
+        <v>317846.9217266184</v>
       </c>
       <c r="PT2" t="n">
-        <v>394968.3587233088</v>
+        <v>394968.3047260718</v>
       </c>
       <c r="PU2" t="n">
-        <v>3799.930280946532</v>
+        <v>3799.930300651577</v>
       </c>
       <c r="PV2" t="n">
-        <v>-626578.6848495388</v>
+        <v>-626578.539306191</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.7955169862109</v>
+        <v>716.7955152658149</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.462384847346</v>
+        <v>1005.462382653691</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402718573178086</v>
+        <v>1.402718573484417</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993921260126984</v>
+        <v>0.9993921257919659</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.8072024812029</v>
+        <v>328.8071694780946</v>
       </c>
       <c r="QB2" t="n">
-        <v>130883.7381828209</v>
+        <v>130883.6375523912</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.640368573544108e-06</v>
+        <v>7.640374447873302e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>93307.19695703652</v>
+        <v>93307.12519708804</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.071728690403648e-05</v>
+        <v>1.071729514640762e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003732510603815988</v>
+        <v>0.003732511350021035</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.700025423988366e-05</v>
+        <v>1.700025151107407e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.02402644732748115</v>
+        <v>0.0240264431552032</v>
       </c>
       <c r="QI2" t="n">
-        <v>93363.67591020871</v>
+        <v>93363.60412778847</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.210606624743857</v>
+        <v>1.210605936987022</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.210606624743857</v>
+        <v>1.210605936987022</v>
       </c>
       <c r="QL2" t="n">
-        <v>317846.9602426398</v>
+        <v>317846.9217266184</v>
       </c>
       <c r="QM2" t="n">
-        <v>394968.3587233088</v>
+        <v>394968.3047260718</v>
       </c>
       <c r="QN2" t="n">
-        <v>3799.930280946532</v>
+        <v>3799.930300651577</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.7955169862109</v>
+        <v>716.7955152658149</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.462384847346</v>
+        <v>1005.462382653691</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.8072024812029</v>
+        <v>328.8071694780946</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993921260126984</v>
+        <v>0.9993921257919659</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.700025423988366e-05</v>
+        <v>1.700025151107407e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02402644732748115</v>
+        <v>0.0240264431552032</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.4382432694622476</v>
+        <v>0.438242549621799</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8200918469945934</v>
+        <v>0.8200910878501645</v>
       </c>
       <c r="QY2" t="n">
-        <v>379651.9842580135</v>
+        <v>379651.622983561</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.740325648247112</v>
+        <v>2.740321957267588</v>
       </c>
       <c r="RA2" t="n">
-        <v>381305.7847580948</v>
+        <v>381305.730760858</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02447338350316694</v>
+        <v>0.0244734140772957</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.001918126997408496</v>
+        <v>0.001918199420802415</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01189012253328696</v>
+        <v>0.01189011779734742</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03198066011934316</v>
+        <v>0.03198070534293622</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04237524032735127</v>
+        <v>0.04237533103210969</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1126375334805568</v>
+        <v>0.1126377676704914</v>
       </c>
       <c r="RH2" t="n">
-        <v>-2.051354919263559e-11</v>
+        <v>-7.041708882660203e-11</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.70791210421696</v>
+        <v>80.70781348064675</v>
       </c>
       <c r="D3" t="n">
-        <v>80.70791210421696</v>
+        <v>80.70781348064675</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.70791210421696</v>
+        <v>80.70781348064675</v>
       </c>
       <c r="H3" t="n">
-        <v>80.70791210421696</v>
+        <v>80.70781348064675</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3526429223911</v>
+        <v>292.3526508593171</v>
       </c>
       <c r="L3" t="n">
-        <v>132772.7637243161</v>
+        <v>132772.7763238628</v>
       </c>
       <c r="M3" t="n">
-        <v>1.58293771392602</v>
+        <v>1.582937821077667</v>
       </c>
       <c r="N3" t="n">
-        <v>334650.107170863</v>
+        <v>334650.1128486643</v>
       </c>
       <c r="O3" t="n">
-        <v>418527.5475503784</v>
+        <v>418527.5555099754</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687418.3370120106</v>
+        <v>-687418.3590771486</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7129174035747</v>
+        <v>717.7129177628079</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.647672167818</v>
+        <v>1006.647672584652</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577057982326</v>
+        <v>1.402577057861082</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994979659099997</v>
+        <v>0.9994979659654321</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9083260443247</v>
+        <v>342.908330703362</v>
       </c>
       <c r="W3" t="n">
-        <v>186131.5040938608</v>
+        <v>186131.5217512821</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372545635776566e-06</v>
+        <v>5.372545126108452e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132706.7935658521</v>
+        <v>132706.8061665938</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535409251703284e-06</v>
+        <v>7.535408536203089e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433457810886857</v>
+        <v>0.003433457717824329</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817141903655875e-05</v>
+        <v>1.817141942490907e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582432023673251</v>
+        <v>0.02582432083491224</v>
       </c>
       <c r="AD3" t="n">
-        <v>132772.7637243161</v>
+        <v>132772.7763238628</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.58293771392602</v>
+        <v>1.582937821077667</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.58293771392602</v>
+        <v>1.582937821077667</v>
       </c>
       <c r="AG3" t="n">
-        <v>334650.107170863</v>
+        <v>334650.1128486643</v>
       </c>
       <c r="AH3" t="n">
-        <v>418527.5475503784</v>
+        <v>418527.5555099754</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7129174035747</v>
+        <v>717.7129177628079</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.647672167818</v>
+        <v>1006.647672584652</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9083260443247</v>
+        <v>342.908330703362</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994979659099997</v>
+        <v>0.9994979659654321</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817141903655875e-05</v>
+        <v>1.817141942490907e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582432023673251</v>
+        <v>0.02582432083491224</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2353629409796966</v>
+        <v>0.2353626501727199</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353629409796966</v>
+        <v>0.2353626501727199</v>
       </c>
       <c r="DH3" t="n">
-        <v>183919.9477965376</v>
+        <v>183919.7315689644</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.742713109676579</v>
+        <v>2.742709943790596</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>270.1888883095345</v>
+        <v>270.1892348760546</v>
       </c>
       <c r="DU3" t="n">
-        <v>111.1594838805594</v>
+        <v>111.1594610806332</v>
       </c>
       <c r="DV3" t="n">
-        <v>246.2632829094703</v>
+        <v>246.263673437986</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.70631065736032</v>
+        <v>65.70634913524611</v>
       </c>
       <c r="DX3" t="n">
-        <v>270.1888883095345</v>
+        <v>270.1892348760546</v>
       </c>
       <c r="DY3" t="n">
-        <v>111.1594838805594</v>
+        <v>111.1594610806332</v>
       </c>
       <c r="DZ3" t="n">
-        <v>246.2632829094703</v>
+        <v>246.263673437986</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.70631065736032</v>
+        <v>65.70634913524611</v>
       </c>
       <c r="EB3" t="n">
-        <v>259.1763686235797</v>
+        <v>259.1762751308393</v>
       </c>
       <c r="EC3" t="n">
-        <v>85445.80163451955</v>
+        <v>85445.68968081594</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.149300027491167</v>
+        <v>1.149298936659081</v>
       </c>
       <c r="EE3" t="n">
-        <v>310937.4640530687</v>
+        <v>310937.3972613692</v>
       </c>
       <c r="EF3" t="n">
-        <v>385283.4134054246</v>
+        <v>385283.3197671358</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.66344577278</v>
+        <v>3788.663460326945</v>
       </c>
       <c r="EH3" t="n">
-        <v>-596648.6204068632</v>
+        <v>-596648.3636047184</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5266836175505</v>
+        <v>716.526681109597</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.191032144899</v>
+        <v>1005.1910289076</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.4028661529672</v>
+        <v>1.402866153359403</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993225347102114</v>
+        <v>0.999322534337061</v>
       </c>
       <c r="EM3" t="n">
-        <v>322.8421088253243</v>
+        <v>322.8420505195327</v>
       </c>
       <c r="EN3" t="n">
-        <v>119788.125261661</v>
+        <v>119787.9682996735</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.34807288131136e-06</v>
+        <v>8.348083820056956e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>85388.1355739443</v>
+        <v>85388.02366342701</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.171122888769508e-05</v>
+        <v>1.171124423656517e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003871834788182183</v>
+        <v>0.00387183618143581</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.650855216011292e-05</v>
+        <v>1.650854735877763e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02327641609965515</v>
+        <v>0.02327640878235956</v>
       </c>
       <c r="EU3" t="n">
-        <v>85445.80163451955</v>
+        <v>85445.68968081594</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.149300027491167</v>
+        <v>1.149298936659081</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.149300027491167</v>
+        <v>1.149298936659081</v>
       </c>
       <c r="EX3" t="n">
-        <v>310937.4640530687</v>
+        <v>310937.3972613692</v>
       </c>
       <c r="EY3" t="n">
-        <v>385283.4134054246</v>
+        <v>385283.3197671358</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.66344577278</v>
+        <v>3788.663460326945</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5266836175505</v>
+        <v>716.526681109597</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.191032144899</v>
+        <v>1005.1910289076</v>
       </c>
       <c r="FC3" t="n">
-        <v>322.8421088253243</v>
+        <v>322.8420505195327</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993225347102114</v>
+        <v>0.999322534337061</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.650855216011292e-05</v>
+        <v>1.650854735877763e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02327641609965515</v>
+        <v>0.02327640878235956</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.5936557815729</v>
+        <v>295.5936557656631</v>
       </c>
       <c r="FJ3" t="n">
-        <v>135263.7215518371</v>
+        <v>135263.7146903797</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.594901976633682</v>
+        <v>1.594901895778437</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.377847992</v>
+        <v>336974.3778505751</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.663445777981</v>
+        <v>3788.663460332146</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698120.4473749347</v>
+        <v>-698120.4516167768</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8561092414758</v>
+        <v>717.8561092236037</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.776657347832</v>
+        <v>1006.776657235174</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402476964933328</v>
+        <v>1.402476964811308</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995303761692004</v>
+        <v>0.9995303761925558</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8027147294243</v>
+        <v>344.802714713111</v>
       </c>
       <c r="FU3" t="n">
-        <v>189616.1608838449</v>
+        <v>189616.1512531104</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.273812080883655e-06</v>
+        <v>5.27381234874419e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>135200.9092661704</v>
+        <v>135200.9024109867</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.396399960826425e-06</v>
+        <v>7.396400335851146e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395618199752814</v>
+        <v>0.003395618199300137</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832924924468237e-05</v>
+        <v>1.83292492429209e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606728364065163</v>
+        <v>0.0260672836372653</v>
       </c>
       <c r="GB3" t="n">
-        <v>135263.7215518371</v>
+        <v>135263.7146903797</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.594901976633682</v>
+        <v>1.594901895778437</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594901976633682</v>
+        <v>1.594901895778437</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.377847992</v>
+        <v>336974.3778505751</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.663445777981</v>
+        <v>3788.663460332146</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8561092414758</v>
+        <v>717.8561092236037</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.776657347832</v>
+        <v>1006.776657235174</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8027147294243</v>
+        <v>344.802714713111</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995303761692004</v>
+        <v>0.9995303761925558</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832924924468237e-05</v>
+        <v>1.83292492429209e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606728364065163</v>
+        <v>0.0260672836372653</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.5936557815729</v>
+        <v>295.5936557656631</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135263.7215518371</v>
+        <v>135263.7146903797</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594901976633682</v>
+        <v>1.594901895778437</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.377847992</v>
+        <v>336974.3778505751</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.663445777981</v>
+        <v>3788.663460332146</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698120.4473749347</v>
+        <v>-698120.4516167768</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8561092414758</v>
+        <v>717.8561092236037</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.776657347832</v>
+        <v>1006.776657235174</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402476964933328</v>
+        <v>1.402476964811308</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995303761692004</v>
+        <v>0.9995303761925558</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8027147294243</v>
+        <v>344.802714713111</v>
       </c>
       <c r="HB3" t="n">
-        <v>189616.1608838449</v>
+        <v>189616.1512531104</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.273812080883655e-06</v>
+        <v>5.27381234874419e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>135200.9092661704</v>
+        <v>135200.9024109867</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.396399960826425e-06</v>
+        <v>7.396400335851146e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395618199752814</v>
+        <v>0.003395618199300137</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832924924468237e-05</v>
+        <v>1.83292492429209e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606728364065163</v>
+        <v>0.0260672836372653</v>
       </c>
       <c r="HI3" t="n">
-        <v>135263.7215518371</v>
+        <v>135263.7146903797</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.594901976633682</v>
+        <v>1.594901895778437</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594901976633682</v>
+        <v>1.594901895778437</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.377847992</v>
+        <v>336974.3778505751</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.663445777981</v>
+        <v>3788.663460332146</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8561092414758</v>
+        <v>717.8561092236037</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.776657347832</v>
+        <v>1006.776657235174</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8027147294243</v>
+        <v>344.802714713111</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995303761692004</v>
+        <v>0.9995303761925558</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832924924468237e-05</v>
+        <v>1.83292492429209e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606728364065163</v>
+        <v>0.0260672836372653</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,40 +5425,40 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8369072092008973</v>
+        <v>0.8369084338339857</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8369072092008973</v>
+        <v>0.8369084338339857</v>
       </c>
       <c r="HY3" t="n">
-        <v>492073.1347307443</v>
+        <v>492073.4419778863</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.742713109630195</v>
+        <v>2.742709943888717</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.01595022849399139</v>
+        <v>0.01595026541634612</v>
       </c>
       <c r="IC3" t="n">
-        <v>-1.793955750219205e-07</v>
+        <v>-1.793957298764442e-07</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01379120448695893</v>
+        <v>0.01379120572413493</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02518433238858101</v>
+        <v>0.02518431608783594</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.05492558597395631</v>
+        <v>0.0549256078325871</v>
       </c>
       <c r="IH3" t="n">
-        <v>-2.208774829703941e-12</v>
+        <v>2.816483157808136e-12</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>270.1888883095345</v>
+        <v>270.1892348760546</v>
       </c>
       <c r="IL3" t="n">
-        <v>111.1594838805594</v>
+        <v>111.1594610806332</v>
       </c>
       <c r="IM3" t="n">
-        <v>246.2632829094703</v>
+        <v>246.263673437986</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.70631065736032</v>
+        <v>65.70634913524611</v>
       </c>
       <c r="IO3" t="n">
-        <v>137.5171475900393</v>
+        <v>137.5173590752806</v>
       </c>
       <c r="IP3" t="n">
-        <v>111.1594838805594</v>
+        <v>111.1594610806332</v>
       </c>
       <c r="IQ3" t="n">
-        <v>80.96008290947029</v>
+        <v>80.96047343798597</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.06673717612576</v>
+        <v>36.0668742934737</v>
       </c>
       <c r="IS3" t="n">
-        <v>259.1763686238665</v>
+        <v>259.1762751307393</v>
       </c>
       <c r="IT3" t="n">
-        <v>85445.80163253908</v>
+        <v>85445.68968285229</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.149300027463234</v>
+        <v>1.149298936686935</v>
       </c>
       <c r="IV3" t="n">
-        <v>310937.464053279</v>
+        <v>310937.3972612923</v>
       </c>
       <c r="IW3" t="n">
-        <v>385283.4134057187</v>
+        <v>385283.3197670289</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.663445780563</v>
+        <v>3788.663460319697</v>
       </c>
       <c r="IY3" t="n">
-        <v>-596648.6204096727</v>
+        <v>-596648.3636025678</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5266836175498</v>
+        <v>716.5266811096021</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.191032144857</v>
+        <v>1005.191028907645</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402866152967142</v>
+        <v>1.402866153359456</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993225347102309</v>
+        <v>0.9993225343370435</v>
       </c>
       <c r="JD3" t="n">
-        <v>322.8421088255025</v>
+        <v>322.842050519471</v>
       </c>
       <c r="JE3" t="n">
-        <v>119788.1252588819</v>
+        <v>119787.9683025308</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.348072881505036e-06</v>
+        <v>8.348083819857827e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>85388.13557196681</v>
+        <v>85388.02366546053</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.171122888796629e-05</v>
+        <v>1.171124423628627e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003871834788177544</v>
+        <v>0.00387183618143764</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.650855216012728e-05</v>
+        <v>1.650854735877283e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02327641609967673</v>
+        <v>0.02327640878235254</v>
       </c>
       <c r="JL3" t="n">
-        <v>85445.80163253908</v>
+        <v>85445.68968285229</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.149300027463234</v>
+        <v>1.149298936686935</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.149300027463234</v>
+        <v>1.149298936686935</v>
       </c>
       <c r="JO3" t="n">
-        <v>310937.464053279</v>
+        <v>310937.3972612923</v>
       </c>
       <c r="JP3" t="n">
-        <v>385283.4134057187</v>
+        <v>385283.3197670289</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.663445780563</v>
+        <v>3788.663460319697</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5266836175498</v>
+        <v>716.5266811096021</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.191032144857</v>
+        <v>1005.191028907645</v>
       </c>
       <c r="JT3" t="n">
-        <v>322.8421088255025</v>
+        <v>322.842050519471</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993225347102309</v>
+        <v>0.9993225343370435</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.650855216012728e-05</v>
+        <v>1.650854735877283e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02327641609967673</v>
+        <v>0.02327640878235254</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5936557816725</v>
+        <v>295.593655765663</v>
       </c>
       <c r="KA3" t="n">
-        <v>135263.7215517457</v>
+        <v>135263.7146903792</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.594901976632065</v>
+        <v>1.594901895778432</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.3778480637</v>
+        <v>336974.3778505751</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.663445778515</v>
+        <v>3788.663460332147</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698120.4473753694</v>
+        <v>-698120.4516167766</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8561092414798</v>
+        <v>717.8561092236037</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.776657347833</v>
+        <v>1006.776657235174</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402476964933322</v>
+        <v>1.402476964811308</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995303761692019</v>
+        <v>0.9995303761925558</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8027147294821</v>
+        <v>344.8027147131108</v>
       </c>
       <c r="KL3" t="n">
-        <v>189616.1608837163</v>
+        <v>189616.1512531097</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.273812080887232e-06</v>
+        <v>5.27381234874421e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>135200.9092660793</v>
+        <v>135200.9024109862</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.396399960831413e-06</v>
+        <v>7.396400335851173e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395618199751649</v>
+        <v>0.003395618199300138</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832924924468719e-05</v>
+        <v>1.83292492429209e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606728364065904</v>
+        <v>0.02606728363726529</v>
       </c>
       <c r="KS3" t="n">
-        <v>135263.7215517457</v>
+        <v>135263.7146903792</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594901976632065</v>
+        <v>1.594901895778432</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.594901976632065</v>
+        <v>1.594901895778432</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.3778480637</v>
+        <v>336974.3778505751</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.663445778515</v>
+        <v>3788.663460332147</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8561092414798</v>
+        <v>717.8561092236037</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.776657347833</v>
+        <v>1006.776657235174</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8027147294821</v>
+        <v>344.8027147131108</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995303761692019</v>
+        <v>0.9995303761925558</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832924924468719e-05</v>
+        <v>1.83292492429209e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606728364065904</v>
+        <v>0.02606728363726529</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>268.6146044032583</v>
+        <v>268.6145399606969</v>
       </c>
       <c r="LH3" t="n">
-        <v>96814.8785641006</v>
+        <v>96814.79254437303</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.256409757925556</v>
+        <v>1.25640894339935</v>
       </c>
       <c r="LJ3" t="n">
-        <v>317682.1256920228</v>
+        <v>317682.0796456859</v>
       </c>
       <c r="LK3" t="n">
-        <v>394738.8963461687</v>
+        <v>394738.8317907559</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.663445779943</v>
+        <v>3788.663460333576</v>
       </c>
       <c r="LM3" t="n">
-        <v>-622951.4363590962</v>
+        <v>-622951.2606726496</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.8006008465552</v>
+        <v>716.8005988039333</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.530613786694</v>
+        <v>1005.530611208682</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402803809872848</v>
+        <v>1.402803810273776</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993668813935318</v>
+        <v>0.9993668811003429</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.675274533299</v>
+        <v>328.6752350573205</v>
       </c>
       <c r="LS3" t="n">
-        <v>135726.7248265767</v>
+        <v>135726.6042321466</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.367745749982096e-06</v>
+        <v>7.367752296297055e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>96753.88951137732</v>
+        <v>96753.8035170134</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.033550180824937e-05</v>
+        <v>1.033551099439887e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003736049214592849</v>
+        <v>0.003736050108538628</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.69897607413648e-05</v>
+        <v>1.698975747811727e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.0240108609385395</v>
+        <v>0.02401085594965768</v>
       </c>
       <c r="LZ3" t="n">
-        <v>96814.8785641006</v>
+        <v>96814.79254437303</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.256409757925556</v>
+        <v>1.25640894339935</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.256409757925556</v>
+        <v>1.25640894339935</v>
       </c>
       <c r="MC3" t="n">
-        <v>317682.1256920228</v>
+        <v>317682.0796456859</v>
       </c>
       <c r="MD3" t="n">
-        <v>394738.8963461687</v>
+        <v>394738.8317907559</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.663445779943</v>
+        <v>3788.663460333576</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.8006008465552</v>
+        <v>716.8005988039333</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.530613786694</v>
+        <v>1005.530611208682</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.675274533299</v>
+        <v>328.6752350573205</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993668813935318</v>
+        <v>0.9993668811003429</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.69897607413648e-05</v>
+        <v>1.698975747811727e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.0240108609385395</v>
+        <v>0.02401085594965768</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.8369072092004354</v>
+        <v>0.8369084338341457</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.4259579027355686</v>
+        <v>0.4259586347379699</v>
       </c>
       <c r="MP3" t="n">
-        <v>249491.4676216947</v>
+        <v>249491.6870851465</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.742713109563535</v>
+        <v>2.742709943955189</v>
       </c>
       <c r="MR3" t="n">
-        <v>381076.322381149</v>
+        <v>381076.2578255356</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>142.5960843682065</v>
+        <v>142.5958535313113</v>
       </c>
       <c r="MU3" t="n">
-        <v>127.229801064673</v>
+        <v>127.2296574341917</v>
       </c>
       <c r="MV3" t="n">
-        <v>-64.39115621099239</v>
+        <v>-64.39092881378085</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.84402697733249</v>
+        <v>-26.84397151435741</v>
       </c>
       <c r="MX3" t="n">
-        <v>262.5774543903922</v>
+        <v>262.5771858755888</v>
       </c>
       <c r="MY3" t="n">
-        <v>127.229801064673</v>
+        <v>127.2296574341917</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-229.6943562109924</v>
+        <v>-229.6941288137808</v>
       </c>
       <c r="NA3" t="n">
-        <v>-61.01753110350748</v>
+        <v>-61.01753447693211</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.1850023138244</v>
+        <v>234.1850082381079</v>
       </c>
       <c r="NC3" t="n">
-        <v>57499.99999864475</v>
+        <v>57500.00000075917</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559944530553437</v>
+        <v>0.8559944313642884</v>
       </c>
       <c r="NE3" t="n">
-        <v>293092.10408616</v>
+        <v>293092.1083319755</v>
       </c>
       <c r="NF3" t="n">
-        <v>360265.4365691067</v>
+        <v>360265.4425195769</v>
       </c>
       <c r="NG3" t="n">
-        <v>3800.777097161504</v>
+        <v>3800.777122560227</v>
       </c>
       <c r="NH3" t="n">
-        <v>-529819.5567239911</v>
+        <v>-529819.5792384018</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9876071316746</v>
+        <v>715.9876072023264</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421565720235</v>
+        <v>1004.42156570662</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402847696965118</v>
+        <v>1.402847696807673</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992670926493353</v>
+        <v>0.999267092728782</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.8631743117945</v>
+        <v>306.8631782003995</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.7243048099</v>
+        <v>80604.72430513593</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622071007229e-05</v>
+        <v>1.240622071002211e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.92966634079</v>
+        <v>57457.92967302185</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740403815116586e-05</v>
+        <v>1.740403814914217e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004283552997293831</v>
+        <v>0.004283552887964576</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.519973781733242e-05</v>
+        <v>1.519973813280973e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02128988076529463</v>
+        <v>0.02128988124116213</v>
       </c>
       <c r="NU3" t="n">
-        <v>57499.99999864475</v>
+        <v>57500.00000075917</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8559944530553437</v>
+        <v>0.8559944313642884</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8559944530553437</v>
+        <v>0.8559944313642884</v>
       </c>
       <c r="NX3" t="n">
-        <v>293092.10408616</v>
+        <v>293092.1083319755</v>
       </c>
       <c r="NY3" t="n">
-        <v>360265.4365691067</v>
+        <v>360265.4425195769</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3800.777097161504</v>
+        <v>3800.777122560227</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9876071316746</v>
+        <v>715.9876072023264</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421565720235</v>
+        <v>1004.42156570662</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.8631743117945</v>
+        <v>306.8631782003995</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992670926493353</v>
+        <v>0.999267092728782</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.519973781733242e-05</v>
+        <v>1.519973813280973e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02128988076529463</v>
+        <v>0.02128988124116213</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>244.338108368664</v>
+        <v>244.3380814211421</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66682.71585080939</v>
+        <v>66682.68428799142</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.9514188078409626</v>
+        <v>0.9514184624596875</v>
       </c>
       <c r="OL3" t="n">
-        <v>300344.6003843619</v>
+        <v>300344.5811495948</v>
       </c>
       <c r="OM3" t="n">
-        <v>370432.2582078721</v>
+        <v>370432.2312416455</v>
       </c>
       <c r="ON3" t="n">
-        <v>3800.77709716045</v>
+        <v>3800.777122568902</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558242.4280432542</v>
+        <v>-558242.3587962092</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1698444835267</v>
+        <v>716.1698439208434</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.669732320507</v>
+        <v>1004.669731453391</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402837246023721</v>
+        <v>1.402837245915139</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.999295909491152</v>
+        <v>0.9992959094677232</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.4525682511519</v>
+        <v>313.4525509464395</v>
       </c>
       <c r="OU3" t="n">
-        <v>93479.28835127153</v>
+        <v>93479.24409531328</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.069755683464612e-05</v>
+        <v>1.069756189919957e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66635.87569850625</v>
+        <v>66635.84415619948</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.50069311690972e-05</v>
+        <v>1.500693827267985e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004105906280717444</v>
+        <v>0.004105906731481951</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573743417101026e-05</v>
+        <v>1.573743275443688e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210378822696358</v>
+        <v>0.02210378607810365</v>
       </c>
       <c r="PB3" t="n">
-        <v>66682.71585080939</v>
+        <v>66682.68428799142</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9514188078409626</v>
+        <v>0.9514184624596875</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9514188078409626</v>
+        <v>0.9514184624596875</v>
       </c>
       <c r="PE3" t="n">
-        <v>300344.6003843619</v>
+        <v>300344.5811495948</v>
       </c>
       <c r="PF3" t="n">
-        <v>370432.2582078721</v>
+        <v>370432.2312416455</v>
       </c>
       <c r="PG3" t="n">
-        <v>3800.77709716045</v>
+        <v>3800.777122568902</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1698444835267</v>
+        <v>716.1698439208434</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.669732320507</v>
+        <v>1004.669731453391</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.4525682511519</v>
+        <v>313.4525509464395</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.999295909491152</v>
+        <v>0.9992959094677232</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573743417101026e-05</v>
+        <v>1.573743275443688e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210378822696358</v>
+        <v>0.02210378607810365</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>268.603331289487</v>
+        <v>268.6032668415261</v>
       </c>
       <c r="PQ3" t="n">
-        <v>92811.80882628559</v>
+        <v>92811.72285008771</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.204479463995132</v>
+        <v>1.204478637536272</v>
       </c>
       <c r="PS3" t="n">
-        <v>317683.3619012752</v>
+        <v>317683.3158540648</v>
       </c>
       <c r="PT3" t="n">
-        <v>394738.8963463695</v>
+        <v>394738.8317907622</v>
       </c>
       <c r="PU3" t="n">
-        <v>3800.777097158693</v>
+        <v>3800.777122567146</v>
       </c>
       <c r="PV3" t="n">
-        <v>-626162.4934392418</v>
+        <v>-626162.3198673084</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7874050977905</v>
+        <v>716.7874030471107</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.447973901104</v>
+        <v>1005.447971276108</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402714342844699</v>
+        <v>1.402714343195601</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993927908455306</v>
+        <v>0.9993927905874417</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.6663753949605</v>
+        <v>328.6663359208049</v>
       </c>
       <c r="QB3" t="n">
-        <v>130109.7823849095</v>
+        <v>130109.6618561179</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.685817174312503e-06</v>
+        <v>7.685824294170041e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>92755.72253795266</v>
+        <v>92755.63658934853</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.078100598689026e-05</v>
+        <v>1.078101597671352e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003735660305952838</v>
+        <v>0.003735661199534059</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.698858341576226e-05</v>
+        <v>1.698858015211827e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02400857352529426</v>
+        <v>0.02400856853558414</v>
       </c>
       <c r="QI3" t="n">
-        <v>92811.80882628559</v>
+        <v>92811.72285008771</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.204479463995132</v>
+        <v>1.204478637536272</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.204479463995132</v>
+        <v>1.204478637536272</v>
       </c>
       <c r="QL3" t="n">
-        <v>317683.3619012752</v>
+        <v>317683.3158540648</v>
       </c>
       <c r="QM3" t="n">
-        <v>394738.8963463695</v>
+        <v>394738.8317907622</v>
       </c>
       <c r="QN3" t="n">
-        <v>3800.777097158693</v>
+        <v>3800.777122567146</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7874050977905</v>
+        <v>716.7874030471107</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.447973901104</v>
+        <v>1005.447971276108</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.6663753949605</v>
+        <v>328.6663359208049</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993927908455306</v>
+        <v>0.9993927905874417</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.698858341576226e-05</v>
+        <v>1.698858015211827e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02400857352529426</v>
+        <v>0.02400856853558414</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.4646894652250416</v>
+        <v>0.4646887070894764</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8556825203261279</v>
+        <v>0.8556816344517902</v>
       </c>
       <c r="QY3" t="n">
-        <v>385360.0579763215</v>
+        <v>385359.6461391841</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.74271310969595</v>
+        <v>2.742709943929992</v>
       </c>
       <c r="RA3" t="n">
-        <v>381076.322381149</v>
+        <v>381076.2578255356</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02459522109745105</v>
+        <v>0.02459527084242712</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.00216634544042638</v>
+        <v>0.002166430093055108</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01188682146148106</v>
+        <v>0.01188681547300846</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03204523418760318</v>
+        <v>0.03204528799580388</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04266986376953599</v>
+        <v>0.04266995612306429</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1133634859564977</v>
+        <v>0.1133637605273589</v>
       </c>
       <c r="RH3" t="n">
-        <v>-2.410027594157427e-10</v>
+        <v>1.085270900924584e-10</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -7569,148 +7569,148 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593369941076853</v>
+        <v>0.0159337393772655</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788002728037731e-07</v>
+        <v>-1.788003961120334e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379066038777998</v>
+        <v>0.01379066172769694</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02519180119324601</v>
+        <v>0.02519178354026981</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491598219152173</v>
+        <v>0.05491600584483615</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.561839629322549e-13</v>
+        <v>3.424788230788067e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9803465294422806</v>
+        <v>0.9803285126955369</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>276.8642521201893</v>
+        <v>276.8866482521855</v>
       </c>
       <c r="L2" t="n">
-        <v>113.6237537407626</v>
+        <v>113.1374588581077</v>
       </c>
       <c r="M2" t="n">
-        <v>252.4746654378024</v>
+        <v>252.7174932280302</v>
       </c>
       <c r="N2" t="n">
-        <v>65.7703383845668</v>
+        <v>65.88272377225761</v>
       </c>
       <c r="O2" t="n">
-        <v>276.8642521201893</v>
+        <v>276.8866482521855</v>
       </c>
       <c r="P2" t="n">
-        <v>113.6237537407626</v>
+        <v>113.1374588581077</v>
       </c>
       <c r="Q2" t="n">
-        <v>252.4746654378024</v>
+        <v>252.7174932280302</v>
       </c>
       <c r="R2" t="n">
-        <v>65.7703383845668</v>
+        <v>65.88272377225761</v>
       </c>
       <c r="S2" t="n">
-        <v>257.3533141454119</v>
+        <v>257.347117742376</v>
       </c>
       <c r="T2" t="n">
-        <v>83295.00696889925</v>
+        <v>83286.1511425983</v>
       </c>
       <c r="U2" t="n">
-        <v>1.128315207198732</v>
+        <v>1.128222423141299</v>
       </c>
       <c r="V2" t="n">
-        <v>309635.0616283817</v>
+        <v>309630.638954485</v>
       </c>
       <c r="W2" t="n">
-        <v>383457.5240373531</v>
+        <v>383451.3230982245</v>
       </c>
       <c r="X2" t="n">
-        <v>3788.906534382336</v>
+        <v>3788.912938496646</v>
       </c>
       <c r="Y2" t="n">
-        <v>-591630.1295731483</v>
+        <v>-591614.5010006838</v>
       </c>
       <c r="Z2" t="n">
-        <v>716.4786262618828</v>
+        <v>716.4784597910163</v>
       </c>
       <c r="AA2" t="n">
-        <v>1005.129004450588</v>
+        <v>1005.128759491166</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.402873676350534</v>
+        <v>1.402873660408917</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9993152889126338</v>
+        <v>0.9993152779336999</v>
       </c>
       <c r="AD2" t="n">
-        <v>321.7031770331198</v>
+        <v>321.6992986829123</v>
       </c>
       <c r="AE2" t="n">
-        <v>116772.6513975432</v>
+        <v>116760.233604518</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.563649005412916e-06</v>
+        <v>8.564559774581554e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83238.17986329179</v>
+        <v>83229.32912610535</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.201371776319922e-05</v>
+        <v>1.20149953207582e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.003899196445517861</v>
+        <v>0.003899289843953798</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.641480126924712e-05</v>
+        <v>1.641448192455004e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.02313358326703755</v>
+        <v>0.02313309666369787</v>
       </c>
       <c r="AL2" t="n">
-        <v>83295.00696889925</v>
+        <v>83286.1511425983</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.128315207198732</v>
+        <v>1.128222423141299</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.128315207198732</v>
+        <v>1.128222423141299</v>
       </c>
       <c r="AO2" t="n">
-        <v>309635.0616283817</v>
+        <v>309630.638954485</v>
       </c>
       <c r="AP2" t="n">
-        <v>383457.5240373531</v>
+        <v>383451.3230982245</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3788.906534382336</v>
+        <v>3788.912938496646</v>
       </c>
       <c r="AR2" t="n">
-        <v>716.4786262618828</v>
+        <v>716.4784597910163</v>
       </c>
       <c r="AS2" t="n">
-        <v>1005.129004450588</v>
+        <v>1005.128759491166</v>
       </c>
       <c r="AT2" t="n">
-        <v>321.7031770331198</v>
+        <v>321.6992986829123</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9993152889126338</v>
+        <v>0.9993152779336999</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.641480126924712e-05</v>
+        <v>1.641448192455004e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.02313358326703755</v>
+        <v>0.02313309666369787</v>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
@@ -7721,97 +7721,97 @@
         <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>295.593390162122</v>
+        <v>295.5933831674595</v>
       </c>
       <c r="BA2" t="n">
-        <v>135149.1677106726</v>
+        <v>135146.1511281998</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.593552076288692</v>
+        <v>1.593516528917937</v>
       </c>
       <c r="BC2" t="n">
-        <v>336974.4209724294</v>
+        <v>336974.4221080304</v>
       </c>
       <c r="BD2" t="n">
-        <v>421784.4310885901</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="BE2" t="n">
-        <v>3788.906534382972</v>
+        <v>3788.912938497254</v>
       </c>
       <c r="BF2" t="n">
-        <v>-698191.2964170896</v>
+        <v>-698193.1629287744</v>
       </c>
       <c r="BG2" t="n">
-        <v>717.8558108617875</v>
+        <v>717.8558030044421</v>
       </c>
       <c r="BH2" t="n">
-        <v>1006.774776492997</v>
+        <v>1006.774726963778</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.402474927777434</v>
+        <v>1.402474874132275</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.9995307661003243</v>
+        <v>0.9995307763686812</v>
       </c>
       <c r="BK2" t="n">
-        <v>344.8024423752955</v>
+        <v>344.8024352033584</v>
       </c>
       <c r="BL2" t="n">
-        <v>189455.3734045357</v>
+        <v>189451.1393417571</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.278287873444181e-06</v>
+        <v>5.278405838436618e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>135086.4601228731</v>
+        <v>135083.4462962999</v>
       </c>
       <c r="BO2" t="n">
-        <v>7.402666404097133e-06</v>
+        <v>7.402831563880461e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.003395610642150237</v>
+        <v>0.003395610443132236</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.832921983643422e-05</v>
+        <v>1.832921906201927e-05</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.02606722710495284</v>
+        <v>0.02606722561618597</v>
       </c>
       <c r="BS2" t="n">
-        <v>135149.1677106726</v>
+        <v>135146.1511281998</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.593552076288692</v>
+        <v>1.593516528917937</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.593552076288692</v>
+        <v>1.593516528917937</v>
       </c>
       <c r="BV2" t="n">
-        <v>336974.4209724294</v>
+        <v>336974.4221080304</v>
       </c>
       <c r="BW2" t="n">
-        <v>421784.4310885901</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="BX2" t="n">
-        <v>3788.906534382972</v>
+        <v>3788.912938497254</v>
       </c>
       <c r="BY2" t="n">
-        <v>717.8558108617875</v>
+        <v>717.8558030044421</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1006.774776492997</v>
+        <v>1006.774726963778</v>
       </c>
       <c r="CA2" t="n">
-        <v>344.8024423752955</v>
+        <v>344.8024352033584</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.9995307661003243</v>
+        <v>0.9995307763686812</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.832921983643422e-05</v>
+        <v>1.832921906201927e-05</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.02606722710495284</v>
+        <v>0.02606722561618597</v>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
@@ -7822,97 +7822,97 @@
         <v>1</v>
       </c>
       <c r="CG2" t="n">
-        <v>295.593390162122</v>
+        <v>295.5933831674595</v>
       </c>
       <c r="CH2" t="n">
-        <v>135149.1677106726</v>
+        <v>135146.1511281998</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.593552076288692</v>
+        <v>1.593516528917937</v>
       </c>
       <c r="CJ2" t="n">
-        <v>336974.4209724294</v>
+        <v>336974.4221080304</v>
       </c>
       <c r="CK2" t="n">
-        <v>421784.4310885901</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="CL2" t="n">
-        <v>3788.906534382972</v>
+        <v>3788.912938497254</v>
       </c>
       <c r="CM2" t="n">
-        <v>-698191.2964170896</v>
+        <v>-698193.1629287744</v>
       </c>
       <c r="CN2" t="n">
-        <v>717.8558108617875</v>
+        <v>717.8558030044421</v>
       </c>
       <c r="CO2" t="n">
-        <v>1006.774776492997</v>
+        <v>1006.774726963778</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.402474927777434</v>
+        <v>1.402474874132275</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.9995307661003243</v>
+        <v>0.9995307763686812</v>
       </c>
       <c r="CR2" t="n">
-        <v>344.8024423752955</v>
+        <v>344.8024352033584</v>
       </c>
       <c r="CS2" t="n">
-        <v>189455.3734045357</v>
+        <v>189451.1393417571</v>
       </c>
       <c r="CT2" t="n">
-        <v>5.278287873444181e-06</v>
+        <v>5.278405838436618e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>135086.4601228731</v>
+        <v>135083.4462962999</v>
       </c>
       <c r="CV2" t="n">
-        <v>7.402666404097133e-06</v>
+        <v>7.402831563880461e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.003395610642150237</v>
+        <v>0.003395610443132236</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.832921983643422e-05</v>
+        <v>1.832921906201927e-05</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02606722710495284</v>
+        <v>0.02606722561618597</v>
       </c>
       <c r="CZ2" t="n">
-        <v>135149.1677106726</v>
+        <v>135146.1511281998</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.593552076288692</v>
+        <v>1.593516528917937</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.593552076288692</v>
+        <v>1.593516528917937</v>
       </c>
       <c r="DC2" t="n">
-        <v>336974.4209724294</v>
+        <v>336974.4221080304</v>
       </c>
       <c r="DD2" t="n">
-        <v>421784.4310885901</v>
+        <v>421784.4310885896</v>
       </c>
       <c r="DE2" t="n">
-        <v>3788.906534382972</v>
+        <v>3788.912938497254</v>
       </c>
       <c r="DF2" t="n">
-        <v>717.8558108617875</v>
+        <v>717.8558030044421</v>
       </c>
       <c r="DG2" t="n">
-        <v>1006.774776492997</v>
+        <v>1006.774726963778</v>
       </c>
       <c r="DH2" t="n">
-        <v>344.8024423752955</v>
+        <v>344.8024352033584</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.9995307661003243</v>
+        <v>0.9995307763686812</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.832921983643422e-05</v>
+        <v>1.832921906201927e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.02606722710495284</v>
+        <v>0.02606722561618597</v>
       </c>
       <c r="DL2" t="inlineStr">
         <is>
@@ -7923,37 +7923,37 @@
         <v>1</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01602810878993768</v>
+        <v>0.01612578355687078</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.821315475106727e-07</v>
+        <v>-1.821900015624114e-07</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.01379329073608799</v>
+        <v>0.01379701422308497</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.02515667143989936</v>
+        <v>0.02510725074488792</v>
       </c>
       <c r="DR2" t="n">
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.05497788883437751</v>
+        <v>0.05502986633484211</v>
       </c>
       <c r="DT2" t="n">
-        <v>-6.642034144910269e-12</v>
+        <v>-6.61488225306428e-12</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.8606201986363526</v>
+        <v>0.8607001923404967</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.8606201986363526</v>
+        <v>0.8607001923404967</v>
       </c>
       <c r="DW2" t="n">
-        <v>497851.0604687986</v>
+        <v>497860.0756021519</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.740325648246709</v>
+        <v>2.740321957196192</v>
       </c>
       <c r="DY2" t="n">
         <v>421784.4310884894</v>
@@ -7962,169 +7962,169 @@
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>1473.427407473617</v>
+        <v>1473.430089254689</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.006566568138220839</v>
+        <v>0.006566594196556461</v>
       </c>
       <c r="ED2" t="n">
-        <v>-7.368685351908617e-08</v>
+        <v>-7.36870119217911e-08</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01038200073914813</v>
+        <v>0.01038200862206094</v>
       </c>
       <c r="EF2" t="n">
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.005683382670456216</v>
+        <v>0.005683391520572824</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.02447338350316694</v>
+        <v>0.0244734140772957</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.001918126997408496</v>
+        <v>0.001918199420802415</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.01189012253328696</v>
+        <v>0.01189011779734742</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.03198066011934316</v>
+        <v>0.03198070534293622</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.04237524032735127</v>
+        <v>0.04237533103210969</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.1126375334805568</v>
+        <v>0.1126377676704914</v>
       </c>
       <c r="EN2" t="n">
-        <v>-2.051354919263559e-11</v>
+        <v>-7.041708882660203e-11</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.9610021001486615</v>
+        <v>0.9609971910907749</v>
       </c>
       <c r="EP2" t="n">
         <v>165.3032</v>
       </c>
       <c r="EQ2" t="n">
-        <v>143.1710351229625</v>
+        <v>142.8392307301123</v>
       </c>
       <c r="ER2" t="n">
-        <v>127.5487452620511</v>
+        <v>127.0237014178349</v>
       </c>
       <c r="ES2" t="n">
-        <v>-65.03278311941565</v>
+        <v>-65.33012409052193</v>
       </c>
       <c r="ET2" t="n">
-        <v>-27.01549357733389</v>
+        <v>-27.21741322561368</v>
       </c>
       <c r="EU2" t="n">
-        <v>263.2932728679397</v>
+        <v>263.2997358580729</v>
       </c>
       <c r="EV2" t="n">
-        <v>127.5487452620511</v>
+        <v>127.0237014178349</v>
       </c>
       <c r="EW2" t="n">
-        <v>-230.3359831194157</v>
+        <v>-230.6333240905219</v>
       </c>
       <c r="EX2" t="n">
-        <v>-61.02447140274008</v>
+        <v>-61.15576777799676</v>
       </c>
       <c r="EY2" t="n">
-        <v>234.2262690960641</v>
+        <v>234.2245141236721</v>
       </c>
       <c r="EZ2" t="n">
-        <v>57554.70642367526</v>
+        <v>57552.7849903844</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.8566580263340146</v>
+        <v>0.8566358449663543</v>
       </c>
       <c r="FB2" t="n">
-        <v>293121.5251188885</v>
+        <v>293120.2727736572</v>
       </c>
       <c r="FC2" t="n">
-        <v>360306.6849544591</v>
+        <v>360304.9292745125</v>
       </c>
       <c r="FD2" t="n">
-        <v>3800.680444302537</v>
+        <v>3800.682524734335</v>
       </c>
       <c r="FE2" t="n">
-        <v>-529912.5155408954</v>
+        <v>-529908.0884197184</v>
       </c>
       <c r="FF2" t="n">
-        <v>715.9883610121424</v>
+        <v>715.9883308784921</v>
       </c>
       <c r="FG2" t="n">
-        <v>1004.423052047686</v>
+        <v>1004.423000551876</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.40284829578487</v>
+        <v>1.402848282903556</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.9992669504683385</v>
+        <v>0.9992669513502416</v>
       </c>
       <c r="FJ2" t="n">
-        <v>306.8902321819787</v>
+        <v>306.8890813203675</v>
       </c>
       <c r="FK2" t="n">
-        <v>80681.43608764728</v>
+        <v>80678.74190443927</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.239442489488737e-05</v>
+        <v>1.239483879389765e-05</v>
       </c>
       <c r="FM2" t="n">
-        <v>57512.58801829845</v>
+        <v>57510.66803706942</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.738749784102631e-05</v>
+        <v>1.738807831888571e-05</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.004282804348476361</v>
+        <v>0.004282836276014972</v>
       </c>
       <c r="FP2" t="n">
-        <v>1.520194412850214e-05</v>
+        <v>1.520185036835197e-05</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.02129321790146019</v>
+        <v>0.02129307615166331</v>
       </c>
       <c r="FR2" t="n">
-        <v>57554.70642367526</v>
+        <v>57552.7849903844</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.8566580263340146</v>
+        <v>0.8566358449663543</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.8566580263340146</v>
+        <v>0.8566358449663543</v>
       </c>
       <c r="FU2" t="n">
-        <v>293121.5251188885</v>
+        <v>293120.2727736572</v>
       </c>
       <c r="FV2" t="n">
-        <v>360306.6849544591</v>
+        <v>360304.9292745125</v>
       </c>
       <c r="FW2" t="n">
-        <v>3800.680444302537</v>
+        <v>3800.682524734335</v>
       </c>
       <c r="FX2" t="n">
-        <v>715.9883610121424</v>
+        <v>715.9883308784921</v>
       </c>
       <c r="FY2" t="n">
-        <v>1004.423052047686</v>
+        <v>1004.423000551876</v>
       </c>
       <c r="FZ2" t="n">
-        <v>306.8902321819787</v>
+        <v>306.8890813203675</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.9992669504683385</v>
+        <v>0.9992669513502416</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.520194412850214e-05</v>
+        <v>1.520185036835197e-05</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.02129321790146019</v>
+        <v>0.02129307615166331</v>
       </c>
       <c r="GD2" t="inlineStr">
         <is>
@@ -8135,97 +8135,97 @@
         <v>1</v>
       </c>
       <c r="GF2" t="n">
-        <v>244.4614066971309</v>
+        <v>244.4122702585277</v>
       </c>
       <c r="GG2" t="n">
-        <v>66822.70615664065</v>
+        <v>66775.34401333112</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.9529351478285363</v>
+        <v>0.9524513184564124</v>
       </c>
       <c r="GI2" t="n">
-        <v>300432.6210999578</v>
+        <v>300397.5209330646</v>
       </c>
       <c r="GJ2" t="n">
-        <v>370555.6576034494</v>
+        <v>370506.4521921974</v>
       </c>
       <c r="GK2" t="n">
-        <v>3800.680444301487</v>
+        <v>3800.682524752729</v>
       </c>
       <c r="GL2" t="n">
-        <v>-558564.0302167684</v>
+        <v>-558426.9922145299</v>
       </c>
       <c r="GM2" t="n">
-        <v>716.1724030951226</v>
+        <v>716.1714182518834</v>
       </c>
       <c r="GN2" t="n">
-        <v>1004.673585265773</v>
+        <v>1004.672268655282</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.40283761413288</v>
+        <v>1.402837704843913</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.9992960651378707</v>
+        <v>0.9992959140330167</v>
       </c>
       <c r="GQ2" t="n">
-        <v>313.5317367549458</v>
+        <v>313.500187819729</v>
       </c>
       <c r="GR2" t="n">
-        <v>93675.57379691776</v>
+        <v>93609.17075689248</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.067514144261269e-05</v>
+        <v>1.068271401097066e-05</v>
       </c>
       <c r="GT2" t="n">
-        <v>66775.77850293128</v>
+        <v>66728.43938658458</v>
       </c>
       <c r="GU2" t="n">
-        <v>1.497548995188581e-05</v>
+        <v>1.498611400465399e-05</v>
       </c>
       <c r="GV2" t="n">
-        <v>0.004103843949344211</v>
+        <v>0.004104667247683573</v>
       </c>
       <c r="GW2" t="n">
-        <v>1.574391435377552e-05</v>
+        <v>1.574133338766348e-05</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.0221136178108645</v>
+        <v>0.02210970405283625</v>
       </c>
       <c r="GY2" t="n">
-        <v>66822.70615664065</v>
+        <v>66775.34401333112</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9529351478285363</v>
+        <v>0.9524513184564124</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9529351478285363</v>
+        <v>0.9524513184564124</v>
       </c>
       <c r="HB2" t="n">
-        <v>300432.6210999578</v>
+        <v>300397.5209330646</v>
       </c>
       <c r="HC2" t="n">
-        <v>370555.6576034494</v>
+        <v>370506.4521921974</v>
       </c>
       <c r="HD2" t="n">
-        <v>3800.680444301487</v>
+        <v>3800.682524752729</v>
       </c>
       <c r="HE2" t="n">
-        <v>716.1724030951226</v>
+        <v>716.1714182518834</v>
       </c>
       <c r="HF2" t="n">
-        <v>1004.673585265773</v>
+        <v>1004.672268655282</v>
       </c>
       <c r="HG2" t="n">
-        <v>313.5317367549458</v>
+        <v>313.500187819729</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.9992960651378707</v>
+        <v>0.9992959140330167</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.574391435377552e-05</v>
+        <v>1.574133338766348e-05</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.0221136178108645</v>
+        <v>0.02210970405283625</v>
       </c>
       <c r="HK2" t="inlineStr">
         <is>
@@ -8236,97 +8236,97 @@
         <v>1</v>
       </c>
       <c r="HM2" t="n">
-        <v>268.832416125014</v>
+        <v>268.8323603387674</v>
       </c>
       <c r="HN2" t="n">
-        <v>93119.85352116771</v>
+        <v>93119.11300942238</v>
       </c>
       <c r="HO2" t="n">
-        <v>1.207446265609125</v>
+        <v>1.20743690931967</v>
       </c>
       <c r="HP2" t="n">
-        <v>317847.0356686625</v>
+        <v>317846.99735947</v>
       </c>
       <c r="HQ2" t="n">
-        <v>394968.3587233088</v>
+        <v>394968.3047260721</v>
       </c>
       <c r="HR2" t="n">
-        <v>3800.680444292816</v>
+        <v>3800.682524744057</v>
       </c>
       <c r="HS2" t="n">
-        <v>-626777.7480350205</v>
+        <v>-626778.1492991783</v>
       </c>
       <c r="HT2" t="n">
-        <v>716.7947149388935</v>
+        <v>716.7947110182986</v>
       </c>
       <c r="HU2" t="n">
-        <v>1005.457361475759</v>
+        <v>1005.457345502073</v>
       </c>
       <c r="HV2" t="n">
-        <v>1.402713134626661</v>
+        <v>1.402713120014086</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.999393697136726</v>
+        <v>0.9993937012270195</v>
       </c>
       <c r="HX2" t="n">
-        <v>328.8066602148984</v>
+        <v>328.8066257246456</v>
       </c>
       <c r="HY2" t="n">
-        <v>130541.6279802711</v>
+        <v>130540.5890499024</v>
       </c>
       <c r="HZ2" t="n">
-        <v>7.660391673306931e-06</v>
+        <v>7.660452639889078e-06</v>
       </c>
       <c r="IA2" t="n">
-        <v>93063.66694499903</v>
+        <v>93062.9272567091</v>
       </c>
       <c r="IB2" t="n">
-        <v>1.074533201653233e-05</v>
+        <v>1.074541742321895e-05</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.003732486991473889</v>
+        <v>0.003732487672897862</v>
       </c>
       <c r="ID2" t="n">
-        <v>1.700018262275191e-05</v>
+        <v>1.700017969749942e-05</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02402630820229682</v>
+        <v>0.02402630364840192</v>
       </c>
       <c r="IF2" t="n">
-        <v>93119.85352116771</v>
+        <v>93119.11300942238</v>
       </c>
       <c r="IG2" t="n">
-        <v>1.207446265609125</v>
+        <v>1.20743690931967</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.207446265609125</v>
+        <v>1.20743690931967</v>
       </c>
       <c r="II2" t="n">
-        <v>317847.0356686625</v>
+        <v>317846.99735947</v>
       </c>
       <c r="IJ2" t="n">
-        <v>394968.3587233088</v>
+        <v>394968.3047260721</v>
       </c>
       <c r="IK2" t="n">
-        <v>3800.680444292816</v>
+        <v>3800.682524744057</v>
       </c>
       <c r="IL2" t="n">
-        <v>716.7947149388935</v>
+        <v>716.7947110182986</v>
       </c>
       <c r="IM2" t="n">
-        <v>1005.457361475759</v>
+        <v>1005.457345502073</v>
       </c>
       <c r="IN2" t="n">
-        <v>328.8066602148984</v>
+        <v>328.8066257246456</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.999393697136726</v>
+        <v>0.9993937012270195</v>
       </c>
       <c r="IP2" t="n">
-        <v>1.700018262275191e-05</v>
+        <v>1.700017969749942e-05</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.02402630820229682</v>
+        <v>0.02402630364840192</v>
       </c>
       <c r="IR2" t="inlineStr">
         <is>
@@ -8337,64 +8337,64 @@
         <v>1</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.02429238887098445</v>
+        <v>0.02429129783169387</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.00196514468739829</v>
+        <v>0.001965973237290449</v>
       </c>
       <c r="IV2" t="n">
-        <v>0.01190257554961198</v>
+        <v>0.01191299607170352</v>
       </c>
       <c r="IW2" t="n">
-        <v>0.03190958695864489</v>
+        <v>0.03185011009725883</v>
       </c>
       <c r="IX2" t="n">
-        <v>0.04245126562442407</v>
+        <v>0.04251564289078804</v>
       </c>
       <c r="IY2" t="n">
-        <v>0.1125209616910637</v>
+        <v>0.1125360201287347</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-9.468575923321509e-11</v>
+        <v>1.594401000115653e-11</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.4665219681480947</v>
+        <v>0.4654425309481756</v>
       </c>
       <c r="JB2" t="n">
-        <v>0.8579395668475135</v>
+        <v>0.8579638438918888</v>
       </c>
       <c r="JC2" t="n">
-        <v>386654.0207342518</v>
+        <v>386655.8847402171</v>
       </c>
       <c r="JD2" t="n">
-        <v>2.740325648151126</v>
+        <v>2.740321957455727</v>
       </c>
       <c r="JE2" t="n">
-        <v>381305.7847580948</v>
+        <v>381305.730760858</v>
       </c>
       <c r="JF2" t="n">
         <v>0</v>
       </c>
       <c r="JG2" t="n">
-        <v>2666.316164034768</v>
+        <v>2666.318025193876</v>
       </c>
       <c r="JH2" t="n">
-        <v>6.129550699365844</v>
+        <v>6.129678780057461</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.008898450238731825</v>
+        <v>0.008898449694269733</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.0006974253329458463</v>
+        <v>0.000697450751892551</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.01162807392925237</v>
+        <v>0.01162807513420813</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.01540751271104147</v>
+        <v>0.01540752549996988</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.004323213571232874</v>
+        <v>0.004323206183839818</v>
       </c>
     </row>
     <row r="3">
@@ -8402,148 +8402,148 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01595022849399139</v>
+        <v>0.01595026541634612</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.793955750219205e-07</v>
+        <v>-1.793957298764442e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379120448695893</v>
+        <v>0.01379120572413493</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02518433238858101</v>
+        <v>0.02518431608783594</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05492558597395631</v>
+        <v>0.0549256078325871</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.208774829703941e-12</v>
+        <v>2.816483157808136e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9803447272964962</v>
+        <v>0.9803281699881287</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>277.9577307733494</v>
+        <v>277.9793036174873</v>
       </c>
       <c r="L3" t="n">
-        <v>114.0320323224932</v>
+        <v>113.5839240532273</v>
       </c>
       <c r="M3" t="n">
-        <v>253.4900307725565</v>
+        <v>253.7147718134163</v>
       </c>
       <c r="N3" t="n">
-        <v>65.77948826739177</v>
+        <v>65.88272377225761</v>
       </c>
       <c r="O3" t="n">
-        <v>277.9577307733494</v>
+        <v>277.9793036174873</v>
       </c>
       <c r="P3" t="n">
-        <v>114.0320323224932</v>
+        <v>113.5839240532273</v>
       </c>
       <c r="Q3" t="n">
-        <v>253.4900307725565</v>
+        <v>253.7147718134163</v>
       </c>
       <c r="R3" t="n">
-        <v>65.77948826739177</v>
+        <v>65.88272377225761</v>
       </c>
       <c r="S3" t="n">
-        <v>257.0504352010894</v>
+        <v>257.04444319494</v>
       </c>
       <c r="T3" t="n">
-        <v>82941.78307145847</v>
+        <v>82933.31637827144</v>
       </c>
       <c r="U3" t="n">
-        <v>1.124855601795078</v>
+        <v>1.124767008017833</v>
       </c>
       <c r="V3" t="n">
-        <v>309418.6874008066</v>
+        <v>309414.4104630424</v>
       </c>
       <c r="W3" t="n">
-        <v>383154.1810402546</v>
+        <v>383148.1844687577</v>
       </c>
       <c r="X3" t="n">
-        <v>3788.946161251118</v>
+        <v>3788.952115951705</v>
       </c>
       <c r="Y3" t="n">
-        <v>-590796.0786628422</v>
+        <v>-590780.9024683379</v>
       </c>
       <c r="Z3" t="n">
-        <v>716.4707974532431</v>
+        <v>716.4706375936362</v>
       </c>
       <c r="AA3" t="n">
-        <v>1005.118863265062</v>
+        <v>1005.118628899076</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.40287485105861</v>
+        <v>1.402874836957594</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9993141076252379</v>
+        <v>0.9993140966021079</v>
       </c>
       <c r="AD3" t="n">
-        <v>321.5135668704499</v>
+        <v>321.5098142748167</v>
       </c>
       <c r="AE3" t="n">
-        <v>116277.4188089386</v>
+        <v>116265.5467135601</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.600122106624603e-06</v>
+        <v>8.601000281396084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>82885.09749903606</v>
+        <v>82876.63564178291</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.206489501941685e-05</v>
+        <v>1.206612686743575e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.003903779826976538</v>
+        <v>0.003903870368724201</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.639920054001872e-05</v>
+        <v>1.639889159873898e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.02310982339453182</v>
+        <v>0.02310935270041582</v>
       </c>
       <c r="AL3" t="n">
-        <v>82941.78307145847</v>
+        <v>82933.31637827144</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.124855601795078</v>
+        <v>1.124767008017833</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.124855601795078</v>
+        <v>1.124767008017833</v>
       </c>
       <c r="AO3" t="n">
-        <v>309418.6874008066</v>
+        <v>309414.4104630424</v>
       </c>
       <c r="AP3" t="n">
-        <v>383154.1810402546</v>
+        <v>383148.1844687577</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3788.946161251118</v>
+        <v>3788.952115951705</v>
       </c>
       <c r="AR3" t="n">
-        <v>716.4707974532431</v>
+        <v>716.4706375936362</v>
       </c>
       <c r="AS3" t="n">
-        <v>1005.118863265062</v>
+        <v>1005.118628899076</v>
       </c>
       <c r="AT3" t="n">
-        <v>321.5135668704499</v>
+        <v>321.5098142748167</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9993141076252379</v>
+        <v>0.9993140966021079</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.639920054001872e-05</v>
+        <v>1.639889159873898e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.02310982339453182</v>
+        <v>0.02310935270041582</v>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
@@ -8554,97 +8554,97 @@
         <v>1</v>
       </c>
       <c r="AZ3" t="n">
-        <v>295.5933468835968</v>
+        <v>295.5933403805774</v>
       </c>
       <c r="BA3" t="n">
-        <v>135130.5030232533</v>
+        <v>135127.6985169979</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.593332131826323</v>
+        <v>1.593299083554155</v>
       </c>
       <c r="BC3" t="n">
-        <v>336974.4279987989</v>
+        <v>336974.4290544895</v>
       </c>
       <c r="BD3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BE3" t="n">
-        <v>3788.946161250827</v>
+        <v>3788.952115951394</v>
       </c>
       <c r="BF3" t="n">
-        <v>-698202.8458772985</v>
+        <v>-698204.5814076402</v>
       </c>
       <c r="BG3" t="n">
-        <v>717.8557622455307</v>
+        <v>717.8557549405738</v>
       </c>
       <c r="BH3" t="n">
-        <v>1006.774470037734</v>
+        <v>1006.774423990566</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.402474595855349</v>
+        <v>1.402474545981609</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9995308296345101</v>
+        <v>0.9995308391810167</v>
       </c>
       <c r="BK3" t="n">
-        <v>344.8023979999673</v>
+        <v>344.802391332199</v>
       </c>
       <c r="BL3" t="n">
-        <v>189429.1757297355</v>
+        <v>189425.2393376413</v>
       </c>
       <c r="BM3" t="n">
-        <v>5.27901785006303e-06</v>
+        <v>5.279127551833516e-06</v>
       </c>
       <c r="BN3" t="n">
-        <v>135067.8124862614</v>
+        <v>135065.0105418208</v>
       </c>
       <c r="BO3" t="n">
-        <v>7.403688425780318e-06</v>
+        <v>7.403842016436711e-06</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.003395609410752783</v>
+        <v>0.003395609225727222</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.832921504485017e-05</v>
+        <v>1.832921432487496e-05</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.02606721789341816</v>
+        <v>0.02606721650931099</v>
       </c>
       <c r="BS3" t="n">
-        <v>135130.5030232533</v>
+        <v>135127.6985169979</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.593332131826323</v>
+        <v>1.593299083554155</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.593332131826323</v>
+        <v>1.593299083554155</v>
       </c>
       <c r="BV3" t="n">
-        <v>336974.4279987989</v>
+        <v>336974.4290544895</v>
       </c>
       <c r="BW3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BX3" t="n">
-        <v>3788.946161250827</v>
+        <v>3788.952115951394</v>
       </c>
       <c r="BY3" t="n">
-        <v>717.8557622455307</v>
+        <v>717.8557549405738</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1006.774470037734</v>
+        <v>1006.774423990566</v>
       </c>
       <c r="CA3" t="n">
-        <v>344.8023979999673</v>
+        <v>344.802391332199</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.9995308296345101</v>
+        <v>0.9995308391810167</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.832921504485017e-05</v>
+        <v>1.832921432487496e-05</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.02606721789341816</v>
+        <v>0.02606721650931099</v>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
@@ -8655,97 +8655,97 @@
         <v>1</v>
       </c>
       <c r="CG3" t="n">
-        <v>295.5933468835968</v>
+        <v>295.5933403805774</v>
       </c>
       <c r="CH3" t="n">
-        <v>135130.5030232533</v>
+        <v>135127.6985169979</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.593332131826323</v>
+        <v>1.593299083554155</v>
       </c>
       <c r="CJ3" t="n">
-        <v>336974.4279987989</v>
+        <v>336974.4290544895</v>
       </c>
       <c r="CK3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="CL3" t="n">
-        <v>3788.946161250827</v>
+        <v>3788.952115951394</v>
       </c>
       <c r="CM3" t="n">
-        <v>-698202.8458772985</v>
+        <v>-698204.5814076402</v>
       </c>
       <c r="CN3" t="n">
-        <v>717.8557622455307</v>
+        <v>717.8557549405738</v>
       </c>
       <c r="CO3" t="n">
-        <v>1006.774470037734</v>
+        <v>1006.774423990566</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.402474595855349</v>
+        <v>1.402474545981609</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.9995308296345101</v>
+        <v>0.9995308391810167</v>
       </c>
       <c r="CR3" t="n">
-        <v>344.8023979999673</v>
+        <v>344.802391332199</v>
       </c>
       <c r="CS3" t="n">
-        <v>189429.1757297355</v>
+        <v>189425.2393376413</v>
       </c>
       <c r="CT3" t="n">
-        <v>5.27901785006303e-06</v>
+        <v>5.279127551833516e-06</v>
       </c>
       <c r="CU3" t="n">
-        <v>135067.8124862614</v>
+        <v>135065.0105418208</v>
       </c>
       <c r="CV3" t="n">
-        <v>7.403688425780318e-06</v>
+        <v>7.403842016436711e-06</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.003395609410752783</v>
+        <v>0.003395609225727222</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.832921504485017e-05</v>
+        <v>1.832921432487496e-05</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02606721789341816</v>
+        <v>0.02606721650931099</v>
       </c>
       <c r="CZ3" t="n">
-        <v>135130.5030232533</v>
+        <v>135127.6985169979</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.593332131826323</v>
+        <v>1.593299083554155</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.593332131826323</v>
+        <v>1.593299083554155</v>
       </c>
       <c r="DC3" t="n">
-        <v>336974.4279987989</v>
+        <v>336974.4290544895</v>
       </c>
       <c r="DD3" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="DE3" t="n">
-        <v>3788.946161250827</v>
+        <v>3788.952115951394</v>
       </c>
       <c r="DF3" t="n">
-        <v>717.8557622455307</v>
+        <v>717.8557549405738</v>
       </c>
       <c r="DG3" t="n">
-        <v>1006.774470037734</v>
+        <v>1006.774423990566</v>
       </c>
       <c r="DH3" t="n">
-        <v>344.8023979999673</v>
+        <v>344.802391332199</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.9995308296345101</v>
+        <v>0.9995308391810167</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.832921504485017e-05</v>
+        <v>1.832921432487496e-05</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.02606721789341816</v>
+        <v>0.02606721650931099</v>
       </c>
       <c r="DL3" t="inlineStr">
         <is>
@@ -8756,37 +8756,37 @@
         <v>1</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.01603742871365895</v>
+        <v>0.01612717665146034</v>
       </c>
       <c r="DO3" t="n">
-        <v>-1.825908093870503e-07</v>
+        <v>-1.826451165354492e-07</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.01379361004717691</v>
+        <v>0.01379703184927594</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.02515223164233948</v>
+        <v>0.02510682920286213</v>
       </c>
       <c r="DR3" t="n">
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.05498308781236596</v>
+        <v>0.05503085505848189</v>
       </c>
       <c r="DT3" t="n">
-        <v>2.211078542480038e-13</v>
+        <v>-2.908728813366679e-12</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.8645287770557724</v>
+        <v>0.8646059662112809</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.8645287770557724</v>
+        <v>0.8646059662112809</v>
       </c>
       <c r="DW3" t="n">
-        <v>498758.828109507</v>
+        <v>498767.6485834594</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.742713109695083</v>
+        <v>2.74270994381798</v>
       </c>
       <c r="DY3" t="n">
         <v>421784.4310884894</v>
@@ -8795,169 +8795,169 @@
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>1485.004311120487</v>
+        <v>1485.007526013942</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.006324338055646128</v>
+        <v>0.006324364428836428</v>
       </c>
       <c r="ED3" t="n">
-        <v>-7.113116044406833e-08</v>
+        <v>-7.113135381139243e-08</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.009985702198005776</v>
+        <v>0.009985714260732925</v>
       </c>
       <c r="EF3" t="n">
         <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.005468275228967957</v>
+        <v>0.005468285864578719</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.02459522109745105</v>
+        <v>0.02459527084242712</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.00216634544042638</v>
+        <v>0.002166430093055108</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.01188682146148106</v>
+        <v>0.01188681547300846</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.03204523418760318</v>
+        <v>0.03204528799580388</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.04266986376953599</v>
+        <v>0.04266995612306429</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.1133634859564977</v>
+        <v>0.1133637605273589</v>
       </c>
       <c r="EN3" t="n">
-        <v>-2.410027594157427e-10</v>
+        <v>1.085270900924584e-10</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.9607508105098961</v>
+        <v>0.960748382560604</v>
       </c>
       <c r="EP3" t="n">
         <v>165.3032</v>
       </c>
       <c r="EQ3" t="n">
-        <v>147.870321004684</v>
+        <v>147.700768094304</v>
       </c>
       <c r="ER3" t="n">
-        <v>130.1084645861009</v>
+        <v>129.8298938756381</v>
       </c>
       <c r="ES3" t="n">
-        <v>-70.26677221187558</v>
+        <v>-70.42524797178865</v>
       </c>
       <c r="ET3" t="n">
-        <v>-28.37184245425799</v>
+        <v>-28.47728425136097</v>
       </c>
       <c r="EU3" t="n">
-        <v>269.1122895091499</v>
+        <v>269.1165222110075</v>
       </c>
       <c r="EV3" t="n">
-        <v>130.1084645861009</v>
+        <v>129.8298938756381</v>
       </c>
       <c r="EW3" t="n">
-        <v>-235.5699722118756</v>
+        <v>-235.7284479717887</v>
       </c>
       <c r="EX3" t="n">
-        <v>-61.08753904274806</v>
+        <v>-61.15576777799676</v>
       </c>
       <c r="EY3" t="n">
-        <v>232.4495873753316</v>
+        <v>232.4483844144154</v>
       </c>
       <c r="EZ3" t="n">
-        <v>55931.59610251389</v>
+        <v>55930.36239808379</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.8388647151893175</v>
+        <v>0.8388505531619856</v>
       </c>
       <c r="FB3" t="n">
-        <v>291852.8370075198</v>
+        <v>291851.9784220101</v>
       </c>
       <c r="FC3" t="n">
-        <v>358528.1841639336</v>
+        <v>358526.9805272818</v>
       </c>
       <c r="FD3" t="n">
-        <v>3801.263841031999</v>
+        <v>3801.26498992574</v>
       </c>
       <c r="FE3" t="n">
-        <v>-525074.0271887227</v>
+        <v>-525070.9251120356</v>
       </c>
       <c r="FF3" t="n">
-        <v>715.9598802279337</v>
+        <v>715.9598606106475</v>
       </c>
       <c r="FG3" t="n">
-        <v>1004.380331903414</v>
+        <v>1004.380299071973</v>
       </c>
       <c r="FH3" t="n">
-        <v>1.402844432545101</v>
+        <v>1.402844425126472</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.9992640790443331</v>
+        <v>0.9992640790985644</v>
       </c>
       <c r="FJ3" t="n">
-        <v>305.7227757638076</v>
+        <v>305.7219838826995</v>
       </c>
       <c r="FK3" t="n">
-        <v>78405.67811944787</v>
+        <v>78403.94828116246</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.275417831954136e-05</v>
+        <v>1.275445971692554e-05</v>
       </c>
       <c r="FM3" t="n">
-        <v>55890.50097108838</v>
+        <v>55889.26817319323</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.789212804725602e-05</v>
+        <v>1.789252270938915e-05</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.004315445129172576</v>
+        <v>0.004315467363375299</v>
       </c>
       <c r="FP3" t="n">
-        <v>1.510693775057874e-05</v>
+        <v>1.510687330724698e-05</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.02114967868724842</v>
+        <v>0.02114958132905691</v>
       </c>
       <c r="FR3" t="n">
-        <v>55931.59610251389</v>
+        <v>55930.36239808379</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.8388647151893175</v>
+        <v>0.8388505531619856</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.8388647151893175</v>
+        <v>0.8388505531619856</v>
       </c>
       <c r="FU3" t="n">
-        <v>291852.8370075198</v>
+        <v>291851.9784220101</v>
       </c>
       <c r="FV3" t="n">
-        <v>358528.1841639336</v>
+        <v>358526.9805272818</v>
       </c>
       <c r="FW3" t="n">
-        <v>3801.263841031999</v>
+        <v>3801.26498992574</v>
       </c>
       <c r="FX3" t="n">
-        <v>715.9598802279337</v>
+        <v>715.9598606106475</v>
       </c>
       <c r="FY3" t="n">
-        <v>1004.380331903414</v>
+        <v>1004.380299071973</v>
       </c>
       <c r="FZ3" t="n">
-        <v>305.7227757638076</v>
+        <v>305.7219838826995</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.9992640790443331</v>
+        <v>0.9992640790985644</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.510693775057874e-05</v>
+        <v>1.510687330724698e-05</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.02114967868724842</v>
+        <v>0.02114958132905691</v>
       </c>
       <c r="GD3" t="inlineStr">
         <is>
@@ -8968,97 +8968,97 @@
         <v>1</v>
       </c>
       <c r="GF3" t="n">
-        <v>243.367854671307</v>
+        <v>243.3416299218891</v>
       </c>
       <c r="GG3" t="n">
-        <v>65651.70332798778</v>
+        <v>65626.7466719623</v>
       </c>
       <c r="GH3" t="n">
-        <v>0.9404446716960588</v>
+        <v>0.9401885600363705</v>
       </c>
       <c r="GI3" t="n">
-        <v>299651.7860952182</v>
+        <v>299633.0529498983</v>
       </c>
       <c r="GJ3" t="n">
-        <v>369461.0000807547</v>
+        <v>369434.7389749053</v>
       </c>
       <c r="GK3" t="n">
-        <v>3801.263841050578</v>
+        <v>3801.264989944317</v>
       </c>
       <c r="GL3" t="n">
-        <v>-555644.4259553364</v>
+        <v>-555571.2794431583</v>
       </c>
       <c r="GM3" t="n">
-        <v>716.1501976958453</v>
+        <v>716.149683731669</v>
       </c>
       <c r="GN3" t="n">
-        <v>1004.64130297435</v>
+        <v>1004.640612356212</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.402836033846951</v>
+        <v>1.402836076281277</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.9992940563464061</v>
+        <v>0.9992939778463826</v>
       </c>
       <c r="GQ3" t="n">
-        <v>312.8288747436717</v>
+        <v>312.8119994179341</v>
       </c>
       <c r="GR3" t="n">
-        <v>92033.70700020793</v>
+        <v>91998.71701460032</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.086558427987412e-05</v>
+        <v>1.086971680095602e-05</v>
       </c>
       <c r="GT3" t="n">
-        <v>65605.46263402354</v>
+        <v>65580.51833003615</v>
       </c>
       <c r="GU3" t="n">
-        <v>1.524263315660839e-05</v>
+        <v>1.524843086734183e-05</v>
       </c>
       <c r="GV3" t="n">
-        <v>0.004122220614827953</v>
+        <v>0.004122663927481748</v>
       </c>
       <c r="GW3" t="n">
-        <v>1.568640705412514e-05</v>
+        <v>1.568502721407521e-05</v>
       </c>
       <c r="GX3" t="n">
-        <v>0.02202641086172466</v>
+        <v>0.02202431925012338</v>
       </c>
       <c r="GY3" t="n">
-        <v>65651.70332798778</v>
+        <v>65626.7466719623</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9404446716960588</v>
+        <v>0.9401885600363705</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9404446716960588</v>
+        <v>0.9401885600363705</v>
       </c>
       <c r="HB3" t="n">
-        <v>299651.7860952182</v>
+        <v>299633.0529498983</v>
       </c>
       <c r="HC3" t="n">
-        <v>369461.0000807547</v>
+        <v>369434.7389749053</v>
       </c>
       <c r="HD3" t="n">
-        <v>3801.263841050578</v>
+        <v>3801.264989944317</v>
       </c>
       <c r="HE3" t="n">
-        <v>716.1501976958453</v>
+        <v>716.149683731669</v>
       </c>
       <c r="HF3" t="n">
-        <v>1004.64130297435</v>
+        <v>1004.640612356212</v>
       </c>
       <c r="HG3" t="n">
-        <v>312.8288747436717</v>
+        <v>312.8119994179341</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.9992940563464061</v>
+        <v>0.9992939778463826</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.568640705412514e-05</v>
+        <v>1.568502721407521e-05</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.02202641086172466</v>
+        <v>0.02202431925012338</v>
       </c>
       <c r="HK3" t="inlineStr">
         <is>
@@ -9069,97 +9069,97 @@
         <v>1</v>
       </c>
       <c r="HM3" t="n">
-        <v>268.602888148088</v>
+        <v>268.6028226783388</v>
       </c>
       <c r="HN3" t="n">
-        <v>92654.46754369838</v>
+        <v>92654.01884830213</v>
       </c>
       <c r="HO3" t="n">
-        <v>1.202438301341143</v>
+        <v>1.202432768890235</v>
       </c>
       <c r="HP3" t="n">
-        <v>317683.4104718781</v>
+        <v>317683.3645366083</v>
       </c>
       <c r="HQ3" t="n">
-        <v>394738.8963461687</v>
+        <v>394738.8317905618</v>
       </c>
       <c r="HR3" t="n">
-        <v>3801.263841034998</v>
+        <v>3801.264989942598</v>
       </c>
       <c r="HS3" t="n">
-        <v>-626291.5499687264</v>
+        <v>-626291.6742563671</v>
       </c>
       <c r="HT3" t="n">
-        <v>716.7868863790856</v>
+        <v>716.7868831322744</v>
       </c>
       <c r="HU3" t="n">
-        <v>1005.444725569467</v>
+        <v>1005.444715454185</v>
       </c>
       <c r="HV3" t="n">
-        <v>1.402710826154428</v>
+        <v>1.402710818396271</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.9993938096917362</v>
+        <v>0.9993938117838312</v>
       </c>
       <c r="HX3" t="n">
-        <v>328.6660257335821</v>
+        <v>328.6659854534352</v>
       </c>
       <c r="HY3" t="n">
-        <v>129889.0163841657</v>
+        <v>129888.3869239845</v>
       </c>
       <c r="HZ3" t="n">
-        <v>7.698880381404645e-06</v>
+        <v>7.698917691427155e-06</v>
       </c>
       <c r="IA3" t="n">
-        <v>92598.56982800955</v>
+        <v>92598.12159464686</v>
       </c>
       <c r="IB3" t="n">
-        <v>1.079930286026422e-05</v>
+        <v>1.079935513570731e-05</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.003735645016519338</v>
+        <v>0.003735645874838856</v>
       </c>
       <c r="ID3" t="n">
-        <v>1.698853714509539e-05</v>
+        <v>1.698853377476824e-05</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02400848363048446</v>
+        <v>0.02400847843350777</v>
       </c>
       <c r="IF3" t="n">
-        <v>92654.46754369838</v>
+        <v>92654.01884830213</v>
       </c>
       <c r="IG3" t="n">
-        <v>1.202438301341143</v>
+        <v>1.202432768890235</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.202438301341143</v>
+        <v>1.202432768890235</v>
       </c>
       <c r="II3" t="n">
-        <v>317683.4104718781</v>
+        <v>317683.3645366083</v>
       </c>
       <c r="IJ3" t="n">
-        <v>394738.8963461687</v>
+        <v>394738.8317905618</v>
       </c>
       <c r="IK3" t="n">
-        <v>3801.263841034998</v>
+        <v>3801.264989942598</v>
       </c>
       <c r="IL3" t="n">
-        <v>716.7868863790856</v>
+        <v>716.7868831322744</v>
       </c>
       <c r="IM3" t="n">
-        <v>1005.444725569467</v>
+        <v>1005.444715454185</v>
       </c>
       <c r="IN3" t="n">
-        <v>328.6660257335821</v>
+        <v>328.6659854534352</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.9993938096917362</v>
+        <v>0.9993938117838312</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.698853714509539e-05</v>
+        <v>1.698853377476824e-05</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.02400848363048446</v>
+        <v>0.02400847843350777</v>
       </c>
       <c r="IR3" t="inlineStr">
         <is>
@@ -9170,64 +9170,64 @@
         <v>1</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.02448171759575244</v>
+        <v>0.02448128052809432</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.002201228147166097</v>
+        <v>0.002201763969726554</v>
       </c>
       <c r="IV3" t="n">
-        <v>0.01189238600740223</v>
+        <v>0.01189781238269827</v>
       </c>
       <c r="IW3" t="n">
-        <v>0.03201339421411649</v>
+        <v>0.03198236065846898</v>
       </c>
       <c r="IX3" t="n">
-        <v>0.04270336871822823</v>
+        <v>0.04273633085222845</v>
       </c>
       <c r="IY3" t="n">
-        <v>0.1132920946826655</v>
+        <v>0.1132995483912166</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-2.791930159284917e-10</v>
+        <v>2.024219958318696e-10</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.4836745336857866</v>
+        <v>0.4831211881412308</v>
       </c>
       <c r="JB3" t="n">
-        <v>0.8802493986154897</v>
+        <v>0.8802655235753774</v>
       </c>
       <c r="JC3" t="n">
-        <v>389424.6426241613</v>
+        <v>389425.8543463267</v>
       </c>
       <c r="JD3" t="n">
-        <v>2.742713110382718</v>
+        <v>2.742709944597027</v>
       </c>
       <c r="JE3" t="n">
-        <v>381076.3223811489</v>
+        <v>381076.2578255356</v>
       </c>
       <c r="JF3" t="n">
         <v>0</v>
       </c>
       <c r="JG3" t="n">
-        <v>2819.797503710724</v>
+        <v>2819.800087710493</v>
       </c>
       <c r="JH3" t="n">
-        <v>6.466737176125761</v>
+        <v>6.466874293473701</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.008972027837873285</v>
+        <v>0.008972033267808542</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.000790255615956616</v>
+        <v>0.0007902853760708522</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.01168969907052963</v>
+        <v>0.01168970213082174</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.01556543053878922</v>
+        <v>0.01556544216669762</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.004336163217792351</v>
+        <v>0.004336154887473842</v>
       </c>
     </row>
   </sheetData>
@@ -9266,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4091107084236777</v>
+        <v>0.4091092861012783</v>
       </c>
     </row>
     <row r="3">
@@ -9274,7 +9274,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4294038855605479</v>
+        <v>0.4294021614300496</v>
       </c>
     </row>
   </sheetData>
@@ -10377,10 +10377,10 @@
         <v>11</v>
       </c>
       <c r="G2" t="n">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="H2" t="n">
-        <v>9.759463831215166e-11</v>
+        <v>8.511715613121737e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10408,10 +10408,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>3.892197306110837e-10</v>
+        <v>2.444091432201107e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_linux/performance_analysis_evaluate_cascade_throat_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_evaluate_cascade_throat_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015416512426348</v>
+        <v>2.015307483583644</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999965062</v>
+        <v>2.299999999965073</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740321957267588</v>
+        <v>2.736586426036648</v>
       </c>
       <c r="E2" t="n">
-        <v>92.55823378131261</v>
+        <v>92.5666877337636</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08695058927604</v>
+        <v>79.08882413967603</v>
       </c>
       <c r="G2" t="n">
-        <v>0.145543866187693</v>
+        <v>0.1456016621535821</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23249445546374</v>
+        <v>-78.23442580182962</v>
       </c>
       <c r="I2" t="n">
-        <v>136186.9850344538</v>
+        <v>136004.5605348734</v>
       </c>
       <c r="J2" t="n">
-        <v>83.70435466161879</v>
+        <v>83.59223142893265</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.35240832461349</v>
+        <v>-24.55185721696588</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2466584038218</v>
+        <v>135.2735091932223</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372086.991459909</v>
+        <v>372085.8141397923</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7160032071364847</v>
+        <v>0.715515022808459</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069502772289467</v>
+        <v>2.069586255048927</v>
       </c>
       <c r="C3" t="n">
-        <v>2.399999999928339</v>
+        <v>2.399999999885468</v>
       </c>
       <c r="D3" t="n">
-        <v>2.742709943929992</v>
+        <v>2.739474097991548</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53027716176673</v>
+        <v>92.53503956748304</v>
       </c>
       <c r="F3" t="n">
-        <v>78.2038821552769</v>
+        <v>78.21203942143433</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548292671969802</v>
+        <v>0.1547846114617304</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35871142247387</v>
+        <v>-77.36682403289606</v>
       </c>
       <c r="I3" t="n">
-        <v>140844.1891628937</v>
+        <v>140692.6951547797</v>
       </c>
       <c r="J3" t="n">
-        <v>86.56680341911105</v>
+        <v>86.47369093717255</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.84397151435741</v>
+        <v>-26.96215513519312</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5958535313113</v>
+        <v>142.5752883564967</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370432.2312416455</v>
+        <v>370426.8748123944</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7036722337961404</v>
+        <v>0.7032570154581034</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -837,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:RI3"/>
+  <dimension ref="A1:RL3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1458,1777 +1458,1792 @@
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
+          <t>h_is_1</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
           <t>blade_speed_2</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>v_2</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>v_m_2</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>v_t_2</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>alpha_2</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>w_2</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>w_m_2</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>w_t_2</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>beta_2</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>T_2</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>p_2</t>
         </is>
       </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>rhomass_2</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>umass_2</t>
         </is>
       </c>
-      <c r="EF1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>hmass_2</t>
         </is>
       </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>smass_2</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass_2</t>
         </is>
       </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>cvmass_2</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>cpmass_2</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>gamma_2</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor_2</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>speed_sound_2</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus_2</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility_2</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus_2</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility_2</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient_2</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>viscosity_2</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>conductivity_2</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>P_2</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>rho_2</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>d_2</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>u_2</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>h_2</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>s_2</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>cv_2</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>cp_2</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>a_2</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>Z_2</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>mu_2</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>k_2</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>fluid_name_2</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>converged_2</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>T0_2</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>p0_2</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_2</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>umass0_2</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>hmass0_2</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>smass0_2</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_2</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_2</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_2</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>gamma0_2</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_2</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_2</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_2</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_2</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_2</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_2</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_2</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_2</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_2</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>P0_2</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>rho0_2</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>d0_2</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>u0_2</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>h0_2</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>s0_2</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>cv0_2</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>cp0_2</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>a0_2</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>Z0_2</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>mu0_2</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>k0_2</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_2</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>converged0_2</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>T0_rel_2</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>p0_rel_2</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_rel_2</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>umass0_rel_2</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>hmass0_rel_2</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>smass0_rel_2</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_rel_2</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_rel_2</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_rel_2</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>gamma0_rel_2</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_rel_2</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_rel_2</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_rel_2</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_rel_2</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_rel_2</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_rel_2</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_rel_2</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_rel_2</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_rel_2</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>P0_rel_2</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>rho0_rel_2</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>d0_rel_2</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>u0_rel_2</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>h0_rel_2</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>s0_rel_2</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>cv0_rel_2</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>cp0_rel_2</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>a0_rel_2</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>Z0_rel_2</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>mu0_rel_2</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>k0_rel_2</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_rel_2</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>converged0_rel_2</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>Ma_2</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>Ma_rel_2</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>Re_2</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>mass_flow_2</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>rothalpy_2</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>loss_profile_2</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>loss_incidence_2</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>loss_trailing_2</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>loss_secondary_2</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>loss_clearance_2</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>loss_total_2</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>loss_error_2</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>blockage_2</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>h_is_2</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>blade_speed_3</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>v_3</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>v_m_3</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>v_t_3</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>alpha_3</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>w_3</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>w_m_3</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>w_t_3</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>beta_3</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>T_3</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>p_3</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>rhomass_3</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>umass_3</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>hmass_3</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>smass_3</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass_3</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>cvmass_3</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>cpmass_3</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>gamma_3</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor_3</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>speed_sound_3</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus_3</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility_3</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus_3</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility_3</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient_3</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>viscosity_3</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>conductivity_3</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>P_3</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>rho_3</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>d_3</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>u_3</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>h_3</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>s_3</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>cv_3</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>cp_3</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>a_3</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>Z_3</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>mu_3</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>k_3</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>fluid_name_3</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>converged_3</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>T0_3</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>p0_3</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_3</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>umass0_3</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>hmass0_3</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>smass0_3</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_3</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_3</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_3</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>gamma0_3</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_3</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_3</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_3</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_3</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_3</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_3</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_3</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_3</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_3</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>P0_3</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>rho0_3</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>d0_3</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>u0_3</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>h0_3</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>s0_3</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>cv0_3</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>cp0_3</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>a0_3</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>Z0_3</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>mu0_3</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>k0_3</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_3</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>converged0_3</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>T0_rel_3</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>p0_rel_3</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_rel_3</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>umass0_rel_3</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>hmass0_rel_3</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>smass0_rel_3</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_rel_3</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_rel_3</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_rel_3</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>gamma0_rel_3</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_rel_3</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_rel_3</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_rel_3</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_rel_3</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_rel_3</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_rel_3</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_rel_3</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_rel_3</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_rel_3</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>P0_rel_3</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>rho0_rel_3</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>d0_rel_3</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>u0_rel_3</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>h0_rel_3</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>s0_rel_3</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>cv0_rel_3</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>cp0_rel_3</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>a0_rel_3</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>Z0_rel_3</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>mu0_rel_3</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>k0_rel_3</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_rel_3</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>converged0_rel_3</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>Ma_3</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>Ma_rel_3</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>Re_3</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>mass_flow_3</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>rothalpy_3</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>blade_speed_4</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>v_4</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>v_m_4</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>v_t_4</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>alpha_4</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>w_4</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>w_m_4</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>w_t_4</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>beta_4</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>T_4</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>p_4</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>rhomass_4</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>umass_4</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>hmass_4</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>smass_4</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass_4</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>cvmass_4</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>cpmass_4</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>gamma_4</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor_4</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>speed_sound_4</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus_4</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility_4</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus_4</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility_4</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient_4</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>viscosity_4</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>conductivity_4</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>P_4</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>rho_4</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>d_4</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>u_4</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>h_4</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>s_4</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>cv_4</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OD1" s="1" t="inlineStr">
         <is>
           <t>cp_4</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>a_4</t>
         </is>
       </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
         <is>
           <t>Z_4</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>mu_4</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
         <is>
           <t>k_4</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>fluid_name_4</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>converged_4</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
         <is>
           <t>T0_4</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>p0_4</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_4</t>
         </is>
       </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
         <is>
           <t>umass0_4</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
+      <c r="OO1" s="1" t="inlineStr">
         <is>
           <t>hmass0_4</t>
         </is>
       </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>smass0_4</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
+      <c r="OQ1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_4</t>
         </is>
       </c>
-      <c r="OP1" s="1" t="inlineStr">
+      <c r="OR1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_4</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_4</t>
         </is>
       </c>
-      <c r="OR1" s="1" t="inlineStr">
+      <c r="OT1" s="1" t="inlineStr">
         <is>
           <t>gamma0_4</t>
         </is>
       </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="OU1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_4</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
+      <c r="OV1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_4</t>
         </is>
       </c>
-      <c r="OU1" s="1" t="inlineStr">
+      <c r="OW1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_4</t>
         </is>
       </c>
-      <c r="OV1" s="1" t="inlineStr">
+      <c r="OX1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_4</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_4</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
+      <c r="OZ1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_4</t>
         </is>
       </c>
-      <c r="OY1" s="1" t="inlineStr">
+      <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_4</t>
         </is>
       </c>
-      <c r="OZ1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_4</t>
         </is>
       </c>
-      <c r="PA1" s="1" t="inlineStr">
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_4</t>
         </is>
       </c>
-      <c r="PB1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>P0_4</t>
         </is>
       </c>
-      <c r="PC1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>rho0_4</t>
         </is>
       </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>d0_4</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
+      <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>u0_4</t>
         </is>
       </c>
-      <c r="PF1" s="1" t="inlineStr">
+      <c r="PH1" s="1" t="inlineStr">
         <is>
           <t>h0_4</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="PI1" s="1" t="inlineStr">
         <is>
           <t>s0_4</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
+      <c r="PJ1" s="1" t="inlineStr">
         <is>
           <t>cv0_4</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
+      <c r="PK1" s="1" t="inlineStr">
         <is>
           <t>cp0_4</t>
         </is>
       </c>
-      <c r="PJ1" s="1" t="inlineStr">
+      <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>a0_4</t>
         </is>
       </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>Z0_4</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
         <is>
           <t>mu0_4</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="PO1" s="1" t="inlineStr">
         <is>
           <t>k0_4</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
+      <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_4</t>
         </is>
       </c>
-      <c r="PO1" s="1" t="inlineStr">
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>converged0_4</t>
         </is>
       </c>
-      <c r="PP1" s="1" t="inlineStr">
+      <c r="PR1" s="1" t="inlineStr">
         <is>
           <t>T0_rel_4</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
+      <c r="PS1" s="1" t="inlineStr">
         <is>
           <t>p0_rel_4</t>
         </is>
       </c>
-      <c r="PR1" s="1" t="inlineStr">
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>rhomass0_rel_4</t>
         </is>
       </c>
-      <c r="PS1" s="1" t="inlineStr">
+      <c r="PU1" s="1" t="inlineStr">
         <is>
           <t>umass0_rel_4</t>
         </is>
       </c>
-      <c r="PT1" s="1" t="inlineStr">
+      <c r="PV1" s="1" t="inlineStr">
         <is>
           <t>hmass0_rel_4</t>
         </is>
       </c>
-      <c r="PU1" s="1" t="inlineStr">
+      <c r="PW1" s="1" t="inlineStr">
         <is>
           <t>smass0_rel_4</t>
         </is>
       </c>
-      <c r="PV1" s="1" t="inlineStr">
+      <c r="PX1" s="1" t="inlineStr">
         <is>
           <t>gibbsmass0_rel_4</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
+      <c r="PY1" s="1" t="inlineStr">
         <is>
           <t>cvmass0_rel_4</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
+      <c r="PZ1" s="1" t="inlineStr">
         <is>
           <t>cpmass0_rel_4</t>
         </is>
       </c>
-      <c r="PY1" s="1" t="inlineStr">
+      <c r="QA1" s="1" t="inlineStr">
         <is>
           <t>gamma0_rel_4</t>
         </is>
       </c>
-      <c r="PZ1" s="1" t="inlineStr">
+      <c r="QB1" s="1" t="inlineStr">
         <is>
           <t>compressibility_factor0_rel_4</t>
         </is>
       </c>
-      <c r="QA1" s="1" t="inlineStr">
+      <c r="QC1" s="1" t="inlineStr">
         <is>
           <t>speed_sound0_rel_4</t>
         </is>
       </c>
-      <c r="QB1" s="1" t="inlineStr">
+      <c r="QD1" s="1" t="inlineStr">
         <is>
           <t>isentropic_bulk_modulus0_rel_4</t>
         </is>
       </c>
-      <c r="QC1" s="1" t="inlineStr">
+      <c r="QE1" s="1" t="inlineStr">
         <is>
           <t>isentropic_compressibility0_rel_4</t>
         </is>
       </c>
-      <c r="QD1" s="1" t="inlineStr">
+      <c r="QF1" s="1" t="inlineStr">
         <is>
           <t>isothermal_bulk_modulus0_rel_4</t>
         </is>
       </c>
-      <c r="QE1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
         <is>
           <t>isothermal_compressibility0_rel_4</t>
         </is>
       </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QH1" s="1" t="inlineStr">
         <is>
           <t>isobaric_expansion_coefficient0_rel_4</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
+      <c r="QI1" s="1" t="inlineStr">
         <is>
           <t>viscosity0_rel_4</t>
         </is>
       </c>
-      <c r="QH1" s="1" t="inlineStr">
+      <c r="QJ1" s="1" t="inlineStr">
         <is>
           <t>conductivity0_rel_4</t>
         </is>
       </c>
-      <c r="QI1" s="1" t="inlineStr">
+      <c r="QK1" s="1" t="inlineStr">
         <is>
           <t>P0_rel_4</t>
         </is>
       </c>
-      <c r="QJ1" s="1" t="inlineStr">
+      <c r="QL1" s="1" t="inlineStr">
         <is>
           <t>rho0_rel_4</t>
         </is>
       </c>
-      <c r="QK1" s="1" t="inlineStr">
+      <c r="QM1" s="1" t="inlineStr">
         <is>
           <t>d0_rel_4</t>
         </is>
       </c>
-      <c r="QL1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
         <is>
           <t>u0_rel_4</t>
         </is>
       </c>
-      <c r="QM1" s="1" t="inlineStr">
+      <c r="QO1" s="1" t="inlineStr">
         <is>
           <t>h0_rel_4</t>
         </is>
       </c>
-      <c r="QN1" s="1" t="inlineStr">
+      <c r="QP1" s="1" t="inlineStr">
         <is>
           <t>s0_rel_4</t>
         </is>
       </c>
-      <c r="QO1" s="1" t="inlineStr">
+      <c r="QQ1" s="1" t="inlineStr">
         <is>
           <t>cv0_rel_4</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
+      <c r="QR1" s="1" t="inlineStr">
         <is>
           <t>cp0_rel_4</t>
         </is>
       </c>
-      <c r="QQ1" s="1" t="inlineStr">
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>a0_rel_4</t>
         </is>
       </c>
-      <c r="QR1" s="1" t="inlineStr">
+      <c r="QT1" s="1" t="inlineStr">
         <is>
           <t>Z0_rel_4</t>
         </is>
       </c>
-      <c r="QS1" s="1" t="inlineStr">
+      <c r="QU1" s="1" t="inlineStr">
         <is>
           <t>mu0_rel_4</t>
         </is>
       </c>
-      <c r="QT1" s="1" t="inlineStr">
+      <c r="QV1" s="1" t="inlineStr">
         <is>
           <t>k0_rel_4</t>
         </is>
       </c>
-      <c r="QU1" s="1" t="inlineStr">
+      <c r="QW1" s="1" t="inlineStr">
         <is>
           <t>fluid_name0_rel_4</t>
         </is>
       </c>
-      <c r="QV1" s="1" t="inlineStr">
+      <c r="QX1" s="1" t="inlineStr">
         <is>
           <t>converged0_rel_4</t>
         </is>
       </c>
-      <c r="QW1" s="1" t="inlineStr">
+      <c r="QY1" s="1" t="inlineStr">
         <is>
           <t>Ma_4</t>
         </is>
       </c>
-      <c r="QX1" s="1" t="inlineStr">
+      <c r="QZ1" s="1" t="inlineStr">
         <is>
           <t>Ma_rel_4</t>
         </is>
       </c>
-      <c r="QY1" s="1" t="inlineStr">
+      <c r="RA1" s="1" t="inlineStr">
         <is>
           <t>Re_4</t>
         </is>
       </c>
-      <c r="QZ1" s="1" t="inlineStr">
+      <c r="RB1" s="1" t="inlineStr">
         <is>
           <t>mass_flow_4</t>
         </is>
       </c>
-      <c r="RA1" s="1" t="inlineStr">
+      <c r="RC1" s="1" t="inlineStr">
         <is>
           <t>rothalpy_4</t>
         </is>
       </c>
-      <c r="RB1" s="1" t="inlineStr">
+      <c r="RD1" s="1" t="inlineStr">
         <is>
           <t>loss_profile_4</t>
         </is>
       </c>
-      <c r="RC1" s="1" t="inlineStr">
+      <c r="RE1" s="1" t="inlineStr">
         <is>
           <t>loss_incidence_4</t>
         </is>
       </c>
-      <c r="RD1" s="1" t="inlineStr">
+      <c r="RF1" s="1" t="inlineStr">
         <is>
           <t>loss_trailing_4</t>
         </is>
       </c>
-      <c r="RE1" s="1" t="inlineStr">
+      <c r="RG1" s="1" t="inlineStr">
         <is>
           <t>loss_secondary_4</t>
         </is>
       </c>
-      <c r="RF1" s="1" t="inlineStr">
+      <c r="RH1" s="1" t="inlineStr">
         <is>
           <t>loss_clearance_4</t>
         </is>
       </c>
-      <c r="RG1" s="1" t="inlineStr">
+      <c r="RI1" s="1" t="inlineStr">
         <is>
           <t>loss_total_4</t>
         </is>
       </c>
-      <c r="RH1" s="1" t="inlineStr">
+      <c r="RJ1" s="1" t="inlineStr">
         <is>
           <t>loss_error_4</t>
         </is>
       </c>
-      <c r="RI1" s="1" t="inlineStr">
+      <c r="RK1" s="1" t="inlineStr">
         <is>
           <t>blockage_4</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>h_is_4</t>
         </is>
       </c>
     </row>
@@ -3240,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.6334289201767</v>
+        <v>80.51709292740061</v>
       </c>
       <c r="D2" t="n">
-        <v>80.6334289201767</v>
+        <v>80.51709292740061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.6334289201767</v>
+        <v>80.51709292740061</v>
       </c>
       <c r="H2" t="n">
-        <v>80.6334289201767</v>
+        <v>80.51709292740061</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3586344158987</v>
+        <v>292.3679815150766</v>
       </c>
       <c r="L2" t="n">
-        <v>132782.2752203304</v>
+        <v>132797.1147162801</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583018602711654</v>
+        <v>1.583144799188845</v>
       </c>
       <c r="N2" t="n">
-        <v>334654.3932779868</v>
+        <v>334661.0798718762</v>
       </c>
       <c r="O2" t="n">
-        <v>418533.5561588772</v>
+        <v>418542.9299618498</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687434.9937282406</v>
+        <v>-687460.9792288989</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7131885957183</v>
+        <v>717.7136117172973</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.647986841943</v>
+        <v>1006.648477798435</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576966450284</v>
+        <v>1.402576823629962</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980077565965</v>
+        <v>0.9994980730455668</v>
       </c>
       <c r="V2" t="n">
-        <v>342.911843079493</v>
+        <v>342.9173297983218</v>
       </c>
       <c r="W2" t="n">
-        <v>186144.8338181257</v>
+        <v>186165.6303742668</v>
       </c>
       <c r="X2" t="n">
-        <v>5.372160910880063e-06</v>
+        <v>5.371560786970201e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132716.305964464</v>
+        <v>132731.1468704136</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534869153664953e-06</v>
+        <v>7.534026666523925e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433387560495032</v>
+        <v>0.003433277971285641</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817171219650031e-05</v>
+        <v>1.817216953917716e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582477179422517</v>
+        <v>0.02582547624589658</v>
       </c>
       <c r="AD2" t="n">
-        <v>132782.2752203304</v>
+        <v>132797.1147162801</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583018602711654</v>
+        <v>1.583144799188845</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583018602711654</v>
+        <v>1.583144799188845</v>
       </c>
       <c r="AG2" t="n">
-        <v>334654.3932779868</v>
+        <v>334661.0798718762</v>
       </c>
       <c r="AH2" t="n">
-        <v>418533.5561588772</v>
+        <v>418542.9299618498</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7131885957183</v>
+        <v>717.7136117172973</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.647986841943</v>
+        <v>1006.648477798435</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.911843079493</v>
+        <v>342.9173297983218</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980077565965</v>
+        <v>0.9994980730455668</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817171219650031e-05</v>
+        <v>1.817216953917716e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582477179422517</v>
+        <v>0.02582547624589658</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2351433190409946</v>
+        <v>0.2348003029615176</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2351433190409946</v>
+        <v>0.2348003029615176</v>
       </c>
       <c r="DH2" t="n">
-        <v>183756.638134948</v>
+        <v>183501.5278322404</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.740321957198859</v>
+        <v>2.736586426105492</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3621,1088 +3636,1099 @@
           <t>b''</t>
         </is>
       </c>
-      <c r="DS2" t="n">
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="DT2" t="n">
         <v>0</v>
       </c>
-      <c r="DT2" t="n">
-        <v>268.7002207293617</v>
-      </c>
       <c r="DU2" t="n">
-        <v>110.6155878002506</v>
+        <v>268.1804739465202</v>
       </c>
       <c r="DV2" t="n">
-        <v>244.8754792861317</v>
+        <v>110.3106907214479</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.69026945493229</v>
+        <v>244.4428729145877</v>
       </c>
       <c r="DX2" t="n">
-        <v>268.7002207293617</v>
+        <v>65.7115854202911</v>
       </c>
       <c r="DY2" t="n">
-        <v>110.6155878002506</v>
+        <v>268.1804739465202</v>
       </c>
       <c r="DZ2" t="n">
-        <v>244.8754792861317</v>
+        <v>110.3106907214479</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.69026945493229</v>
+        <v>244.4428729145877</v>
       </c>
       <c r="EB2" t="n">
-        <v>259.5768488196855</v>
+        <v>65.7115854202911</v>
       </c>
       <c r="EC2" t="n">
-        <v>85923.7827555449</v>
+        <v>259.7161473026008</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.153944218165486</v>
+        <v>86090.0456385525</v>
       </c>
       <c r="EE2" t="n">
-        <v>311223.5767578499</v>
+        <v>1.155556329883789</v>
       </c>
       <c r="EF2" t="n">
-        <v>385684.5267785923</v>
+        <v>311323.096674402</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.609711983227</v>
+        <v>385824.0477852926</v>
       </c>
       <c r="EH2" t="n">
-        <v>-597750.8436656698</v>
+        <v>3788.592532138361</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5374565234121</v>
+        <v>-598134.6083610876</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.204881931603</v>
+        <v>716.5412203933764</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402864390102905</v>
+        <v>1005.209708029661</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993241593966095</v>
+        <v>1.402863756362554</v>
       </c>
       <c r="EM2" t="n">
-        <v>323.0917670977618</v>
+        <v>0.9993247308970161</v>
       </c>
       <c r="EN2" t="n">
-        <v>120458.2636508568</v>
+        <v>323.1785601210177</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.301630537349081e-06</v>
+        <v>120691.3664195337</v>
       </c>
       <c r="EP2" t="n">
-        <v>85865.93579584753</v>
+        <v>8.285596805026743e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.164606186063787e-05</v>
+        <v>86032.13667196798</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003865875517497085</v>
+        <v>1.162356345760539e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.65291122593747e-05</v>
+        <v>0.003863806942179345</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02330775168493654</v>
+        <v>1.653626066194027e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>85923.7827555449</v>
+        <v>0.02331864745541424</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.153944218165486</v>
+        <v>86090.0456385525</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.153944218165486</v>
+        <v>1.155556329883789</v>
       </c>
       <c r="EX2" t="n">
-        <v>311223.5767578499</v>
+        <v>1.155556329883789</v>
       </c>
       <c r="EY2" t="n">
-        <v>385684.5267785923</v>
+        <v>311323.096674402</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.609711983227</v>
+        <v>385824.0477852926</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5374565234121</v>
+        <v>3788.592532138361</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.204881931603</v>
+        <v>716.5412203933764</v>
       </c>
       <c r="FC2" t="n">
-        <v>323.0917670977618</v>
+        <v>1005.209708029661</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993241593966095</v>
+        <v>323.1785601210177</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.65291122593747e-05</v>
+        <v>0.9993247308970161</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02330775168493654</v>
-      </c>
-      <c r="FG2" t="inlineStr">
+        <v>1.653626066194027e-05</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.02331864745541424</v>
+      </c>
+      <c r="FH2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="FH2" t="b">
+      <c r="FI2" t="b">
         <v>1</v>
       </c>
-      <c r="FI2" t="n">
-        <v>295.5937145257022</v>
-      </c>
       <c r="FJ2" t="n">
-        <v>135289.0563422034</v>
+        <v>295.5937333099117</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.595200521148837</v>
+        <v>135297.1574118858</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.3683103441</v>
+        <v>1.595295983929516</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310883893</v>
+        <v>336974.3652606903</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.609711981206</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698104.7865642863</v>
+        <v>3788.592532150771</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8561752310914</v>
+        <v>-698099.7794800088</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.777073317968</v>
+        <v>717.856196331968</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402477415470958</v>
+        <v>1006.777206328807</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995302899335894</v>
+        <v>1.402477559535099</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8027749637994</v>
+        <v>0.9995302623589698</v>
       </c>
       <c r="FU2" t="n">
-        <v>189651.7207778292</v>
+        <v>344.8027942245174</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.272823235658733e-06</v>
+        <v>189663.0914371313</v>
       </c>
       <c r="FW2" t="n">
-        <v>135226.2208900836</v>
+        <v>5.272507119981622e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.395015503781873e-06</v>
+        <v>135234.3145511732</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395619871185987</v>
+        <v>7.394572918263259e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832925574863444e-05</v>
+        <v>0.003395620405641721</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606729614415851</v>
+        <v>1.83292578283518e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>135289.0563422034</v>
+        <v>0.02606730014230475</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.595200521148837</v>
+        <v>135297.1574118858</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595200521148837</v>
+        <v>1.595295983929516</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.3683103441</v>
+        <v>1.595295983929516</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310883893</v>
+        <v>336974.3652606903</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.609711981206</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8561752310914</v>
+        <v>3788.592532150771</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.777073317968</v>
+        <v>717.856196331968</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8027749637994</v>
+        <v>1006.777206328807</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995302899335894</v>
+        <v>344.8027942245174</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832925574863444e-05</v>
+        <v>0.9995302623589698</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606729614415851</v>
-      </c>
-      <c r="GN2" t="inlineStr">
+        <v>1.83292578283518e-05</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0.02606730014230475</v>
+      </c>
+      <c r="GO2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="GO2" t="b">
+      <c r="GP2" t="b">
         <v>1</v>
       </c>
-      <c r="GP2" t="n">
-        <v>295.5937145257022</v>
-      </c>
       <c r="GQ2" t="n">
-        <v>135289.0563422034</v>
+        <v>295.5937333099117</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595200521148837</v>
+        <v>135297.1574118858</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.3683103441</v>
+        <v>1.595295983929516</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310883893</v>
+        <v>336974.3652606903</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.609711981206</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698104.7865642863</v>
+        <v>3788.592532150771</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561752310914</v>
+        <v>-698099.7794800088</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.777073317968</v>
+        <v>717.856196331968</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402477415470958</v>
+        <v>1006.777206328807</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995302899335894</v>
+        <v>1.402477559535099</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8027749637994</v>
+        <v>0.9995302623589698</v>
       </c>
       <c r="HB2" t="n">
-        <v>189651.7207778292</v>
+        <v>344.8027942245174</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.272823235658733e-06</v>
+        <v>189663.0914371313</v>
       </c>
       <c r="HD2" t="n">
-        <v>135226.2208900836</v>
+        <v>5.272507119981622e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.395015503781873e-06</v>
+        <v>135234.3145511732</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395619871185987</v>
+        <v>7.394572918263259e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832925574863444e-05</v>
+        <v>0.003395620405641721</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606729614415851</v>
+        <v>1.83292578283518e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>135289.0563422034</v>
+        <v>0.02606730014230475</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.595200521148837</v>
+        <v>135297.1574118858</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595200521148837</v>
+        <v>1.595295983929516</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.3683103441</v>
+        <v>1.595295983929516</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310883893</v>
+        <v>336974.3652606903</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.609711981206</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8561752310914</v>
+        <v>3788.592532150771</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.777073317968</v>
+        <v>717.856196331968</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8027749637994</v>
+        <v>1006.777206328807</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995302899335894</v>
+        <v>344.8027942245174</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832925574863444e-05</v>
+        <v>0.9995302623589698</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606729614415851</v>
-      </c>
-      <c r="HU2" t="inlineStr">
+        <v>1.83292578283518e-05</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>0.02606730014230475</v>
+      </c>
+      <c r="HV2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="HV2" t="b">
+      <c r="HW2" t="b">
         <v>1</v>
       </c>
-      <c r="HW2" t="n">
-        <v>0.8316529484580081</v>
-      </c>
       <c r="HX2" t="n">
-        <v>0.8316529484580081</v>
+        <v>0.8298213651490282</v>
       </c>
       <c r="HY2" t="n">
-        <v>490728.2377111207</v>
+        <v>0.8298213651490282</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.740321957199037</v>
+        <v>490251.244736217</v>
       </c>
       <c r="IA2" t="n">
+        <v>2.736586426174254</v>
+      </c>
+      <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
-      <c r="IB2" t="n">
-        <v>0.0159337393772655</v>
-      </c>
       <c r="IC2" t="n">
-        <v>-1.788003961120334e-07</v>
+        <v>0.01595362529230444</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01379066172769694</v>
+        <v>-1.786050812204584e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02519178354026981</v>
+        <v>0.01379133206950267</v>
       </c>
       <c r="IF2" t="n">
+        <v>0.02518310637913935</v>
+      </c>
+      <c r="IG2" t="n">
         <v>0</v>
       </c>
-      <c r="IG2" t="n">
-        <v>0.05491600584483615</v>
-      </c>
       <c r="IH2" t="n">
-        <v>3.424788230788067e-12</v>
+        <v>0.05492788513586525</v>
       </c>
       <c r="II2" t="n">
+        <v>-1.011878081325079e-12</v>
+      </c>
+      <c r="IJ2" t="n">
         <v>0</v>
       </c>
-      <c r="IJ2" t="n">
+      <c r="IK2" t="n">
+        <v>384354.2637046606</v>
+      </c>
+      <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
-      <c r="IK2" t="n">
-        <v>268.7002207293617</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>110.6155878002506</v>
-      </c>
       <c r="IM2" t="n">
-        <v>244.8754792861317</v>
+        <v>268.1804739465202</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.69026945493229</v>
+        <v>110.3106907214479</v>
       </c>
       <c r="IO2" t="n">
-        <v>136.262819195792</v>
+        <v>244.4428729145877</v>
       </c>
       <c r="IP2" t="n">
-        <v>110.6155878002506</v>
+        <v>65.7115854202911</v>
       </c>
       <c r="IQ2" t="n">
-        <v>79.5722792861317</v>
+        <v>135.7627943012033</v>
       </c>
       <c r="IR2" t="n">
-        <v>35.72967878005746</v>
+        <v>110.3106907214479</v>
       </c>
       <c r="IS2" t="n">
-        <v>259.5768488193859</v>
+        <v>79.13967291458766</v>
       </c>
       <c r="IT2" t="n">
-        <v>85923.78275321273</v>
+        <v>35.65661149414871</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.15394421813548</v>
+        <v>259.7161473028007</v>
       </c>
       <c r="IV2" t="n">
-        <v>311223.5767576406</v>
+        <v>86090.04563869581</v>
       </c>
       <c r="IW2" t="n">
-        <v>385684.5267782981</v>
+        <v>1.155556329884821</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.609711989879</v>
+        <v>311323.0966745449</v>
       </c>
       <c r="IY2" t="n">
-        <v>-597750.8436665559</v>
+        <v>385824.047785493</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5374565233971</v>
+        <v>3788.592532138655</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.204881931549</v>
+        <v>-598134.6083617207</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402864390102859</v>
+        <v>716.5412203933818</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993241593966237</v>
+        <v>1005.209708029666</v>
       </c>
       <c r="JD2" t="n">
-        <v>323.0917670975746</v>
+        <v>1.402863756362551</v>
       </c>
       <c r="JE2" t="n">
-        <v>120458.263647585</v>
+        <v>0.9993247308970177</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.301630537574568e-06</v>
+        <v>323.1785601211422</v>
       </c>
       <c r="JG2" t="n">
-        <v>85865.93579351813</v>
+        <v>120691.3664197344</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.164606186095381e-05</v>
+        <v>8.285596805012959e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003865875517501227</v>
+        <v>86032.13667211132</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.652911225935902e-05</v>
+        <v>1.162356345758603e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02330775168491237</v>
+        <v>0.003863806942176363</v>
       </c>
       <c r="JL2" t="n">
-        <v>85923.78275321273</v>
+        <v>1.653626066195052e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.15394421813548</v>
+        <v>0.02331864745542985</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.15394421813548</v>
+        <v>86090.04563869581</v>
       </c>
       <c r="JO2" t="n">
-        <v>311223.5767576406</v>
+        <v>1.155556329884821</v>
       </c>
       <c r="JP2" t="n">
-        <v>385684.5267782981</v>
+        <v>1.155556329884821</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.609711989879</v>
+        <v>311323.0966745449</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5374565233971</v>
+        <v>385824.047785493</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.204881931549</v>
+        <v>3788.592532138655</v>
       </c>
       <c r="JT2" t="n">
-        <v>323.0917670975746</v>
+        <v>716.5412203933818</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993241593966237</v>
+        <v>1005.209708029666</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.652911225935902e-05</v>
+        <v>323.1785601211422</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02330775168491237</v>
-      </c>
-      <c r="JX2" t="inlineStr">
+        <v>0.9993247308970177</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>1.653626066195052e-05</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>0.02331864745542985</v>
+      </c>
+      <c r="JZ2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="JY2" t="b">
+      <c r="KA2" t="b">
         <v>1</v>
       </c>
-      <c r="JZ2" t="n">
-        <v>295.5937145256951</v>
-      </c>
-      <c r="KA2" t="n">
-        <v>135289.0563390668</v>
-      </c>
       <c r="KB2" t="n">
-        <v>1.595200521111875</v>
+        <v>295.5937333100192</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3683103453</v>
+        <v>135297.1574153073</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.4310883893</v>
+        <v>1.595295983969294</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.609711987858</v>
+        <v>336974.3652607605</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698104.7865662256</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8561752310832</v>
+        <v>3788.592532143855</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.777073317916</v>
+        <v>-698099.7794782716</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402477415470902</v>
+        <v>717.8561963319811</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995302899336</v>
+        <v>1006.777206328866</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.802774963792</v>
+        <v>1.402477559535155</v>
       </c>
       <c r="KL2" t="n">
-        <v>189651.7207734267</v>
+        <v>0.9995302623589594</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.272823235781135e-06</v>
+        <v>344.8027942245835</v>
       </c>
       <c r="KN2" t="n">
-        <v>135226.2208869498</v>
+        <v>189663.0914419333</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.395015503953245e-06</v>
+        <v>5.27250711984813e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395619871185778</v>
+        <v>135234.3145545917</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832925574863365e-05</v>
+        <v>7.394572918076337e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606729614415698</v>
+        <v>0.003395620405640789</v>
       </c>
       <c r="KS2" t="n">
-        <v>135289.0563390668</v>
+        <v>1.832925782835751e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595200521111875</v>
+        <v>0.02606730014231387</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.595200521111875</v>
+        <v>135297.1574153073</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3683103453</v>
+        <v>1.595295983969294</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.4310883893</v>
+        <v>1.595295983969294</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.609711987858</v>
+        <v>336974.3652607605</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8561752310832</v>
+        <v>421784.4310885895</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.777073317916</v>
+        <v>3788.592532143855</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.802774963792</v>
+        <v>717.8561963319811</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995302899336</v>
+        <v>1006.777206328866</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832925574863365e-05</v>
+        <v>344.8027942245835</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606729614415698</v>
-      </c>
-      <c r="LE2" t="inlineStr">
+        <v>0.9995302623589594</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>1.832925782835751e-05</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>0.02606730014231387</v>
+      </c>
+      <c r="LG2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="LF2" t="b">
+      <c r="LH2" t="b">
         <v>1</v>
       </c>
-      <c r="LG2" t="n">
-        <v>268.8436129123545</v>
-      </c>
-      <c r="LH2" t="n">
-        <v>97121.60601581279</v>
-      </c>
       <c r="LI2" t="n">
-        <v>1.259315350782785</v>
+        <v>268.9149995852774</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317845.7587683189</v>
+        <v>97217.5129319527</v>
       </c>
       <c r="LK2" t="n">
-        <v>394968.3047258841</v>
+        <v>1.260223877119328</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.609711982658</v>
+        <v>317896.7664451199</v>
       </c>
       <c r="LM2" t="n">
-        <v>-623575.2181583683</v>
+        <v>395039.8159437348</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8078758001394</v>
+        <v>3788.592532138655</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.539803619832</v>
+        <v>-623769.5432651169</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402802393175988</v>
+        <v>716.8101497221701</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993679210281395</v>
+        <v>1005.542677166312</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.8155301227224</v>
+        <v>1.402801951892077</v>
       </c>
       <c r="LS2" t="n">
-        <v>136156.7385551684</v>
+        <v>0.999368245041217</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.344476745047891e-06</v>
+        <v>328.8592385353064</v>
       </c>
       <c r="LU2" t="n">
-        <v>97060.52628475016</v>
+        <v>136291.1944022037</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.030284955457857e-05</v>
+        <v>7.337231171728809e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003732875208111381</v>
+        <v>97156.40487837671</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.700135543543147e-05</v>
+        <v>1.029268220918456e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02402858775678504</v>
+        <v>0.003731886927831817</v>
       </c>
       <c r="LZ2" t="n">
-        <v>97121.60601581279</v>
+        <v>1.70049689617636e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.259315350782785</v>
+        <v>0.0240341126698392</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.259315350782785</v>
+        <v>97217.5129319527</v>
       </c>
       <c r="MC2" t="n">
-        <v>317845.7587683189</v>
+        <v>1.260223877119328</v>
       </c>
       <c r="MD2" t="n">
-        <v>394968.3047258841</v>
+        <v>1.260223877119328</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.609711982658</v>
+        <v>317896.7664451199</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8078758001394</v>
+        <v>395039.8159437348</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.539803619832</v>
+        <v>3788.592532138655</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.8155301227224</v>
+        <v>716.8101497221701</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993679210281395</v>
+        <v>1005.542677166312</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.700135543543147e-05</v>
+        <v>328.8592385353064</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02402858775678504</v>
-      </c>
-      <c r="ML2" t="inlineStr">
+        <v>0.999368245041217</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>1.70049689617636e-05</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>0.0240341126698392</v>
+      </c>
+      <c r="MN2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="MM2" t="b">
+      <c r="MO2" t="b">
         <v>1</v>
       </c>
-      <c r="MN2" t="n">
-        <v>0.83165294845849</v>
-      </c>
-      <c r="MO2" t="n">
-        <v>0.4217464914685995</v>
-      </c>
       <c r="MP2" t="n">
-        <v>247906.0168839224</v>
+        <v>0.8298213651487085</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.740321957127781</v>
+        <v>0.420086017619217</v>
       </c>
       <c r="MR2" t="n">
-        <v>381305.730760858</v>
+        <v>247234.4528919992</v>
       </c>
       <c r="MS2" t="n">
+        <v>2.736586426176698</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>381377.2419785146</v>
+      </c>
+      <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
-      <c r="MT2" t="n">
-        <v>135.2466584038218</v>
-      </c>
-      <c r="MU2" t="n">
-        <v>123.2132876957505</v>
-      </c>
       <c r="MV2" t="n">
-        <v>-55.76866812650516</v>
+        <v>135.2735091932223</v>
       </c>
       <c r="MW2" t="n">
-        <v>-24.35240832461349</v>
+        <v>123.0428316953208</v>
       </c>
       <c r="MX2" t="n">
-        <v>253.0894805039093</v>
+        <v>-56.20839668453249</v>
       </c>
       <c r="MY2" t="n">
-        <v>123.2132876957505</v>
+        <v>-24.55185721696588</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-221.0718681265052</v>
+        <v>253.390855986032</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.86711134930984</v>
+        <v>123.0428316953208</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.857907124553</v>
+        <v>-221.5115966845325</v>
       </c>
       <c r="NC2" t="n">
-        <v>59999.99999991209</v>
+        <v>-60.94918436558319</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.883127605977379</v>
+        <v>236.8531194511668</v>
       </c>
       <c r="NE2" t="n">
-        <v>295000.8106205227</v>
+        <v>59999.99999991179</v>
       </c>
       <c r="NF2" t="n">
-        <v>362941.1621550086</v>
+        <v>0.8831455139389341</v>
       </c>
       <c r="NG2" t="n">
-        <v>3799.930300651577</v>
+        <v>294997.379119191</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537102.376076497</v>
+        <v>362936.3529948603</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0325594645068</v>
+        <v>3799.909996458184</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487930699369</v>
+        <v>-537084.1832999324</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402852310865007</v>
+        <v>716.0324975849851</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992718931663342</v>
+        <v>1004.487937157541</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6114265274765</v>
+        <v>1.402852441118875</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.96743357235</v>
+        <v>0.9992718290085967</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188919732717494e-05</v>
+        <v>308.6083020020807</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.3951116919</v>
+        <v>84109.96984331112</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667878794475743e-05</v>
+        <v>1.188919698655112e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004235350389659278</v>
+        <v>59956.39126252466</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534216699786244e-05</v>
+        <v>1.667878901552641e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150522933728274</v>
+        <v>0.004235436775310654</v>
       </c>
       <c r="NU2" t="n">
-        <v>59999.99999991209</v>
+        <v>1.534191315934803e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.883127605977379</v>
+        <v>0.02150484610157146</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.883127605977379</v>
+        <v>59999.99999991179</v>
       </c>
       <c r="NX2" t="n">
-        <v>295000.8106205227</v>
+        <v>0.8831455139389341</v>
       </c>
       <c r="NY2" t="n">
-        <v>362941.1621550086</v>
+        <v>0.8831455139389341</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3799.930300651577</v>
+        <v>294997.379119191</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0325594645068</v>
+        <v>362936.3529948603</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487930699369</v>
+        <v>3799.909996458184</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6114265274765</v>
+        <v>716.0324975849851</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992718931663342</v>
+        <v>1004.487937157541</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534216699786244e-05</v>
+        <v>308.6083020020807</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150522933728274</v>
-      </c>
-      <c r="OG2" t="inlineStr">
+        <v>0.9992718290085967</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>1.534191315934803e-05</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>0.02150484610157146</v>
+      </c>
+      <c r="OI2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="OH2" t="b">
+      <c r="OJ2" t="b">
         <v>1</v>
       </c>
-      <c r="OI2" t="n">
-        <v>245.9911173359495</v>
-      </c>
-      <c r="OJ2" t="n">
-        <v>68472.19874742621</v>
-      </c>
       <c r="OK2" t="n">
-        <v>0.9703827872713678</v>
+        <v>245.9899579031996</v>
       </c>
       <c r="OL2" t="n">
-        <v>301524.9414672827</v>
+        <v>68475.90311742813</v>
       </c>
       <c r="OM2" t="n">
-        <v>372086.991459909</v>
+        <v>0.9704399109111708</v>
       </c>
       <c r="ON2" t="n">
-        <v>3799.930300660147</v>
+        <v>301524.1004803301</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562662.1089982111</v>
+        <v>372085.8141397923</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2042382643912</v>
+        <v>3799.909996466753</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.719254177951</v>
+        <v>-562653.8859270118</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402839023422607</v>
+        <v>716.2042342647987</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992991876489609</v>
+        <v>1004.719346183358</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.5123178639846</v>
+        <v>1.402839159719193</v>
       </c>
       <c r="OU2" t="n">
-        <v>95988.32269610814</v>
+        <v>0.9992991345094357</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.04179338893745e-05</v>
+        <v>314.5115752501726</v>
       </c>
       <c r="OW2" t="n">
-        <v>68424.33172547381</v>
+        <v>95993.51993853279</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.461468420345139e-05</v>
+        <v>1.041736984580133e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.004078408825675808</v>
+        <v>68428.02988030919</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.582419098957029e-05</v>
+        <v>1.4613894360968e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02223540545784109</v>
+        <v>0.004078428943620566</v>
       </c>
       <c r="PB2" t="n">
-        <v>68472.19874742621</v>
+        <v>1.582413100514136e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9703827872713678</v>
+        <v>0.02223531517182878</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9703827872713678</v>
+        <v>68475.90311742813</v>
       </c>
       <c r="PE2" t="n">
-        <v>301524.9414672827</v>
+        <v>0.9704399109111708</v>
       </c>
       <c r="PF2" t="n">
-        <v>372086.991459909</v>
+        <v>0.9704399109111708</v>
       </c>
       <c r="PG2" t="n">
-        <v>3799.930300660147</v>
+        <v>301524.1004803301</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2042382643912</v>
+        <v>372085.8141397923</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.719254177951</v>
+        <v>3799.909996466753</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.5123178639846</v>
+        <v>716.2042342647987</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992991876489609</v>
+        <v>1004.719346183358</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.582419098957029e-05</v>
+        <v>314.5115752501726</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02223540545784109</v>
-      </c>
-      <c r="PN2" t="inlineStr">
+        <v>0.9992991345094357</v>
+      </c>
+      <c r="PN2" t="n">
+        <v>1.582413100514136e-05</v>
+      </c>
+      <c r="PO2" t="n">
+        <v>0.02223531517182878</v>
+      </c>
+      <c r="PP2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="PO2" t="b">
+      <c r="PQ2" t="b">
         <v>1</v>
       </c>
-      <c r="PP2" t="n">
-        <v>268.8330477685598</v>
-      </c>
-      <c r="PQ2" t="n">
-        <v>93363.60412778847</v>
-      </c>
       <c r="PR2" t="n">
-        <v>1.210605936987022</v>
+        <v>268.9044324051455</v>
       </c>
       <c r="PS2" t="n">
-        <v>317846.9217266184</v>
+        <v>93456.81904406747</v>
       </c>
       <c r="PT2" t="n">
-        <v>394968.3047260718</v>
+        <v>1.21149255160097</v>
       </c>
       <c r="PU2" t="n">
-        <v>3799.930300651577</v>
+        <v>317897.9309849165</v>
       </c>
       <c r="PV2" t="n">
-        <v>-626578.539306191</v>
+        <v>395039.815943735</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.7955152658149</v>
+        <v>3799.909996465062</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.462382653691</v>
+        <v>-626772.8248463412</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402718573484417</v>
+        <v>716.797788823467</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993921257919659</v>
+        <v>1005.465250387746</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.8071694780946</v>
+        <v>1.402718125062984</v>
       </c>
       <c r="QB2" t="n">
-        <v>130883.6375523912</v>
+        <v>0.9993924304690743</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.640374447873302e-06</v>
+        <v>328.8508699922281</v>
       </c>
       <c r="QD2" t="n">
-        <v>93307.12519708804</v>
+        <v>131014.3114311309</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.071729514640762e-05</v>
+        <v>7.63275392647208e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003732511350021035</v>
+        <v>93400.31264317498</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.700025151107407e-05</v>
+        <v>1.070660227680804e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.0240264431552032</v>
+        <v>0.003731523193883241</v>
       </c>
       <c r="QI2" t="n">
-        <v>93363.60412778847</v>
+        <v>1.700386466146772e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.210605936987022</v>
+        <v>0.02403196740238911</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.210605936987022</v>
+        <v>93456.81904406747</v>
       </c>
       <c r="QL2" t="n">
-        <v>317846.9217266184</v>
+        <v>1.21149255160097</v>
       </c>
       <c r="QM2" t="n">
-        <v>394968.3047260718</v>
+        <v>1.21149255160097</v>
       </c>
       <c r="QN2" t="n">
-        <v>3799.930300651577</v>
+        <v>317897.9309849165</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.7955152658149</v>
+        <v>395039.815943735</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.462382653691</v>
+        <v>3799.909996465062</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.8071694780946</v>
+        <v>716.797788823467</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993921257919659</v>
+        <v>1005.465250387746</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.700025151107407e-05</v>
+        <v>328.8508699922281</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.0240264431552032</v>
-      </c>
-      <c r="QU2" t="inlineStr">
+        <v>0.9993924304690743</v>
+      </c>
+      <c r="QU2" t="n">
+        <v>1.700386466146772e-05</v>
+      </c>
+      <c r="QV2" t="n">
+        <v>0.02403196740238911</v>
+      </c>
+      <c r="QW2" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="QV2" t="b">
+      <c r="QX2" t="b">
         <v>1</v>
       </c>
-      <c r="QW2" t="n">
-        <v>0.438242549621799</v>
-      </c>
-      <c r="QX2" t="n">
-        <v>0.8200910878501645</v>
-      </c>
       <c r="QY2" t="n">
-        <v>379651.622983561</v>
+        <v>0.438333992687955</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.740321957267588</v>
+        <v>0.8210759540238278</v>
       </c>
       <c r="RA2" t="n">
-        <v>381305.730760858</v>
+        <v>380117.703734906</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.0244734140772957</v>
+        <v>2.736586426036648</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.001918199420802415</v>
+        <v>381377.2419785146</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01189011779734742</v>
+        <v>0.02434338147346002</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03198070534293622</v>
+        <v>0.001878260472335808</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.04237533103210969</v>
+        <v>0.01189985195859623</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.1126377676704914</v>
+        <v>0.03191600446345273</v>
       </c>
       <c r="RH2" t="n">
-        <v>-7.041708882660203e-11</v>
+        <v>0.04236690797792522</v>
       </c>
       <c r="RI2" t="n">
+        <v>0.11240440634577</v>
+      </c>
+      <c r="RJ2" t="n">
+        <v>1.497173773845617e-10</v>
+      </c>
+      <c r="RK2" t="n">
         <v>0</v>
+      </c>
+      <c r="RL2" t="n">
+        <v>360270.8205827872</v>
       </c>
     </row>
     <row r="3">
@@ -4713,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.70781348064675</v>
+        <v>80.60702140400458</v>
       </c>
       <c r="D3" t="n">
-        <v>80.70781348064675</v>
+        <v>80.60702140400458</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.70781348064675</v>
+        <v>80.60702140400458</v>
       </c>
       <c r="H3" t="n">
-        <v>80.70781348064675</v>
+        <v>80.60702140400458</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3526508593171</v>
+        <v>292.3607573311852</v>
       </c>
       <c r="L3" t="n">
-        <v>132772.7763238628</v>
+        <v>132785.6454656261</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582937821077667</v>
+        <v>1.583047263950869</v>
       </c>
       <c r="N3" t="n">
-        <v>334650.1128486643</v>
+        <v>334655.9119384315</v>
       </c>
       <c r="O3" t="n">
-        <v>418527.5555099754</v>
+        <v>418535.6851387768</v>
       </c>
       <c r="P3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687418.3590771486</v>
+        <v>-687440.8955614059</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7129177628079</v>
+        <v>717.7132846903609</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.647672584652</v>
+        <v>1006.64809834323</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577057861082</v>
+        <v>1.402576934015542</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994979659654321</v>
+        <v>0.9994980225844324</v>
       </c>
       <c r="V3" t="n">
-        <v>342.908330703362</v>
+        <v>342.9130892321078</v>
       </c>
       <c r="W3" t="n">
-        <v>186131.5217512821</v>
+        <v>186149.5569906968</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372545126108452e-06</v>
+        <v>5.372024603045266e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132706.8061665938</v>
+        <v>132719.6765297968</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535408536203089e-06</v>
+        <v>7.534677797195287e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433457717824329</v>
+        <v>0.003433362669955797</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817141942490907e-05</v>
+        <v>1.817181606879721e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582432083491224</v>
+        <v>0.02582493179007445</v>
       </c>
       <c r="AD3" t="n">
-        <v>132772.7763238628</v>
+        <v>132785.6454656261</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582937821077667</v>
+        <v>1.583047263950869</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582937821077667</v>
+        <v>1.583047263950869</v>
       </c>
       <c r="AG3" t="n">
-        <v>334650.1128486643</v>
+        <v>334655.9119384315</v>
       </c>
       <c r="AH3" t="n">
-        <v>418527.5555099754</v>
+        <v>418535.6851387768</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7129177628079</v>
+        <v>717.7132846903609</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.647672584652</v>
+        <v>1006.64809834323</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.908330703362</v>
+        <v>342.9130892321078</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994979659654321</v>
+        <v>0.9994980225844324</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817141942490907e-05</v>
+        <v>1.817181606879721e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582432083491224</v>
+        <v>0.02582493179007445</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2353626501727199</v>
+        <v>0.2350654551697327</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353626501727199</v>
+        <v>0.2350654551697327</v>
       </c>
       <c r="DH3" t="n">
-        <v>183919.7315689644</v>
+        <v>183698.7335345051</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.742709943790596</v>
+        <v>2.739474097910213</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5094,1088 +5120,1099 @@
           <t>b''</t>
         </is>
       </c>
-      <c r="DS3" t="n">
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="DT3" t="n">
         <v>0</v>
       </c>
-      <c r="DT3" t="n">
-        <v>270.1892348760546</v>
-      </c>
       <c r="DU3" t="n">
-        <v>111.1594610806332</v>
+        <v>269.898436134024</v>
       </c>
       <c r="DV3" t="n">
-        <v>246.263673437986</v>
+        <v>110.941233966115</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.70634913524611</v>
+        <v>246.043102796375</v>
       </c>
       <c r="DX3" t="n">
-        <v>270.1892348760546</v>
+        <v>65.72930943242591</v>
       </c>
       <c r="DY3" t="n">
-        <v>111.1594610806332</v>
+        <v>269.898436134024</v>
       </c>
       <c r="DZ3" t="n">
-        <v>246.263673437986</v>
+        <v>110.941233966115</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.70634913524611</v>
+        <v>246.043102796375</v>
       </c>
       <c r="EB3" t="n">
-        <v>259.1762751308393</v>
+        <v>65.72930943242591</v>
       </c>
       <c r="EC3" t="n">
-        <v>85445.68968081594</v>
+        <v>259.2546785017714</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.149298936659081</v>
+        <v>85538.65462874492</v>
       </c>
       <c r="EE3" t="n">
-        <v>310937.3972613692</v>
+        <v>1.1502010580337</v>
       </c>
       <c r="EF3" t="n">
-        <v>385283.3197671358</v>
+        <v>310993.4114294974</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.663460326945</v>
+        <v>385361.8481747874</v>
       </c>
       <c r="EH3" t="n">
-        <v>-596648.3636047184</v>
+        <v>3788.654478387212</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.526681109597</v>
+        <v>-596864.5505737858</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.1910289076</v>
+        <v>716.52878238157</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402866153359403</v>
+        <v>1005.193723732375</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.999322534337061</v>
+        <v>1.402865800298143</v>
       </c>
       <c r="EM3" t="n">
-        <v>322.8420505195327</v>
+        <v>0.9993228550508475</v>
       </c>
       <c r="EN3" t="n">
-        <v>119787.9682996735</v>
+        <v>322.8909420291927</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.348083820056956e-06</v>
+        <v>119918.3065323338</v>
       </c>
       <c r="EP3" t="n">
-        <v>85388.02366342701</v>
+        <v>8.339010355607118e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.171124423656517e-05</v>
+        <v>85480.95370693921</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.00387183618143581</v>
+        <v>1.169851243621328e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.650854735877763e-05</v>
+        <v>0.003870667995244213</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02327640878235956</v>
+        <v>1.651257339008972e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>85445.68968081594</v>
+        <v>0.02328254445730767</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.149298936659081</v>
+        <v>85538.65462874492</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.149298936659081</v>
+        <v>1.1502010580337</v>
       </c>
       <c r="EX3" t="n">
-        <v>310937.3972613692</v>
+        <v>1.1502010580337</v>
       </c>
       <c r="EY3" t="n">
-        <v>385283.3197671358</v>
+        <v>310993.4114294974</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.663460326945</v>
+        <v>385361.8481747874</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.526681109597</v>
+        <v>3788.654478387212</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.1910289076</v>
+        <v>716.52878238157</v>
       </c>
       <c r="FC3" t="n">
-        <v>322.8420505195327</v>
+        <v>1005.193723732375</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.999322534337061</v>
+        <v>322.8909420291927</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.650854735877763e-05</v>
+        <v>0.9993228550508475</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02327640878235956</v>
-      </c>
-      <c r="FG3" t="inlineStr">
+        <v>1.651257339008972e-05</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0.02328254445730767</v>
+      </c>
+      <c r="FH3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="FH3" t="b">
+      <c r="FI3" t="b">
         <v>1</v>
       </c>
-      <c r="FI3" t="n">
-        <v>295.5936557656631</v>
-      </c>
       <c r="FJ3" t="n">
-        <v>135263.7146903797</v>
+        <v>295.5936655843835</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.594901895778437</v>
+        <v>135267.9492282449</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.3778505751</v>
+        <v>1.594951795467776</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310885897</v>
+        <v>336974.376256448</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.663460332146</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698120.4516167768</v>
+        <v>3788.654478392414</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8561092236037</v>
+        <v>-698117.8338121141</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.776657235174</v>
+        <v>717.8561202533251</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.402476964811308</v>
+        <v>1006.776726761772</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995303761925558</v>
+        <v>1.402477040115629</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.802714713111</v>
+        <v>0.9995303617788157</v>
       </c>
       <c r="FU3" t="n">
-        <v>189616.1512531104</v>
+        <v>344.8027247808837</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.27381234874419e-06</v>
+        <v>189622.0948463055</v>
       </c>
       <c r="FW3" t="n">
-        <v>135200.9024109867</v>
+        <v>5.273647044193509e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.396400335851146e-06</v>
+        <v>135205.1330770248</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395618199300137</v>
+        <v>7.396168897155047e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.83292492429209e-05</v>
+        <v>0.003395618478668754</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.0260672836372653</v>
+        <v>1.832925033001342e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>135263.7146903797</v>
+        <v>0.0260672857271425</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.594901895778437</v>
+        <v>135267.9492282449</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594901895778437</v>
+        <v>1.594951795467776</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.3778505751</v>
+        <v>1.594951795467776</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310885897</v>
+        <v>336974.376256448</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.663460332146</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8561092236037</v>
+        <v>3788.654478392414</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.776657235174</v>
+        <v>717.8561202533251</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.802714713111</v>
+        <v>1006.776726761772</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995303761925558</v>
+        <v>344.8027247808837</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.83292492429209e-05</v>
+        <v>0.9995303617788157</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.0260672836372653</v>
-      </c>
-      <c r="GN3" t="inlineStr">
+        <v>1.832925033001342e-05</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>0.0260672857271425</v>
+      </c>
+      <c r="GO3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="GO3" t="b">
+      <c r="GP3" t="b">
         <v>1</v>
       </c>
-      <c r="GP3" t="n">
-        <v>295.5936557656631</v>
-      </c>
       <c r="GQ3" t="n">
-        <v>135263.7146903797</v>
+        <v>295.5936655843835</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594901895778437</v>
+        <v>135267.9492282449</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.3778505751</v>
+        <v>1.594951795467776</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310885897</v>
+        <v>336974.376256448</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.663460332146</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698120.4516167768</v>
+        <v>3788.654478392414</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8561092236037</v>
+        <v>-698117.8338121141</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.776657235174</v>
+        <v>717.8561202533251</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.402476964811308</v>
+        <v>1006.776726761772</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995303761925558</v>
+        <v>1.402477040115629</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.802714713111</v>
+        <v>0.9995303617788157</v>
       </c>
       <c r="HB3" t="n">
-        <v>189616.1512531104</v>
+        <v>344.8027247808837</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.27381234874419e-06</v>
+        <v>189622.0948463055</v>
       </c>
       <c r="HD3" t="n">
-        <v>135200.9024109867</v>
+        <v>5.273647044193509e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.396400335851146e-06</v>
+        <v>135205.1330770248</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395618199300137</v>
+        <v>7.396168897155047e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.83292492429209e-05</v>
+        <v>0.003395618478668754</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.0260672836372653</v>
+        <v>1.832925033001342e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>135263.7146903797</v>
+        <v>0.0260672857271425</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.594901895778437</v>
+        <v>135267.9492282449</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594901895778437</v>
+        <v>1.594951795467776</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.3778505751</v>
+        <v>1.594951795467776</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310885897</v>
+        <v>336974.376256448</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.663460332146</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8561092236037</v>
+        <v>3788.654478392414</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.776657235174</v>
+        <v>717.8561202533251</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.802714713111</v>
+        <v>1006.776726761772</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995303761925558</v>
+        <v>344.8027247808837</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.83292492429209e-05</v>
+        <v>0.9995303617788157</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.0260672836372653</v>
-      </c>
-      <c r="HU3" t="inlineStr">
+        <v>1.832925033001342e-05</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>0.0260672857271425</v>
+      </c>
+      <c r="HV3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="HV3" t="b">
+      <c r="HW3" t="b">
         <v>1</v>
       </c>
-      <c r="HW3" t="n">
-        <v>0.8369084338339857</v>
-      </c>
       <c r="HX3" t="n">
-        <v>0.8369084338339857</v>
+        <v>0.8358811010239562</v>
       </c>
       <c r="HY3" t="n">
-        <v>492073.4419778863</v>
+        <v>0.8358811010239562</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.742709943888717</v>
+        <v>491809.72218663</v>
       </c>
       <c r="IA3" t="n">
+        <v>2.739474097879108</v>
+      </c>
+      <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
-      <c r="IB3" t="n">
-        <v>0.01595026541634612</v>
-      </c>
       <c r="IC3" t="n">
-        <v>-1.793957298764442e-07</v>
+        <v>0.01597187822308748</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01379120572413493</v>
+        <v>-1.792898703213425e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02518431608783594</v>
+        <v>0.01379193482753929</v>
       </c>
       <c r="IF3" t="n">
+        <v>0.02517482432426621</v>
+      </c>
+      <c r="IG3" t="n">
         <v>0</v>
       </c>
-      <c r="IG3" t="n">
-        <v>0.0549256078325871</v>
-      </c>
       <c r="IH3" t="n">
-        <v>2.816483157808136e-12</v>
+        <v>0.05493845808502265</v>
       </c>
       <c r="II3" t="n">
+        <v>-1.593725151849412e-13</v>
+      </c>
+      <c r="IJ3" t="n">
         <v>0</v>
       </c>
-      <c r="IJ3" t="n">
+      <c r="IK3" t="n">
+        <v>383878.7067549354</v>
+      </c>
+      <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
-      <c r="IK3" t="n">
-        <v>270.1892348760546</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>111.1594610806332</v>
-      </c>
       <c r="IM3" t="n">
-        <v>246.263673437986</v>
+        <v>269.898436134024</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.70634913524611</v>
+        <v>110.941233966115</v>
       </c>
       <c r="IO3" t="n">
-        <v>137.5173590752806</v>
+        <v>246.043102796375</v>
       </c>
       <c r="IP3" t="n">
-        <v>111.1594610806332</v>
+        <v>65.72930943242591</v>
       </c>
       <c r="IQ3" t="n">
-        <v>80.96047343798597</v>
+        <v>137.2111121501912</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.0668742934737</v>
+        <v>110.941233966115</v>
       </c>
       <c r="IS3" t="n">
-        <v>259.1762751307393</v>
+        <v>80.73990279637502</v>
       </c>
       <c r="IT3" t="n">
-        <v>85445.68968285229</v>
+        <v>36.04607188984437</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.149298936686935</v>
+        <v>259.2546785016845</v>
       </c>
       <c r="IV3" t="n">
-        <v>310937.3972612923</v>
+        <v>85538.65463079124</v>
       </c>
       <c r="IW3" t="n">
-        <v>385283.3197670289</v>
+        <v>1.150201058061621</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.663460319697</v>
+        <v>310993.4114294298</v>
       </c>
       <c r="IY3" t="n">
-        <v>-596648.3636025678</v>
+        <v>385361.8481746936</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5266811096021</v>
+        <v>3788.654478379987</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.191028907645</v>
+        <v>-596864.5505716774</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402866153359456</v>
+        <v>716.5287823815753</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993225343370435</v>
+        <v>1005.19372373242</v>
       </c>
       <c r="JD3" t="n">
-        <v>322.842050519471</v>
+        <v>1.402865800298196</v>
       </c>
       <c r="JE3" t="n">
-        <v>119787.9683025308</v>
+        <v>0.9993228550508302</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.348083819857827e-06</v>
+        <v>322.8909420291391</v>
       </c>
       <c r="JG3" t="n">
-        <v>85388.02366546053</v>
+        <v>119918.3065352049</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.171124423628627e-05</v>
+        <v>8.339010355407459e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.00387183618143764</v>
+        <v>85480.95370898266</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.650854735877283e-05</v>
+        <v>1.169851243593362e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02327640878235254</v>
+        <v>0.003870667995245846</v>
       </c>
       <c r="JL3" t="n">
-        <v>85445.68968285229</v>
+        <v>1.651257339008559e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.149298936686935</v>
+        <v>0.02328254445730165</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.149298936686935</v>
+        <v>85538.65463079124</v>
       </c>
       <c r="JO3" t="n">
-        <v>310937.3972612923</v>
+        <v>1.150201058061621</v>
       </c>
       <c r="JP3" t="n">
-        <v>385283.3197670289</v>
+        <v>1.150201058061621</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.663460319697</v>
+        <v>310993.4114294298</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5266811096021</v>
+        <v>385361.8481746936</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.191028907645</v>
+        <v>3788.654478379987</v>
       </c>
       <c r="JT3" t="n">
-        <v>322.842050519471</v>
+        <v>716.5287823815753</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993225343370435</v>
+        <v>1005.19372373242</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.650854735877283e-05</v>
+        <v>322.8909420291391</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02327640878235254</v>
-      </c>
-      <c r="JX3" t="inlineStr">
+        <v>0.9993228550508302</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>1.651257339008559e-05</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>0.02328254445730165</v>
+      </c>
+      <c r="JZ3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="JY3" t="b">
+      <c r="KA3" t="b">
         <v>1</v>
       </c>
-      <c r="JZ3" t="n">
-        <v>295.593655765663</v>
-      </c>
-      <c r="KA3" t="n">
-        <v>135263.7146903792</v>
-      </c>
       <c r="KB3" t="n">
-        <v>1.594901895778432</v>
+        <v>295.5936655843835</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.3778505751</v>
+        <v>135267.9492282357</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310885897</v>
+        <v>1.594951795467666</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.663460332147</v>
+        <v>336974.376256448</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698120.4516167766</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8561092236037</v>
+        <v>3788.654478392433</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.776657235174</v>
+        <v>-698117.83381212</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402476964811308</v>
+        <v>717.8561202533252</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.9995303761925558</v>
+        <v>1006.776726761772</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8027147131108</v>
+        <v>1.402477040115629</v>
       </c>
       <c r="KL3" t="n">
-        <v>189616.1512531097</v>
+        <v>0.9995303617788158</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.27381234874421e-06</v>
+        <v>344.8027247808837</v>
       </c>
       <c r="KN3" t="n">
-        <v>135200.9024109862</v>
+        <v>189622.0948462924</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.396400335851173e-06</v>
+        <v>5.273647044193871e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395618199300138</v>
+        <v>135205.1330770155</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.83292492429209e-05</v>
+        <v>7.396168897155554e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606728363726529</v>
+        <v>0.003395618478668753</v>
       </c>
       <c r="KS3" t="n">
-        <v>135263.7146903792</v>
+        <v>1.832925033001342e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594901895778432</v>
+        <v>0.0260672857271425</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.594901895778432</v>
+        <v>135267.9492282357</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.3778505751</v>
+        <v>1.594951795467666</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310885897</v>
+        <v>1.594951795467666</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.663460332147</v>
+        <v>336974.376256448</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8561092236037</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.776657235174</v>
+        <v>3788.654478392433</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8027147131108</v>
+        <v>717.8561202533252</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.9995303761925558</v>
+        <v>1006.776726761772</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.83292492429209e-05</v>
+        <v>344.8027247808837</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606728363726529</v>
-      </c>
-      <c r="LE3" t="inlineStr">
+        <v>0.9995303617788158</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>1.832925033001342e-05</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>0.0260672857271425</v>
+      </c>
+      <c r="LG3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="LF3" t="b">
+      <c r="LH3" t="b">
         <v>1</v>
       </c>
-      <c r="LG3" t="n">
-        <v>268.6145399606969</v>
-      </c>
-      <c r="LH3" t="n">
-        <v>96814.79254437303</v>
-      </c>
       <c r="LI3" t="n">
-        <v>1.25640894339935</v>
+        <v>268.6509379601322</v>
       </c>
       <c r="LJ3" t="n">
-        <v>317682.0796456859</v>
+        <v>96863.64303726044</v>
       </c>
       <c r="LK3" t="n">
-        <v>394738.8317907559</v>
+        <v>1.25687238224865</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.663460333576</v>
+        <v>317708.0866336505</v>
       </c>
       <c r="LM3" t="n">
-        <v>-622951.2606726496</v>
+        <v>394775.2928236402</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.8005988039333</v>
+        <v>3788.65447839386</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.530611208682</v>
+        <v>-623050.2864037255</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402803810273776</v>
+        <v>716.8017536793772</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993668811003429</v>
+        <v>1005.532072947833</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.6752350573205</v>
+        <v>1.402803589397473</v>
       </c>
       <c r="LS3" t="n">
-        <v>135726.6042321466</v>
+        <v>0.9993670450844371</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.367752296297055e-06</v>
+        <v>328.6975309792321</v>
       </c>
       <c r="LU3" t="n">
-        <v>96753.8035170134</v>
+        <v>135795.0899722816</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.033551099439887e-05</v>
+        <v>7.36403650679947e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003736050108538628</v>
+        <v>96802.63937063904</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.698975747811727e-05</v>
+        <v>1.033029684419232e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02401085594965768</v>
+        <v>0.00373554529948466</v>
       </c>
       <c r="LZ3" t="n">
-        <v>96814.79254437303</v>
+        <v>1.699160059245438e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.25640894339935</v>
+        <v>0.02401367376731237</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.25640894339935</v>
+        <v>96863.64303726044</v>
       </c>
       <c r="MC3" t="n">
-        <v>317682.0796456859</v>
+        <v>1.25687238224865</v>
       </c>
       <c r="MD3" t="n">
-        <v>394738.8317907559</v>
+        <v>1.25687238224865</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.663460333576</v>
+        <v>317708.0866336505</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.8005988039333</v>
+        <v>394775.2928236402</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.530611208682</v>
+        <v>3788.65447839386</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.6752350573205</v>
+        <v>716.8017536793772</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993668811003429</v>
+        <v>1005.532072947833</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.698975747811727e-05</v>
+        <v>328.6975309792321</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02401085594965768</v>
-      </c>
-      <c r="ML3" t="inlineStr">
+        <v>0.9993670450844371</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>1.699160059245438e-05</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>0.02401367376731237</v>
+      </c>
+      <c r="MN3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="MM3" t="b">
+      <c r="MO3" t="b">
         <v>1</v>
       </c>
-      <c r="MN3" t="n">
-        <v>0.8369084338341457</v>
-      </c>
-      <c r="MO3" t="n">
-        <v>0.4259586347379699</v>
-      </c>
       <c r="MP3" t="n">
-        <v>249491.6870851465</v>
+        <v>0.835881101024095</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.742709943955189</v>
+        <v>0.4249456837900665</v>
       </c>
       <c r="MR3" t="n">
-        <v>381076.2578255356</v>
+        <v>249070.732375898</v>
       </c>
       <c r="MS3" t="n">
+        <v>2.739474097945608</v>
+      </c>
+      <c r="MT3" t="n">
+        <v>381112.7188584201</v>
+      </c>
+      <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
-      <c r="MT3" t="n">
-        <v>142.5958535313113</v>
-      </c>
-      <c r="MU3" t="n">
-        <v>127.2296574341917</v>
-      </c>
       <c r="MV3" t="n">
-        <v>-64.39092881378085</v>
+        <v>142.5752883564967</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.84397151435741</v>
+        <v>127.0782382606417</v>
       </c>
       <c r="MX3" t="n">
-        <v>262.5771858755888</v>
+        <v>-64.6439031193953</v>
       </c>
       <c r="MY3" t="n">
-        <v>127.2296574341917</v>
+        <v>-26.96215513519312</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-229.6941288137808</v>
+        <v>262.7252345558573</v>
       </c>
       <c r="NA3" t="n">
-        <v>-61.01753447693211</v>
+        <v>127.0782382606417</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.1850082381079</v>
+        <v>-229.9471031193953</v>
       </c>
       <c r="NC3" t="n">
-        <v>57500.00000075917</v>
+        <v>-61.07315279139846</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.8559944313642884</v>
+        <v>234.1825947770358</v>
       </c>
       <c r="NE3" t="n">
-        <v>293092.1083319755</v>
+        <v>57500.0000017863</v>
       </c>
       <c r="NF3" t="n">
-        <v>360265.4425195769</v>
+        <v>0.8560032809028244</v>
       </c>
       <c r="NG3" t="n">
-        <v>3800.777122560227</v>
+        <v>293090.3786502051</v>
       </c>
       <c r="NH3" t="n">
-        <v>-529819.5792384018</v>
+        <v>360263.0183872178</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.9876072023264</v>
+        <v>3800.766771145896</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.42156570662</v>
+        <v>-529810.4062220644</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.402847696807673</v>
+        <v>715.987578425242</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.999267092728782</v>
+        <v>1004.421571279903</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.8631782003995</v>
+        <v>1.402847760975195</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.72430513593</v>
+        <v>0.9992670603518329</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622071002211e-05</v>
+        <v>306.861594038437</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.92967302185</v>
+        <v>80604.72538187167</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740403814914217e-05</v>
+        <v>1.240622054429707e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004283552887964576</v>
+        <v>57457.92781238</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.519973813280973e-05</v>
+        <v>1.740403871273161e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02128988124116213</v>
+        <v>0.004283597427671613</v>
       </c>
       <c r="NU3" t="n">
-        <v>57500.00000075917</v>
+        <v>1.519960961214012e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.8559944313642884</v>
+        <v>0.02128968738018862</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.8559944313642884</v>
+        <v>57500.0000017863</v>
       </c>
       <c r="NX3" t="n">
-        <v>293092.1083319755</v>
+        <v>0.8560032809028244</v>
       </c>
       <c r="NY3" t="n">
-        <v>360265.4425195769</v>
+        <v>0.8560032809028244</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3800.777122560227</v>
+        <v>293090.3786502051</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.9876072023264</v>
+        <v>360263.0183872178</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.42156570662</v>
+        <v>3800.766771145896</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.8631782003995</v>
+        <v>715.987578425242</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.999267092728782</v>
+        <v>1004.421571279903</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.519973813280973e-05</v>
+        <v>306.861594038437</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02128988124116213</v>
-      </c>
-      <c r="OG3" t="inlineStr">
+        <v>0.9992670603518329</v>
+      </c>
+      <c r="OG3" t="n">
+        <v>1.519960961214012e-05</v>
+      </c>
+      <c r="OH3" t="n">
+        <v>0.02128968738018862</v>
+      </c>
+      <c r="OI3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="OH3" t="b">
+      <c r="OJ3" t="b">
         <v>1</v>
       </c>
-      <c r="OI3" t="n">
-        <v>244.3380814211421</v>
-      </c>
-      <c r="OJ3" t="n">
-        <v>66682.68428799142</v>
-      </c>
       <c r="OK3" t="n">
-        <v>0.9514184624596875</v>
+        <v>244.3327408007092</v>
       </c>
       <c r="OL3" t="n">
-        <v>300344.5811495948</v>
+        <v>66679.99444866774</v>
       </c>
       <c r="OM3" t="n">
-        <v>370432.2312416455</v>
+        <v>0.9514009196657728</v>
       </c>
       <c r="ON3" t="n">
-        <v>3800.777122568902</v>
+        <v>300340.7596212378</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558242.3587962092</v>
+        <v>370426.8748123944</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1698439208434</v>
+        <v>3800.7667711643</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.669731453391</v>
+        <v>-558224.8875304409</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402837245915139</v>
+        <v>716.1697474248853</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992959094677232</v>
+        <v>1004.66965233833</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.4525509464395</v>
+        <v>1.402837324462249</v>
       </c>
       <c r="OU3" t="n">
-        <v>93479.24409531328</v>
+        <v>0.9992958672658795</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.069756189919957e-05</v>
+        <v>313.4491208028272</v>
       </c>
       <c r="OW3" t="n">
-        <v>66635.84415619948</v>
+        <v>93475.47461481228</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.500693827267985e-05</v>
+        <v>1.069799328776597e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.004105906731481951</v>
+        <v>66633.15338479773</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573743275443688e-05</v>
+        <v>1.500754428092471e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210378607810365</v>
+        <v>0.004105996775631589</v>
       </c>
       <c r="PB3" t="n">
-        <v>66682.68428799142</v>
+        <v>1.573715257579102e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9514184624596875</v>
+        <v>0.0221033616027381</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9514184624596875</v>
+        <v>66679.99444866774</v>
       </c>
       <c r="PE3" t="n">
-        <v>300344.5811495948</v>
+        <v>0.9514009196657728</v>
       </c>
       <c r="PF3" t="n">
-        <v>370432.2312416455</v>
+        <v>0.9514009196657728</v>
       </c>
       <c r="PG3" t="n">
-        <v>3800.777122568902</v>
+        <v>300340.7596212378</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1698439208434</v>
+        <v>370426.8748123944</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.669731453391</v>
+        <v>3800.7667711643</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.4525509464395</v>
+        <v>716.1697474248853</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992959094677232</v>
+        <v>1004.66965233833</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573743275443688e-05</v>
+        <v>313.4491208028272</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210378607810365</v>
-      </c>
-      <c r="PN3" t="inlineStr">
+        <v>0.9992958672658795</v>
+      </c>
+      <c r="PN3" t="n">
+        <v>1.573715257579102e-05</v>
+      </c>
+      <c r="PO3" t="n">
+        <v>0.0221033616027381</v>
+      </c>
+      <c r="PP3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="PO3" t="b">
+      <c r="PQ3" t="b">
         <v>1</v>
       </c>
-      <c r="PP3" t="n">
-        <v>268.6032668415261</v>
-      </c>
-      <c r="PQ3" t="n">
-        <v>92811.72285008771</v>
-      </c>
       <c r="PR3" t="n">
-        <v>1.204478637536272</v>
+        <v>268.6396634129427</v>
       </c>
       <c r="PS3" t="n">
-        <v>317683.3158540648</v>
+        <v>92858.99739986543</v>
       </c>
       <c r="PT3" t="n">
-        <v>394738.8317907622</v>
+        <v>1.204928692900673</v>
       </c>
       <c r="PU3" t="n">
-        <v>3800.777122567146</v>
+        <v>317709.3237358294</v>
       </c>
       <c r="PV3" t="n">
-        <v>-626162.3198673084</v>
+        <v>394775.2928234459</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7874030471107</v>
+        <v>3800.76677116254</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.447971276108</v>
+        <v>-626261.413292756</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402714343195601</v>
+        <v>716.7885573568891</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993927905874417</v>
+        <v>1005.449427526673</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.6663359208049</v>
+        <v>1.402714115909163</v>
       </c>
       <c r="QB3" t="n">
-        <v>130109.6618561179</v>
+        <v>0.9993929447870358</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.685824294170041e-06</v>
+        <v>328.6886272981856</v>
       </c>
       <c r="QD3" t="n">
-        <v>92755.63658934853</v>
+        <v>130175.9337777522</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.078101597671352e-05</v>
+        <v>7.681911479177772e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.003735661199534059</v>
+        <v>92802.89711305805</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.698858015211827e-05</v>
+        <v>1.077552566900729e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.02400856853558414</v>
+        <v>0.003735156447194046</v>
       </c>
       <c r="QI3" t="n">
-        <v>92811.72285008771</v>
+        <v>1.699042302867687e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.204478637536272</v>
+        <v>0.02401138592637005</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.204478637536272</v>
+        <v>92858.99739986543</v>
       </c>
       <c r="QL3" t="n">
-        <v>317683.3158540648</v>
+        <v>1.204928692900673</v>
       </c>
       <c r="QM3" t="n">
-        <v>394738.8317907622</v>
+        <v>1.204928692900673</v>
       </c>
       <c r="QN3" t="n">
-        <v>3800.777122567146</v>
+        <v>317709.3237358294</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7874030471107</v>
+        <v>394775.2928234459</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.447971276108</v>
+        <v>3800.76677116254</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.6663359208049</v>
+        <v>716.7885573568891</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993927905874417</v>
+        <v>1005.449427526673</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.698858015211827e-05</v>
+        <v>328.6886272981856</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.02400856853558414</v>
-      </c>
-      <c r="QU3" t="inlineStr">
+        <v>0.9993929447870358</v>
+      </c>
+      <c r="QU3" t="n">
+        <v>1.699042302867687e-05</v>
+      </c>
+      <c r="QV3" t="n">
+        <v>0.02401138592637005</v>
+      </c>
+      <c r="QW3" t="inlineStr">
         <is>
           <t>air</t>
         </is>
       </c>
-      <c r="QV3" t="b">
+      <c r="QX3" t="b">
         <v>1</v>
       </c>
-      <c r="QW3" t="n">
-        <v>0.4646887070894764</v>
-      </c>
-      <c r="QX3" t="n">
-        <v>0.8556816344517902</v>
-      </c>
       <c r="QY3" t="n">
-        <v>385359.6461391841</v>
+        <v>0.464624088274266</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.742709943929992</v>
+        <v>0.8561685126453094</v>
       </c>
       <c r="RA3" t="n">
-        <v>381076.2578255356</v>
+        <v>385584.1696575243</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02459527084242712</v>
+        <v>2.739474097991548</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.002166430093055108</v>
+        <v>381112.7188584201</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01188681547300846</v>
+        <v>0.02451482902937142</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03204528799580388</v>
+        <v>0.00215443225079865</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04266995612306429</v>
+        <v>0.01189215795639851</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1133637605273589</v>
+        <v>0.03201251962232494</v>
       </c>
       <c r="RH3" t="n">
-        <v>1.085270900924584e-10</v>
+        <v>0.04268282553708506</v>
       </c>
       <c r="RI3" t="n">
+        <v>0.1132567643959786</v>
+      </c>
+      <c r="RJ3" t="n">
+        <v>6.005437813705328e-11</v>
+      </c>
+      <c r="RK3" t="n">
         <v>0</v>
+      </c>
+      <c r="RL3" t="n">
+        <v>357443.5642223978</v>
       </c>
     </row>
   </sheetData>
@@ -6189,7 +6226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM3"/>
+  <dimension ref="A1:JE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6850,717 +6887,677 @@
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
+          <t>h_is_throat_1</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
           <t>dh_s_1</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>incidence_1</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_profile_1</t>
-        </is>
-      </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_incidence_1</t>
+          <t>loss_profile_2</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_secondary_1</t>
+          <t>loss_incidence_2</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_clearance_1</t>
+          <t>loss_trailing_2</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>efficiency_drop_trailing_1</t>
+          <t>loss_secondary_2</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>loss_profile_2</t>
+          <t>loss_clearance_2</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>loss_incidence_2</t>
+          <t>loss_total_2</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>loss_trailing_2</t>
+          <t>loss_error_2</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>loss_secondary_2</t>
+          <t>critical_mach_2</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>loss_clearance_2</t>
+          <t>blade_speed_throat_2</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>loss_total_2</t>
+          <t>v_throat_2</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>loss_error_2</t>
+          <t>v_m_throat_2</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>critical_mach_2</t>
+          <t>v_t_throat_2</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>blade_speed_throat_2</t>
+          <t>alpha_throat_2</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>v_throat_2</t>
+          <t>w_throat_2</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>v_m_throat_2</t>
+          <t>w_m_throat_2</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>v_t_throat_2</t>
+          <t>w_t_throat_2</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>alpha_throat_2</t>
+          <t>beta_throat_2</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>w_throat_2</t>
+          <t>T_throat_2</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>w_m_throat_2</t>
+          <t>p_throat_2</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>w_t_throat_2</t>
+          <t>rhomass_throat_2</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>beta_throat_2</t>
+          <t>umass_throat_2</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>T_throat_2</t>
+          <t>hmass_throat_2</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>p_throat_2</t>
+          <t>smass_throat_2</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>rhomass_throat_2</t>
+          <t>gibbsmass_throat_2</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>umass_throat_2</t>
+          <t>cvmass_throat_2</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>hmass_throat_2</t>
+          <t>cpmass_throat_2</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>smass_throat_2</t>
+          <t>gamma_throat_2</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass_throat_2</t>
+          <t>compressibility_factor_throat_2</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>cvmass_throat_2</t>
+          <t>speed_sound_throat_2</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>cpmass_throat_2</t>
+          <t>isentropic_bulk_modulus_throat_2</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>gamma_throat_2</t>
+          <t>isentropic_compressibility_throat_2</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor_throat_2</t>
+          <t>isothermal_bulk_modulus_throat_2</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound_throat_2</t>
+          <t>isothermal_compressibility_throat_2</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus_throat_2</t>
+          <t>isobaric_expansion_coefficient_throat_2</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility_throat_2</t>
+          <t>viscosity_throat_2</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus_throat_2</t>
+          <t>conductivity_throat_2</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility_throat_2</t>
+          <t>P_throat_2</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient_throat_2</t>
+          <t>rho_throat_2</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>viscosity_throat_2</t>
+          <t>d_throat_2</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>conductivity_throat_2</t>
+          <t>u_throat_2</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>P_throat_2</t>
+          <t>h_throat_2</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>rho_throat_2</t>
+          <t>s_throat_2</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>d_throat_2</t>
+          <t>cv_throat_2</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>u_throat_2</t>
+          <t>cp_throat_2</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>h_throat_2</t>
+          <t>a_throat_2</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>s_throat_2</t>
+          <t>Z_throat_2</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>cv_throat_2</t>
+          <t>mu_throat_2</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>cp_throat_2</t>
+          <t>k_throat_2</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>a_throat_2</t>
+          <t>fluid_name_throat_2</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>Z_throat_2</t>
+          <t>converged_throat_2</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>mu_throat_2</t>
+          <t>T0_throat_2</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>k_throat_2</t>
+          <t>p0_throat_2</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name_throat_2</t>
+          <t>rhomass0_throat_2</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>converged_throat_2</t>
+          <t>umass0_throat_2</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>T0_throat_2</t>
+          <t>hmass0_throat_2</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>p0_throat_2</t>
+          <t>smass0_throat_2</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_throat_2</t>
+          <t>gibbsmass0_throat_2</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>umass0_throat_2</t>
+          <t>cvmass0_throat_2</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_throat_2</t>
+          <t>cpmass0_throat_2</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>smass0_throat_2</t>
+          <t>gamma0_throat_2</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_throat_2</t>
+          <t>compressibility_factor0_throat_2</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_throat_2</t>
+          <t>speed_sound0_throat_2</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_throat_2</t>
+          <t>isentropic_bulk_modulus0_throat_2</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_throat_2</t>
+          <t>isentropic_compressibility0_throat_2</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_throat_2</t>
+          <t>isothermal_bulk_modulus0_throat_2</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_throat_2</t>
+          <t>isothermal_compressibility0_throat_2</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_throat_2</t>
+          <t>isobaric_expansion_coefficient0_throat_2</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_throat_2</t>
+          <t>viscosity0_throat_2</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_throat_2</t>
+          <t>conductivity0_throat_2</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_throat_2</t>
+          <t>P0_throat_2</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_throat_2</t>
+          <t>rho0_throat_2</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_throat_2</t>
+          <t>d0_throat_2</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_throat_2</t>
+          <t>u0_throat_2</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>P0_throat_2</t>
+          <t>h0_throat_2</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>rho0_throat_2</t>
+          <t>s0_throat_2</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>d0_throat_2</t>
+          <t>cv0_throat_2</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>u0_throat_2</t>
+          <t>cp0_throat_2</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>h0_throat_2</t>
+          <t>a0_throat_2</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>s0_throat_2</t>
+          <t>Z0_throat_2</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>cv0_throat_2</t>
+          <t>mu0_throat_2</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>cp0_throat_2</t>
+          <t>k0_throat_2</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>a0_throat_2</t>
+          <t>fluid_name0_throat_2</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>Z0_throat_2</t>
+          <t>converged0_throat_2</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>mu0_throat_2</t>
+          <t>T0_rel_throat_2</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>k0_throat_2</t>
+          <t>p0_rel_throat_2</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_throat_2</t>
+          <t>rhomass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>converged0_throat_2</t>
+          <t>umass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>T0_rel_throat_2</t>
+          <t>hmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>p0_rel_throat_2</t>
+          <t>smass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>rhomass0_rel_throat_2</t>
+          <t>gibbsmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>umass0_rel_throat_2</t>
+          <t>cvmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>hmass0_rel_throat_2</t>
+          <t>cpmass0_rel_throat_2</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>smass0_rel_throat_2</t>
+          <t>gamma0_rel_throat_2</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>gibbsmass0_rel_throat_2</t>
+          <t>compressibility_factor0_rel_throat_2</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>cvmass0_rel_throat_2</t>
+          <t>speed_sound0_rel_throat_2</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>cpmass0_rel_throat_2</t>
+          <t>isentropic_bulk_modulus0_rel_throat_2</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>gamma0_rel_throat_2</t>
+          <t>isentropic_compressibility0_rel_throat_2</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>compressibility_factor0_rel_throat_2</t>
+          <t>isothermal_bulk_modulus0_rel_throat_2</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>speed_sound0_rel_throat_2</t>
+          <t>isothermal_compressibility0_rel_throat_2</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_bulk_modulus0_rel_throat_2</t>
+          <t>isobaric_expansion_coefficient0_rel_throat_2</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>isentropic_compressibility0_rel_throat_2</t>
+          <t>viscosity0_rel_throat_2</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_bulk_modulus0_rel_throat_2</t>
+          <t>conductivity0_rel_throat_2</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>isothermal_compressibility0_rel_throat_2</t>
+          <t>P0_rel_throat_2</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>isobaric_expansion_coefficient0_rel_throat_2</t>
+          <t>rho0_rel_throat_2</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>viscosity0_rel_throat_2</t>
+          <t>d0_rel_throat_2</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>conductivity0_rel_throat_2</t>
+          <t>u0_rel_throat_2</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>P0_rel_throat_2</t>
+          <t>h0_rel_throat_2</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>rho0_rel_throat_2</t>
+          <t>s0_rel_throat_2</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>d0_rel_throat_2</t>
+          <t>cv0_rel_throat_2</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>u0_rel_throat_2</t>
+          <t>cp0_rel_throat_2</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>h0_rel_throat_2</t>
+          <t>a0_rel_throat_2</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>s0_rel_throat_2</t>
+          <t>Z0_rel_throat_2</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>cv0_rel_throat_2</t>
+          <t>mu0_rel_throat_2</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>cp0_rel_throat_2</t>
+          <t>k0_rel_throat_2</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>a0_rel_throat_2</t>
+          <t>fluid_name0_rel_throat_2</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>Z0_rel_throat_2</t>
+          <t>converged0_rel_throat_2</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>mu0_rel_throat_2</t>
+          <t>loss_profile_throat_2</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>k0_rel_throat_2</t>
+          <t>loss_incidence_throat_2</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>fluid_name0_rel_throat_2</t>
+          <t>loss_trailing_throat_2</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>converged0_rel_throat_2</t>
+          <t>loss_secondary_throat_2</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
         <is>
-          <t>loss_profile_throat_2</t>
+          <t>loss_clearance_throat_2</t>
         </is>
       </c>
       <c r="IU1" s="1" t="inlineStr">
         <is>
-          <t>loss_incidence_throat_2</t>
+          <t>loss_total_throat_2</t>
         </is>
       </c>
       <c r="IV1" s="1" t="inlineStr">
         <is>
-          <t>loss_trailing_throat_2</t>
+          <t>loss_error_throat_2</t>
         </is>
       </c>
       <c r="IW1" s="1" t="inlineStr">
         <is>
-          <t>loss_secondary_throat_2</t>
+          <t>Ma_throat_2</t>
         </is>
       </c>
       <c r="IX1" s="1" t="inlineStr">
         <is>
-          <t>loss_clearance_throat_2</t>
+          <t>Ma_rel_throat_2</t>
         </is>
       </c>
       <c r="IY1" s="1" t="inlineStr">
         <is>
-          <t>loss_total_throat_2</t>
+          <t>Re_throat_2</t>
         </is>
       </c>
       <c r="IZ1" s="1" t="inlineStr">
         <is>
-          <t>loss_error_throat_2</t>
+          <t>mass_flow_throat_2</t>
         </is>
       </c>
       <c r="JA1" s="1" t="inlineStr">
         <is>
-          <t>Ma_throat_2</t>
+          <t>rothalpy_throat_2</t>
         </is>
       </c>
       <c r="JB1" s="1" t="inlineStr">
         <is>
-          <t>Ma_rel_throat_2</t>
+          <t>blockage_throat_2</t>
         </is>
       </c>
       <c r="JC1" s="1" t="inlineStr">
         <is>
-          <t>Re_throat_2</t>
+          <t>h_is_throat_2</t>
         </is>
       </c>
       <c r="JD1" s="1" t="inlineStr">
         <is>
-          <t>mass_flow_throat_2</t>
+          <t>dh_s_2</t>
         </is>
       </c>
       <c r="JE1" s="1" t="inlineStr">
         <is>
-          <t>rothalpy_throat_2</t>
-        </is>
-      </c>
-      <c r="JF1" s="1" t="inlineStr">
-        <is>
-          <t>blockage_throat_2</t>
-        </is>
-      </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>dh_s_2</t>
-        </is>
-      </c>
-      <c r="JH1" s="1" t="inlineStr">
-        <is>
           <t>incidence_2</t>
-        </is>
-      </c>
-      <c r="JI1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_profile_2</t>
-        </is>
-      </c>
-      <c r="JJ1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_incidence_2</t>
-        </is>
-      </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_secondary_2</t>
-        </is>
-      </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_clearance_2</t>
-        </is>
-      </c>
-      <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>efficiency_drop_trailing_2</t>
         </is>
       </c>
     </row>
@@ -7569,148 +7566,148 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0159337393772655</v>
+        <v>0.01595362529230444</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788003961120334e-07</v>
+        <v>-1.786050812204584e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379066172769694</v>
+        <v>0.01379133206950267</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02519178354026981</v>
+        <v>0.02518310637913935</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491600584483615</v>
+        <v>0.05492788513586525</v>
       </c>
       <c r="H2" t="n">
-        <v>3.424788230788067e-12</v>
+        <v>-1.011878081325079e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9803285126955369</v>
+        <v>0.9677811191904419</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>276.8866482521855</v>
+        <v>275.2477306589063</v>
       </c>
       <c r="L2" t="n">
-        <v>113.1374588581077</v>
+        <v>112.4677878105801</v>
       </c>
       <c r="M2" t="n">
-        <v>252.7174932280302</v>
+        <v>251.2216350911524</v>
       </c>
       <c r="N2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="O2" t="n">
-        <v>276.8866482521855</v>
+        <v>275.2477306589063</v>
       </c>
       <c r="P2" t="n">
-        <v>113.1374588581077</v>
+        <v>112.4677878105801</v>
       </c>
       <c r="Q2" t="n">
-        <v>252.7174932280302</v>
+        <v>251.2216350911524</v>
       </c>
       <c r="R2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="S2" t="n">
-        <v>257.347117742376</v>
+        <v>257.7988726470297</v>
       </c>
       <c r="T2" t="n">
-        <v>83286.1511425983</v>
+        <v>83814.87751296435</v>
       </c>
       <c r="U2" t="n">
-        <v>1.128222423141299</v>
+        <v>1.133393119890522</v>
       </c>
       <c r="V2" t="n">
-        <v>309630.638954485</v>
+        <v>309953.3718783354</v>
       </c>
       <c r="W2" t="n">
-        <v>383451.3230982245</v>
+        <v>383903.7744721506</v>
       </c>
       <c r="X2" t="n">
-        <v>3788.912938496646</v>
+        <v>3788.854258668025</v>
       </c>
       <c r="Y2" t="n">
-        <v>-591614.5010006838</v>
+        <v>-592858.5820363635</v>
       </c>
       <c r="Z2" t="n">
-        <v>716.4784597910163</v>
+        <v>716.4902164013987</v>
       </c>
       <c r="AA2" t="n">
-        <v>1005.128759491166</v>
+        <v>1005.143964931067</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.402873660408917</v>
+        <v>1.402871863316492</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.9993152779336999</v>
+        <v>0.9993170534663773</v>
       </c>
       <c r="AD2" t="n">
-        <v>321.6992986829123</v>
+        <v>321.9819053441663</v>
       </c>
       <c r="AE2" t="n">
-        <v>116760.233604518</v>
+        <v>117501.5252309925</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.564559774581554e-06</v>
+        <v>8.51052782535488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>83229.32912610535</v>
+        <v>83757.84581865536</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.20149953207582e-05</v>
+        <v>1.193918002816245e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.003899289843953798</v>
+        <v>0.003892473193464101</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.641448192455004e-05</v>
+        <v>1.643773782863037e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.02313309666369787</v>
+        <v>0.0231685196901926</v>
       </c>
       <c r="AL2" t="n">
-        <v>83286.1511425983</v>
+        <v>83814.87751296435</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.128222423141299</v>
+        <v>1.133393119890522</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.128222423141299</v>
+        <v>1.133393119890522</v>
       </c>
       <c r="AO2" t="n">
-        <v>309630.638954485</v>
+        <v>309953.3718783354</v>
       </c>
       <c r="AP2" t="n">
-        <v>383451.3230982245</v>
+        <v>383903.7744721506</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3788.912938496646</v>
+        <v>3788.854258668025</v>
       </c>
       <c r="AR2" t="n">
-        <v>716.4784597910163</v>
+        <v>716.4902164013987</v>
       </c>
       <c r="AS2" t="n">
-        <v>1005.128759491166</v>
+        <v>1005.143964931067</v>
       </c>
       <c r="AT2" t="n">
-        <v>321.6992986829123</v>
+        <v>321.9819053441663</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9993152779336999</v>
+        <v>0.9993170534663773</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.641448192455004e-05</v>
+        <v>1.643773782863037e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.02313309666369787</v>
+        <v>0.0231685196901926</v>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
@@ -7721,97 +7718,97 @@
         <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>295.5933831674595</v>
+        <v>295.59344726418</v>
       </c>
       <c r="BA2" t="n">
-        <v>135146.1511281998</v>
+        <v>135173.7940875501</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.593516528917937</v>
+        <v>1.593842273175004</v>
       </c>
       <c r="BC2" t="n">
-        <v>336974.4221080304</v>
+        <v>336974.4117017416</v>
       </c>
       <c r="BD2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="BE2" t="n">
-        <v>3788.912938497254</v>
+        <v>3788.854258670618</v>
       </c>
       <c r="BF2" t="n">
-        <v>-698193.1629287744</v>
+        <v>-698176.0604134272</v>
       </c>
       <c r="BG2" t="n">
-        <v>717.8558030044421</v>
+        <v>717.85587500651</v>
       </c>
       <c r="BH2" t="n">
-        <v>1006.774726963778</v>
+        <v>1006.775180832938</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.402474874132275</v>
+        <v>1.402475365718513</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.9995307763686812</v>
+        <v>0.999530682273212</v>
       </c>
       <c r="BK2" t="n">
-        <v>344.8024352033584</v>
+        <v>344.8025009247022</v>
       </c>
       <c r="BL2" t="n">
-        <v>189451.1393417571</v>
+        <v>189489.9388950483</v>
       </c>
       <c r="BM2" t="n">
-        <v>5.278405838436618e-06</v>
+        <v>5.27732504338325e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>135083.4462962999</v>
+        <v>135111.063999309</v>
       </c>
       <c r="BO2" t="n">
-        <v>7.402831563880461e-06</v>
+        <v>7.401318370234389e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.003395610443132236</v>
+        <v>0.003395612266864651</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.832921906201927e-05</v>
+        <v>1.832922615850379e-05</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.02606722561618597</v>
+        <v>0.02606723925876132</v>
       </c>
       <c r="BS2" t="n">
-        <v>135146.1511281998</v>
+        <v>135173.7940875501</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.593516528917937</v>
+        <v>1.593842273175004</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.593516528917937</v>
+        <v>1.593842273175004</v>
       </c>
       <c r="BV2" t="n">
-        <v>336974.4221080304</v>
+        <v>336974.4117017416</v>
       </c>
       <c r="BW2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="BX2" t="n">
-        <v>3788.912938497254</v>
+        <v>3788.854258670618</v>
       </c>
       <c r="BY2" t="n">
-        <v>717.8558030044421</v>
+        <v>717.85587500651</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1006.774726963778</v>
+        <v>1006.775180832938</v>
       </c>
       <c r="CA2" t="n">
-        <v>344.8024352033584</v>
+        <v>344.8025009247022</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.9995307763686812</v>
+        <v>0.999530682273212</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.832921906201927e-05</v>
+        <v>1.832922615850379e-05</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.02606722561618597</v>
+        <v>0.02606723925876132</v>
       </c>
       <c r="CE2" t="inlineStr">
         <is>
@@ -7822,97 +7819,97 @@
         <v>1</v>
       </c>
       <c r="CG2" t="n">
-        <v>295.5933831674595</v>
+        <v>295.59344726418</v>
       </c>
       <c r="CH2" t="n">
-        <v>135146.1511281998</v>
+        <v>135173.7940875501</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.593516528917937</v>
+        <v>1.593842273175004</v>
       </c>
       <c r="CJ2" t="n">
-        <v>336974.4221080304</v>
+        <v>336974.4117017416</v>
       </c>
       <c r="CK2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="CL2" t="n">
-        <v>3788.912938497254</v>
+        <v>3788.854258670618</v>
       </c>
       <c r="CM2" t="n">
-        <v>-698193.1629287744</v>
+        <v>-698176.0604134272</v>
       </c>
       <c r="CN2" t="n">
-        <v>717.8558030044421</v>
+        <v>717.85587500651</v>
       </c>
       <c r="CO2" t="n">
-        <v>1006.774726963778</v>
+        <v>1006.775180832938</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.402474874132275</v>
+        <v>1.402475365718513</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.9995307763686812</v>
+        <v>0.999530682273212</v>
       </c>
       <c r="CR2" t="n">
-        <v>344.8024352033584</v>
+        <v>344.8025009247022</v>
       </c>
       <c r="CS2" t="n">
-        <v>189451.1393417571</v>
+        <v>189489.9388950483</v>
       </c>
       <c r="CT2" t="n">
-        <v>5.278405838436618e-06</v>
+        <v>5.27732504338325e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>135083.4462962999</v>
+        <v>135111.063999309</v>
       </c>
       <c r="CV2" t="n">
-        <v>7.402831563880461e-06</v>
+        <v>7.401318370234389e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.003395610443132236</v>
+        <v>0.003395612266864651</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.832921906201927e-05</v>
+        <v>1.832922615850379e-05</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.02606722561618597</v>
+        <v>0.02606723925876132</v>
       </c>
       <c r="CZ2" t="n">
-        <v>135146.1511281998</v>
+        <v>135173.7940875501</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.593516528917937</v>
+        <v>1.593842273175004</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.593516528917937</v>
+        <v>1.593842273175004</v>
       </c>
       <c r="DC2" t="n">
-        <v>336974.4221080304</v>
+        <v>336974.4117017416</v>
       </c>
       <c r="DD2" t="n">
-        <v>421784.4310885896</v>
+        <v>421784.4310885897</v>
       </c>
       <c r="DE2" t="n">
-        <v>3788.912938497254</v>
+        <v>3788.854258670618</v>
       </c>
       <c r="DF2" t="n">
-        <v>717.8558030044421</v>
+        <v>717.85587500651</v>
       </c>
       <c r="DG2" t="n">
-        <v>1006.774726963778</v>
+        <v>1006.775180832938</v>
       </c>
       <c r="DH2" t="n">
-        <v>344.8024352033584</v>
+        <v>344.8025009247022</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.9995307763686812</v>
+        <v>0.999530682273212</v>
       </c>
       <c r="DJ2" t="n">
-        <v>1.832921906201927e-05</v>
+        <v>1.832922615850379e-05</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.02606722561618597</v>
+        <v>0.02606723925876132</v>
       </c>
       <c r="DL2" t="inlineStr">
         <is>
@@ -7923,37 +7920,37 @@
         <v>1</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01612578355687078</v>
+        <v>0.01612381832679476</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.821900015624114e-07</v>
+        <v>-1.81513370428072e-07</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.01379701422308497</v>
+        <v>0.01379698661186935</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.02510725074488792</v>
+        <v>0.02510791097797932</v>
       </c>
       <c r="DR2" t="n">
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.05502986633484211</v>
+        <v>0.05502853440327301</v>
       </c>
       <c r="DT2" t="n">
-        <v>-6.61488225306428e-12</v>
+        <v>-2.504940699310509e-15</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.8607001923404967</v>
+        <v>0.854854655154283</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.8607001923404967</v>
+        <v>0.854854655154283</v>
       </c>
       <c r="DW2" t="n">
-        <v>497860.0756021519</v>
+        <v>496478.0005377696</v>
       </c>
       <c r="DX2" t="n">
-        <v>2.740321957196192</v>
+        <v>2.736586426105478</v>
       </c>
       <c r="DY2" t="n">
         <v>421784.4310884894</v>
@@ -7962,439 +7959,415 @@
         <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>1473.430089254689</v>
+        <v>382377.7567075124</v>
       </c>
       <c r="EB2" t="n">
+        <v>1469.784080631973</v>
+      </c>
+      <c r="EC2" t="n">
         <v>0</v>
       </c>
-      <c r="EC2" t="n">
-        <v>0.006566594196556461</v>
-      </c>
       <c r="ED2" t="n">
-        <v>-7.36870119217911e-08</v>
+        <v>0.02434338147346002</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.01038200862206094</v>
+        <v>0.001878260472335808</v>
       </c>
       <c r="EF2" t="n">
+        <v>0.01189985195859623</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>0.03191600446345273</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.04236690797792522</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.11240440634577</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1.497173773845617e-10</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.9379634650892735</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>165.3032</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>140.4501955842421</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>125.6290992387072</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-62.7979845546248</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>-26.55900698279633</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>260.4089494828316</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>125.6290992387072</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-228.1011845546248</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-61.15576777799676</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>235.052121044763</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>58317.76853238849</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.8649646100817684</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>293711.261416101</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>361133.4054583589</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>3800.425886748271</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>-532164.7600952463</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>716.0019737104772</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1004.443230290016</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1.402849806523262</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.9992684014918048</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>307.4314010852821</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>81751.32256778887</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1.223221800688046e-05</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>58275.17827471242</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1.715996466430261e-05</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.004267799086871201</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1.524601280759865e-05</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>0.02135982793109958</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>58317.76853238849</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.8649646100817684</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.8649646100817684</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>293711.261416101</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>361133.4054583589</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>3800.425886748271</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>716.0019737104772</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1004.443230290016</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>307.4314010852821</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.9992684014918048</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1.524601280759865e-05</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.02135982793109958</v>
+      </c>
+      <c r="FZ2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="GA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>244.901849478585</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>67303.47666434497</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>0.9580643599382868</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>300747.1026382411</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>370996.534178185</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>3800.425886756922</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>-559734.7942948767</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>716.1815062595471</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1004.686858828681</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>1.402838316889711</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.999296852038471</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>313.8143817744511</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>94349.66676009246</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>1.059887156297806e-05</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>67256.26583203037</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1.486850314433836e-05</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0.004096489743779221</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1.576704914504796e-05</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0.02214871044323635</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>67303.47666434497</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>0.9580643599382868</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>0.9580643599382868</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>300747.1026382411</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>370996.534178185</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>3800.425886756922</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>716.1815062595471</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1004.686858828681</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>313.8143817744511</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0.999296852038471</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1.576704914504796e-05</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>0.02214871044323635</v>
+      </c>
+      <c r="HG2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="HH2" t="b">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>268.9039605350202</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>93288.9056358049</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1.209316683703493</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>317897.9829623805</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>395039.8159437222</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>3800.425886741381</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-626909.7567208513</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>716.7972368566878</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>1005.461793155482</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>1.402714382054054</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>0.99939351081105</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>328.8504964616066</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>130778.7096834597</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>7.646504560416808e-06</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>93232.600561174</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1.072586191933857e-05</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0.003731506949981031</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>1.700381535925022e-05</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>0.02403187162950459</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>93288.9056358049</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>1.209316683703493</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>1.209316683703493</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>317897.9829623805</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>395039.8159437222</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>3800.425886741381</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>716.7972368566878</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1005.461793155482</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>328.8504964616066</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>0.99939351081105</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1.700381535925022e-05</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>0.02403187162950459</v>
+      </c>
+      <c r="IN2" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="IO2" t="b">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>0.02422153926379563</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>0.001910144933411382</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>0.01191623495208557</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>0.03182251866160238</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>0.04246812532376748</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>0.1123385631346624</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>7.905734400459608e-11</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>0.4568505204362026</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>0.8470473366206129</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>385010.324163787</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>2.736586426134018</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>381377.2419785146</v>
+      </c>
+      <c r="JB2" t="n">
         <v>0</v>
       </c>
-      <c r="EG2" t="n">
-        <v>0.005683391520572824</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.0244734140772957</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.001918199420802415</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.01189011779734742</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.03198070534293622</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.04237533103210969</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0.1126377676704914</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>-7.041708882660203e-11</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0.9609971910907749</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>165.3032</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>142.8392307301123</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>127.0237014178349</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-65.33012409052193</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>-27.21741322561368</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>263.2997358580729</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>127.0237014178349</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>-230.6333240905219</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>-61.15576777799676</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>234.2245141236721</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>57552.7849903844</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.8566358449663543</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>293120.2727736572</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>360304.9292745125</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>3800.682524734335</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>-529908.0884197184</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>715.9883308784921</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>1004.423000551876</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>1.402848282903556</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.9992669513502416</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>306.8890813203675</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>80678.74190443927</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1.239483879389765e-05</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>57510.66803706942</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1.738807831888571e-05</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.004282836276014972</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>1.520185036835197e-05</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.02129307615166331</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>57552.7849903844</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.8566358449663543</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.8566358449663543</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>293120.2727736572</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>360304.9292745125</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>3800.682524734335</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>715.9883308784921</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>1004.423000551876</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>306.8890813203675</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.9992669513502416</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1.520185036835197e-05</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.02129307615166331</v>
-      </c>
-      <c r="GD2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="GE2" t="b">
-        <v>1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>244.4122702585277</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>66775.34401333112</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0.9524513184564124</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>300397.5209330646</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>370506.4521921974</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>3800.682524752729</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>-558426.9922145299</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>716.1714182518834</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1004.672268655282</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1.402837704843913</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0.9992959140330167</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>313.500187819729</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>93609.17075689248</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1.068271401097066e-05</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>66728.43938658458</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1.498611400465399e-05</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.004104667247683573</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1.574133338766348e-05</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.02210970405283625</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>66775.34401333112</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0.9524513184564124</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0.9524513184564124</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>300397.5209330646</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>370506.4521921974</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>3800.682524752729</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>716.1714182518834</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1004.672268655282</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>313.500187819729</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0.9992959140330167</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1.574133338766348e-05</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0.02210970405283625</v>
-      </c>
-      <c r="HK2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="HL2" t="b">
-        <v>1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>268.8323603387674</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>93119.11300942238</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1.20743690931967</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>317846.99735947</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>394968.3047260721</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>3800.682524744057</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>-626778.1492991783</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>716.7947110182986</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>1005.457345502073</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>1.402713120014086</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0.9993937012270195</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>328.8066257246456</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>130540.5890499024</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>7.660452639889078e-06</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>93062.9272567091</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>1.074541742321895e-05</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>0.003732487672897862</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1.700017969749942e-05</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>0.02402630364840192</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>93119.11300942238</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1.20743690931967</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>1.20743690931967</v>
-      </c>
-      <c r="II2" t="n">
-        <v>317846.99735947</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>394968.3047260721</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>3800.682524744057</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>716.7947110182986</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>1005.457345502073</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>328.8066257246456</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>0.9993937012270195</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>1.700017969749942e-05</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>0.02402630364840192</v>
-      </c>
-      <c r="IR2" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="IS2" t="b">
-        <v>1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>0.02429129783169387</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>0.001965973237290449</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>0.01191299607170352</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>0.03185011009725883</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>0.04251564289078804</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>0.1125360201287347</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>1.594401000115653e-11</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>0.4654425309481756</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>0.8579638438918888</v>
-      </c>
       <c r="JC2" t="n">
-        <v>386655.8847402171</v>
+        <v>358368.2703438241</v>
       </c>
       <c r="JD2" t="n">
-        <v>2.740321957455727</v>
+        <v>2665.532412073109</v>
       </c>
       <c r="JE2" t="n">
-        <v>381305.730760858</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>2666.318025193876</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>6.129678780057461</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>0.008898449694269733</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>0.000697450751892551</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>0.01162807513420813</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>0.01540752549996988</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>0.004323206183839818</v>
+        <v>6.056611494148711</v>
       </c>
     </row>
     <row r="3">
@@ -8402,148 +8375,148 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01595026541634612</v>
+        <v>0.01597187822308748</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.793957298764442e-07</v>
+        <v>-1.792898703213425e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379120572413493</v>
+        <v>0.01379193482753929</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02518431608783594</v>
+        <v>0.02517482432426621</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0549256078325871</v>
+        <v>0.05493845808502265</v>
       </c>
       <c r="H3" t="n">
-        <v>2.816483157808136e-12</v>
+        <v>-1.593725151849412e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9803281699881287</v>
+        <v>0.9678707379513869</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>277.9793036174873</v>
+        <v>276.507466126227</v>
       </c>
       <c r="L3" t="n">
-        <v>113.5839240532273</v>
+        <v>112.982522885405</v>
       </c>
       <c r="M3" t="n">
-        <v>253.7147718134163</v>
+        <v>252.3714095257138</v>
       </c>
       <c r="N3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="O3" t="n">
-        <v>277.9793036174873</v>
+        <v>276.507466126227</v>
       </c>
       <c r="P3" t="n">
-        <v>113.5839240532273</v>
+        <v>112.982522885405</v>
       </c>
       <c r="Q3" t="n">
-        <v>253.7147718134163</v>
+        <v>252.3714095257138</v>
       </c>
       <c r="R3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="S3" t="n">
-        <v>257.04444319494</v>
+        <v>257.4518752237256</v>
       </c>
       <c r="T3" t="n">
-        <v>82933.31637827144</v>
+        <v>83408.53277164997</v>
       </c>
       <c r="U3" t="n">
-        <v>1.124767008017833</v>
+        <v>1.129420032663572</v>
       </c>
       <c r="V3" t="n">
-        <v>309414.4104630424</v>
+        <v>309705.4772493699</v>
       </c>
       <c r="W3" t="n">
-        <v>383148.1844687577</v>
+        <v>383556.2416766159</v>
       </c>
       <c r="X3" t="n">
-        <v>3788.952115951705</v>
+        <v>3788.899353197075</v>
       </c>
       <c r="Y3" t="n">
-        <v>-590780.9024683379</v>
+        <v>-591903.0018379323</v>
       </c>
       <c r="Z3" t="n">
-        <v>716.4706375936362</v>
+        <v>716.4811773128558</v>
       </c>
       <c r="AA3" t="n">
-        <v>1005.118628899076</v>
+        <v>1005.13227639418</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.402874836957594</v>
+        <v>1.402873248064803</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.9993140966021079</v>
+        <v>0.9993156883447564</v>
       </c>
       <c r="AD3" t="n">
-        <v>321.5098142748167</v>
+        <v>321.764854430399</v>
       </c>
       <c r="AE3" t="n">
-        <v>116265.5467135601</v>
+        <v>116931.8168089241</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.601000281396084e-06</v>
+        <v>8.55199232587038e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>82876.63564178291</v>
+        <v>83351.66200526383</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.206612686743575e-05</v>
+        <v>1.199736125161905e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.003903870368724201</v>
+        <v>0.003897707002513259</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.639889159873898e-05</v>
+        <v>1.64198761594252e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.02310935270041582</v>
+        <v>0.02314131260388255</v>
       </c>
       <c r="AL3" t="n">
-        <v>82933.31637827144</v>
+        <v>83408.53277164997</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.124767008017833</v>
+        <v>1.129420032663572</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.124767008017833</v>
+        <v>1.129420032663572</v>
       </c>
       <c r="AO3" t="n">
-        <v>309414.4104630424</v>
+        <v>309705.4772493699</v>
       </c>
       <c r="AP3" t="n">
-        <v>383148.1844687577</v>
+        <v>383556.2416766159</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3788.952115951705</v>
+        <v>3788.899353197075</v>
       </c>
       <c r="AR3" t="n">
-        <v>716.4706375936362</v>
+        <v>716.4811773128558</v>
       </c>
       <c r="AS3" t="n">
-        <v>1005.118628899076</v>
+        <v>1005.13227639418</v>
       </c>
       <c r="AT3" t="n">
-        <v>321.5098142748167</v>
+        <v>321.764854430399</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.9993140966021079</v>
+        <v>0.9993156883447564</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.639889159873898e-05</v>
+        <v>1.64198761594252e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.02310935270041582</v>
+        <v>0.02314131260388255</v>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
@@ -8554,97 +8527,97 @@
         <v>1</v>
       </c>
       <c r="AZ3" t="n">
-        <v>295.5933403805774</v>
+        <v>295.593398005596</v>
       </c>
       <c r="BA3" t="n">
-        <v>135127.6985169979</v>
+        <v>135152.5504030516</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.593299083554155</v>
+        <v>1.593591937893476</v>
       </c>
       <c r="BC3" t="n">
-        <v>336974.4290544895</v>
+        <v>336974.4196989326</v>
       </c>
       <c r="BD3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="BE3" t="n">
-        <v>3788.952115951394</v>
+        <v>3788.899353198072</v>
       </c>
       <c r="BF3" t="n">
-        <v>-698204.5814076402</v>
+        <v>-698189.2034245335</v>
       </c>
       <c r="BG3" t="n">
-        <v>717.8557549405738</v>
+        <v>717.8558196727409</v>
       </c>
       <c r="BH3" t="n">
-        <v>1006.774423990566</v>
+        <v>1006.774832033361</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.402474545981609</v>
+        <v>1.402474987933279</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.9995308391810167</v>
+        <v>0.9995307545857498</v>
       </c>
       <c r="BK3" t="n">
-        <v>344.802391332199</v>
+        <v>344.8024504176052</v>
       </c>
       <c r="BL3" t="n">
-        <v>189425.2393376413</v>
+        <v>189460.1213379624</v>
       </c>
       <c r="BM3" t="n">
-        <v>5.279127551833516e-06</v>
+        <v>5.278155597800879e-06</v>
       </c>
       <c r="BN3" t="n">
-        <v>135065.0105418208</v>
+        <v>135089.8397248107</v>
       </c>
       <c r="BO3" t="n">
-        <v>7.403842016436711e-06</v>
+        <v>7.402481208335755e-06</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.003395609225727222</v>
+        <v>0.003395610865323299</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.832921432487496e-05</v>
+        <v>1.832922070483191e-05</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.02606721650931099</v>
+        <v>0.02606722877439794</v>
       </c>
       <c r="BS3" t="n">
-        <v>135127.6985169979</v>
+        <v>135152.5504030516</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.593299083554155</v>
+        <v>1.593591937893476</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.593299083554155</v>
+        <v>1.593591937893476</v>
       </c>
       <c r="BV3" t="n">
-        <v>336974.4290544895</v>
+        <v>336974.4196989326</v>
       </c>
       <c r="BW3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="BX3" t="n">
-        <v>3788.952115951394</v>
+        <v>3788.899353198072</v>
       </c>
       <c r="BY3" t="n">
-        <v>717.8557549405738</v>
+        <v>717.8558196727409</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1006.774423990566</v>
+        <v>1006.774832033361</v>
       </c>
       <c r="CA3" t="n">
-        <v>344.802391332199</v>
+        <v>344.8024504176052</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.9995308391810167</v>
+        <v>0.9995307545857498</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.832921432487496e-05</v>
+        <v>1.832922070483191e-05</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.02606721650931099</v>
+        <v>0.02606722877439794</v>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
@@ -8655,97 +8628,97 @@
         <v>1</v>
       </c>
       <c r="CG3" t="n">
-        <v>295.5933403805774</v>
+        <v>295.593398005596</v>
       </c>
       <c r="CH3" t="n">
-        <v>135127.6985169979</v>
+        <v>135152.5504030516</v>
       </c>
       <c r="CI3" t="n">
-        <v>1.593299083554155</v>
+        <v>1.593591937893476</v>
       </c>
       <c r="CJ3" t="n">
-        <v>336974.4290544895</v>
+        <v>336974.4196989326</v>
       </c>
       <c r="CK3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="CL3" t="n">
-        <v>3788.952115951394</v>
+        <v>3788.899353198072</v>
       </c>
       <c r="CM3" t="n">
-        <v>-698204.5814076402</v>
+        <v>-698189.2034245335</v>
       </c>
       <c r="CN3" t="n">
-        <v>717.8557549405738</v>
+        <v>717.8558196727409</v>
       </c>
       <c r="CO3" t="n">
-        <v>1006.774423990566</v>
+        <v>1006.774832033361</v>
       </c>
       <c r="CP3" t="n">
-        <v>1.402474545981609</v>
+        <v>1.402474987933279</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.9995308391810167</v>
+        <v>0.9995307545857498</v>
       </c>
       <c r="CR3" t="n">
-        <v>344.802391332199</v>
+        <v>344.8024504176052</v>
       </c>
       <c r="CS3" t="n">
-        <v>189425.2393376413</v>
+        <v>189460.1213379624</v>
       </c>
       <c r="CT3" t="n">
-        <v>5.279127551833516e-06</v>
+        <v>5.278155597800879e-06</v>
       </c>
       <c r="CU3" t="n">
-        <v>135065.0105418208</v>
+        <v>135089.8397248107</v>
       </c>
       <c r="CV3" t="n">
-        <v>7.403842016436711e-06</v>
+        <v>7.402481208335755e-06</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.003395609225727222</v>
+        <v>0.003395610865323299</v>
       </c>
       <c r="CX3" t="n">
-        <v>1.832921432487496e-05</v>
+        <v>1.832922070483191e-05</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.02606721650931099</v>
+        <v>0.02606722877439794</v>
       </c>
       <c r="CZ3" t="n">
-        <v>135127.6985169979</v>
+        <v>135152.5504030516</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.593299083554155</v>
+        <v>1.593591937893476</v>
       </c>
       <c r="DB3" t="n">
-        <v>1.593299083554155</v>
+        <v>1.593591937893476</v>
       </c>
       <c r="DC3" t="n">
-        <v>336974.4290544895</v>
+        <v>336974.4196989326</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="DE3" t="n">
-        <v>3788.952115951394</v>
+        <v>3788.899353198072</v>
       </c>
       <c r="DF3" t="n">
-        <v>717.8557549405738</v>
+        <v>717.8558196727409</v>
       </c>
       <c r="DG3" t="n">
-        <v>1006.774423990566</v>
+        <v>1006.774832033361</v>
       </c>
       <c r="DH3" t="n">
-        <v>344.802391332199</v>
+        <v>344.8024504176052</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.9995308391810167</v>
+        <v>0.9995307545857498</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.832921432487496e-05</v>
+        <v>1.832922070483191e-05</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.02606721650931099</v>
+        <v>0.02606722877439794</v>
       </c>
       <c r="DL3" t="inlineStr">
         <is>
@@ -8756,37 +8729,37 @@
         <v>1</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.01612717665146034</v>
+        <v>0.01612531557353632</v>
       </c>
       <c r="DO3" t="n">
-        <v>-1.826451165354492e-07</v>
+        <v>-1.820328153605661e-07</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.01379703184927594</v>
+        <v>0.01379700796025314</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.02510682920286213</v>
+        <v>0.02510740051178982</v>
       </c>
       <c r="DR3" t="n">
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.05503085505848189</v>
+        <v>0.05502954201276392</v>
       </c>
       <c r="DT3" t="n">
-        <v>-2.908728813366679e-12</v>
+        <v>-3.603367604299024e-13</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.8646059662112809</v>
+        <v>0.859346390132358</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.8646059662112809</v>
+        <v>0.859346390132358</v>
       </c>
       <c r="DW3" t="n">
-        <v>498767.6485834594</v>
+        <v>497542.5313279555</v>
       </c>
       <c r="DX3" t="n">
-        <v>2.74270994381798</v>
+        <v>2.739474097884628</v>
       </c>
       <c r="DY3" t="n">
         <v>421784.4310884894</v>
@@ -8795,439 +8768,415 @@
         <v>0</v>
       </c>
       <c r="EA3" t="n">
-        <v>1485.007526013942</v>
+        <v>382020.7369443055</v>
       </c>
       <c r="EB3" t="n">
+        <v>1483.141419851978</v>
+      </c>
+      <c r="EC3" t="n">
         <v>0</v>
       </c>
-      <c r="EC3" t="n">
-        <v>0.006324364428836428</v>
-      </c>
       <c r="ED3" t="n">
-        <v>-7.113135381139243e-08</v>
+        <v>0.02451482902937142</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.009985714260732925</v>
+        <v>0.00215443225079865</v>
       </c>
       <c r="EF3" t="n">
+        <v>0.01189215795639851</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0.03201251962232494</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0.04268282553708506</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0.1132567643959786</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>6.005437813705328e-11</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0.9384151266761984</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>165.3032</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>145.4521741418203</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>128.5369818157429</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>-68.07774429490016</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>-27.90728134182273</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>266.4365231237638</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>128.5369818157429</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>-233.3809442949002</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>-61.15576777799676</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>233.201700059851</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>56609.23433985264</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0.8462886507230625</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>292389.9167267599</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>359281.0823964002</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>3801.043288492974</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>-527128.674481248</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>715.9717730461643</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>1004.398116120782</v>
+      </c>
+      <c r="FD3" t="n">
+        <v>1.402845969537992</v>
+      </c>
+      <c r="FE3" t="n">
+        <v>0.9992653354508528</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>306.2175310710239</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>79355.78972015769</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>1.260147499667543e-05</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>56567.71409215539</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>1.767792840931991e-05</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0.004301565591285836</v>
+      </c>
+      <c r="FL3" t="n">
+        <v>1.514718864595288e-05</v>
+      </c>
+      <c r="FM3" t="n">
+        <v>0.02121047961229065</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>56609.23433985264</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0.8462886507230625</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>0.8462886507230625</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>292389.9167267599</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>359281.0823964002</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>3801.043288492974</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>715.9717730461643</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>1004.398116120782</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>306.2175310710239</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0.9992653354508528</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>1.514718864595288e-05</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>0.02121047961229065</v>
+      </c>
+      <c r="FZ3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="GA3" t="b">
+        <v>1</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>243.7657103887737</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>66077.7847027737</v>
+      </c>
+      <c r="GD3" t="n">
+        <v>0.9450026382001244</v>
+      </c>
+      <c r="GE3" t="n">
+        <v>299935.8633900806</v>
+      </c>
+      <c r="GF3" t="n">
+        <v>369859.2498777916</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>3801.043288501648</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>-556704.7675622933</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>716.1582272497777</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>1004.653035361032</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>1.402836687667675</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>0.9992947564415765</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>313.0847706804387</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>92631.11818410849</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>1.079550824391923e-05</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>66031.29145283111</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>1.514433502658874e-05</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0.004115516130204761</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>1.570734104011767e-05</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0.02205815272648845</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>66077.7847027737</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0.9450026382001244</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>0.9450026382001244</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>299935.8633900806</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>369859.2498777916</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>3801.043288501648</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>716.1582272497777</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>1004.653035361032</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>313.0847706804387</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0.9992947564415765</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>1.570734104011767e-05</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>0.02205815272648845</v>
+      </c>
+      <c r="HG3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="HH3" t="b">
+        <v>1</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>268.6394115134096</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>92769.53420151347</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>1.203768259264406</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>317709.35136208</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>394775.2928234396</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>3801.043288492974</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>-626334.7393343081</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>716.7882625206952</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>1005.44758115165</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>1.402712116986738</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0.9993935236460887</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>328.6884284588024</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>130050.4075739259</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>7.689326151719744e-06</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>92713.54114577413</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>1.078591096448029e-05</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>0.003735147758433165</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>1.699039672448503e-05</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0.02401133482324138</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>92769.53420151347</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>1.203768259264406</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>1.203768259264406</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>317709.35136208</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>394775.2928234396</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>3801.043288492974</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>716.7882625206952</v>
+      </c>
+      <c r="II3" t="n">
+        <v>1005.44758115165</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>328.6884284588024</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>0.9993935236460887</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>1.699039672448503e-05</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>0.02401133482324138</v>
+      </c>
+      <c r="IN3" t="inlineStr">
+        <is>
+          <t>air</t>
+        </is>
+      </c>
+      <c r="IO3" t="b">
+        <v>1</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>0.02445060329164753</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>0.002174219648202877</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>0.01189873409971201</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>0.03197489170119146</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>0.04272264878352321</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>0.1132210975242771</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>2.553884881351109e-11</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>0.4749962343210332</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>0.8700890579055928</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>387931.1479368864</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>2.739474098656393</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>381112.7188584201</v>
+      </c>
+      <c r="JB3" t="n">
         <v>0</v>
       </c>
-      <c r="EG3" t="n">
-        <v>0.005468285864578719</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0.02459527084242712</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0.002166430093055108</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>0.01188681547300846</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>0.03204528799580388</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0.04266995612306429</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>0.1133637605273589</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>1.085270900924584e-10</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0.960748382560604</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>165.3032</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>147.700768094304</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>129.8298938756381</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>-70.42524797178865</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>-28.47728425136097</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>269.1165222110075</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>129.8298938756381</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>-235.7284479717887</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>-61.15576777799676</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>232.4483844144154</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>55930.36239808379</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>0.8388505531619856</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>291851.9784220101</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>358526.9805272818</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>3801.26498992574</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>-525070.9251120356</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>715.9598606106475</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>1004.380299071973</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>1.402844425126472</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>0.9992640790985644</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>305.7219838826995</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>78403.94828116246</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>1.275445971692554e-05</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>55889.26817319323</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>1.789252270938915e-05</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0.004315467363375299</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>1.510687330724698e-05</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>0.02114958132905691</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>55930.36239808379</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0.8388505531619856</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>0.8388505531619856</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>291851.9784220101</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>358526.9805272818</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>3801.26498992574</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>715.9598606106475</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>1004.380299071973</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>305.7219838826995</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0.9992640790985644</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>1.510687330724698e-05</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0.02114958132905691</v>
-      </c>
-      <c r="GD3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="GE3" t="b">
-        <v>1</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>243.3416299218891</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>65626.7466719623</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0.9401885600363705</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>299633.0529498983</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>369434.7389749053</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>3801.264989944317</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>-555571.2794431583</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>716.149683731669</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>1004.640612356212</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>1.402836076281277</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0.9992939778463826</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>312.8119994179341</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>91998.71701460032</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>1.086971680095602e-05</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>65580.51833003615</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>1.524843086734183e-05</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>0.004122663927481748</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>1.568502721407521e-05</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0.02202431925012338</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>65626.7466719623</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0.9401885600363705</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0.9401885600363705</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>299633.0529498983</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>369434.7389749053</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>3801.264989944317</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>716.149683731669</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>1004.640612356212</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>312.8119994179341</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0.9992939778463826</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>1.568502721407521e-05</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>0.02202431925012338</v>
-      </c>
-      <c r="HK3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="HL3" t="b">
-        <v>1</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>268.6028226783388</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>92654.01884830213</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>1.202432768890235</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>317683.3645366083</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>394738.8317905618</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>3801.264989942598</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>-626291.6742563671</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>716.7868831322744</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>1005.444715454185</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>1.402710818396271</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>0.9993938117838312</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>328.6659854534352</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>129888.3869239845</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>7.698917691427155e-06</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>92598.12159464686</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>1.079935513570731e-05</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0.003735645874838856</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>1.698853377476824e-05</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0.02400847843350777</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>92654.01884830213</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>1.202432768890235</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>1.202432768890235</v>
-      </c>
-      <c r="II3" t="n">
-        <v>317683.3645366083</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>394738.8317905618</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>3801.264989942598</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>716.7868831322744</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>1005.444715454185</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>328.6659854534352</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>0.9993938117838312</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>1.698853377476824e-05</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>0.02400847843350777</v>
-      </c>
-      <c r="IR3" t="inlineStr">
-        <is>
-          <t>air</t>
-        </is>
-      </c>
-      <c r="IS3" t="b">
-        <v>1</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>0.02448128052809432</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>0.002201763969726554</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>0.01189781238269827</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>0.03198236065846898</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>0.04273633085222845</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0.1132995483912166</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>2.024219958318696e-10</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>0.4831211881412308</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0.8802655235753774</v>
-      </c>
       <c r="JC3" t="n">
-        <v>389425.8543463267</v>
+        <v>356409.7355695459</v>
       </c>
       <c r="JD3" t="n">
-        <v>2.742709944597027</v>
+        <v>2819.454164819967</v>
       </c>
       <c r="JE3" t="n">
-        <v>381076.2578255356</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>2819.800087710493</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>6.466874293473701</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>0.008972033267808542</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0.0007902853760708522</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>0.01168970213082174</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>0.01556544216669762</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0.004336154887473842</v>
+        <v>6.446071889844369</v>
       </c>
     </row>
   </sheetData>
@@ -9266,7 +9215,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4091092861012783</v>
+        <v>0.4116004983370839</v>
       </c>
     </row>
     <row r="3">
@@ -9274,7 +9223,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4294021614300496</v>
+        <v>0.4307135950131913</v>
       </c>
     </row>
   </sheetData>
@@ -10380,7 +10329,7 @@
         <v>99</v>
       </c>
       <c r="H2" t="n">
-        <v>8.511715613121737e-11</v>
+        <v>1.70513193888009e-10</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -10411,7 +10360,7 @@
         <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>2.444091432201107e-10</v>
+        <v>1.121151705085585e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
